--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,24 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>tessssssssssssssssssssssssssssssssssssssssssssssssssssssste lengthhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12500</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,13 +479,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Test 4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1543</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PRJ-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>tessssssssssssssssssssssssssssssssssssssssssssssssssssssste lengthhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>12500</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>PRJ-01</t>
         </is>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>invoice_amount</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>project_code</t>
         </is>
       </c>
@@ -464,10 +459,7 @@
           <t>Test Co</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>PRJ-01</t>
         </is>
@@ -482,10 +474,7 @@
           <t>Test 4</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1543</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>PRJ-02</t>
         </is>
@@ -493,17 +482,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tessssssssssssssssssssssssssssssssssssssssssssssssssssssste lengthhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12500</v>
-      </c>
-      <c r="D4" t="inlineStr">
+          <t>Test 2 Co</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>PRJ-01</t>
         </is>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,31 +467,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Test 4</t>
+          <t>Test 2 Co</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PRJ-02</t>
+          <t>PRJ-01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Test 2 Co</t>
+          <t>Test 4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
+          <t>PRJ-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Test 4 Dup1675</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PRJ-02</t>
         </is>
       </c>
     </row>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>invoice_amount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>project_code</t>
         </is>
       </c>
@@ -459,7 +464,10 @@
           <t>Test Co</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>PRJ-01</t>
         </is>
@@ -467,44 +475,17 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Test 2 Co</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>PRJ-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>Test 4</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PRJ-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1005</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Test 4 Dup1675</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1543</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>PRJ-02</t>
         </is>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,42 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Test 6</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>512</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PRJ-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>101</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Test Wrong ID</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,15 +457,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test Co</t>
+          <t>Test Wrong ID</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1200</v>
+        <v>54</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -475,53 +475,71 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Test 4</t>
+          <t>Test Co</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1543</v>
+        <v>1200</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRJ-02</t>
+          <t>PRJ-01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Test 6</t>
+          <t>Test 4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>512</v>
+        <v>1543</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRJ-03</t>
+          <t>PRJ-02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101</v>
+        <v>1006</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Test Wrong ID</t>
+          <t>Test 6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>512</v>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>PRJ-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>tessssssssssssssssssssssssssssssssssssssssssssssssssssssste lengthhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12500</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>PRJ-01</t>
         </is>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,15 +457,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test Wrong ID</t>
+          <t>Test Co</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>1200</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -475,71 +475,53 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Test Co</t>
+          <t>Test 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1200</v>
+        <v>1543</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
+          <t>PRJ-02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Test 4</t>
+          <t>Test 6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1543</v>
+        <v>512</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRJ-02</t>
+          <t>PRJ-03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Test 6</t>
+          <t>tessssssssssssssssssssssssssssssssssssssssssssssssssssssste lengthhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>512</v>
+        <v>12500</v>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>PRJ-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1007</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>tessssssssssssssssssssssssssssssssssssssssssssssssssssssste lengthhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12500</v>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>PRJ-01</t>
         </is>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -457,15 +457,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test Co</t>
+          <t>Test Wrong ID</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1200</v>
+        <v>54</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -475,55 +475,55 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Test 4</t>
+          <t>Test Co</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1543</v>
+        <v>1200</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRJ-02</t>
+          <t>PRJ-01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Test 6</t>
+          <t>Test 4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>512</v>
+        <v>1543</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRJ-03</t>
+          <t>PRJ-02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tessssssssssssssssssssssssssssssssssssssssssssssssssssssste lengthhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
+          <t>Test 6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12500</v>
+        <v>512</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
+          <t>PRJ-03</t>
         </is>
       </c>
     </row>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -457,15 +457,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>101</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test Wrong ID</t>
+          <t>Test Co</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>1200</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -475,51 +475,51 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Test Co</t>
+          <t>Test 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1200</v>
+        <v>1543</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
+          <t>PRJ-02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Test 4</t>
+          <t>Test 6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1543</v>
+        <v>512</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRJ-02</t>
+          <t>PRJ-03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Test 6</t>
+          <t>f</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>512</v>
+        <v>8700</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,24 +509,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1008</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8700</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PRJ-03</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,24 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10001</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ekijkhk</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5465</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PRJ-02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,24 +509,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>10001</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ekijkhk</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5465</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PRJ-02</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,24 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test 9</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>525</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PRJ-2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,109 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>customer_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>customer_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>invoice_amount</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>project_code</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Test Co</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1200</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PRJ-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1004</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Test 4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1543</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PRJ-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1006</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Test 6</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>512</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PRJ-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1009</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>test 9</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>525</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PRJ-2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,127 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>customer_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>customer_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>invoice_amount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Test Co</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Test 4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1543</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PRJ-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Test 6</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>512</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PRJ-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>test 9</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>525</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PRJ-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Test Coorect</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1520</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,42 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ok test</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1522</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PRJ-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>test PRJ</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PRJ-564</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>project_code</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +477,11 @@
           <t>PRJ-01</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -490,6 +500,11 @@
           <t>PRJ-02</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -508,76 +523,124 @@
           <t>PRJ-03</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>test 9</t>
+          <t>tessssssssssssssssssssssssssssssssssssssssssssssssssssssste lengthhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>525</v>
+        <v>12500</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PRJ-2</t>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Deactive</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Test Coorect</t>
+          <t>test 9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1520</v>
+        <v>525</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
+          <t>PRJ-2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ok test</t>
+          <t>Test Coorect</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PRJ-05</t>
+          <t>PRJ-01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Deactive</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>ok test</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1522</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PRJ-05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>test PRJ</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>PRJ-564</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Active</t>
         </is>
       </c>
     </row>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,111 +462,111 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1001</v>
+        <v>2000</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Test Co</t>
+          <t>Company_0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1200</v>
+        <v>3059.52</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
+          <t>PRJ-416</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Suspend</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1004</v>
+        <v>2001</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Test 4</t>
+          <t>Company_1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1543</v>
+        <v>2577.59</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRJ-02</t>
+          <t>PRJ-395</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1006</v>
+        <v>2002</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Test 6</t>
+          <t>Company_2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>512</v>
+        <v>1333.69</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRJ-03</t>
+          <t>PRJ-218</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1007</v>
+        <v>2003</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tessssssssssssssssssssssssssssssssssssssssssssssssssssssste lengthhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
+          <t>Company_3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12500</v>
+        <v>290.22</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
+          <t>PRJ-857</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1009</v>
+        <v>2004</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test 9</t>
+          <t>Company_4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>525</v>
+        <v>441.58</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PRJ-2</t>
+          <t>PRJ-162</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -577,42 +577,42 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1011</v>
+        <v>2005</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Test Coorect</t>
+          <t>Company_5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1520</v>
+        <v>213.04</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PRJ-01</t>
+          <t>PRJ-322</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Suspend</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1013</v>
+        <v>2006</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ok test</t>
+          <t>Company_6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1522</v>
+        <v>1392.54</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PRJ-05</t>
+          <t>PRJ-264</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -623,24 +623,4141 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1015</v>
+        <v>2007</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>test PRJ</t>
+          <t>Company_7</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>1633.86</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PRJ-564</t>
+          <t>PRJ-860</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Company_8</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>422.32</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PRJ-102</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Company_9</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3874.54</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PRJ-576</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5555</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Company_10</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3522.09</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PRJ-322</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Company_12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3534.6</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PRJ-168</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Company_13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1582.24</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PRJ-128</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Company_14</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2306.4</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PRJ-923</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Company_15</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1230.17</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PRJ-989</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Company_16</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4943.03</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PRJ-545</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Company_17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4969.52</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PRJ-123</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Company_18</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2903.01</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PRJ-255</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Company_19</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1762.59</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PRJ-929</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Company_21</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1900.04</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PRJ-124</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Company_22</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3241.23</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PRJ-234</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Company_23</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1400.88</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PRJ-421</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Company_24</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2597.79</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PRJ-243</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Company_25</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4583.09</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PRJ-302</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Company_26</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4734.27</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PRJ-774</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Company_27</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1807.4</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PRJ-884</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Company_28</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1546.6</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PRJ-502</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Company_29</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2500.73</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PRJ-574</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Company_31</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1781.09</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PRJ-649</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Company_32</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>900.7</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PRJ-496</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Company_33</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1822.67</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PRJ-288</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Company_34</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2870.73</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PRJ-119</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Company_35</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1953.33</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PRJ-212</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Company_36</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2441.05</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PRJ-162</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Company_37</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4561.14</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PRJ-245</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Company_38</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2506.23</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PRJ-860</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Company_39</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>639.15</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PRJ-476</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Company_41</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3895.4</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PRJ-486</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Company_42</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4130.78</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PRJ-955</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Company_43</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1123.48</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PRJ-835</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Company_44</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>703.99</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>PRJ-746</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Company_45</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>397.58</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>PRJ-846</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2046</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Company_46</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4367.91</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>PRJ-166</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Company_47</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1993.25</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PRJ-469</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2048</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Company_48</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4743.99</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PRJ-188</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Company_49</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>3098.11</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>PRJ-907</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2051</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Company_51</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>4120.61</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>PRJ-960</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Company_52</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3593</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>PRJ-668</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2053</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Company_53</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1741.46</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>PRJ-958</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2054</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Company_54</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>320.88</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PRJ-818</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2055</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Company_55</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3410.17</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>PRJ-102</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2056</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Company_56</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1956.02</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PRJ-883</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2057</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Company_57</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1768.12</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>PRJ-195</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2058</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Company_58</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4354.59</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PRJ-725</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2059</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Company_59</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>4708.61</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PRJ-142</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2060</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>XXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXX</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>540.0700000000001</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PRJ-209</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2061</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Company_61</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2721.69</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>PRJ-839</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2062</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Company_62</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>400.62</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>PRJ-127</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2063</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Company_63</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>2650.76</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PRJ-932</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2064</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Company_64</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1454.24</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PRJ-411</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2065</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Company_65</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1143.32</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PRJ-482</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2066</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Company_66</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1201.13</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PRJ-701</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2067</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Company_67</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2097.92</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PRJ-775</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2068</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Company_68</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2956.17</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PRJ-340</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2069</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Company_69</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1560.13</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PRJ-923</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Company_71</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2668.6</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PRJ-897</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2072</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Company_72</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>4658.91</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>PRJ-958</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2073</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Company_73</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>4754.84</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PRJ-482</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2074</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Company_74</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>401.22</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PRJ-614</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2075</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Company_75</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2966.9</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PRJ-470</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2076</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Company_76</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2157.03</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PRJ-987</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2077</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Company_77</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>3266.35</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PRJ-738</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2078</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Company_78</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>3666.06</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PRJ-858</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2079</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Company_79</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2257.64</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>PRJ-341</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2081</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Company_81</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>4847.38</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>PRJ-325</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2082</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Company_82</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1184.41</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>PRJ-916</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2083</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Company_83</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2806.79</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>PRJ-503</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2084</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Company_84</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2528.11</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>PRJ-469</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2085</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Company_85</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2175.72</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>PRJ-804</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2086</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Company_86</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>3784.94</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>PRJ-124</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2087</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Company_87</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>3845.99</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>PRJ-771</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2088</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Company_88</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>3784.13</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>PRJ-701</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2089</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Company_89</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>2315.48</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>PRJ-764</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2091</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Company_91</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2719.73</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>PRJ-809</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2092</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Company_92</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2856.45</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>PRJ-869</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2093</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Company_93</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3158.32</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>PRJ-167</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2094</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Company_94</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1974.62</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>PRJ-192</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2095</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Company_95</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>3118.94</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>PRJ-482</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2096</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Company_96</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>4672.72</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>PRJ-567</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2097</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Company_97</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>813.1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>PRJ-174</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2098</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Company_98</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4554.24</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>PRJ-610</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2099</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Company_99</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1941.57</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>PRJ-157</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2101</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Company_101</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>915.92</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>PRJ-759</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2102</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Company_102</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>441.06</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>PRJ-924</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>2103</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Company_103</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1453.14</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>PRJ-119</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>2104</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Company_104</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3182.66</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>PRJ-986</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>2105</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Company_105</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3770.86</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>PRJ-463</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>2106</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Company_106</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1974.37</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>PRJ-264</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2107</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Company_107</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>3477.04</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>PRJ-427</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2108</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Company_108</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>4049.55</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>PRJ-822</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2109</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Company_109</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2999.06</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>PRJ-883</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2111</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Company_111</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2173.14</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>PRJ-354</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2112</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Company_112</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2951.84</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>PRJ-469</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2113</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Company_113</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1231.7</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>PRJ-141</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2114</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Company_114</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1307.66</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>PRJ-295</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2115</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Company_115</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2492.43</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>PRJ-628</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2116</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Company_116</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1672.2</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>PRJ-835</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2117</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Company_117</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>3533.65</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>PRJ-516</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2118</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Company_118</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2472.06</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>PRJ-134</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2119</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Company_119</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>954.28</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>PRJ-678</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2121</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Company_121</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>3587.65</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>PRJ-107</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2122</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Company_122</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>361.83</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>PRJ-790</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Company_123</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>744.6900000000001</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>PRJ-975</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2124</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Company_124</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1484.57</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>PRJ-596</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2125</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Company_125</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>4296.46</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>PRJ-489</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2126</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Company_126</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>3376.11</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>PRJ-880</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2127</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Company_127</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>4622.69</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>PRJ-384</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2128</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Company_128</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1554.43</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>PRJ-825</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2129</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Company_129</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2478.41</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>PRJ-349</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2131</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Company_131</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>3191.93</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>PRJ-604</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2132</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Company_132</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>4429.73</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>PRJ-491</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2133</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Company_133</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>3870.72</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>PRJ-622</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2134</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Company_134</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>3827.47</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>PRJ-596</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2135</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Company_135</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1813.07</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>PRJ-352</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2136</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Company_136</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1497.32</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>PRJ-703</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2137</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Company_137</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1672.59</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>PRJ-194</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2138</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Company_138</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>4927.63</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>PRJ-884</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2139</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Company_139</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>3354.63</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>PRJ-225</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2141</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Company_141</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>4037.02</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>PRJ-494</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2142</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Company_142</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>3053.03</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>PRJ-402</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2143</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Company_143</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1616</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>PRJ-642</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2144</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Company_144</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>2539.71</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>PRJ-920</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2145</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Company_145</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>2645.89</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>PRJ-359</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2146</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Company_146</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>4709.75</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>PRJ-425</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2147</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Company_147</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>4391.64</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>PRJ-610</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2148</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Company_148</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1611.96</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>PRJ-726</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2149</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Company_149</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1899.04</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>PRJ-153</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2150</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Company_150</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>245.65</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>PRJ-536</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2151</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Company_151</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2305.11</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>PRJ-203</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2152</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Company_152</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>4300.62</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>PRJ-945</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2153</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Company_153</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>3782.13</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>PRJ-697</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2154</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Company_154</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>3656.86</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>PRJ-621</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2155</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Company_155</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>3968.46</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>PRJ-416</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2156</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Company_156</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1285.82</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>PRJ-187</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2157</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Company_157</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>3216.95</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>PRJ-775</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2158</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Company_158</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2686.13</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>PRJ-748</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2159</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Company_159</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>466.22</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>PRJ-743</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2160</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Company_160</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>3856.34</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>PRJ-364</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2161</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Company_161</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>4591.36</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>PRJ-385</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2162</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Company_162</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>4659.43</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>PRJ-164</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2163</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Company_163</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>687.64</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>PRJ-925</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2164</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Company_164</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1931.61</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>PRJ-267</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2165</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Company_165</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>4070.19</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>PRJ-188</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2166</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Company_166</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>4036.17</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>PRJ-940</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>2167</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Company_167</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>485.88</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>PRJ-641</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2168</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Company_168</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>4524.67</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>PRJ-121</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2169</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Company_169</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>1660.66</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>PRJ-569</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2170</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Company_170</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>545.72</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>PRJ-827</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2171</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Company_171</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>3588.65</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>PRJ-127</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2172</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Company_172</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>2101.32</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>PRJ-548</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2173</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Company_173</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>872.92</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>PRJ-552</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2174</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Company_174</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1197.58</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>PRJ-827</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Company_175</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1505.98</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>PRJ-327</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2176</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Company_176</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>4159.74</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>PRJ-131</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2177</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Company_177</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1505.44</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>PRJ-163</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2178</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Company_178</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1080.95</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>PRJ-144</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2179</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Company_179</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>822.46</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>PRJ-378</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2180</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Company_180</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>4113.03</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>PRJ-745</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2181</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Company_181</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>4093.59</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>PRJ-796</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2182</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Company_182</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>561.74</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>PRJ-249</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2183</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Company_183</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>3065.25</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>PRJ-115</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2184</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Company_184</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>2311.59</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>PRJ-546</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2185</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Company_185</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>2615.71</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>PRJ-803</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2186</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Company_186</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1577.32</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>PRJ-101</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2187</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Company_187</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>3955.25</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>PRJ-461</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2188</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Company_188</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>4807.11</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>PRJ-896</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2189</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Company_189</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1820.11</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>PRJ-257</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2190</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Company_190</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>3134.04</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>PRJ-360</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2191</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Company_191</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>3903.36</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>PRJ-613</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2192</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Company_192</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>4754.91</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>PRJ-748</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2193</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Company_193</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>4482.64</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>PRJ-805</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2194</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Company_194</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1509.99</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>PRJ-421</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2195</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Company_195</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>4135.86</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>PRJ-176</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>2196</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Company_196</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>3451.07</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>PRJ-894</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>2197</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Company_197</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>2817.44</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>PRJ-419</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2198</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Company_198</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>4290.75</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>PRJ-156</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2199</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Company_199</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>3751.06</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>PRJ-171</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Suspend</t>
         </is>
       </c>
     </row>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +440,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>customer_id</t>
+          <t>customr_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>customer_name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>invoice_amount</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -457,6 +461,11 @@
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
         </is>
       </c>
     </row>
@@ -466,21 +475,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Company_0</t>
+          <t>Client_Node_0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3059.52</v>
+        <v>1367.31</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PRJ-416</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>46042.58888888889</v>
       </c>
     </row>
     <row r="3">
@@ -489,21 +501,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Company_1</t>
+          <t>Client_Node_1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2577.59</v>
+        <v>983.77</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRJ-395</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="4">
@@ -512,21 +527,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Company_2</t>
+          <t>Client_Node_2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1333.69</v>
+        <v>1200.99</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRJ-218</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="5">
@@ -535,4230 +553,3430 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Company_3</t>
+          <t>Client_Node_3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>290.22</v>
+        <v>1049.47</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PRJ-857</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2004</v>
+        <v>7777</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Company_4</t>
+          <t>Client_Node_5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>441.58</v>
+        <v>1553.43</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PRJ-162</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Company_5</t>
+          <t>Client_Node_8</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>213.04</v>
+        <v>682.88</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PRJ-322</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Company_6</t>
+          <t>Client_Node_11</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1392.54</v>
+        <v>820.5599999999999</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PRJ-264</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Company_7</t>
+          <t>Client_Node_12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1633.86</v>
+        <v>2129.95</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PRJ-860</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Company_8</t>
+          <t>Client_Node_13</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>422.32</v>
+        <v>2382.3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PRJ-102</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2009</v>
+        <v>101</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Company_9</t>
+          <t>Client_Node_15</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3874.54</v>
+        <v>1584.24</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PRJ-576</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5555</v>
+        <v>2016</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Company_10</t>
+          <t>Client_Node_16</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3522.09</v>
+        <v>2159.27</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PRJ-322</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Company_12</t>
+          <t>Client_Node_17</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3534.6</v>
+        <v>1269.74</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PRJ-168</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Company_13</t>
+          <t>Client_Node_18</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1582.24</v>
+        <v>2261.02</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PRJ-128</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Company_14</t>
+          <t>Client_Node_20</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2306.4</v>
+        <v>603.8099999999999</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PRJ-923</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>46022.58888888889</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Company_15</t>
+          <t>Client_Node_22</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1230.17</v>
+        <v>1757.19</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PRJ-989</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Company_16</t>
+          <t>Client_Node_23</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4943.03</v>
+        <v>825.34</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PRJ-545</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Company_17</t>
+          <t>Client_Node_24</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4969.52</v>
+        <v>1833.06</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PRJ-123</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2018</v>
+        <v>2026</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Company_18</t>
+          <t>Client_Node_26</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2903.01</v>
+        <v>2334.6</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PRJ-255</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Company_19</t>
+          <t>Client_Node_27</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1762.59</v>
+        <v>2079.24</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PRJ-929</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Company_21</t>
+          <t>Client_Node_28</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1900.04</v>
+        <v>854.21</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PRJ-124</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2022</v>
+        <v>2029</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Company_22</t>
+          <t>Client_Node_29</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3241.23</v>
+        <v>1565.89</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PRJ-234</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2023</v>
+        <v>2030</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Company_23</t>
+          <t>Client_Node_30</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1400.88</v>
+        <v>1947.81</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PRJ-421</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Deactive</t>
         </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>46012.58888888889</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2024</v>
+        <v>2031</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Company_24</t>
+          <t>Client_Node_31</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2597.79</v>
+        <v>2244.92</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PRJ-243</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2025</v>
+        <v>2032</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Company_25</t>
+          <t>Client_Node_32</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4583.09</v>
+        <v>1198.35</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PRJ-302</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2026</v>
+        <v>2033</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Company_26</t>
+          <t>Client_Node_33</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4734.27</v>
+        <v>2224.01</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PRJ-774</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2027</v>
+        <v>2034</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Company_27</t>
+          <t>Client_Node_34</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1807.4</v>
+        <v>2019.63</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PRJ-884</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2028</v>
+        <v>2035</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Company_28</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1546.6</v>
+        <v>2141.96</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PRJ-502</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2029</v>
+        <v>2036</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Company_29</t>
+          <t>Client_Node_36</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2500.73</v>
+        <v>1783.97</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PRJ-574</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2031</v>
+        <v>2037</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Company_31</t>
+          <t>Client_Node_37</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1781.09</v>
+        <v>1332.41</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PRJ-649</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2032</v>
+        <v>2038</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Company_32</t>
+          <t>Client_Node_38</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>900.7</v>
+        <v>2432</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PRJ-496</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2033</v>
+        <v>2039</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Company_33</t>
+          <t>Client_Node_39</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1822.67</v>
+        <v>1355.74</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PRJ-288</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2034</v>
+        <v>2040</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Company_34</t>
+          <t>Client_Node_40</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2870.73</v>
+        <v>2484.9</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PRJ-119</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45973.58888888889</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2035</v>
+        <v>2042</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Company_35</t>
+          <t>Client_Node_42</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1953.33</v>
+        <v>2151.45</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PRJ-212</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2036</v>
+        <v>2043</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Company_36</t>
+          <t>Client_Node_43</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2441.05</v>
+        <v>1903.36</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PRJ-162</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2037</v>
+        <v>2044</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Company_37</t>
+          <t>Client_Node_44</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4561.14</v>
+        <v>1358.35</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PRJ-245</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2038</v>
+        <v>2046</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Company_38</t>
+          <t>Client_Node_46</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2506.23</v>
+        <v>2413.28</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PRJ-860</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2039</v>
+        <v>2047</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Company_39</t>
+          <t>Client_Node_47</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>639.15</v>
+        <v>1131.33</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PRJ-476</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2041</v>
+        <v>2048</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Company_41</t>
+          <t>Client_Node_48</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3895.4</v>
+        <v>1923.44</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PRJ-486</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2042</v>
+        <v>2049</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Company_42</t>
+          <t>Client_Node_49</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4130.78</v>
+        <v>1216.34</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PRJ-955</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2043</v>
+        <v>2050</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Company_43</t>
+          <t>Client_Node_50</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1123.48</v>
+        <v>1566.83</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PRJ-835</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>45669.58888888889</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2044</v>
+        <v>2052</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Company_44</t>
+          <t>Client_Node_52</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>703.99</v>
+        <v>1455.46</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PRJ-746</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2045</v>
+        <v>2053</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Company_45</t>
+          <t>Client_Node_53</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>397.58</v>
+        <v>2018.7</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PRJ-846</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2046</v>
+        <v>2054</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Company_46</t>
+          <t>Client_Node_54</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4367.91</v>
+        <v>728.08</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PRJ-166</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2047</v>
+        <v>2055</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Company_47</t>
+          <t>Client_Node_55</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1993.25</v>
+        <v>1250.38</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PRJ-469</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2048</v>
+        <v>2057</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Company_48</t>
+          <t>Client_Node_57</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4743.99</v>
+        <v>1797.01</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PRJ-188</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2049</v>
+        <v>2059</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Company_49</t>
+          <t>Client_Node_59</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3098.11</v>
+        <v>1291.08</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PRJ-907</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2051</v>
+        <v>2060</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Company_51</t>
+          <t>Client_Node_60</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4120.61</v>
+        <v>2079.72</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PRJ-960</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45982.58888888889</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2052</v>
+        <v>2062</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Company_52</t>
+          <t>Client_Node_62</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3593</v>
+        <v>1204.43</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PRJ-668</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2053</v>
+        <v>2063</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Company_53</t>
+          <t>Client_Node_63</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1741.46</v>
+        <v>864.99</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>PRJ-958</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>Deactive</t>
         </is>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2054</v>
+        <v>2065</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Company_54</t>
+          <t>Client_Node_65</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>320.88</v>
+        <v>1068.5</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PRJ-818</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2055</v>
+        <v>2066</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Company_55</t>
+          <t>Client_Node_66</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3410.17</v>
+        <v>999.9</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PRJ-102</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2056</v>
+        <v>2067</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Company_56</t>
+          <t>Client_Node_67</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1956.02</v>
+        <v>1742.02</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PRJ-883</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2057</v>
+        <v>2068</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Company_57</t>
+          <t>Client_Node_68</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1768.12</v>
+        <v>1287.32</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PRJ-195</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2058</v>
+        <v>2069</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Company_58</t>
+          <t>Client_Node_69</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4354.59</v>
+        <v>2438.2</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PRJ-725</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2059</v>
+        <v>2070</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Company_59</t>
+          <t>Client_Node_70</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4708.61</v>
+        <v>1846.42</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PRJ-142</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>45972.58888888889</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2060</v>
+        <v>2072</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>XXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXXX</t>
+          <t>Client_Node_72</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>540.0700000000001</v>
+        <v>1426.29</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PRJ-209</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2061</v>
+        <v>2073</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Company_61</t>
+          <t>Client_Node_73</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2721.69</v>
+        <v>1120.65</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PRJ-839</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2062</v>
+        <v>2074</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Company_62</t>
+          <t>Client_Node_74</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>400.62</v>
+        <v>2066.23</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PRJ-127</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>Deactive</t>
         </is>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2063</v>
+        <v>2077</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Company_63</t>
+          <t>Client_Node_77</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2650.76</v>
+        <v>1361.29</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PRJ-932</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2064</v>
+        <v>2078</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Company_64</t>
+          <t>Client_Node_78</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1454.24</v>
+        <v>2411.27</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PRJ-411</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2065</v>
+        <v>2079</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Company_65</t>
+          <t>Client_Node_79</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1143.32</v>
+        <v>1307.72</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PRJ-482</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2066</v>
+        <v>2080</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Company_66</t>
+          <t>Client_Node_80</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1201.13</v>
+        <v>2173.66</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PRJ-701</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>45668.58888888889</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2067</v>
+        <v>2081</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Company_67</t>
+          <t>Client_Node_81</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2097.92</v>
+        <v>695.47</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PRJ-775</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2068</v>
+        <v>2082</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Company_68</t>
+          <t>Client_Node_82</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2956.17</v>
+        <v>1822.7</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PRJ-340</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2069</v>
+        <v>2083</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Company_69</t>
+          <t>Client_Node_83</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1560.13</v>
+        <v>1218.65</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PRJ-923</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2071</v>
+        <v>2084</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Company_71</t>
+          <t>Client_Node_84</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2668.6</v>
+        <v>1706.01</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PRJ-897</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2072</v>
+        <v>2091</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Company_72</t>
+          <t>Client_Node_91</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4658.91</v>
+        <v>2223.84</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PRJ-958</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2073</v>
+        <v>2093</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Company_73</t>
+          <t>Client_Node_93</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4754.84</v>
+        <v>691.42</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PRJ-482</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2074</v>
+        <v>2096</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Company_74</t>
+          <t>Client_Node_96</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>401.22</v>
+        <v>2260.96</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PRJ-614</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2075</v>
+        <v>2099</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Company_75</t>
+          <t>Client_Node_99</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2966.9</v>
+        <v>1512.04</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PRJ-470</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2076</v>
+        <v>2100</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Company_76</t>
+          <t>Client_Node_100</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2157.03</v>
+        <v>2418.45</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PRJ-987</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>46001.58888888889</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2077</v>
+        <v>2103</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Company_77</t>
+          <t>Client_Node_103</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3266.35</v>
+        <v>1821.92</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PRJ-738</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2078</v>
+        <v>2104</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Company_78</t>
+          <t>Client_Node_104</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3666.06</v>
+        <v>2367.5</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PRJ-858</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2079</v>
+        <v>2105</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Company_79</t>
+          <t>Client_Node_105</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2257.64</v>
+        <v>641.45</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PRJ-341</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2081</v>
+        <v>2107</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Company_81</t>
+          <t>Client_Node_107</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4847.38</v>
+        <v>1906.33</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PRJ-325</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2082</v>
+        <v>2109</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Company_82</t>
+          <t>Client_Node_109</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1184.41</v>
+        <v>1342.37</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PRJ-916</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2083</v>
+        <v>2111</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Company_83</t>
+          <t>Client_Node_111</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2806.79</v>
+        <v>1721.96</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PRJ-503</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>Deactive</t>
         </is>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2084</v>
+        <v>2113</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Company_84</t>
+          <t>Client_Node_113</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2528.11</v>
+        <v>1747.11</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PRJ-469</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2085</v>
+        <v>2114</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Company_85</t>
+          <t>Client_Node_114</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2175.72</v>
+        <v>1061.7</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PRJ-804</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2086</v>
+        <v>2116</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Company_86</t>
+          <t>Client_Node_116</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3784.94</v>
+        <v>1795.35</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PRJ-124</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2087</v>
+        <v>2117</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Company_87</t>
+          <t>Client_Node_117</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3845.99</v>
+        <v>1236.99</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PRJ-771</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>Deactive</t>
         </is>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2088</v>
+        <v>2118</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Company_88</t>
+          <t>Client_Node_118</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3784.13</v>
+        <v>1670.6</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PRJ-701</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2089</v>
+        <v>2122</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Company_89</t>
+          <t>Client_Node_122</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2315.48</v>
+        <v>871.85</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PRJ-764</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2091</v>
+        <v>2123</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Company_91</t>
+          <t>Client_Node_123</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2719.73</v>
+        <v>1522.35</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PRJ-809</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2092</v>
+        <v>2125</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Company_92</t>
+          <t>Client_Node_125</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2856.45</v>
+        <v>1553.65</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PRJ-869</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2093</v>
+        <v>2126</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Company_93</t>
+          <t>Client_Node_126</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3158.32</v>
+        <v>1271.84</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PRJ-167</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2094</v>
+        <v>2127</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Company_94</t>
+          <t>Client_Node_127</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1974.62</v>
+        <v>2343.3</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PRJ-192</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2095</v>
+        <v>2128</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Company_95</t>
+          <t>Client_Node_128</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3118.94</v>
+        <v>1011.81</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PRJ-482</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2096</v>
+        <v>2129</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Company_96</t>
+          <t>Client_Node_129</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4672.72</v>
+        <v>1614.74</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PRJ-567</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2097</v>
+        <v>2130</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Company_97</t>
+          <t>Client_Node_130</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>813.1</v>
+        <v>2125.3</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PRJ-174</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>46000.58888888889</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2098</v>
+        <v>2131</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Company_98</t>
+          <t>Client_Node_131</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4554.24</v>
+        <v>519.13</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PRJ-610</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2099</v>
+        <v>2133</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Company_99</t>
+          <t>Client_Node_133</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1941.57</v>
+        <v>2051.8</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>PRJ-157</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2101</v>
+        <v>2134</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Company_101</t>
+          <t>Client_Node_134</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>915.92</v>
+        <v>1834.47</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>PRJ-759</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2102</v>
+        <v>2135</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Company_102</t>
+          <t>Client_Node_135</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>441.06</v>
+        <v>2253.24</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>PRJ-924</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2103</v>
+        <v>2136</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Company_103</t>
+          <t>Client_Node_136</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1453.14</v>
+        <v>2273.65</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>PRJ-119</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2104</v>
+        <v>2137</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Company_104</t>
+          <t>Client_Node_137</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3182.66</v>
+        <v>2076.92</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PRJ-986</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2105</v>
+        <v>2138</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Company_105</t>
+          <t>Client_Node_138</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3770.86</v>
+        <v>1245.31</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PRJ-463</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2106</v>
+        <v>2141</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Company_106</t>
+          <t>Client_Node_141</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1974.37</v>
+        <v>1838.05</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PRJ-264</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2107</v>
+        <v>2143</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Company_107</t>
+          <t>Client_Node_143</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3477.04</v>
+        <v>1562.27</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>PRJ-427</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2108</v>
+        <v>2145</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Company_108</t>
+          <t>Client_Node_145</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4049.55</v>
+        <v>1540.79</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PRJ-822</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2109</v>
+        <v>2146</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Company_109</t>
+          <t>Client_Node_146</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2999.06</v>
+        <v>813.1900000000001</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>PRJ-883</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2111</v>
+        <v>2147</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Company_111</t>
+          <t>Client_Node_147</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2173.14</v>
+        <v>2378.43</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>PRJ-354</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2112</v>
+        <v>2150</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Company_112</t>
+          <t>Client_Node_150</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2951.84</v>
+        <v>1128.38</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>PRJ-469</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>45892.58888888889</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2113</v>
+        <v>2151</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Company_113</t>
+          <t>Client_Node_151</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1231.7</v>
+        <v>895.42</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>PRJ-141</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2114</v>
+        <v>2152</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Company_114</t>
+          <t>Client_Node_152</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1307.66</v>
+        <v>1880.38</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>PRJ-295</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2115</v>
+        <v>2153</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Company_115</t>
+          <t>Client_Node_153</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2492.43</v>
+        <v>905.8</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>PRJ-628</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2116</v>
+        <v>2154</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Company_116</t>
+          <t>Client_Node_154</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1672.2</v>
+        <v>1065.69</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>PRJ-835</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2117</v>
+        <v>2155</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Company_117</t>
+          <t>Client_Node_155</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3533.65</v>
+        <v>2393.8</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>PRJ-516</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2118</v>
+        <v>2156</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Company_118</t>
+          <t>Client_Node_156</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2472.06</v>
+        <v>2345.56</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>PRJ-134</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2119</v>
+        <v>2158</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Company_119</t>
+          <t>Client_Node_158</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>954.28</v>
+        <v>1469.3</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>PRJ-678</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2121</v>
+        <v>2160</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Company_121</t>
+          <t>Client_Node_160</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3587.65</v>
+        <v>2425.31</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>PRJ-107</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>45882.58888888889</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2122</v>
+        <v>2161</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Company_122</t>
+          <t>Client_Node_161</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>361.83</v>
+        <v>2045.49</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>PRJ-790</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2123</v>
+        <v>2162</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Company_123</t>
+          <t>Client_Node_162</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>744.6900000000001</v>
+        <v>1540.81</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>PRJ-975</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2124</v>
+        <v>2164</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Company_124</t>
+          <t>Client_Node_164</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1484.57</v>
+        <v>1547.47</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>PRJ-596</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>Deactive</t>
         </is>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2125</v>
+        <v>2166</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Company_125</t>
+          <t>Client_Node_166</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4296.46</v>
+        <v>2115.57</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>PRJ-489</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2126</v>
+        <v>2168</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Company_126</t>
+          <t>Client_Node_168</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3376.11</v>
+        <v>1316.76</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>PRJ-880</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2127</v>
+        <v>2171</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Company_127</t>
+          <t>Client_Node_171</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>4622.69</v>
+        <v>574.16</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>PRJ-384</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2128</v>
+        <v>2172</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Company_128</t>
+          <t>Client_Node_172</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1554.43</v>
+        <v>2150.07</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>PRJ-825</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>Deactive</t>
         </is>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2129</v>
+        <v>2173</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Company_129</t>
+          <t>Client_Node_173</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2478.41</v>
+        <v>2471.68</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>PRJ-349</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2131</v>
+        <v>2174</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Company_131</t>
+          <t>Client_Node_174</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3191.93</v>
+        <v>1797.86</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>PRJ-604</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2132</v>
+        <v>2175</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Company_132</t>
+          <t>Client_Node_175</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4429.73</v>
+        <v>704.49</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>PRJ-491</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2133</v>
+        <v>2176</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Company_133</t>
+          <t>Client_Node_176</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3870.72</v>
+        <v>2265.88</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>PRJ-622</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2134</v>
+        <v>2178</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Company_134</t>
+          <t>Client_Node_178</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3827.47</v>
+        <v>2055.28</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>PRJ-596</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2135</v>
+        <v>2180</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Company_135</t>
+          <t>Client_Node_180</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1813.07</v>
+        <v>1190.14</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>PRJ-352</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>45862.58888888889</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2136</v>
+        <v>2181</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Company_136</t>
+          <t>Client_Node_181</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1497.32</v>
+        <v>1084.39</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>PRJ-703</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2137</v>
+        <v>2182</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Company_137</t>
+          <t>Client_Node_182</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1672.59</v>
+        <v>681.11</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>PRJ-194</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2138</v>
+        <v>2185</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Company_138</t>
+          <t>Client_Node_185</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>4927.63</v>
+        <v>1569.27</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>PRJ-884</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2139</v>
+        <v>2186</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Company_139</t>
+          <t>Client_Node_186</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3354.63</v>
+        <v>1864.91</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>PRJ-225</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>Deactive</t>
         </is>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2141</v>
+        <v>2187</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Company_141</t>
+          <t>Client_Node_187</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4037.02</v>
+        <v>828.21</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>PRJ-494</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2142</v>
+        <v>2190</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Company_142</t>
+          <t>Client_Node_190</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3053.03</v>
+        <v>2486.87</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>PRJ-402</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>45852.58888888889</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2143</v>
+        <v>2191</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Company_143</t>
+          <t>Client_Node_191</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1616</v>
+        <v>913.71</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>PRJ-642</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2144</v>
+        <v>2194</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Company_144</t>
+          <t>Client_Node_194</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2539.71</v>
+        <v>1803.81</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>PRJ-920</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>Deactive</t>
         </is>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2145</v>
+        <v>2195</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Company_145</t>
+          <t>Client_Node_195</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2645.89</v>
+        <v>1477.94</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>PRJ-359</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>Deactive</t>
         </is>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2146</v>
+        <v>2196</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Company_146</t>
+          <t>Client_Node_196</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>4709.75</v>
+        <v>776.86</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>PRJ-425</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2147</v>
+        <v>2197</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Company_147</t>
+          <t>Client_Node_197</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>4391.64</v>
+        <v>1335.75</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>PRJ-610</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>2148</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Company_148</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>1611.96</v>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>PRJ-726</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>2149</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Company_149</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>1899.04</v>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>PRJ-153</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>2150</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Company_150</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>245.65</v>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>PRJ-536</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>2151</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Company_151</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>2305.11</v>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>PRJ-203</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>2152</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Company_152</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>4300.62</v>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>PRJ-945</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>2153</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Company_153</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>3782.13</v>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>PRJ-697</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>2154</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Company_154</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>3656.86</v>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>PRJ-621</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>2155</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Company_155</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>3968.46</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>PRJ-416</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>2156</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Company_156</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>1285.82</v>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>PRJ-187</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>2157</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Company_157</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>3216.95</v>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>PRJ-775</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>2158</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Company_158</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>2686.13</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>PRJ-748</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>2159</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Company_159</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>466.22</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>PRJ-743</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>2160</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Company_160</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>3856.34</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>PRJ-364</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>2161</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Company_161</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>4591.36</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>PRJ-385</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>2162</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Company_162</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>4659.43</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>PRJ-164</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>2163</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Company_163</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>687.64</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>PRJ-925</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>2164</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Company_164</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>1931.61</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>PRJ-267</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>2165</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Company_165</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>4070.19</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>PRJ-188</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>2166</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Company_166</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>4036.17</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>PRJ-940</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>2167</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Company_167</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>485.88</v>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>PRJ-641</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>2168</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Company_168</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>4524.67</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>PRJ-121</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>2169</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Company_169</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>1660.66</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>PRJ-569</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>2170</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Company_170</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>545.72</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>PRJ-827</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>2171</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Company_171</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>3588.65</v>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>PRJ-127</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>2172</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Company_172</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>2101.32</v>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>PRJ-548</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>2173</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Company_173</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>872.92</v>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>PRJ-552</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>2174</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Company_174</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>1197.58</v>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>PRJ-827</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>2175</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Company_175</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>1505.98</v>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>PRJ-327</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>2176</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Company_176</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>4159.74</v>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>PRJ-131</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>2177</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Company_177</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>1505.44</v>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>PRJ-163</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>2178</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Company_178</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>1080.95</v>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>PRJ-144</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>2179</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Company_179</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>822.46</v>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>PRJ-378</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>2180</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Company_180</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>4113.03</v>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>PRJ-745</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>2181</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Company_181</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>4093.59</v>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>PRJ-796</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>2182</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Company_182</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>561.74</v>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>PRJ-249</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>2183</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Company_183</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>3065.25</v>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>PRJ-115</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>2184</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Company_184</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>2311.59</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>PRJ-546</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>2185</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Company_185</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>2615.71</v>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>PRJ-803</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>2186</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Company_186</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>1577.32</v>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>2187</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Company_187</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>3955.25</v>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>PRJ-461</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>2188</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Company_188</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>4807.11</v>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>PRJ-896</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>2189</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Company_189</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>1820.11</v>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>PRJ-257</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>2190</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Company_190</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>3134.04</v>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>PRJ-360</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>2191</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Company_191</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>3903.36</v>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>PRJ-613</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>2192</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Company_192</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>4754.91</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>PRJ-748</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>2193</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Company_193</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>4482.64</v>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>PRJ-805</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>2194</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Company_194</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>1509.99</v>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>PRJ-421</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>2195</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Company_195</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>4135.86</v>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>PRJ-176</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>2196</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Company_196</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>3451.07</v>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>PRJ-894</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>2197</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Company_197</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>2817.44</v>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>PRJ-419</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>2198</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Company_198</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>4290.75</v>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>PRJ-156</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>2199</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Company_199</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>3751.06</v>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>PRJ-171</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Suspend</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>46042.58950231481</v>
       </c>
     </row>
   </sheetData>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,17 +440,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>customr_id</t>
+          <t>customer_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>customer_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>invoice_amount</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -705,19 +705,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>101</v>
+        <v>2016</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Client_Node_15</t>
+          <t>Client_Node_16</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1584.24</v>
+        <v>2159.27</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -731,15 +731,15 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Client_Node_16</t>
+          <t>Client_Node_17</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2159.27</v>
+        <v>1269.74</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
@@ -757,15 +757,15 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Client_Node_17</t>
+          <t>Client_Node_18</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1269.74</v>
+        <v>2261.02</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -783,15 +783,15 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Client_Node_18</t>
+          <t>Client_Node_20</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2261.02</v>
+        <v>603.8099999999999</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -800,50 +800,50 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46022.58888888889</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Client_Node_20</t>
+          <t>Client_Node_22</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>603.8099999999999</v>
+        <v>1757.19</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>46022.58888888889</v>
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Client_Node_22</t>
+          <t>Client_Node_23</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1757.19</v>
+        <v>825.34</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -861,19 +861,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Client_Node_23</t>
+          <t>Client_Node_24</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>825.34</v>
+        <v>1833.06</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -887,24 +887,24 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Client_Node_24</t>
+          <t>Client_Node_26</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1833.06</v>
+        <v>2334.6</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
@@ -913,19 +913,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Client_Node_26</t>
+          <t>Client_Node_27</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2334.6</v>
+        <v>2079.24</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -939,19 +939,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Client_Node_27</t>
+          <t>Client_Node_28</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2079.24</v>
+        <v>854.21</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -965,19 +965,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Client_Node_28</t>
+          <t>Client_Node_29</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>854.21</v>
+        <v>1565.89</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -991,19 +991,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Client_Node_29</t>
+          <t>Client_Node_30</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1565.89</v>
+        <v>1947.81</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1012,24 +1012,24 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46012.58888888889</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Client_Node_30</t>
+          <t>Client_Node_31</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1947.81</v>
+        <v>2244.92</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1038,20 +1038,20 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>46012.58888888889</v>
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Client_Node_31</t>
+          <t>Client_Node_32</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2244.92</v>
+        <v>1198.35</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
@@ -1069,24 +1069,24 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Client_Node_32</t>
+          <t>Client_Node_33</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1198.35</v>
+        <v>2224.01</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
@@ -1095,24 +1095,24 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Client_Node_33</t>
+          <t>Client_Node_34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2224.01</v>
+        <v>2019.63</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
@@ -1121,19 +1121,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Client_Node_34</t>
+          <t>Client_Node_36</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2019.63</v>
+        <v>1783.97</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1147,15 +1147,15 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>Client_Node_37</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2141.96</v>
+        <v>1332.41</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1173,19 +1173,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Client_Node_36</t>
+          <t>Client_Node_38</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1783.97</v>
+        <v>2432</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1199,19 +1199,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Client_Node_37</t>
+          <t>Client_Node_39</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1332.41</v>
+        <v>1355.74</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1225,19 +1225,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Client_Node_38</t>
+          <t>Client_Node_40</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2432</v>
+        <v>2484.9</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1246,24 +1246,24 @@
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46002.58888888889</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Client_Node_39</t>
+          <t>Client_Node_42</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1355.74</v>
+        <v>2151.45</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1277,19 +1277,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Client_Node_40</t>
+          <t>Client_Node_43</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2484.9</v>
+        <v>1903.36</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1298,20 +1298,20 @@
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45973.58888888889</v>
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Client_Node_42</t>
+          <t>Client_Node_44</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2151.45</v>
+        <v>1358.35</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1329,15 +1329,15 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Client_Node_43</t>
+          <t>Client_Node_46</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1903.36</v>
+        <v>2413.28</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1355,19 +1355,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Client_Node_44</t>
+          <t>Client_Node_47</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1358.35</v>
+        <v>1131.33</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1381,19 +1381,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Client_Node_46</t>
+          <t>Client_Node_48</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2413.28</v>
+        <v>1923.44</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1407,15 +1407,15 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Client_Node_47</t>
+          <t>Client_Node_49</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1131.33</v>
+        <v>1216.34</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F38" s="2" t="n">
@@ -1433,19 +1433,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Client_Node_48</t>
+          <t>Client_Node_50</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1923.44</v>
+        <v>1566.83</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1454,20 +1454,20 @@
         </is>
       </c>
       <c r="F39" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45992.58888888889</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Client_Node_49</t>
+          <t>Client_Node_52</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1216.34</v>
+        <v>1455.46</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1485,50 +1485,50 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Client_Node_50</t>
+          <t>Client_Node_53</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1566.83</v>
+        <v>2018.7</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45669.58888888889</v>
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Client_Node_52</t>
+          <t>Client_Node_54</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1455.46</v>
+        <v>728.08</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F42" s="2" t="n">
@@ -1537,15 +1537,15 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Client_Node_53</t>
+          <t>Client_Node_55</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2018.7</v>
+        <v>1250.38</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F43" s="2" t="n">
@@ -1563,24 +1563,24 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Client_Node_54</t>
+          <t>Client_Node_57</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>728.08</v>
+        <v>1797.01</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F44" s="2" t="n">
@@ -1589,15 +1589,15 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Client_Node_55</t>
+          <t>Client_Node_59</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1250.38</v>
+        <v>1291.08</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1615,45 +1615,45 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Client_Node_57</t>
+          <t>Client_Node_60</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1797.01</v>
+        <v>2079.72</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45982.58888888889</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Client_Node_59</t>
+          <t>Client_Node_62</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1291.08</v>
+        <v>1204.43</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1667,45 +1667,45 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Client_Node_60</t>
+          <t>Client_Node_63</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2079.72</v>
+        <v>864.99</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>45982.58888888889</v>
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Client_Node_62</t>
+          <t>Client_Node_66</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1204.43</v>
+        <v>999.9</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1719,15 +1719,15 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Client_Node_63</t>
+          <t>Client_Node_67</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>864.99</v>
+        <v>1742.02</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1745,24 +1745,24 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Client_Node_65</t>
+          <t>Client_Node_68</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1068.5</v>
+        <v>1287.32</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F51" s="2" t="n">
@@ -1771,15 +1771,15 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Client_Node_66</t>
+          <t>Client_Node_69</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>999.9</v>
+        <v>2438.2</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F52" s="2" t="n">
@@ -1797,15 +1797,15 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Client_Node_67</t>
+          <t>Client_Node_70</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1742.02</v>
+        <v>1846.42</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1814,33 +1814,33 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45972.58888888889</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Client_Node_68</t>
+          <t>Client_Node_72</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1287.32</v>
+        <v>1426.29</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F54" s="2" t="n">
@@ -1849,15 +1849,15 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2069</v>
+        <v>2073</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Client_Node_69</t>
+          <t>Client_Node_73</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2438.2</v>
+        <v>1120.65</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F55" s="2" t="n">
@@ -1875,45 +1875,45 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Client_Node_70</t>
+          <t>Client_Node_74</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1846.42</v>
+        <v>2066.23</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45972.58888888889</v>
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2072</v>
+        <v>2077</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Client_Node_72</t>
+          <t>Client_Node_77</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1426.29</v>
+        <v>1361.29</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1927,15 +1927,15 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2073</v>
+        <v>2078</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Client_Node_73</t>
+          <t>Client_Node_78</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1120.65</v>
+        <v>2411.27</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
@@ -1953,19 +1953,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2074</v>
+        <v>2079</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Client_Node_74</t>
+          <t>Client_Node_79</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2066.23</v>
+        <v>1307.72</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1979,19 +1979,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Client_Node_77</t>
+          <t>Client_Node_80</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1361.29</v>
+        <v>2173.66</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2000,29 +2000,29 @@
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45962.58888888889</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Client_Node_78</t>
+          <t>Client_Node_81</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2411.27</v>
+        <v>695.47</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F61" s="2" t="n">
@@ -2031,24 +2031,24 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Client_Node_79</t>
+          <t>Client_Node_82</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1307.72</v>
+        <v>1822.7</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F62" s="2" t="n">
@@ -2057,19 +2057,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Client_Node_80</t>
+          <t>Client_Node_83</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2173.66</v>
+        <v>1218.65</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2078,29 +2078,29 @@
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>45668.58888888889</v>
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Client_Node_81</t>
+          <t>Client_Node_84</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>695.47</v>
+        <v>1706.01</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F64" s="2" t="n">
@@ -2109,15 +2109,15 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2082</v>
+        <v>2091</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Client_Node_82</t>
+          <t>Client_Node_91</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1822.7</v>
+        <v>2223.84</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2135,24 +2135,24 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2083</v>
+        <v>2093</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Client_Node_83</t>
+          <t>Client_Node_93</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1218.65</v>
+        <v>691.42</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F66" s="2" t="n">
@@ -2161,15 +2161,15 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2084</v>
+        <v>2096</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Client_Node_84</t>
+          <t>Client_Node_96</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1706.01</v>
+        <v>2260.96</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2187,15 +2187,15 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2091</v>
+        <v>2099</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Client_Node_91</t>
+          <t>Client_Node_99</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2223.84</v>
+        <v>1512.04</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F68" s="2" t="n">
@@ -2213,15 +2213,15 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2093</v>
+        <v>2100</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Client_Node_93</t>
+          <t>Client_Node_100</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>691.42</v>
+        <v>2418.45</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2234,29 +2234,29 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45942.58888888889</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2096</v>
+        <v>2103</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Client_Node_96</t>
+          <t>Client_Node_103</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2260.96</v>
+        <v>1821.92</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F70" s="2" t="n">
@@ -2265,24 +2265,24 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2099</v>
+        <v>2104</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Client_Node_99</t>
+          <t>Client_Node_104</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1512.04</v>
+        <v>2367.5</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F71" s="2" t="n">
@@ -2291,19 +2291,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2100</v>
+        <v>2105</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Client_Node_100</t>
+          <t>Client_Node_105</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2418.45</v>
+        <v>641.45</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2312,24 +2312,24 @@
         </is>
       </c>
       <c r="F72" s="2" t="n">
-        <v>46001.58888888889</v>
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Client_Node_103</t>
+          <t>Client_Node_107</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1821.92</v>
+        <v>1906.33</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2343,19 +2343,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2104</v>
+        <v>2109</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Client_Node_104</t>
+          <t>Client_Node_109</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2367.5</v>
+        <v>1342.37</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2369,15 +2369,15 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2105</v>
+        <v>2111</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Client_Node_105</t>
+          <t>Client_Node_111</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>641.45</v>
+        <v>1721.96</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2395,19 +2395,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2107</v>
+        <v>2113</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Client_Node_107</t>
+          <t>Client_Node_113</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1906.33</v>
+        <v>1747.11</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2421,15 +2421,15 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2109</v>
+        <v>2114</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Client_Node_109</t>
+          <t>Client_Node_114</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1342.37</v>
+        <v>1061.7</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F77" s="2" t="n">
@@ -2447,15 +2447,15 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2111</v>
+        <v>2116</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Client_Node_111</t>
+          <t>Client_Node_116</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1721.96</v>
+        <v>1795.35</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F78" s="2" t="n">
@@ -2473,15 +2473,15 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Client_Node_113</t>
+          <t>Client_Node_117</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1747.11</v>
+        <v>1236.99</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F79" s="2" t="n">
@@ -2499,19 +2499,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Client_Node_114</t>
+          <t>Client_Node_118</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1061.7</v>
+        <v>1670.6</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2525,24 +2525,24 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2116</v>
+        <v>2122</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Client_Node_116</t>
+          <t>Client_Node_122</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1795.35</v>
+        <v>871.85</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F81" s="2" t="n">
@@ -2551,24 +2551,24 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2117</v>
+        <v>2123</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Client_Node_117</t>
+          <t>Client_Node_123</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1236.99</v>
+        <v>1522.35</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F82" s="2" t="n">
@@ -2577,15 +2577,15 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2118</v>
+        <v>2125</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Client_Node_118</t>
+          <t>Client_Node_125</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1670.6</v>
+        <v>1553.65</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2603,19 +2603,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Client_Node_122</t>
+          <t>Client_Node_126</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>871.85</v>
+        <v>1271.84</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2629,15 +2629,15 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Client_Node_123</t>
+          <t>Client_Node_127</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1522.35</v>
+        <v>2343.3</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F85" s="2" t="n">
@@ -2655,24 +2655,24 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Client_Node_125</t>
+          <t>Client_Node_128</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1553.65</v>
+        <v>1011.81</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F86" s="2" t="n">
@@ -2681,24 +2681,24 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Client_Node_126</t>
+          <t>Client_Node_129</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1271.84</v>
+        <v>1614.74</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F87" s="2" t="n">
@@ -2707,45 +2707,45 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Client_Node_127</t>
+          <t>Client_Node_130</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2343.3</v>
+        <v>2125.3</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F88" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45912.58888888889</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Client_Node_128</t>
+          <t>Client_Node_131</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1011.81</v>
+        <v>519.13</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2759,24 +2759,24 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2129</v>
+        <v>2133</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Client_Node_129</t>
+          <t>Client_Node_133</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1614.74</v>
+        <v>2051.8</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F90" s="2" t="n">
@@ -2785,19 +2785,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Client_Node_130</t>
+          <t>Client_Node_134</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2125.3</v>
+        <v>1834.47</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2806,29 +2806,29 @@
         </is>
       </c>
       <c r="F91" s="2" t="n">
-        <v>46000.58888888889</v>
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Client_Node_131</t>
+          <t>Client_Node_135</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>519.13</v>
+        <v>2253.24</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F92" s="2" t="n">
@@ -2837,15 +2837,15 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Client_Node_133</t>
+          <t>Client_Node_136</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2051.8</v>
+        <v>2273.65</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2863,19 +2863,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Client_Node_134</t>
+          <t>Client_Node_137</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1834.47</v>
+        <v>2076.92</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2889,15 +2889,15 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Client_Node_135</t>
+          <t>Client_Node_138</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2253.24</v>
+        <v>1245.31</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F95" s="2" t="n">
@@ -2915,24 +2915,24 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2136</v>
+        <v>2141</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Client_Node_136</t>
+          <t>Client_Node_141</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2273.65</v>
+        <v>1838.05</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F96" s="2" t="n">
@@ -2941,19 +2941,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2137</v>
+        <v>2143</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Client_Node_137</t>
+          <t>Client_Node_143</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2076.92</v>
+        <v>1562.27</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2967,24 +2967,24 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2138</v>
+        <v>2145</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Client_Node_138</t>
+          <t>Client_Node_145</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1245.31</v>
+        <v>1540.79</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F98" s="2" t="n">
@@ -2993,19 +2993,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2141</v>
+        <v>2146</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Client_Node_141</t>
+          <t>Client_Node_146</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1838.05</v>
+        <v>813.1900000000001</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3019,24 +3019,24 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2143</v>
+        <v>2147</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Client_Node_143</t>
+          <t>Client_Node_147</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1562.27</v>
+        <v>2378.43</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F100" s="2" t="n">
@@ -3045,45 +3045,45 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2145</v>
+        <v>2150</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Client_Node_145</t>
+          <t>Client_Node_150</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1540.79</v>
+        <v>1128.38</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F101" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45892.58888888889</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2146</v>
+        <v>2151</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Client_Node_146</t>
+          <t>Client_Node_151</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>813.1900000000001</v>
+        <v>895.42</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3097,15 +3097,15 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2147</v>
+        <v>2152</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Client_Node_147</t>
+          <t>Client_Node_152</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2378.43</v>
+        <v>1880.38</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3123,19 +3123,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Client_Node_150</t>
+          <t>Client_Node_153</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1128.38</v>
+        <v>905.8</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3144,29 +3144,29 @@
         </is>
       </c>
       <c r="F104" s="2" t="n">
-        <v>45892.58888888889</v>
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Client_Node_151</t>
+          <t>Client_Node_154</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>895.42</v>
+        <v>1065.69</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F105" s="2" t="n">
@@ -3175,15 +3175,15 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Client_Node_152</t>
+          <t>Client_Node_155</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1880.38</v>
+        <v>2393.8</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3201,24 +3201,24 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Client_Node_153</t>
+          <t>Client_Node_156</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>905.8</v>
+        <v>2345.56</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F107" s="2" t="n">
@@ -3227,15 +3227,15 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2154</v>
+        <v>2158</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Client_Node_154</t>
+          <t>Client_Node_158</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1065.69</v>
+        <v>1469.3</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3253,19 +3253,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2155</v>
+        <v>2160</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Client_Node_155</t>
+          <t>Client_Node_160</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2393.8</v>
+        <v>2425.31</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3274,29 +3274,29 @@
         </is>
       </c>
       <c r="F109" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45882.58888888889</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2156</v>
+        <v>2161</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Client_Node_156</t>
+          <t>Client_Node_161</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2345.56</v>
+        <v>2045.49</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F110" s="2" t="n">
@@ -3305,19 +3305,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Client_Node_158</t>
+          <t>Client_Node_162</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1469.3</v>
+        <v>1540.81</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3331,15 +3331,15 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Client_Node_160</t>
+          <t>Client_Node_164</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2425.31</v>
+        <v>1547.47</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3352,20 +3352,20 @@
         </is>
       </c>
       <c r="F112" s="2" t="n">
-        <v>45882.58888888889</v>
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2161</v>
+        <v>2166</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Client_Node_161</t>
+          <t>Client_Node_166</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2045.49</v>
+        <v>2115.57</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F113" s="2" t="n">
@@ -3383,24 +3383,24 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2162</v>
+        <v>2168</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Client_Node_162</t>
+          <t>Client_Node_168</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1540.81</v>
+        <v>1316.76</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F114" s="2" t="n">
@@ -3409,19 +3409,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2164</v>
+        <v>2171</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Client_Node_164</t>
+          <t>Client_Node_171</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1547.47</v>
+        <v>574.16</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3435,15 +3435,15 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2166</v>
+        <v>2172</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Client_Node_166</t>
+          <t>Client_Node_172</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>2115.57</v>
+        <v>2150.07</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3461,19 +3461,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2168</v>
+        <v>2173</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Client_Node_168</t>
+          <t>Client_Node_173</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1316.76</v>
+        <v>2471.68</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3487,24 +3487,24 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Client_Node_171</t>
+          <t>Client_Node_174</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>574.16</v>
+        <v>1797.86</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F118" s="2" t="n">
@@ -3513,19 +3513,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Client_Node_172</t>
+          <t>Client_Node_175</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2150.07</v>
+        <v>704.49</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3539,19 +3539,19 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Client_Node_173</t>
+          <t>Client_Node_176</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2471.68</v>
+        <v>2265.88</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3565,19 +3565,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Client_Node_174</t>
+          <t>Client_Node_178</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1797.86</v>
+        <v>2055.28</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3591,19 +3591,19 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2175</v>
+        <v>2180</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Client_Node_175</t>
+          <t>Client_Node_180</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>704.49</v>
+        <v>1190.14</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>INVALID-CODE</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3612,20 +3612,20 @@
         </is>
       </c>
       <c r="F122" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45862.58888888889</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2176</v>
+        <v>2181</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Client_Node_176</t>
+          <t>Client_Node_181</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2265.88</v>
+        <v>1084.39</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F123" s="2" t="n">
@@ -3643,19 +3643,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2178</v>
+        <v>2182</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Client_Node_178</t>
+          <t>Client_Node_182</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2055.28</v>
+        <v>681.11</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3669,45 +3669,45 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2180</v>
+        <v>2185</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Client_Node_180</t>
+          <t>Client_Node_185</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1190.14</v>
+        <v>1569.27</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F125" s="2" t="n">
-        <v>45862.58888888889</v>
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2181</v>
+        <v>2186</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Client_Node_181</t>
+          <t>Client_Node_186</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1084.39</v>
+        <v>1864.91</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3721,15 +3721,15 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2182</v>
+        <v>2187</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Client_Node_182</t>
+          <t>Client_Node_187</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>681.11</v>
+        <v>828.21</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3747,50 +3747,50 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2185</v>
+        <v>2190</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Client_Node_185</t>
+          <t>Client_Node_190</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1569.27</v>
+        <v>2486.87</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-202</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F128" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45852.58888888889</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2186</v>
+        <v>2191</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Client_Node_186</t>
+          <t>Client_Node_191</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1864.91</v>
+        <v>913.71</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F129" s="2" t="n">
@@ -3799,24 +3799,24 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2187</v>
+        <v>2194</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Client_Node_187</t>
+          <t>Client_Node_194</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>828.21</v>
+        <v>1803.81</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="F130" s="2" t="n">
@@ -3825,19 +3825,19 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2190</v>
+        <v>2195</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Client_Node_190</t>
+          <t>Client_Node_195</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2486.87</v>
+        <v>1477.94</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3846,20 +3846,20 @@
         </is>
       </c>
       <c r="F131" s="2" t="n">
-        <v>45852.58888888889</v>
+        <v>46042.58950231481</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2191</v>
+        <v>2196</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Client_Node_191</t>
+          <t>Client_Node_196</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>913.71</v>
+        <v>776.86</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -3877,15 +3877,15 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Client_Node_194</t>
+          <t>Client_Node_197</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1803.81</v>
+        <v>1335.75</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3894,88 +3894,10 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="F133" s="2" t="n">
-        <v>46042.58950231481</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>2195</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Client_Node_195</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>1477.94</v>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="n">
-        <v>46042.58950231481</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>2196</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Client_Node_196</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>776.86</v>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="n">
-        <v>46042.58950231481</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>2197</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Client_Node_197</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>1335.75</v>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="n">
         <v>46042.58950231481</v>
       </c>
     </row>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,27 +440,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>customer_id</t>
+          <t>customr_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>customer_name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>invoice_amount</t>
+          <t>status</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>project_code</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -471,3434 +471,4526 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2000</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Client_Node_0</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1367.31</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>INVALID-CODE</t>
-        </is>
+          <t>Company_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4571.35</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-379</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46042.58888888889</v>
+        <v>46041.67946717593</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2001</v>
+        <v>1002</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Client_Node_1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>983.77</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-879</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46040.67946717593</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2002</v>
+        <v>1003</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Client_Node_2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1200.99</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4252.22</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-337</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46039.67946717593</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2003</v>
+        <v>1004</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Client_Node_3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1049.47</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3088.9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-880</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46038.67946717593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7777</v>
+        <v>1005</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Client_Node_5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1553.43</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2946.5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-950</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46037.67946717593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2008</v>
+        <v>1006</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Client_Node_8</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>682.88</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3534.87</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-456</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46036.67946717593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2011</v>
+        <v>1007</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Client_Node_11</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>820.5599999999999</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_7</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4588.03</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-120</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46035.67946717593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2012</v>
+        <v>1008</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Client_Node_12</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2129.95</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>INVALID-CODE</t>
-        </is>
+          <t>Company_8</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2390.4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-811</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46034.67946717593</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2013</v>
+        <v>1009</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Client_Node_13</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2382.3</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3749.58</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-842</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46033.67946717593</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2016</v>
+        <v>1011</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Client_Node_16</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2159.27</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_11</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-944</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46031.67946717593</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2017</v>
+        <v>1012</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Client_Node_17</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1269.74</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46030.67946717593</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2018</v>
+        <v>1013</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Client_Node_18</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>2261.02</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_13</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-189</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46029.67946717593</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2020</v>
+        <v>1014</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Client_Node_20</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>603.8099999999999</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_14</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2657.86</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-706</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>46022.58888888889</v>
+        <v>46028.67946717593</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2022</v>
+        <v>1016</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Client_Node_22</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1757.19</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_16</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1596.97</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-449</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46026.67946717593</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2023</v>
+        <v>1017</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Client_Node_23</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>825.34</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1412.15</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-977</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46025.67946717593</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2024</v>
+        <v>1018</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Client_Node_24</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1833.06</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INVALID-CODE</t>
-        </is>
+          <t>Company_18</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1663.02</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-505</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46024.67946717593</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2026</v>
+        <v>1019</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Client_Node_26</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2334.6</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_19</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2613.24</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-877</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46023.67946717593</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2027</v>
+        <v>1020</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Client_Node_27</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2079.24</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>CleanMe</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4455.08</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-272</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46022.67946717593</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2028</v>
+        <v>1021</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Client_Node_28</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>854.21</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_21</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1115.15</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-268</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46021.67946717593</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2029</v>
+        <v>1022</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Client_Node_29</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1565.89</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_22</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4943.96</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-177</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46020.67946717593</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2030</v>
+        <v>1023</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Client_Node_30</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1947.81</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_23</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2606.34</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-563</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>46012.58888888889</v>
+        <v>46019.67946717593</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2031</v>
+        <v>1024</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Client_Node_31</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2244.92</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_24</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2551.16</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-225</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46018.67946717593</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2032</v>
+        <v>1025</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Client_Node_32</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1198.35</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_25</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4492.97</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-581</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46017.67946717593</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2033</v>
+        <v>1026</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Client_Node_33</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2224.01</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_26</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2961.88</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-350</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46016.67946717593</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2034</v>
+        <v>1027</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Client_Node_34</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>2019.63</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_27</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-938</t>
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46015.67946717593</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2036</v>
+        <v>1028</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Client_Node_36</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1783.97</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INVALID-CODE</t>
-        </is>
+          <t>Company_28</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1398.55</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-182</t>
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46014.67946717593</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2037</v>
+        <v>1029</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Client_Node_37</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>1332.41</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_29</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>4352.83</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-737</t>
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46013.67946717593</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2038</v>
+        <v>1031</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Client_Node_38</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>2432</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_31</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2539.09</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-443</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46011.67946717593</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2039</v>
+        <v>1032</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Client_Node_39</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1355.74</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_32</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-457</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46010.67946717593</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2040</v>
+        <v>1033</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Client_Node_40</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>2484.9</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_33</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3752.12</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-976</t>
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>46002.58888888889</v>
+        <v>46009.67946717593</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2042</v>
+        <v>1034</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Client_Node_42</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>2151.45</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_34</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3715.11</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-888</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46008.67946717593</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2043</v>
+        <v>1035</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Client_Node_43</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1903.36</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_35</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3519.61</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-341</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46007.67946717593</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2044</v>
+        <v>1036</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Client_Node_44</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1358.35</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_36</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-109</t>
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46006.67946717593</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2046</v>
+        <v>1037</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Client_Node_46</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>2413.28</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_37</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3805.16</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-389</t>
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46005.67946717593</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2047</v>
+        <v>1038</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Client_Node_47</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1131.33</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_38</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-498</t>
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46004.67946717593</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2048</v>
+        <v>1039</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Client_Node_48</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1923.44</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>INVALID-CODE</t>
-        </is>
+          <t>Company_39</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2313.98</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-923</t>
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46003.67946717593</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2049</v>
+        <v>1041</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Client_Node_49</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1216.34</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_41</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1050.52</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-868</t>
         </is>
       </c>
       <c r="F38" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>46001.67946717593</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2050</v>
+        <v>1042</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Client_Node_50</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1566.83</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_42</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4212.44</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-253</t>
         </is>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45992.58888888889</v>
+        <v>46000.67946717593</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2052</v>
+        <v>1043</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Client_Node_52</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1455.46</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_43</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1108.79</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-983</t>
         </is>
       </c>
       <c r="F40" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45999.67946717593</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2053</v>
+        <v>1044</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Client_Node_53</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>2018.7</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_44</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1750.11</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-700</t>
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45998.67946717593</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2054</v>
+        <v>1046</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Client_Node_54</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>728.08</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_46</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-727</t>
         </is>
       </c>
       <c r="F42" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45996.67946717593</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2055</v>
+        <v>1047</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Client_Node_55</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1250.38</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_47</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>3175.92</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-476</t>
         </is>
       </c>
       <c r="F43" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45995.67946717593</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2057</v>
+        <v>1048</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Client_Node_57</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1797.01</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_48</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-285</t>
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45994.67946717593</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2059</v>
+        <v>1049</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Client_Node_59</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>1291.08</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_49</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1893.96</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-585</t>
         </is>
       </c>
       <c r="F45" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45993.67946717593</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2060</v>
+        <v>1050</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Client_Node_60</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>2079.72</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>INVALID-CODE</t>
-        </is>
+          <t>Company_50</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>4674.8</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-931</t>
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>45982.58888888889</v>
+        <v>45992.67946717593</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2062</v>
+        <v>1051</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Client_Node_62</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1204.43</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_51</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-584</t>
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45991.67946717593</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2063</v>
+        <v>1052</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Client_Node_63</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>864.99</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_52</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-450</t>
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45990.67946717593</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2066</v>
+        <v>1053</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Client_Node_66</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>999.9</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_53</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1895.49</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-226</t>
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45989.67946717593</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2067</v>
+        <v>1054</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Client_Node_67</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>1742.02</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_54</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-997</t>
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45988.67946717593</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2068</v>
+        <v>1055</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Client_Node_68</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1287.32</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_55</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2414.37</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-218</t>
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45987.67946717593</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2069</v>
+        <v>1056</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Client_Node_69</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>2438.2</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_56</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3164.41</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-885</t>
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45986.67946717593</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2070</v>
+        <v>1057</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Client_Node_70</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1846.42</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_57</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2753.57</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-860</t>
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>45972.58888888889</v>
+        <v>45985.67946717593</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2072</v>
+        <v>1058</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Client_Node_72</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1426.29</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>INVALID-CODE</t>
-        </is>
+          <t>Company_58</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3346.92</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-656</t>
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45984.67946717593</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2073</v>
+        <v>1059</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Client_Node_73</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1120.65</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_59</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-382</t>
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45983.67946717593</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2074</v>
+        <v>1061</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Client_Node_74</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>2066.23</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_61</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1082.23</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-903</t>
         </is>
       </c>
       <c r="F56" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45981.67946717593</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2077</v>
+        <v>1062</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Client_Node_77</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1361.29</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_62</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>4961.25</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-698</t>
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45980.67946717593</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2078</v>
+        <v>1063</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Client_Node_78</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>2411.27</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_63</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-306</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45979.67946717593</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2079</v>
+        <v>1064</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Client_Node_79</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1307.72</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_64</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-734</t>
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45978.67946717593</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2080</v>
+        <v>1066</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Client_Node_80</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>2173.66</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_66</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>3395.27</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-424</t>
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>45962.58888888889</v>
+        <v>45976.67946717593</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2081</v>
+        <v>1067</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Client_Node_81</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>695.47</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_67</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>3933.29</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-106</t>
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45975.67946717593</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2082</v>
+        <v>1068</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Client_Node_82</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>1822.7</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_68</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2422.8</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-196</t>
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45974.67946717593</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2083</v>
+        <v>1069</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Client_Node_83</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1218.65</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_69</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-583</t>
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45973.67946717593</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2084</v>
+        <v>1071</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Client_Node_84</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1706.01</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>INVALID-CODE</t>
-        </is>
+          <t>Company_71</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>4874.64</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-273</t>
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45971.67946717593</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2091</v>
+        <v>1072</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Client_Node_91</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>2223.84</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_72</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>3250.33</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-366</t>
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45970.67946717593</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2093</v>
+        <v>1073</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Client_Node_93</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>691.42</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_73</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>3602.25</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-409</t>
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45969.67946717593</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2096</v>
+        <v>1074</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Client_Node_96</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>2260.96</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>INVALID-CODE</t>
-        </is>
+          <t>Company_74</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>4472.66</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-790</t>
         </is>
       </c>
       <c r="F67" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45968.67946717593</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2099</v>
+        <v>1076</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Client_Node_99</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>1512.04</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_76</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-250</t>
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45966.67946717593</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2100</v>
+        <v>1077</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Client_Node_100</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>2418.45</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_77</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1730.46</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-981</t>
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45942.58888888889</v>
+        <v>45965.67946717593</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2103</v>
+        <v>1078</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Client_Node_103</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>1821.92</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_78</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3946.39</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-948</t>
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45964.67946717593</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2104</v>
+        <v>1079</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Client_Node_104</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>2367.5</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_79</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2710.22</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-127</t>
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45963.67946717593</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2105</v>
+        <v>1080</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Client_Node_105</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>641.45</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_80</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2107.11</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-437</t>
         </is>
       </c>
       <c r="F72" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45962.67946717593</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2107</v>
+        <v>1081</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Client_Node_107</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1906.33</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_81</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1389.97</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-542</t>
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45961.67946717593</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2109</v>
+        <v>1082</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Client_Node_109</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>1342.37</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_82</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-511</t>
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45960.67946717593</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2111</v>
+        <v>1083</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Client_Node_111</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>1721.96</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_83</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1914.52</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-751</t>
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45959.67946717593</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2113</v>
+        <v>1084</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Client_Node_113</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>1747.11</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_84</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2435.37</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-778</t>
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45958.67946717593</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2114</v>
+        <v>1085</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Client_Node_114</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1061.7</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_85</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2482.43</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-770</t>
         </is>
       </c>
       <c r="F77" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45957.67946717593</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2116</v>
+        <v>1086</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Client_Node_116</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>1795.35</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_86</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1075.83</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-458</t>
         </is>
       </c>
       <c r="F78" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45956.67946717593</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2117</v>
+        <v>1087</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Client_Node_117</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>1236.99</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_87</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>4672.28</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-524</t>
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45955.67946717593</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2118</v>
+        <v>1088</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Client_Node_118</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>1670.6</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_88</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="F80" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45954.67946717593</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2122</v>
+        <v>1089</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Client_Node_122</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>871.85</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_89</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>4921.38</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-325</t>
         </is>
       </c>
       <c r="F81" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45953.67946717593</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2123</v>
+        <v>1091</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Client_Node_123</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>1522.35</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_91</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>3276.87</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-331</t>
         </is>
       </c>
       <c r="F82" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45951.67946717593</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2125</v>
+        <v>1092</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Client_Node_125</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>1553.65</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_92</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>4512.15</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-644</t>
         </is>
       </c>
       <c r="F83" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45950.67946717593</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2126</v>
+        <v>1093</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Client_Node_126</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>1271.84</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_93</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>4301.01</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-710</t>
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45949.67946717593</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2127</v>
+        <v>1094</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Client_Node_127</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>2343.3</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_94</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2085.99</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-518</t>
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45948.67946717593</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2128</v>
+        <v>1096</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Client_Node_128</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>1011.81</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_96</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1827.61</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-340</t>
         </is>
       </c>
       <c r="F86" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45946.67946717593</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2129</v>
+        <v>1097</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Client_Node_129</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>1614.74</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_97</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>3441.77</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-772</t>
         </is>
       </c>
       <c r="F87" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45945.67946717593</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2130</v>
+        <v>1098</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Client_Node_130</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>2125.3</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_98</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>4315.01</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-538</t>
         </is>
       </c>
       <c r="F88" s="2" t="n">
-        <v>45912.58888888889</v>
+        <v>45944.67946717593</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2131</v>
+        <v>1099</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Client_Node_131</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>519.13</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_99</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2664.09</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-961</t>
         </is>
       </c>
       <c r="F89" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45943.67946717593</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2133</v>
+        <v>1100</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Client_Node_133</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>2051.8</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_100</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1912.77</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-710</t>
         </is>
       </c>
       <c r="F90" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45942.67946717593</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2134</v>
+        <v>1101</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Client_Node_134</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>1834.47</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_101</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2133.09</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-567</t>
         </is>
       </c>
       <c r="F91" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45941.67946717593</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2135</v>
+        <v>1102</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Client_Node_135</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>2253.24</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_102</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-823</t>
         </is>
       </c>
       <c r="F92" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45940.67946717593</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2136</v>
+        <v>1103</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Client_Node_136</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>2273.65</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_103</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2218.85</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-139</t>
         </is>
       </c>
       <c r="F93" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45939.67946717593</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2137</v>
+        <v>1104</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Client_Node_137</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>2076.92</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_104</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2431.92</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-527</t>
         </is>
       </c>
       <c r="F94" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45938.67946717593</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2138</v>
+        <v>1106</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Client_Node_138</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>1245.31</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_106</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1011.63</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-900</t>
         </is>
       </c>
       <c r="F95" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45936.67946717593</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2141</v>
+        <v>1107</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Client_Node_141</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>1838.05</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_107</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2950.09</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-610</t>
         </is>
       </c>
       <c r="F96" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45935.67946717593</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2143</v>
+        <v>1108</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Client_Node_143</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>1562.27</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_108</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-919</t>
         </is>
       </c>
       <c r="F97" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45934.67946717593</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2145</v>
+        <v>1109</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Client_Node_145</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>1540.79</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_109</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>3558.02</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-210</t>
         </is>
       </c>
       <c r="F98" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45933.67946717593</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2146</v>
+        <v>1110</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Client_Node_146</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>813.1900000000001</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_110</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2309.16</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-517</t>
         </is>
       </c>
       <c r="F99" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45932.67946717593</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2147</v>
+        <v>1111</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Client_Node_147</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>2378.43</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_111</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2150.69</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-368</t>
         </is>
       </c>
       <c r="F100" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45931.67946717593</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2150</v>
+        <v>1112</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Client_Node_150</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>1128.38</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_112</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>1379.48</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-602</t>
         </is>
       </c>
       <c r="F101" s="2" t="n">
-        <v>45892.58888888889</v>
+        <v>45930.67946717593</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2151</v>
+        <v>1113</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Client_Node_151</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>895.42</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_113</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>4806.71</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-326</t>
         </is>
       </c>
       <c r="F102" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45929.67946717593</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2152</v>
+        <v>1114</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Client_Node_152</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>1880.38</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_114</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>3960.98</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-400</t>
         </is>
       </c>
       <c r="F103" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45928.67946717593</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2153</v>
+        <v>1116</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Client_Node_153</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>905.8</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_116</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>1189.1</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-590</t>
         </is>
       </c>
       <c r="F104" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45926.67946717593</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2154</v>
+        <v>1117</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Client_Node_154</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>1065.69</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_117</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2642.77</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-709</t>
         </is>
       </c>
       <c r="F105" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45925.67946717593</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2155</v>
+        <v>1118</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Client_Node_155</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>2393.8</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_118</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1229.35</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-880</t>
         </is>
       </c>
       <c r="F106" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45924.67946717593</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2156</v>
+        <v>1119</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Client_Node_156</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>2345.56</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>INVALID-CODE</t>
-        </is>
+          <t>Company_119</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-190</t>
         </is>
       </c>
       <c r="F107" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45923.67946717593</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2158</v>
+        <v>1121</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Client_Node_158</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>1469.3</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_121</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-466</t>
         </is>
       </c>
       <c r="F108" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45921.67946717593</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2160</v>
+        <v>1122</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Client_Node_160</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>2425.31</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_122</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-362</t>
         </is>
       </c>
       <c r="F109" s="2" t="n">
-        <v>45882.58888888889</v>
+        <v>45920.67946717593</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2161</v>
+        <v>1123</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Client_Node_161</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>2045.49</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_123</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-990</t>
         </is>
       </c>
       <c r="F110" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45919.67946717593</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2162</v>
+        <v>1124</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Client_Node_162</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>1540.81</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_124</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-632</t>
         </is>
       </c>
       <c r="F111" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45918.67946717593</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2164</v>
+        <v>1126</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Client_Node_164</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>1547.47</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_126</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-601</t>
         </is>
       </c>
       <c r="F112" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45916.67946717593</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2166</v>
+        <v>1127</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Client_Node_166</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>2115.57</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_127</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>1773.73</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-285</t>
         </is>
       </c>
       <c r="F113" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45915.67946717593</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2168</v>
+        <v>1128</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Client_Node_168</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>1316.76</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>INVALID-CODE</t>
-        </is>
+          <t>Company_128</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>3098.39</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-138</t>
         </is>
       </c>
       <c r="F114" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45914.67946717593</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2171</v>
+        <v>1129</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Client_Node_171</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>574.16</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_129</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-883</t>
         </is>
       </c>
       <c r="F115" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45913.67946717593</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Company_130</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
         <v>2172</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Client_Node_172</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>2150.07</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-985</t>
         </is>
       </c>
       <c r="F116" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45912.67946717593</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2173</v>
+        <v>1131</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Client_Node_173</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>2471.68</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_131</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>2920.68</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-962</t>
         </is>
       </c>
       <c r="F117" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45911.67946717593</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2174</v>
+        <v>1132</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Client_Node_174</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>1797.86</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_132</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>4923.31</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-484</t>
         </is>
       </c>
       <c r="F118" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45910.67946717593</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2175</v>
+        <v>1133</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Client_Node_175</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>704.49</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_133</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>4534.2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-694</t>
         </is>
       </c>
       <c r="F119" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45909.67946717593</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2176</v>
+        <v>1134</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Client_Node_176</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>2265.88</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_134</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1805.47</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-823</t>
         </is>
       </c>
       <c r="F120" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45908.67946717593</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2178</v>
+        <v>1136</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Client_Node_178</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>2055.28</v>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_136</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-887</t>
         </is>
       </c>
       <c r="F121" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45906.67946717593</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2180</v>
+        <v>1137</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Client_Node_180</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>1190.14</v>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>INVALID-CODE</t>
-        </is>
+          <t>Company_137</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-775</t>
         </is>
       </c>
       <c r="F122" s="2" t="n">
-        <v>45862.58888888889</v>
+        <v>45905.67946717593</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2181</v>
+        <v>1138</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Client_Node_181</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>1084.39</v>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_138</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1564.72</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-157</t>
         </is>
       </c>
       <c r="F123" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45904.67946717593</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2182</v>
+        <v>1139</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Client_Node_182</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>681.11</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_139</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>4770.43</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-354</t>
         </is>
       </c>
       <c r="F124" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45903.67946717593</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2185</v>
+        <v>1140</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Client_Node_185</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>1569.27</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_140</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>3772.16</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-931</t>
         </is>
       </c>
       <c r="F125" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45902.67946717593</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2186</v>
+        <v>1141</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Client_Node_186</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>1864.91</v>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_141</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>2788.09</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-968</t>
         </is>
       </c>
       <c r="F126" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45901.67946717593</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2187</v>
+        <v>1142</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Client_Node_187</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>828.21</v>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_142</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-491</t>
         </is>
       </c>
       <c r="F127" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45900.67946717593</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2190</v>
+        <v>1143</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Client_Node_190</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>2486.87</v>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>PRJ-202</t>
-        </is>
+          <t>Company_143</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>2634.27</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-576</t>
         </is>
       </c>
       <c r="F128" s="2" t="n">
-        <v>45852.58888888889</v>
+        <v>45899.67946717593</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2191</v>
+        <v>1144</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Client_Node_191</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>913.71</v>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_144</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>2403.34</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-168</t>
         </is>
       </c>
       <c r="F129" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45898.67946717593</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2194</v>
+        <v>1146</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Client_Node_194</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>1803.81</v>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_146</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1789.68</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-523</t>
         </is>
       </c>
       <c r="F130" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45896.67946717593</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2195</v>
+        <v>1147</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Client_Node_195</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>1477.94</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>PRJ-303</t>
-        </is>
+          <t>Company_147</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>3558.58</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>PRJ-137</t>
         </is>
       </c>
       <c r="F131" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45895.67946717593</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2196</v>
+        <v>1148</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Client_Node_196</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>776.86</v>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_148</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>4545.67</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-989</t>
         </is>
       </c>
       <c r="F132" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45894.67946717593</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2197</v>
+        <v>1149</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Client_Node_197</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>1335.75</v>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>PRJ-101</t>
-        </is>
+          <t>Company_149</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>PRJ-331</t>
         </is>
       </c>
       <c r="F133" s="2" t="n">
-        <v>46042.58950231481</v>
+        <v>45893.67946717593</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Company_151</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>PRJ-400</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>45891.67946717593</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Company_152</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>PRJ-612</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>45890.67946717593</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Company_153</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1625.78</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>PRJ-895</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>45889.67946717593</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Company_154</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>2716.09</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>PRJ-590</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>45888.67946717593</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Company_156</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>2882.55</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>PRJ-193</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>45886.67946717593</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Company_157</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>2487.58</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>PRJ-820</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>45885.67946717593</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Company_158</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>PRJ-673</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>45884.67946717593</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Company_159</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>4406.73</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>PRJ-294</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>45883.67946717593</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Company_160</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>2478.67</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>PRJ-920</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>45882.67946717593</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Company_161</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>1619.72</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>PRJ-907</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>45881.67946717593</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Company_162</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>3002.62</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>PRJ-314</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>45880.67946717593</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Company_163</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>4129.25</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>PRJ-691</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>45879.67946717593</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Company_164</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>4096.61</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>PRJ-693</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>45878.67946717593</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Company_166</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>2919.85</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>PRJ-762</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>45876.67946717593</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Company_167</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>PRJ-229</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>45875.67946717593</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Company_168</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>3323.25</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>PRJ-374</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>45874.67946717593</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Company_169</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>1151.37</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>PRJ-733</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>45873.67946717593</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Company_170</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>2901.5</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>PRJ-941</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>45872.67946717593</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1171</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Company_171</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>PRJ-325</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>45871.67946717593</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Company_172</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>2847.23</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>PRJ-810</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>45870.67946717593</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Company_173</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1238.17</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>PRJ-736</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>45869.67946717593</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Company_174</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>2814.06</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>PRJ-767</t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="n">
+        <v>45868.67946717593</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Company_176</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1519.78</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>PRJ-902</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>45866.67946717593</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Company_177</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>PRJ-426</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>45865.67946717593</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Company_178</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>PRJ-234</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="n">
+        <v>45864.67946717593</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Company_179</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>4364.01</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>PRJ-621</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="n">
+        <v>45863.67946717593</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>1181</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Company_181</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>PRJ-198</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="n">
+        <v>45861.67946717593</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Company_182</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1653.44</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>PRJ-117</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="n">
+        <v>45860.67946717593</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Company_183</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>PRJ-462</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="n">
+        <v>45859.67946717593</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1184</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Company_184</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>3778.51</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>PRJ-260</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="n">
+        <v>45858.67946717593</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Company_186</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>PRJ-993</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="n">
+        <v>45856.67946717593</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1187</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Company_187</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1759.35</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>PRJ-837</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="n">
+        <v>45855.67946717593</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1188</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Company_188</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>2139.08</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>PRJ-230</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="n">
+        <v>45854.67946717593</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Company_189</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>PRJ-777</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="n">
+        <v>45853.67946717593</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1191</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Company_191</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>PRJ-178</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="n">
+        <v>45851.67946717593</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Company_192</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>2224.85</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>PRJ-868</t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="n">
+        <v>45850.67946717593</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Company_193</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>2196.71</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>PRJ-867</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="n">
+        <v>45849.67946717593</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1194</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Company_194</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>PRJ-292</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>45848.67946717593</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Company_196</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>1538.48</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>PRJ-576</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>45846.67946717593</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1197</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Company_197</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>PRJ-839</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>45845.67946717593</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Company_198</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>1333.26</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>PRJ-330</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="n">
+        <v>45844.67946717593</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Company_199</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>3108.68</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>PRJ-702</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="n">
+        <v>45843.67946717593</v>
       </c>
     </row>
   </sheetData>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -665,8 +665,10 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2390.4</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ab tt</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -653,11 +653,11 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Company_8</t>
+          <t>Company_9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -665,27 +665,25 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Ab tt</t>
-        </is>
+      <c r="D9" t="n">
+        <v>3749.58</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PRJ-811</t>
+          <t>PRJ-842</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>46034.67946717593</v>
+        <v>46033.67946717593</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Company_9</t>
+          <t>Company_10</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -694,15 +692,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3749.58</v>
+        <v>1729.65</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PRJ-842</t>
+          <t>PRJ-813</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>46033.67946717593</v>
+        <v>46032.67946717593</v>
       </c>
     </row>
     <row r="11">

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1849,89 +1849,89 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Company_59</t>
+          <t>Company_61</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1082.23</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PRJ-382</t>
+          <t>PRJ-903</t>
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>45983.67946717593</v>
+        <v>45981.67946717593</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Company_61</t>
+          <t>Company_62</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1082.23</v>
+        <v>4961.25</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PRJ-903</t>
+          <t>PRJ-698</t>
         </is>
       </c>
       <c r="F56" s="2" t="n">
-        <v>45981.67946717593</v>
+        <v>45980.67946717593</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Company_62</t>
+          <t>Company_63</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4961.25</v>
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PRJ-698</t>
+          <t>PRJ-306</t>
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>45980.67946717593</v>
+        <v>45979.67946717593</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Company_63</t>
+          <t>Company_64</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1944,46 +1944,46 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PRJ-306</t>
+          <t>PRJ-734</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>45979.67946717593</v>
+        <v>45978.67946717593</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Company_64</t>
+          <t>Company_66</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>3395.27</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PRJ-734</t>
+          <t>PRJ-424</t>
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>45978.67946717593</v>
+        <v>45976.67946717593</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Company_66</t>
+          <t>Company_67</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1992,24 +1992,24 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3395.27</v>
+        <v>3933.29</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>PRJ-424</t>
+          <t>PRJ-106</t>
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>45976.67946717593</v>
+        <v>45975.67946717593</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Company_67</t>
+          <t>Company_68</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2018,76 +2018,76 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3933.29</v>
+        <v>2422.8</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>PRJ-106</t>
+          <t>PRJ-196</t>
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>45975.67946717593</v>
+        <v>45974.67946717593</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Company_68</t>
+          <t>Company_69</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2422.8</v>
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PRJ-196</t>
+          <t>PRJ-583</t>
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>45974.67946717593</v>
+        <v>45973.67946717593</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Company_69</t>
+          <t>Company_71</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>PRJ-583</t>
+          <t>PRJ-273</t>
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>45973.67946717593</v>
+        <v>45971.67946717593</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Company_71</t>
+          <t>Company_72</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2096,128 +2096,128 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>4874.64</v>
+        <v>3250.33</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PRJ-273</t>
+          <t>PRJ-366</t>
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>45971.67946717593</v>
+        <v>45970.67946717593</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Company_72</t>
+          <t>Company_73</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3250.33</v>
+        <v>3602.25</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PRJ-366</t>
+          <t>PRJ-409</t>
         </is>
       </c>
       <c r="F65" s="2" t="n">
-        <v>45970.67946717593</v>
+        <v>45969.67946717593</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Company_73</t>
+          <t>Company_74</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3602.25</v>
+        <v>4472.66</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PRJ-409</t>
+          <t>PRJ-790</t>
         </is>
       </c>
       <c r="F66" s="2" t="n">
-        <v>45969.67946717593</v>
+        <v>45968.67946717593</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Company_74</t>
+          <t>Company_76</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4472.66</v>
+        <v>0</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PRJ-790</t>
+          <t>PRJ-250</t>
         </is>
       </c>
       <c r="F67" s="2" t="n">
-        <v>45968.67946717593</v>
+        <v>45966.67946717593</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Company_76</t>
+          <t>Company_77</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1730.46</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>PRJ-250</t>
+          <t>PRJ-981</t>
         </is>
       </c>
       <c r="F68" s="2" t="n">
-        <v>45966.67946717593</v>
+        <v>45965.67946717593</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Company_77</t>
+          <t>Company_78</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2226,76 +2226,76 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1730.46</v>
+        <v>3946.39</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PRJ-981</t>
+          <t>PRJ-948</t>
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>45965.67946717593</v>
+        <v>45964.67946717593</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Company_78</t>
+          <t>sdflkjsldkfnlksdfsdflkjsdflksdlfkjsldkfjn sdvlklsdjflsjdflsjdfl sdlkhjsdlifjsldjf lisjdfoijsdf olisjdfoijsdof</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3946.39</v>
+        <v>2710.22</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PRJ-948</t>
+          <t>PRJ-127</t>
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>45964.67946717593</v>
+        <v>45963.67946717593</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Company_79</t>
+          <t>Company_80</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2710.22</v>
+        <v>2107.11</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>PRJ-127</t>
+          <t>PRJ-437</t>
         </is>
       </c>
       <c r="F71" s="2" t="n">
-        <v>45963.67946717593</v>
+        <v>45962.67946717593</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Company_80</t>
+          <t>Company_81</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2304,76 +2304,76 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>2107.11</v>
+        <v>1389.97</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PRJ-437</t>
+          <t>PRJ-542</t>
         </is>
       </c>
       <c r="F72" s="2" t="n">
-        <v>45962.67946717593</v>
+        <v>45961.67946717593</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Company_81</t>
+          <t>Company_82</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1389.97</v>
+        <v>0</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PRJ-542</t>
+          <t>PRJ-511</t>
         </is>
       </c>
       <c r="F73" s="2" t="n">
-        <v>45961.67946717593</v>
+        <v>45960.67946717593</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Company_82</t>
+          <t>Company_83</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1914.52</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PRJ-511</t>
+          <t>PRJ-751</t>
         </is>
       </c>
       <c r="F74" s="2" t="n">
-        <v>45960.67946717593</v>
+        <v>45959.67946717593</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Company_83</t>
+          <t>Company_84</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2382,50 +2382,50 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1914.52</v>
+        <v>2435.37</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>PRJ-751</t>
+          <t>PRJ-778</t>
         </is>
       </c>
       <c r="F75" s="2" t="n">
-        <v>45959.67946717593</v>
+        <v>45958.67946717593</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Company_84</t>
+          <t>Company_85</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2435.37</v>
+        <v>2482.43</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>PRJ-778</t>
+          <t>PRJ-770</t>
         </is>
       </c>
       <c r="F76" s="2" t="n">
-        <v>45958.67946717593</v>
+        <v>45957.67946717593</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Company_85</t>
+          <t>Company_86</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2434,24 +2434,24 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2482.43</v>
+        <v>1075.83</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PRJ-770</t>
+          <t>PRJ-458</t>
         </is>
       </c>
       <c r="F77" s="2" t="n">
-        <v>45957.67946717593</v>
+        <v>45956.67946717593</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Company_86</t>
+          <t>Company_87</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2460,76 +2460,74 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1075.83</v>
+        <v>4672.28</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>PRJ-458</t>
+          <t>PRJ-524</t>
         </is>
       </c>
       <c r="F78" s="2" t="n">
-        <v>45956.67946717593</v>
+        <v>45955.67946717593</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Company_87</t>
+          <t>Company_88</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4672.28</v>
+        <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PRJ-524</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>45955.67946717593</v>
+        <v>45954.67946717593</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Company_88</t>
+          <t>Company_89</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>4921.38</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="n">
-        <v>45954.67946717593</v>
-      </c>
+          <t>PRJ-325</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Company_89</t>
+          <t>Company_91</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2538,50 +2536,50 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4921.38</v>
+        <v>3276.87</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PRJ-325</t>
+          <t>PRJ-331</t>
         </is>
       </c>
       <c r="F81" s="2" t="n">
-        <v>45953.67946717593</v>
+        <v>45951.67946717593</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Company_91</t>
+          <t>Company_92</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3276.87</v>
+        <v>4512.15</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PRJ-331</t>
+          <t>PRJ-644</t>
         </is>
       </c>
       <c r="F82" s="2" t="n">
-        <v>45951.67946717593</v>
+        <v>45950.67946717593</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Company_92</t>
+          <t>Company_93</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2590,76 +2588,76 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4512.15</v>
+        <v>4301.01</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PRJ-644</t>
+          <t>PRJ-710</t>
         </is>
       </c>
       <c r="F83" s="2" t="n">
-        <v>45950.67946717593</v>
+        <v>45949.67946717593</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Company_93</t>
+          <t>Company_94</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4301.01</v>
+        <v>2085.99</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PRJ-710</t>
+          <t>PRJ-518</t>
         </is>
       </c>
       <c r="F84" s="2" t="n">
-        <v>45949.67946717593</v>
+        <v>45948.67946717593</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Company_94</t>
+          <t>Company_96</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2085.99</v>
+        <v>1827.61</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PRJ-518</t>
+          <t>PRJ-340</t>
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>45948.67946717593</v>
+        <v>45946.67946717593</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Company_96</t>
+          <t>Company_97</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2668,76 +2666,76 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1827.61</v>
+        <v>3441.77</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PRJ-340</t>
+          <t>PRJ-772</t>
         </is>
       </c>
       <c r="F86" s="2" t="n">
-        <v>45946.67946717593</v>
+        <v>45945.67946717593</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Company_97</t>
+          <t>Company_98</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3441.77</v>
+        <v>4315.01</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>PRJ-772</t>
+          <t>PRJ-538</t>
         </is>
       </c>
       <c r="F87" s="2" t="n">
-        <v>45945.67946717593</v>
+        <v>45944.67946717593</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Company_98</t>
+          <t>Company_99</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>hdh</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4315.01</v>
+        <v>2664.09</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>PRJ-538</t>
+          <t>PRJ-961</t>
         </is>
       </c>
       <c r="F88" s="2" t="n">
-        <v>45944.67946717593</v>
+        <v>45943.67946717593</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Company_99</t>
+          <t>Company_100</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2746,24 +2744,24 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2664.09</v>
+        <v>1912.77</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>PRJ-961</t>
+          <t>PRJ-710</t>
         </is>
       </c>
       <c r="F89" s="2" t="n">
-        <v>45943.67946717593</v>
+        <v>45942.67946717593</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Company_100</t>
+          <t>Company_101</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2772,76 +2770,76 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1912.77</v>
+        <v>2133.09</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>PRJ-710</t>
+          <t>PRJ-567</t>
         </is>
       </c>
       <c r="F90" s="2" t="n">
-        <v>45942.67946717593</v>
+        <v>45941.67946717593</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Company_101</t>
+          <t>Company_102</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2133.09</v>
+        <v>0</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>PRJ-567</t>
+          <t>PRJ-823</t>
         </is>
       </c>
       <c r="F91" s="2" t="n">
-        <v>45941.67946717593</v>
+        <v>45940.67946717593</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Company_102</t>
+          <t>Company_103</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>2218.85</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>PRJ-823</t>
+          <t>PRJ-139</t>
         </is>
       </c>
       <c r="F92" s="2" t="n">
-        <v>45940.67946717593</v>
+        <v>45939.67946717593</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Company_103</t>
+          <t>Company_104</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2850,180 +2848,180 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2218.85</v>
+        <v>2431.92</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PRJ-139</t>
+          <t>PRJ-527</t>
         </is>
       </c>
       <c r="F93" s="2" t="n">
-        <v>45939.67946717593</v>
+        <v>45938.67946717593</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Company_104</t>
+          <t>Company_106</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2431.92</v>
+        <v>1011.63</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PRJ-527</t>
+          <t>PRJ-900</t>
         </is>
       </c>
       <c r="F94" s="2" t="n">
-        <v>45938.67946717593</v>
+        <v>45936.67946717593</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Company_106</t>
+          <t>Company_107</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1011.63</v>
+        <v>2950.09</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PRJ-900</t>
+          <t>PRJ-610</t>
         </is>
       </c>
       <c r="F95" s="2" t="n">
-        <v>45936.67946717593</v>
+        <v>45935.67946717593</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Company_107</t>
+          <t>Company_108</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2950.09</v>
+        <v>0</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PRJ-610</t>
+          <t>PRJ-919</t>
         </is>
       </c>
       <c r="F96" s="2" t="n">
-        <v>45935.67946717593</v>
+        <v>45934.67946717593</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Company_108</t>
+          <t>Company_109</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>3558.02</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PRJ-919</t>
+          <t>PRJ-210</t>
         </is>
       </c>
       <c r="F97" s="2" t="n">
-        <v>45934.67946717593</v>
+        <v>45933.67946717593</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Company_109</t>
+          <t>Company_110</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3558.02</v>
+        <v>2309.16</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PRJ-210</t>
+          <t>PRJ-517</t>
         </is>
       </c>
       <c r="F98" s="2" t="n">
-        <v>45933.67946717593</v>
+        <v>45932.67946717593</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Company_110</t>
+          <t>Company_111</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2309.16</v>
+        <v>2150.69</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>PRJ-517</t>
+          <t>PRJ-368</t>
         </is>
       </c>
       <c r="F99" s="2" t="n">
-        <v>45932.67946717593</v>
+        <v>45931.67946717593</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Company_111</t>
+          <t>Company_112</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3032,24 +3030,24 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2150.69</v>
+        <v>1379.48</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>PRJ-368</t>
+          <t>PRJ-602</t>
         </is>
       </c>
       <c r="F100" s="2" t="n">
-        <v>45931.67946717593</v>
+        <v>45930.67946717593</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Company_112</t>
+          <t>Company_113</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3058,50 +3056,50 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1379.48</v>
+        <v>4806.71</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>PRJ-602</t>
+          <t>PRJ-326</t>
         </is>
       </c>
       <c r="F101" s="2" t="n">
-        <v>45930.67946717593</v>
+        <v>45929.67946717593</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Company_113</t>
+          <t>Company_114</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>4806.71</v>
+        <v>3960.98</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>PRJ-326</t>
+          <t>PRJ-400</t>
         </is>
       </c>
       <c r="F102" s="2" t="n">
-        <v>45929.67946717593</v>
+        <v>45928.67946717593</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Company_114</t>
+          <t>Company_116</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3110,102 +3108,102 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3960.98</v>
+        <v>1189.1</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>PRJ-400</t>
+          <t>PRJ-590</t>
         </is>
       </c>
       <c r="F103" s="2" t="n">
-        <v>45928.67946717593</v>
+        <v>45926.67946717593</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Company_116</t>
+          <t>Company_117</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1189.1</v>
+        <v>2642.77</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>PRJ-590</t>
+          <t>PRJ-709</t>
         </is>
       </c>
       <c r="F104" s="2" t="n">
-        <v>45926.67946717593</v>
+        <v>45925.67946717593</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Company_117</t>
+          <t>Company_118</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2642.77</v>
+        <v>1229.35</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>PRJ-709</t>
+          <t>PRJ-880</t>
         </is>
       </c>
       <c r="F105" s="2" t="n">
-        <v>45925.67946717593</v>
+        <v>45924.67946717593</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Company_118</t>
+          <t>Company_119</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1229.35</v>
+        <v>0</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>PRJ-880</t>
+          <t>PRJ-190</t>
         </is>
       </c>
       <c r="F106" s="2" t="n">
-        <v>45924.67946717593</v>
+        <v>45923.67946717593</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Company_119</t>
+          <t>Company_121</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3218,20 +3216,20 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>PRJ-190</t>
+          <t>PRJ-466</t>
         </is>
       </c>
       <c r="F107" s="2" t="n">
-        <v>45923.67946717593</v>
+        <v>45921.67946717593</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Company_121</t>
+          <t>Company_122</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3244,20 +3242,20 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>PRJ-466</t>
+          <t>PRJ-362</t>
         </is>
       </c>
       <c r="F108" s="2" t="n">
-        <v>45921.67946717593</v>
+        <v>45920.67946717593</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Company_122</t>
+          <t>Company_123</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3270,20 +3268,20 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>PRJ-362</t>
+          <t>PRJ-990</t>
         </is>
       </c>
       <c r="F109" s="2" t="n">
-        <v>45920.67946717593</v>
+        <v>45919.67946717593</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Company_123</t>
+          <t>Company_124</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3296,20 +3294,20 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>PRJ-990</t>
+          <t>PRJ-632</t>
         </is>
       </c>
       <c r="F110" s="2" t="n">
-        <v>45919.67946717593</v>
+        <v>45918.67946717593</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Company_124</t>
+          <t>Company_126</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3322,46 +3320,46 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>PRJ-632</t>
+          <t>PRJ-601</t>
         </is>
       </c>
       <c r="F111" s="2" t="n">
-        <v>45918.67946717593</v>
+        <v>45916.67946717593</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Company_126</t>
+          <t>Company_127</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1773.73</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>PRJ-601</t>
+          <t>PRJ-285</t>
         </is>
       </c>
       <c r="F112" s="2" t="n">
-        <v>45916.67946717593</v>
+        <v>45915.67946717593</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Company_127</t>
+          <t>Company_128</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3370,206 +3368,206 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1773.73</v>
+        <v>3098.39</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>PRJ-285</t>
+          <t>PRJ-138</t>
         </is>
       </c>
       <c r="F113" s="2" t="n">
-        <v>45915.67946717593</v>
+        <v>45914.67946717593</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Company_128</t>
+          <t>Company_129</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>3098.39</v>
+        <v>0</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>PRJ-138</t>
+          <t>PRJ-883</t>
         </is>
       </c>
       <c r="F114" s="2" t="n">
-        <v>45914.67946717593</v>
+        <v>45913.67946717593</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Company_129</t>
+          <t>Company_130</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>2172</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>PRJ-883</t>
+          <t>PRJ-985</t>
         </is>
       </c>
       <c r="F115" s="2" t="n">
-        <v>45913.67946717593</v>
+        <v>45912.67946717593</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Company_130</t>
+          <t>Company_131</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2172</v>
+        <v>2920.68</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>PRJ-985</t>
+          <t>PRJ-962</t>
         </is>
       </c>
       <c r="F116" s="2" t="n">
-        <v>45912.67946717593</v>
+        <v>45911.67946717593</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Company_131</t>
+          <t>Company_132</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2920.68</v>
+        <v>4923.31</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>PRJ-962</t>
+          <t>PRJ-484</t>
         </is>
       </c>
       <c r="F117" s="2" t="n">
-        <v>45911.67946717593</v>
+        <v>45910.67946717593</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Company_132</t>
+          <t>Company_133</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>4923.31</v>
+        <v>4534.2</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>PRJ-484</t>
+          <t>PRJ-694</t>
         </is>
       </c>
       <c r="F118" s="2" t="n">
-        <v>45910.67946717593</v>
+        <v>45909.67946717593</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Company_133</t>
+          <t>Company_134</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>4534.2</v>
+        <v>1805.47</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>PRJ-694</t>
+          <t>PRJ-823</t>
         </is>
       </c>
       <c r="F119" s="2" t="n">
-        <v>45909.67946717593</v>
+        <v>45908.67946717593</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Company_134</t>
+          <t>Company_136</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1805.47</v>
+        <v>0</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>PRJ-823</t>
+          <t>PRJ-887</t>
         </is>
       </c>
       <c r="F120" s="2" t="n">
-        <v>45908.67946717593</v>
+        <v>45906.67946717593</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Company_136</t>
+          <t>Company_137</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3582,72 +3580,72 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>PRJ-887</t>
+          <t>PRJ-775</t>
         </is>
       </c>
       <c r="F121" s="2" t="n">
-        <v>45906.67946717593</v>
+        <v>45905.67946717593</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Company_137</t>
+          <t>Company_138</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1564.72</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>PRJ-775</t>
+          <t>PRJ-157</t>
         </is>
       </c>
       <c r="F122" s="2" t="n">
-        <v>45905.67946717593</v>
+        <v>45904.67946717593</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Company_138</t>
+          <t>Company_139</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1564.72</v>
+        <v>4770.43</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>PRJ-157</t>
+          <t>PRJ-354</t>
         </is>
       </c>
       <c r="F123" s="2" t="n">
-        <v>45904.67946717593</v>
+        <v>45903.67946717593</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Company_139</t>
+          <t>Company_140</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3656,154 +3654,154 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4770.43</v>
+        <v>3772.16</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>PRJ-354</t>
+          <t>PRJ-931</t>
         </is>
       </c>
       <c r="F124" s="2" t="n">
-        <v>45903.67946717593</v>
+        <v>45902.67946717593</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Company_140</t>
+          <t>Company_141</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>3772.16</v>
+        <v>2788.09</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PRJ-931</t>
+          <t>PRJ-968</t>
         </is>
       </c>
       <c r="F125" s="2" t="n">
-        <v>45902.67946717593</v>
+        <v>45901.67946717593</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Company_141</t>
+          <t>Company_142</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2788.09</v>
+        <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>PRJ-968</t>
+          <t>PRJ-491</t>
         </is>
       </c>
       <c r="F126" s="2" t="n">
-        <v>45901.67946717593</v>
+        <v>45900.67946717593</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Company_142</t>
+          <t>Company_143</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>2634.27</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PRJ-491</t>
+          <t>PRJ-576</t>
         </is>
       </c>
       <c r="F127" s="2" t="n">
-        <v>45900.67946717593</v>
+        <v>45899.67946717593</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Company_143</t>
+          <t>Company_144</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>2634.27</v>
+        <v>2403.34</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PRJ-576</t>
+          <t>PRJ-168</t>
         </is>
       </c>
       <c r="F128" s="2" t="n">
-        <v>45899.67946717593</v>
+        <v>45898.67946717593</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Company_144</t>
+          <t>Company_146</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>2403.34</v>
+        <v>1789.68</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>PRJ-168</t>
+          <t>PRJ-523</t>
         </is>
       </c>
       <c r="F129" s="2" t="n">
-        <v>45898.67946717593</v>
+        <v>45896.67946717593</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Company_146</t>
+          <t>Company_147</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3812,24 +3810,24 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1789.68</v>
+        <v>3558.58</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>PRJ-523</t>
+          <t>PRJ-137</t>
         </is>
       </c>
       <c r="F130" s="2" t="n">
-        <v>45896.67946717593</v>
+        <v>45895.67946717593</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Company_147</t>
+          <t>Company_148</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3838,50 +3836,50 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>3558.58</v>
+        <v>4545.67</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PRJ-137</t>
+          <t>PRJ-989</t>
         </is>
       </c>
       <c r="F131" s="2" t="n">
-        <v>45895.67946717593</v>
+        <v>45894.67946717593</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Company_148</t>
+          <t>Company_149</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>4545.67</v>
+        <v>0</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PRJ-989</t>
+          <t>PRJ-331</t>
         </is>
       </c>
       <c r="F132" s="2" t="n">
-        <v>45894.67946717593</v>
+        <v>45893.67946717593</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Company_149</t>
+          <t>Company_151</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3894,20 +3892,20 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>PRJ-331</t>
+          <t>PRJ-400</t>
         </is>
       </c>
       <c r="F133" s="2" t="n">
-        <v>45893.67946717593</v>
+        <v>45891.67946717593</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Company_151</t>
+          <t>Company_152</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3920,46 +3918,46 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>PRJ-400</t>
+          <t>PRJ-612</t>
         </is>
       </c>
       <c r="F134" s="2" t="n">
-        <v>45891.67946717593</v>
+        <v>45890.67946717593</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Company_152</t>
+          <t>Company_153</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1625.78</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PRJ-612</t>
+          <t>PRJ-895</t>
         </is>
       </c>
       <c r="F135" s="2" t="n">
-        <v>45890.67946717593</v>
+        <v>45889.67946717593</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Company_153</t>
+          <t>Company_154</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3968,50 +3966,50 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1625.78</v>
+        <v>2716.09</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PRJ-895</t>
+          <t>PRJ-590</t>
         </is>
       </c>
       <c r="F136" s="2" t="n">
-        <v>45889.67946717593</v>
+        <v>45888.67946717593</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Company_154</t>
+          <t>Company_156</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2716.09</v>
+        <v>2882.55</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>PRJ-590</t>
+          <t>PRJ-193</t>
         </is>
       </c>
       <c r="F137" s="2" t="n">
-        <v>45888.67946717593</v>
+        <v>45886.67946717593</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Company_156</t>
+          <t>Company_157</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4020,102 +4018,102 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2882.55</v>
+        <v>2487.58</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>PRJ-193</t>
+          <t>PRJ-820</t>
         </is>
       </c>
       <c r="F138" s="2" t="n">
-        <v>45886.67946717593</v>
+        <v>45885.67946717593</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Company_157</t>
+          <t>Company_158</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2487.58</v>
+        <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>PRJ-820</t>
+          <t>PRJ-673</t>
         </is>
       </c>
       <c r="F139" s="2" t="n">
-        <v>45885.67946717593</v>
+        <v>45884.67946717593</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Company_158</t>
+          <t>Company_159</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>4406.73</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>PRJ-673</t>
+          <t>PRJ-294</t>
         </is>
       </c>
       <c r="F140" s="2" t="n">
-        <v>45884.67946717593</v>
+        <v>45883.67946717593</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Company_159</t>
+          <t>Company_160</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>4406.73</v>
+        <v>2478.67</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>PRJ-294</t>
+          <t>PRJ-920</t>
         </is>
       </c>
       <c r="F141" s="2" t="n">
-        <v>45883.67946717593</v>
+        <v>45882.67946717593</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Company_160</t>
+          <t>Company_161</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4124,50 +4122,50 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2478.67</v>
+        <v>1619.72</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>PRJ-920</t>
+          <t>PRJ-907</t>
         </is>
       </c>
       <c r="F142" s="2" t="n">
-        <v>45882.67946717593</v>
+        <v>45881.67946717593</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Company_161</t>
+          <t>Company_162</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1619.72</v>
+        <v>3002.62</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>PRJ-907</t>
+          <t>PRJ-314</t>
         </is>
       </c>
       <c r="F143" s="2" t="n">
-        <v>45881.67946717593</v>
+        <v>45880.67946717593</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Company_162</t>
+          <t>Company_163</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4176,24 +4174,24 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>3002.62</v>
+        <v>4129.25</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>PRJ-314</t>
+          <t>PRJ-691</t>
         </is>
       </c>
       <c r="F144" s="2" t="n">
-        <v>45880.67946717593</v>
+        <v>45879.67946717593</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Company_163</t>
+          <t>Company_164</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4202,128 +4200,128 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>4129.25</v>
+        <v>4096.61</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PRJ-691</t>
+          <t>PRJ-693</t>
         </is>
       </c>
       <c r="F145" s="2" t="n">
-        <v>45879.67946717593</v>
+        <v>45878.67946717593</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Company_164</t>
+          <t>Company_166</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4096.61</v>
+        <v>2919.85</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>PRJ-693</t>
+          <t>PRJ-762</t>
         </is>
       </c>
       <c r="F146" s="2" t="n">
-        <v>45878.67946717593</v>
+        <v>45876.67946717593</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Company_166</t>
+          <t>Company_167</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2919.85</v>
+        <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>PRJ-762</t>
+          <t>PRJ-229</t>
         </is>
       </c>
       <c r="F147" s="2" t="n">
-        <v>45876.67946717593</v>
+        <v>45875.67946717593</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Company_167</t>
+          <t>Company_168</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>3323.25</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>PRJ-229</t>
+          <t>PRJ-374</t>
         </is>
       </c>
       <c r="F148" s="2" t="n">
-        <v>45875.67946717593</v>
+        <v>45874.67946717593</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Company_168</t>
+          <t>Company_169</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>3323.25</v>
+        <v>1151.37</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>PRJ-374</t>
+          <t>PRJ-733</t>
         </is>
       </c>
       <c r="F149" s="2" t="n">
-        <v>45874.67946717593</v>
+        <v>45873.67946717593</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Company_169</t>
+          <t>Company_170</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4332,76 +4330,76 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1151.37</v>
+        <v>2901.5</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>PRJ-733</t>
+          <t>PRJ-941</t>
         </is>
       </c>
       <c r="F150" s="2" t="n">
-        <v>45873.67946717593</v>
+        <v>45872.67946717593</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Company_170</t>
+          <t>Company_171</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2901.5</v>
+        <v>0</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>PRJ-941</t>
+          <t>PRJ-325</t>
         </is>
       </c>
       <c r="F151" s="2" t="n">
-        <v>45872.67946717593</v>
+        <v>45871.67946717593</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Company_171</t>
+          <t>Company_172</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>2847.23</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>PRJ-325</t>
+          <t>PRJ-810</t>
         </is>
       </c>
       <c r="F152" s="2" t="n">
-        <v>45871.67946717593</v>
+        <v>45870.67946717593</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Company_172</t>
+          <t>Company_173</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4410,24 +4408,24 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2847.23</v>
+        <v>1238.17</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>PRJ-810</t>
+          <t>PRJ-736</t>
         </is>
       </c>
       <c r="F153" s="2" t="n">
-        <v>45870.67946717593</v>
+        <v>45869.67946717593</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Company_173</t>
+          <t>Company_174</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4436,24 +4434,24 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1238.17</v>
+        <v>2814.06</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>PRJ-736</t>
+          <t>PRJ-767</t>
         </is>
       </c>
       <c r="F154" s="2" t="n">
-        <v>45869.67946717593</v>
+        <v>45868.67946717593</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Company_174</t>
+          <t>Company_176</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4462,50 +4460,50 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2814.06</v>
+        <v>1519.78</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PRJ-767</t>
+          <t>PRJ-902</t>
         </is>
       </c>
       <c r="F155" s="2" t="n">
-        <v>45868.67946717593</v>
+        <v>45866.67946717593</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Company_176</t>
+          <t>Company_177</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1519.78</v>
+        <v>0</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>PRJ-902</t>
+          <t>PRJ-426</t>
         </is>
       </c>
       <c r="F156" s="2" t="n">
-        <v>45866.67946717593</v>
+        <v>45865.67946717593</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Company_177</t>
+          <t>Company_178</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4518,254 +4516,254 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PRJ-426</t>
+          <t>PRJ-234</t>
         </is>
       </c>
       <c r="F157" s="2" t="n">
-        <v>45865.67946717593</v>
+        <v>45864.67946717593</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Company_178</t>
+          <t>Company_179</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>4364.01</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>PRJ-234</t>
+          <t>PRJ-621</t>
         </is>
       </c>
       <c r="F158" s="2" t="n">
-        <v>45864.67946717593</v>
+        <v>45863.67946717593</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Company_179</t>
+          <t>Company_181</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>4364.01</v>
+        <v>0</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PRJ-621</t>
+          <t>PRJ-198</t>
         </is>
       </c>
       <c r="F159" s="2" t="n">
-        <v>45863.67946717593</v>
+        <v>45861.67946717593</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Company_181</t>
+          <t>Company_182</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1653.44</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>PRJ-198</t>
+          <t>PRJ-117</t>
         </is>
       </c>
       <c r="F160" s="2" t="n">
-        <v>45861.67946717593</v>
+        <v>45860.67946717593</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Company_182</t>
+          <t>Company_183</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1653.44</v>
+        <v>0</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PRJ-117</t>
+          <t>PRJ-462</t>
         </is>
       </c>
       <c r="F161" s="2" t="n">
-        <v>45860.67946717593</v>
+        <v>45859.67946717593</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Company_183</t>
+          <t>Company_184</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>3778.51</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>PRJ-462</t>
+          <t>PRJ-260</t>
         </is>
       </c>
       <c r="F162" s="2" t="n">
-        <v>45859.67946717593</v>
+        <v>45858.67946717593</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Company_184</t>
+          <t>Company_186</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>3778.51</v>
+        <v>0</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>PRJ-260</t>
+          <t>PRJ-993</t>
         </is>
       </c>
       <c r="F163" s="2" t="n">
-        <v>45858.67946717593</v>
+        <v>45856.67946717593</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Company_186</t>
+          <t>Company_187</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1759.35</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>PRJ-993</t>
+          <t>PRJ-837</t>
         </is>
       </c>
       <c r="F164" s="2" t="n">
-        <v>45856.67946717593</v>
+        <v>45855.67946717593</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Company_187</t>
+          <t>Company_188</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1759.35</v>
+        <v>2139.08</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>PRJ-837</t>
+          <t>PRJ-230</t>
         </is>
       </c>
       <c r="F165" s="2" t="n">
-        <v>45855.67946717593</v>
+        <v>45854.67946717593</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Company_188</t>
+          <t>Company_189</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2139.08</v>
+        <v>0</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>PRJ-230</t>
+          <t>PRJ-777</t>
         </is>
       </c>
       <c r="F166" s="2" t="n">
-        <v>45854.67946717593</v>
+        <v>45853.67946717593</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Company_189</t>
+          <t>Company_191</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4778,46 +4776,46 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>PRJ-777</t>
+          <t>PRJ-178</t>
         </is>
       </c>
       <c r="F167" s="2" t="n">
-        <v>45853.67946717593</v>
+        <v>45851.67946717593</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Company_191</t>
+          <t>Company_192</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>2224.85</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>PRJ-178</t>
+          <t>PRJ-868</t>
         </is>
       </c>
       <c r="F168" s="2" t="n">
-        <v>45851.67946717593</v>
+        <v>45850.67946717593</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Company_192</t>
+          <t>Company_193</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4826,170 +4824,144 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2224.85</v>
+        <v>2196.71</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>PRJ-868</t>
+          <t>PRJ-867</t>
         </is>
       </c>
       <c r="F169" s="2" t="n">
-        <v>45850.67946717593</v>
+        <v>45849.67946717593</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Company_193</t>
+          <t>Company_194</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2196.71</v>
+        <v>0</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>PRJ-867</t>
+          <t>PRJ-292</t>
         </is>
       </c>
       <c r="F170" s="2" t="n">
-        <v>45849.67946717593</v>
+        <v>45848.67946717593</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Company_194</t>
+          <t>Company_196</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1538.48</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PRJ-292</t>
+          <t>PRJ-576</t>
         </is>
       </c>
       <c r="F171" s="2" t="n">
-        <v>45848.67946717593</v>
+        <v>45846.67946717593</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Company_196</t>
+          <t>Company_197</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Deactive</t>
+          <t>Suspend</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1538.48</v>
+        <v>0</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>PRJ-576</t>
+          <t>PRJ-839</t>
         </is>
       </c>
       <c r="F172" s="2" t="n">
-        <v>45846.67946717593</v>
+        <v>45845.67946717593</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Company_197</t>
+          <t>Company_198</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Suspend</t>
+          <t>Active</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1333.26</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>PRJ-839</t>
+          <t>PRJ-330</t>
         </is>
       </c>
       <c r="F173" s="2" t="n">
-        <v>45845.67946717593</v>
+        <v>45844.67946717593</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Company_198</t>
+          <t>Company_199</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Deactive</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1333.26</v>
+        <v>3108.68</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>PRJ-330</t>
+          <t>PRJ-702</t>
         </is>
       </c>
       <c r="F174" s="2" t="n">
-        <v>45844.67946717593</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>1199</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Company_199</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>3108.68</v>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>PRJ-702</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="n">
         <v>45843.67946717593</v>
       </c>
     </row>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>46040.67946717593</v>
+        <v>46040.67946759259</v>
       </c>
     </row>
     <row r="4">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>46036.67946717593</v>
+        <v>46036.67946759259</v>
       </c>
     </row>
     <row r="8">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Company_100</t>
+          <t>hh</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -16,20 +16,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,22 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,55 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CleanMe</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4455.08</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>46022.67946717593</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -16,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +429,6355 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>project_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>customer_code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>invoice_number</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PRJ-101</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CUST-201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>inv-1001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>valid customer 1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PRJ-102</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CUST-202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>inv-1002</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>valid customer 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PRJ-103</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CUST-203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>inv-1003</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>valid customer 3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PRJ-104</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CUST-204</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>inv-1004</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>valid customer 4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PRJ-105</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CUST-205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>inv-1005</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>valid customer 5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PRJ-106</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CUST-206</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>inv-1006</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>valid customer 6</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PRJ-107</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CUST-207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>inv-1007</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>valid customer 7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PRJ-108</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CUST-208</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>inv-1008</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>valid customer 8</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PRJ-109</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CUST-209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>inv-1009</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>valid customer 9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PRJ-110</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CUST-210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>inv-1010</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>valid customer 10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PRJ-111</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CUST-211</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>inv-1011</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>valid customer 11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PRJ-112</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CUST-212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>inv-1012</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>valid customer 12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PRJ-113</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CUST-213</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>inv-1013</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>valid customer 13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PRJ-114</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CUST-214</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>inv-1014</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>valid customer 14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PRJ-115</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CUST-215</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>inv-1015</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>valid customer 15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PRJ-116</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CUST-216</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>inv-1016</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>valid customer 16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PRJ-117</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CUST-217</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>inv-1017</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>valid customer 17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PRJ-118</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CUST-218</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>inv-1018</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>valid customer 18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PRJ-119</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CUST-219</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>inv-1019</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>valid customer 19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PRJ-120</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CUST-220</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>inv-1020</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>valid customer 20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PRJ-121</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CUST-221</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>inv-1021</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>valid customer 21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PRJ-122</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CUST-222</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>inv-1022</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>valid customer 22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PRJ-123</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CUST-223</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>inv-1023</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>valid customer 23</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PRJ-124</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CUST-224</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>inv-1024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>valid customer 24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PRJ-125</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CUST-225</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>inv-1025</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>valid customer 25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PRJ-126</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CUST-226</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>inv-1026</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>valid customer 26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PRJ-127</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CUST-227</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>inv-1027</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>valid customer 27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PRJ-128</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CUST-228</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>inv-1028</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>valid customer 28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PRJ-129</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CUST-229</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>inv-1029</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>valid customer 29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PRJ-130</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CUST-230</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>inv-1030</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>valid customer 30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PRJ-555</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CUST-555</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>inv-unique-1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>unique invoice</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PRJ-2041</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CUST-3041</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>inv-5041</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>automated user 41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>9254</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PRJ-2042</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CUST-3042</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>inv-5042</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>automated user 42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>9568</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PRJ-2043</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CUST-3043</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>inv-5043</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>automated user 43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1253</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PRJ-2044</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CUST-3044</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>inv-5044</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>automated user 44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>7261</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PRJ-2045</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CUST-3045</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>inv-5045</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>automated user 45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>6834</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PRJ-2046</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CUST-3046</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>inv-5046</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>automated user 46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>7403</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PRJ-2047</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CUST-3047</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>inv-5047</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>automated user 47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1225</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PRJ-2048</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CUST-3048</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>inv-5048</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>automated user 48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>6126</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PRJ-2049</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CUST-3049</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>inv-5049</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>automated user 49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>5328</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PRJ-2050</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CUST-3050</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>inv-5050</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>automated user 50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>7513</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PRJ-2051</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CUST-3051</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>inv-5051</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>automated user 51</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2252</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PRJ-2052</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CUST-3052</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>inv-5052</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>automated user 52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>9763</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PRJ-2053</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CUST-3053</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>inv-5053</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>automated user 53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>6182</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PRJ-2054</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CUST-3054</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>inv-5054</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>automated user 54</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>7632</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PRJ-2055</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CUST-3055</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>inv-5055</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>automated user 55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>7129</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PRJ-2056</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CUST-3056</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>inv-5056</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>automated user 56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>6960</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PRJ-2057</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CUST-3057</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>inv-5057</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>automated user 57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>7808</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PRJ-2058</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CUST-3058</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>inv-5058</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>automated user 58</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>3395</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PRJ-2059</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CUST-3059</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>inv-5059</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>automated user 59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>2088</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PRJ-2060</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CUST-3060</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>inv-5060</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>automated user 60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>5652</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PRJ-2061</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CUST-3061</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>inv-5061</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>automated user 61</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>8462</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PRJ-2062</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CUST-3062</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>inv-5062</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>automated user 62</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>3835</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>PRJ-2063</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CUST-3063</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>inv-5063</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>automated user 63</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>6332</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PRJ-2064</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CUST-3064</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>inv-5064</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>automated user 64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2380</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PRJ-2065</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CUST-3065</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>inv-5065</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>automated user 65</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>981</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PRJ-2066</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CUST-3066</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>inv-5066</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>automated user 66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>708</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>PRJ-2067</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CUST-3067</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>inv-5067</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>automated user 67</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>827</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PRJ-2068</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CUST-3068</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>inv-5068</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>automated user 68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>812</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>PRJ-2069</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CUST-3069</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>inv-5069</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>automated user 69</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>7353</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>PRJ-2070</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CUST-3070</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>inv-5070</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>automated user 70</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>5220</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>PRJ-2071</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CUST-3071</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>inv-5071</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>automated user 71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>7011</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>PRJ-2072</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CUST-3072</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>inv-5072</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>automated user 72</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>3898</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PRJ-2073</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CUST-3073</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>inv-5073</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>automated user 73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>4189</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PRJ-2074</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CUST-3074</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>inv-5074</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>automated user 74</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>2913</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PRJ-2075</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CUST-3075</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>inv-5075</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>automated user 75</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>4294</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PRJ-2076</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CUST-3076</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>inv-5076</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>automated user 76</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>9737</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PRJ-2077</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CUST-3077</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>inv-5077</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>automated user 77</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>9444</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PRJ-2078</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CUST-3078</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>inv-5078</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>automated user 78</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>4699</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PRJ-2079</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CUST-3079</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>inv-5079</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>automated user 79</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>3191</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PRJ-2080</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CUST-3080</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>inv-5080</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>automated user 80</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>3012</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PRJ-2081</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CUST-3081</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>inv-5081</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>automated user 81</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>1238</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PRJ-2082</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CUST-3082</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>inv-5082</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>automated user 82</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>1275</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PRJ-2083</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CUST-3083</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>inv-5083</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>automated user 83</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>633</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PRJ-2084</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CUST-3084</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>inv-5084</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>automated user 84</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>783</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PRJ-2085</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CUST-3085</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>inv-5085</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>automated user 85</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>7126</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PRJ-2086</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CUST-3086</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>inv-5086</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>automated user 86</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>6232</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PRJ-2087</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CUST-3087</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>inv-5087</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>automated user 87</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>7332</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PRJ-2088</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CUST-3088</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>inv-5088</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>automated user 88</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>527</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>PRJ-2089</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CUST-3089</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>inv-5089</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>automated user 89</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>567</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>PRJ-2090</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CUST-3090</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>inv-5090</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>automated user 90</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>2580</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>PRJ-2091</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CUST-3091</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>inv-5091</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>automated user 91</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>9084</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>PRJ-2092</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CUST-3092</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>inv-5092</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>automated user 92</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>2907</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PRJ-2093</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CUST-3093</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>inv-5093</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>automated user 93</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>1158</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PRJ-2094</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CUST-3094</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>inv-5094</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>automated user 94</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>9046</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PRJ-2095</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CUST-3095</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>inv-5095</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>automated user 95</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>5385</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PRJ-2096</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CUST-3096</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>inv-5096</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>automated user 96</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>4385</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PRJ-2097</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CUST-3097</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>inv-5097</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>automated user 97</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>409</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PRJ-2098</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CUST-3098</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>inv-5098</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>automated user 98</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>8208</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PRJ-2099</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CUST-3099</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>inv-5099</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>automated user 99</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>6191</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>PRJ-2100</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CUST-3100</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>inv-5100</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>automated user 100</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>3453</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PRJ-2101</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CUST-3101</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>inv-5101</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>automated user 101</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>8343</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>PRJ-2102</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CUST-3102</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>inv-5102</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>automated user 102</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>7685</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>PRJ-2103</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CUST-3103</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>inv-5103</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>automated user 103</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>7513</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>PRJ-2104</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CUST-3104</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>inv-5104</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>automated user 104</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>109</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>PRJ-2105</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CUST-3105</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>inv-5105</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>automated user 105</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>9220</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>PRJ-2106</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CUST-3106</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>inv-5106</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>automated user 106</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>3017</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PRJ-2107</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CUST-3107</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>inv-5107</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>automated user 107</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>7361</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PRJ-2108</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CUST-3108</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>inv-5108</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>automated user 108</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>2267</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>PRJ-2109</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>CUST-3109</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>inv-5109</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>automated user 109</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>2186</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>PRJ-2110</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CUST-3110</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>inv-5110</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>automated user 110</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>PRJ-2111</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CUST-3111</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>inv-5111</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>automated user 111</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>7998</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>PRJ-2112</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>CUST-3112</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>inv-5112</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>automated user 112</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>7727</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>PRJ-2113</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CUST-3113</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>inv-5113</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>automated user 113</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>5968</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>PRJ-2114</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>CUST-3114</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>inv-5114</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>automated user 114</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>2675</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>PRJ-2115</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CUST-3115</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>inv-5115</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>automated user 115</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>9831</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>PRJ-2116</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CUST-3116</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>inv-5116</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>automated user 116</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1627</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>PRJ-2117</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CUST-3117</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>inv-5117</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>automated user 117</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>6942</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>PRJ-2118</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>CUST-3118</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>inv-5118</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>automated user 118</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>7620</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>PRJ-2119</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>CUST-3119</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>inv-5119</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>automated user 119</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>4324</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>PRJ-2120</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>CUST-3120</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>inv-5120</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>automated user 120</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>8925</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>PRJ-2121</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>CUST-3121</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>inv-5121</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>automated user 121</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>6578</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>PRJ-2122</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>CUST-3122</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>inv-5122</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>automated user 122</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>2149</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>PRJ-2123</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>CUST-3123</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>inv-5123</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>automated user 123</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>6346</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>PRJ-2124</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>CUST-3124</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>inv-5124</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>automated user 124</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>997</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>PRJ-2125</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>CUST-3125</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>inv-5125</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>automated user 125</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>9193</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>PRJ-2126</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>CUST-3126</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>inv-5126</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>automated user 126</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>112</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>PRJ-2127</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>CUST-3127</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>inv-5127</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>automated user 127</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>2306</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>PRJ-2128</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>CUST-3128</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>inv-5128</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>automated user 128</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>8331</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>PRJ-2129</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>CUST-3129</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>inv-5129</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>automated user 129</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>727</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>PRJ-2130</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>CUST-3130</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>inv-5130</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>automated user 130</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>8385</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>PRJ-2131</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>CUST-3131</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>inv-5131</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>automated user 131</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>6623</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>PRJ-2132</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>CUST-3132</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>inv-5132</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>automated user 132</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>2815</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>PRJ-2133</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>CUST-3133</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>inv-5133</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>automated user 133</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>681</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>PRJ-2134</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CUST-3134</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>inv-5134</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>automated user 134</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>9185</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>PRJ-2135</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CUST-3135</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>inv-5135</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>automated user 135</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>705</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>PRJ-2136</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CUST-3136</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>inv-5136</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>automated user 136</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>2744</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>PRJ-2137</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CUST-3137</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>inv-5137</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>automated user 137</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1963</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>PRJ-2138</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>CUST-3138</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>inv-5138</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>automated user 138</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>969</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>PRJ-2139</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CUST-3139</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>inv-5139</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>automated user 139</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>5989</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>PRJ-2140</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CUST-3140</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>inv-5140</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>automated user 140</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>2589</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PRJ-2141</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>CUST-3141</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>inv-5141</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>automated user 141</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>7525</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PRJ-2142</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>CUST-3142</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>inv-5142</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>automated user 142</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>3919</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>PRJ-2143</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>CUST-3143</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>inv-5143</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>automated user 143</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>7988</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>PRJ-2144</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>CUST-3144</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>inv-5144</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>automated user 144</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>5518</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>PRJ-2145</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>CUST-3145</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>inv-5145</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>automated user 145</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>2039</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>PRJ-2146</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>CUST-3146</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>inv-5146</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>automated user 146</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>2753</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>PRJ-2147</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>CUST-3147</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>inv-5147</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>automated user 147</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>2531</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>PRJ-2148</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>CUST-3148</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>inv-5148</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>automated user 148</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>5001</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>PRJ-2149</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>CUST-3149</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>inv-5149</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>automated user 149</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>1391</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>PRJ-2150</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>CUST-3150</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>inv-5150</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>automated user 150</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>8301</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>PRJ-2151</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>CUST-3151</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>inv-5151</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>automated user 151</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>4162</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>PRJ-2152</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>CUST-3152</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>inv-5152</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>automated user 152</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>2846</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>PRJ-2153</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>CUST-3153</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>inv-5153</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>automated user 153</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>9660</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>PRJ-2154</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>CUST-3154</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>inv-5154</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>automated user 154</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>1073</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>PRJ-2155</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>CUST-3155</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>inv-5155</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>automated user 155</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>2773</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>PRJ-2156</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>CUST-3156</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>inv-5156</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>automated user 156</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>8839</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>PRJ-2157</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>CUST-3157</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>inv-5157</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>automated user 157</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>5090</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>PRJ-2158</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>CUST-3158</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>inv-5158</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>automated user 158</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>7645</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>PRJ-2159</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>CUST-3159</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>inv-5159</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>automated user 159</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>6944</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>PRJ-2160</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>CUST-3160</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>inv-5160</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>automated user 160</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>5454</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>PRJ-2161</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>CUST-3161</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>inv-5161</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>automated user 161</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>9624</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>PRJ-2162</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>CUST-3162</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>inv-5162</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>automated user 162</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>6883</v>
+      </c>
+      <c r="G154" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>PRJ-2163</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>CUST-3163</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>inv-5163</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>automated user 163</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>2086</v>
+      </c>
+      <c r="G155" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>PRJ-2164</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>CUST-3164</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>inv-5164</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>automated user 164</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>9802</v>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>PRJ-2165</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>CUST-3165</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>inv-5165</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>automated user 165</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>517</v>
+      </c>
+      <c r="G157" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>PRJ-2166</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>CUST-3166</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>inv-5166</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>automated user 166</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>4151</v>
+      </c>
+      <c r="G158" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>PRJ-2167</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>CUST-3167</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>inv-5167</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>automated user 167</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>6530</v>
+      </c>
+      <c r="G159" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>PRJ-2168</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>CUST-3168</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>inv-5168</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>automated user 168</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>3861</v>
+      </c>
+      <c r="G160" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>PRJ-2169</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>CUST-3169</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>inv-5169</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>automated user 169</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>7102</v>
+      </c>
+      <c r="G161" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>PRJ-2170</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>CUST-3170</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>inv-5170</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>automated user 170</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>482</v>
+      </c>
+      <c r="G162" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>PRJ-2171</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>CUST-3171</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>inv-5171</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>automated user 171</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>7257</v>
+      </c>
+      <c r="G163" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>PRJ-2172</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>CUST-3172</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>inv-5172</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>automated user 172</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>4740</v>
+      </c>
+      <c r="G164" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>PRJ-2173</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>CUST-3173</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>inv-5173</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>automated user 173</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>2146</v>
+      </c>
+      <c r="G165" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>PRJ-2174</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>CUST-3174</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>inv-5174</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>automated user 174</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>3873</v>
+      </c>
+      <c r="G166" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>PRJ-2175</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>CUST-3175</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>inv-5175</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>automated user 175</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>4821</v>
+      </c>
+      <c r="G167" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>PRJ-2176</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>CUST-3176</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>inv-5176</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>automated user 176</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>803</v>
+      </c>
+      <c r="G168" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>PRJ-2177</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>CUST-3177</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>inv-5177</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>automated user 177</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>9076</v>
+      </c>
+      <c r="G169" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>PRJ-2178</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>CUST-3178</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>inv-5178</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>automated user 178</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>3004</v>
+      </c>
+      <c r="G170" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>PRJ-2179</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>CUST-3179</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>inv-5179</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>automated user 179</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>4580</v>
+      </c>
+      <c r="G171" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>PRJ-2180</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>CUST-3180</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>inv-5180</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>automated user 180</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>1032</v>
+      </c>
+      <c r="G172" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>PRJ-2181</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>CUST-3181</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>inv-5181</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>automated user 181</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>6974</v>
+      </c>
+      <c r="G173" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>PRJ-2182</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>CUST-3182</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>inv-5182</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>automated user 182</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>3163</v>
+      </c>
+      <c r="G174" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>PRJ-2183</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>CUST-3183</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>inv-5183</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>automated user 183</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G175" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>PRJ-2184</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>CUST-3184</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>inv-5184</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>automated user 184</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>1646</v>
+      </c>
+      <c r="G176" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>PRJ-2185</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>CUST-3185</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>inv-5185</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>automated user 185</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>9121</v>
+      </c>
+      <c r="G177" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>PRJ-2186</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>CUST-3186</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>inv-5186</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>automated user 186</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>1222</v>
+      </c>
+      <c r="G178" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>PRJ-2187</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>CUST-3187</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>inv-5187</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>automated user 187</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>4667</v>
+      </c>
+      <c r="G179" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>PRJ-2188</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>CUST-3188</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>inv-5188</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>automated user 188</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>5343</v>
+      </c>
+      <c r="G180" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>PRJ-2189</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>CUST-3189</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>inv-5189</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>automated user 189</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>3979</v>
+      </c>
+      <c r="G181" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>PRJ-2190</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>CUST-3190</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>inv-5190</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>automated user 190</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>7806</v>
+      </c>
+      <c r="G182" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>PRJ-2191</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>CUST-3191</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>inv-5191</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>automated user 191</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>5247</v>
+      </c>
+      <c r="G183" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>PRJ-2192</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>CUST-3192</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>inv-5192</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>automated user 192</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>2342</v>
+      </c>
+      <c r="G184" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>PRJ-2193</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>CUST-3193</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>inv-5193</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>automated user 193</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>9701</v>
+      </c>
+      <c r="G185" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>PRJ-2194</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>CUST-3194</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>inv-5194</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>automated user 194</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>9242</v>
+      </c>
+      <c r="G186" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>PRJ-2195</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>CUST-3195</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>inv-5195</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>automated user 195</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>2168</v>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>PRJ-2196</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>CUST-3196</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>inv-5196</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>automated user 196</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G188" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>PRJ-2197</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>CUST-3197</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>inv-5197</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>automated user 197</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>7562</v>
+      </c>
+      <c r="G189" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>PRJ-2198</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>CUST-3198</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>inv-5198</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>automated user 198</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>2529</v>
+      </c>
+      <c r="G190" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>PRJ-2199</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>CUST-3199</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>inv-5199</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>automated user 199</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>6947</v>
+      </c>
+      <c r="G191" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>PRJ-2200</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>CUST-3200</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>inv-5200</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>automated user 200</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>2895</v>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,31 +1467,31 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PRJ-555</t>
+          <t>PRJ-777</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CUST-555</t>
+          <t>CUST-777</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>inv-unique-1</t>
+          <t>inv-4001</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>unique invoice</t>
+          <t>suspend with zero success</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>suspend</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>45658</v>
@@ -1500,55 +1500,55 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PRJ-2041</t>
+          <t>PRJ-555</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CUST-3041</t>
+          <t>CUST-555</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>inv-5041</t>
+          <t>inv-unique-1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>automated user 41</t>
+          <t>unique invoice</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>9254</v>
+        <v>100</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45940</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PRJ-2042</t>
+          <t>PRJ-2041</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CUST-3042</t>
+          <t>CUST-3041</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>inv-5042</t>
+          <t>inv-5041</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>automated user 42</t>
+          <t>automated user 41</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9568</v>
+        <v>9254</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>45940</v>
@@ -1566,31 +1566,31 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PRJ-2043</t>
+          <t>PRJ-2042</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CUST-3043</t>
+          <t>CUST-3042</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>inv-5043</t>
+          <t>inv-5042</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>automated user 43</t>
+          <t>automated user 42</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1253</v>
+        <v>9568</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>45940</v>
@@ -1599,22 +1599,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PRJ-2044</t>
+          <t>PRJ-2043</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CUST-3044</t>
+          <t>CUST-3043</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>inv-5044</t>
+          <t>inv-5043</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>automated user 44</t>
+          <t>automated user 43</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7261</v>
+        <v>1253</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>45940</v>
@@ -1632,31 +1632,31 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PRJ-2045</t>
+          <t>PRJ-2044</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CUST-3045</t>
+          <t>CUST-3044</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>inv-5045</t>
+          <t>inv-5044</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>automated user 45</t>
+          <t>automated user 44</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6834</v>
+        <v>7261</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>45940</v>
@@ -1665,31 +1665,31 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PRJ-2046</t>
+          <t>PRJ-2045</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CUST-3046</t>
+          <t>CUST-3045</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>inv-5046</t>
+          <t>inv-5045</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>automated user 46</t>
+          <t>automated user 45</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>7403</v>
+        <v>6834</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>45940</v>
@@ -1698,22 +1698,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PRJ-2047</t>
+          <t>PRJ-2046</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CUST-3047</t>
+          <t>CUST-3046</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>inv-5047</t>
+          <t>inv-5046</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>automated user 47</t>
+          <t>automated user 46</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1225</v>
+        <v>7403</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>45940</v>
@@ -1731,22 +1731,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PRJ-2048</t>
+          <t>PRJ-2047</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CUST-3048</t>
+          <t>CUST-3047</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>inv-5048</t>
+          <t>inv-5047</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>automated user 48</t>
+          <t>automated user 47</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6126</v>
+        <v>1225</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>45940</v>
@@ -1764,31 +1764,31 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PRJ-2049</t>
+          <t>PRJ-2048</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CUST-3049</t>
+          <t>CUST-3048</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>inv-5049</t>
+          <t>inv-5048</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>automated user 49</t>
+          <t>automated user 48</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5328</v>
+        <v>6126</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>45940</v>
@@ -1797,31 +1797,31 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PRJ-2050</t>
+          <t>PRJ-2049</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CUST-3050</t>
+          <t>CUST-3049</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>inv-5050</t>
+          <t>inv-5049</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>automated user 50</t>
+          <t>automated user 49</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>7513</v>
+        <v>5328</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>45940</v>
@@ -1830,31 +1830,31 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PRJ-2051</t>
+          <t>PRJ-2050</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CUST-3051</t>
+          <t>CUST-3050</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>inv-5051</t>
+          <t>inv-5050</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>automated user 51</t>
+          <t>automated user 50</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2252</v>
+        <v>7513</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>45940</v>
@@ -1863,31 +1863,31 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PRJ-2052</t>
+          <t>PRJ-2051</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CUST-3052</t>
+          <t>CUST-3051</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>inv-5052</t>
+          <t>inv-5051</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>automated user 52</t>
+          <t>automated user 51</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>9763</v>
+        <v>2252</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>45940</v>
@@ -1896,22 +1896,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PRJ-2053</t>
+          <t>PRJ-2052</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CUST-3053</t>
+          <t>CUST-3052</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>inv-5053</t>
+          <t>inv-5052</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>automated user 53</t>
+          <t>automated user 52</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6182</v>
+        <v>9763</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>45940</v>
@@ -1929,22 +1929,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PRJ-2054</t>
+          <t>PRJ-2053</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CUST-3054</t>
+          <t>CUST-3053</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>inv-5054</t>
+          <t>inv-5053</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>automated user 54</t>
+          <t>automated user 53</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>7632</v>
+        <v>6182</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>45940</v>
@@ -1962,31 +1962,31 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PRJ-2055</t>
+          <t>PRJ-2054</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CUST-3055</t>
+          <t>CUST-3054</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>inv-5055</t>
+          <t>inv-5054</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>automated user 55</t>
+          <t>automated user 54</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7129</v>
+        <v>7632</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>45940</v>
@@ -1995,22 +1995,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PRJ-2056</t>
+          <t>PRJ-2055</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CUST-3056</t>
+          <t>CUST-3055</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>inv-5056</t>
+          <t>inv-5055</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>automated user 56</t>
+          <t>automated user 55</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6960</v>
+        <v>7129</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>45940</v>
@@ -2028,31 +2028,31 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PRJ-2057</t>
+          <t>PRJ-2056</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CUST-3057</t>
+          <t>CUST-3056</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>inv-5057</t>
+          <t>inv-5056</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>automated user 57</t>
+          <t>automated user 56</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>7808</v>
+        <v>6960</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>45940</v>
@@ -2061,31 +2061,31 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PRJ-2058</t>
+          <t>PRJ-2057</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CUST-3058</t>
+          <t>CUST-3057</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>inv-5058</t>
+          <t>inv-5057</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>automated user 58</t>
+          <t>automated user 57</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3395</v>
+        <v>7808</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>45940</v>
@@ -2094,22 +2094,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PRJ-2059</t>
+          <t>PRJ-2058</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CUST-3059</t>
+          <t>CUST-3058</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>inv-5059</t>
+          <t>inv-5058</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>automated user 59</t>
+          <t>automated user 58</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2088</v>
+        <v>3395</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>45940</v>
@@ -2127,31 +2127,31 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PRJ-2060</t>
+          <t>PRJ-2059</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CUST-3060</t>
+          <t>CUST-3059</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>inv-5060</t>
+          <t>inv-5059</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>automated user 60</t>
+          <t>automated user 59</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5652</v>
+        <v>2088</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>45940</v>
@@ -2160,31 +2160,31 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PRJ-2061</t>
+          <t>PRJ-2060</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CUST-3061</t>
+          <t>CUST-3060</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>inv-5061</t>
+          <t>inv-5060</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>automated user 61</t>
+          <t>automated user 60</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>8462</v>
+        <v>5652</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>45940</v>
@@ -2193,31 +2193,31 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PRJ-2062</t>
+          <t>PRJ-2061</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CUST-3062</t>
+          <t>CUST-3061</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>inv-5062</t>
+          <t>inv-5061</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>automated user 62</t>
+          <t>automated user 61</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3835</v>
+        <v>8462</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>45940</v>
@@ -2226,31 +2226,31 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PRJ-2063</t>
+          <t>PRJ-2062</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CUST-3063</t>
+          <t>CUST-3062</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>inv-5063</t>
+          <t>inv-5062</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>automated user 63</t>
+          <t>automated user 62</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6332</v>
+        <v>3835</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>45940</v>
@@ -2259,31 +2259,31 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PRJ-2064</t>
+          <t>PRJ-2063</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CUST-3064</t>
+          <t>CUST-3063</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>inv-5064</t>
+          <t>inv-5063</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>automated user 64</t>
+          <t>automated user 63</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2380</v>
+        <v>6332</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>45940</v>
@@ -2292,22 +2292,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PRJ-2065</t>
+          <t>PRJ-2064</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CUST-3065</t>
+          <t>CUST-3064</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>inv-5065</t>
+          <t>inv-5064</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>automated user 65</t>
+          <t>automated user 64</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>981</v>
+        <v>2380</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>45940</v>
@@ -2325,31 +2325,31 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PRJ-2066</t>
+          <t>PRJ-2065</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CUST-3066</t>
+          <t>CUST-3065</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>inv-5066</t>
+          <t>inv-5065</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>automated user 66</t>
+          <t>automated user 65</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>708</v>
+        <v>981</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>45940</v>
@@ -2358,22 +2358,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PRJ-2067</t>
+          <t>PRJ-2066</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CUST-3067</t>
+          <t>CUST-3066</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>inv-5067</t>
+          <t>inv-5066</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>automated user 67</t>
+          <t>automated user 66</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>827</v>
+        <v>708</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>45940</v>
@@ -2391,31 +2391,31 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PRJ-2068</t>
+          <t>PRJ-2067</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CUST-3068</t>
+          <t>CUST-3067</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>inv-5068</t>
+          <t>inv-5067</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>automated user 68</t>
+          <t>automated user 67</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>45940</v>
@@ -2424,22 +2424,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PRJ-2069</t>
+          <t>PRJ-2068</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CUST-3069</t>
+          <t>CUST-3068</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>inv-5069</t>
+          <t>inv-5068</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>automated user 69</t>
+          <t>automated user 68</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>7353</v>
+        <v>812</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>45940</v>
@@ -2457,31 +2457,31 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PRJ-2070</t>
+          <t>PRJ-2069</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CUST-3070</t>
+          <t>CUST-3069</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>inv-5070</t>
+          <t>inv-5069</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>automated user 70</t>
+          <t>automated user 69</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5220</v>
+        <v>7353</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>45940</v>
@@ -2490,31 +2490,31 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PRJ-2071</t>
+          <t>PRJ-2070</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CUST-3071</t>
+          <t>CUST-3070</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>inv-5071</t>
+          <t>inv-5070</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>automated user 71</t>
+          <t>automated user 70</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>7011</v>
+        <v>5220</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>45940</v>
@@ -2523,31 +2523,31 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PRJ-2072</t>
+          <t>PRJ-2071</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CUST-3072</t>
+          <t>CUST-3071</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>inv-5072</t>
+          <t>inv-5071</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>automated user 72</t>
+          <t>automated user 71</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3898</v>
+        <v>7011</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>45940</v>
@@ -2556,22 +2556,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PRJ-2073</t>
+          <t>PRJ-2072</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CUST-3073</t>
+          <t>CUST-3072</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>inv-5073</t>
+          <t>inv-5072</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>automated user 73</t>
+          <t>automated user 72</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4189</v>
+        <v>3898</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>45940</v>
@@ -2589,31 +2589,31 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PRJ-2074</t>
+          <t>PRJ-2073</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CUST-3074</t>
+          <t>CUST-3073</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>inv-5074</t>
+          <t>inv-5073</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>automated user 74</t>
+          <t>automated user 73</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2913</v>
+        <v>4189</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>45940</v>
@@ -2622,31 +2622,31 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PRJ-2075</t>
+          <t>PRJ-2074</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CUST-3075</t>
+          <t>CUST-3074</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>inv-5075</t>
+          <t>inv-5074</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>automated user 75</t>
+          <t>automated user 74</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4294</v>
+        <v>2913</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>45940</v>
@@ -2655,31 +2655,31 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PRJ-2076</t>
+          <t>PRJ-2075</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CUST-3076</t>
+          <t>CUST-3075</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>inv-5076</t>
+          <t>inv-5075</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>automated user 76</t>
+          <t>automated user 75</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>9737</v>
+        <v>4294</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>45940</v>
@@ -2688,31 +2688,31 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PRJ-2077</t>
+          <t>PRJ-2076</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CUST-3077</t>
+          <t>CUST-3076</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>inv-5077</t>
+          <t>inv-5076</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>automated user 77</t>
+          <t>automated user 76</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>9444</v>
+        <v>9737</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>45940</v>
@@ -2721,31 +2721,31 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PRJ-2078</t>
+          <t>PRJ-2077</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CUST-3078</t>
+          <t>CUST-3077</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>inv-5078</t>
+          <t>inv-5077</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>automated user 78</t>
+          <t>automated user 77</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4699</v>
+        <v>9444</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>45940</v>
@@ -2754,31 +2754,31 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PRJ-2079</t>
+          <t>PRJ-2078</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CUST-3079</t>
+          <t>CUST-3078</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>inv-5079</t>
+          <t>inv-5078</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>automated user 79</t>
+          <t>automated user 78</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3191</v>
+        <v>4699</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>45940</v>
@@ -2787,31 +2787,31 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PRJ-2080</t>
+          <t>PRJ-2079</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CUST-3080</t>
+          <t>CUST-3079</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>inv-5080</t>
+          <t>inv-5079</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>automated user 80</t>
+          <t>automated user 79</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3012</v>
+        <v>3191</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>45940</v>
@@ -2820,31 +2820,31 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PRJ-2081</t>
+          <t>PRJ-2080</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CUST-3081</t>
+          <t>CUST-3080</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>inv-5081</t>
+          <t>inv-5080</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>automated user 81</t>
+          <t>automated user 80</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1238</v>
+        <v>3012</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>45940</v>
@@ -2853,31 +2853,31 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PRJ-2082</t>
+          <t>PRJ-2081</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CUST-3082</t>
+          <t>CUST-3081</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>inv-5082</t>
+          <t>inv-5081</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>automated user 82</t>
+          <t>automated user 81</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1275</v>
+        <v>1238</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>45940</v>
@@ -2886,31 +2886,31 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PRJ-2083</t>
+          <t>PRJ-2082</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CUST-3083</t>
+          <t>CUST-3082</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>inv-5083</t>
+          <t>inv-5082</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>automated user 83</t>
+          <t>automated user 82</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>633</v>
+        <v>1275</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>45940</v>
@@ -2919,22 +2919,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PRJ-2084</t>
+          <t>PRJ-2083</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CUST-3084</t>
+          <t>CUST-3083</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>inv-5084</t>
+          <t>inv-5083</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>automated user 84</t>
+          <t>automated user 83</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>783</v>
+        <v>633</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>45940</v>
@@ -2952,31 +2952,31 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PRJ-2085</t>
+          <t>PRJ-2084</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CUST-3085</t>
+          <t>CUST-3084</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>inv-5085</t>
+          <t>inv-5084</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>automated user 85</t>
+          <t>automated user 84</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>7126</v>
+        <v>783</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>45940</v>
@@ -2985,31 +2985,31 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PRJ-2086</t>
+          <t>PRJ-2085</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CUST-3086</t>
+          <t>CUST-3085</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>inv-5086</t>
+          <t>inv-5085</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>automated user 86</t>
+          <t>automated user 85</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>6232</v>
+        <v>7126</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>45940</v>
@@ -3018,22 +3018,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PRJ-2087</t>
+          <t>PRJ-2086</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CUST-3087</t>
+          <t>CUST-3086</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>inv-5087</t>
+          <t>inv-5086</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>automated user 87</t>
+          <t>automated user 86</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>7332</v>
+        <v>6232</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>45940</v>
@@ -3051,22 +3051,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PRJ-2088</t>
+          <t>PRJ-2087</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CUST-3088</t>
+          <t>CUST-3087</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>inv-5088</t>
+          <t>inv-5087</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>automated user 88</t>
+          <t>automated user 87</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>527</v>
+        <v>7332</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>45940</v>
@@ -3084,31 +3084,31 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PRJ-2089</t>
+          <t>PRJ-2088</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CUST-3089</t>
+          <t>CUST-3088</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>inv-5089</t>
+          <t>inv-5088</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>automated user 89</t>
+          <t>automated user 88</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>567</v>
+        <v>527</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>45940</v>
@@ -3117,22 +3117,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PRJ-2090</t>
+          <t>PRJ-2089</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CUST-3090</t>
+          <t>CUST-3089</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>inv-5090</t>
+          <t>inv-5089</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>automated user 90</t>
+          <t>automated user 89</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2580</v>
+        <v>567</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>45940</v>
@@ -3150,31 +3150,31 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PRJ-2091</t>
+          <t>PRJ-2090</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CUST-3091</t>
+          <t>CUST-3090</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>inv-5091</t>
+          <t>inv-5090</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>automated user 91</t>
+          <t>automated user 90</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>9084</v>
+        <v>2580</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>45940</v>
@@ -3183,31 +3183,31 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PRJ-2092</t>
+          <t>PRJ-2091</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CUST-3092</t>
+          <t>CUST-3091</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>inv-5092</t>
+          <t>inv-5091</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>automated user 92</t>
+          <t>automated user 91</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2907</v>
+        <v>9084</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>45940</v>
@@ -3216,22 +3216,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PRJ-2093</t>
+          <t>PRJ-2092</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CUST-3093</t>
+          <t>CUST-3092</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>inv-5093</t>
+          <t>inv-5092</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>automated user 93</t>
+          <t>automated user 92</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1158</v>
+        <v>2907</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>45940</v>
@@ -3249,22 +3249,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PRJ-2094</t>
+          <t>PRJ-2093</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CUST-3094</t>
+          <t>CUST-3093</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>inv-5094</t>
+          <t>inv-5093</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>automated user 94</t>
+          <t>automated user 93</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>9046</v>
+        <v>1158</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>45940</v>
@@ -3282,31 +3282,31 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PRJ-2095</t>
+          <t>PRJ-2094</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CUST-3095</t>
+          <t>CUST-3094</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>inv-5095</t>
+          <t>inv-5094</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>automated user 95</t>
+          <t>automated user 94</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5385</v>
+        <v>9046</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>45940</v>
@@ -3315,31 +3315,31 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PRJ-2096</t>
+          <t>PRJ-2095</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CUST-3096</t>
+          <t>CUST-3095</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>inv-5096</t>
+          <t>inv-5095</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>automated user 96</t>
+          <t>automated user 95</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4385</v>
+        <v>5385</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>45940</v>
@@ -3348,31 +3348,31 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PRJ-2097</t>
+          <t>PRJ-2096</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CUST-3097</t>
+          <t>CUST-3096</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>inv-5097</t>
+          <t>inv-5096</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>automated user 97</t>
+          <t>automated user 96</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>409</v>
+        <v>4385</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>45940</v>
@@ -3381,31 +3381,31 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PRJ-2098</t>
+          <t>PRJ-2097</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CUST-3098</t>
+          <t>CUST-3097</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>inv-5098</t>
+          <t>inv-5097</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>automated user 98</t>
+          <t>automated user 97</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>8208</v>
+        <v>409</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>45940</v>
@@ -3414,22 +3414,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PRJ-2099</t>
+          <t>PRJ-2098</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CUST-3099</t>
+          <t>CUST-3098</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>inv-5099</t>
+          <t>inv-5098</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>automated user 99</t>
+          <t>automated user 98</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>6191</v>
+        <v>8208</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>45940</v>
@@ -3447,31 +3447,31 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PRJ-2100</t>
+          <t>PRJ-2099</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CUST-3100</t>
+          <t>CUST-3099</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>inv-5100</t>
+          <t>inv-5099</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>automated user 100</t>
+          <t>automated user 99</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3453</v>
+        <v>6191</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>45940</v>
@@ -3480,31 +3480,31 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PRJ-2101</t>
+          <t>PRJ-2100</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CUST-3101</t>
+          <t>CUST-3100</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>inv-5101</t>
+          <t>inv-5100</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>automated user 101</t>
+          <t>automated user 100</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>8343</v>
+        <v>3453</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>45940</v>
@@ -3513,22 +3513,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PRJ-2102</t>
+          <t>PRJ-2101</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CUST-3102</t>
+          <t>CUST-3101</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>inv-5102</t>
+          <t>inv-5101</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>automated user 102</t>
+          <t>automated user 101</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>7685</v>
+        <v>8343</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>45940</v>
@@ -3546,31 +3546,31 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PRJ-2103</t>
+          <t>PRJ-2102</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CUST-3103</t>
+          <t>CUST-3102</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>inv-5103</t>
+          <t>inv-5102</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>automated user 103</t>
+          <t>automated user 102</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>7513</v>
+        <v>7685</v>
       </c>
       <c r="G95" s="2" t="n">
         <v>45940</v>
@@ -3579,31 +3579,31 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PRJ-2104</t>
+          <t>PRJ-2103</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CUST-3104</t>
+          <t>CUST-3103</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>inv-5104</t>
+          <t>inv-5103</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>automated user 104</t>
+          <t>automated user 103</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>109</v>
+        <v>7513</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>45940</v>
@@ -3612,22 +3612,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PRJ-2105</t>
+          <t>PRJ-2104</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CUST-3105</t>
+          <t>CUST-3104</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>inv-5105</t>
+          <t>inv-5104</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>automated user 105</t>
+          <t>automated user 104</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>9220</v>
+        <v>109</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>45940</v>
@@ -3645,22 +3645,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PRJ-2106</t>
+          <t>PRJ-2105</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CUST-3106</t>
+          <t>CUST-3105</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>inv-5106</t>
+          <t>inv-5105</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>automated user 106</t>
+          <t>automated user 105</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3017</v>
+        <v>9220</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>45940</v>
@@ -3678,31 +3678,31 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PRJ-2107</t>
+          <t>PRJ-2106</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CUST-3107</t>
+          <t>CUST-3106</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>inv-5107</t>
+          <t>inv-5106</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>automated user 107</t>
+          <t>automated user 106</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>7361</v>
+        <v>3017</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>45940</v>
@@ -3711,22 +3711,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PRJ-2108</t>
+          <t>PRJ-2107</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CUST-3108</t>
+          <t>CUST-3107</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>inv-5108</t>
+          <t>inv-5107</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>automated user 108</t>
+          <t>automated user 107</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2267</v>
+        <v>7361</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>45940</v>
@@ -3744,31 +3744,31 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PRJ-2109</t>
+          <t>PRJ-2108</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CUST-3109</t>
+          <t>CUST-3108</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>inv-5109</t>
+          <t>inv-5108</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>automated user 109</t>
+          <t>automated user 108</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2186</v>
+        <v>2267</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>45940</v>
@@ -3777,22 +3777,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PRJ-2110</t>
+          <t>PRJ-2109</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CUST-3110</t>
+          <t>CUST-3109</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>inv-5110</t>
+          <t>inv-5109</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>automated user 110</t>
+          <t>automated user 109</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3801,7 +3801,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2998</v>
+        <v>2186</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>45940</v>
@@ -3810,31 +3810,31 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PRJ-2111</t>
+          <t>PRJ-2110</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CUST-3111</t>
+          <t>CUST-3110</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>inv-5111</t>
+          <t>inv-5110</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>automated user 111</t>
+          <t>automated user 110</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>7998</v>
+        <v>2998</v>
       </c>
       <c r="G103" s="2" t="n">
         <v>45940</v>
@@ -3843,31 +3843,31 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PRJ-2112</t>
+          <t>PRJ-2111</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CUST-3112</t>
+          <t>CUST-3111</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>inv-5112</t>
+          <t>inv-5111</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>automated user 112</t>
+          <t>automated user 111</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>7727</v>
+        <v>7998</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>45940</v>
@@ -3876,31 +3876,31 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PRJ-2113</t>
+          <t>PRJ-2112</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CUST-3113</t>
+          <t>CUST-3112</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>inv-5113</t>
+          <t>inv-5112</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>automated user 113</t>
+          <t>automated user 112</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5968</v>
+        <v>7727</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>45940</v>
@@ -3909,31 +3909,31 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PRJ-2114</t>
+          <t>PRJ-2113</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CUST-3114</t>
+          <t>CUST-3113</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>inv-5114</t>
+          <t>inv-5113</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>automated user 114</t>
+          <t>automated user 113</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2675</v>
+        <v>5968</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>45940</v>
@@ -3942,31 +3942,31 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PRJ-2115</t>
+          <t>PRJ-2114</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CUST-3115</t>
+          <t>CUST-3114</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>inv-5115</t>
+          <t>inv-5114</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>automated user 115</t>
+          <t>automated user 114</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>9831</v>
+        <v>2675</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>45940</v>
@@ -3975,22 +3975,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PRJ-2116</t>
+          <t>PRJ-2115</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CUST-3116</t>
+          <t>CUST-3115</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>inv-5116</t>
+          <t>inv-5115</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>automated user 116</t>
+          <t>automated user 115</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1627</v>
+        <v>9831</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>45940</v>
@@ -4008,22 +4008,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>PRJ-2117</t>
+          <t>PRJ-2116</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CUST-3117</t>
+          <t>CUST-3116</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>inv-5117</t>
+          <t>inv-5116</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>automated user 117</t>
+          <t>automated user 116</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>6942</v>
+        <v>1627</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>45940</v>
@@ -4041,22 +4041,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PRJ-2118</t>
+          <t>PRJ-2117</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CUST-3118</t>
+          <t>CUST-3117</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>inv-5118</t>
+          <t>inv-5117</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>automated user 118</t>
+          <t>automated user 117</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>7620</v>
+        <v>6942</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>45940</v>
@@ -4074,22 +4074,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PRJ-2119</t>
+          <t>PRJ-2118</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CUST-3119</t>
+          <t>CUST-3118</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>inv-5119</t>
+          <t>inv-5118</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>automated user 119</t>
+          <t>automated user 118</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4324</v>
+        <v>7620</v>
       </c>
       <c r="G111" s="2" t="n">
         <v>45940</v>
@@ -4107,31 +4107,31 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PRJ-2120</t>
+          <t>PRJ-2119</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CUST-3120</t>
+          <t>CUST-3119</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>inv-5120</t>
+          <t>inv-5119</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>automated user 120</t>
+          <t>automated user 119</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>8925</v>
+        <v>4324</v>
       </c>
       <c r="G112" s="2" t="n">
         <v>45940</v>
@@ -4140,31 +4140,31 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PRJ-2121</t>
+          <t>PRJ-2120</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CUST-3121</t>
+          <t>CUST-3120</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>inv-5121</t>
+          <t>inv-5120</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>automated user 121</t>
+          <t>automated user 120</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>6578</v>
+        <v>8925</v>
       </c>
       <c r="G113" s="2" t="n">
         <v>45940</v>
@@ -4173,22 +4173,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PRJ-2122</t>
+          <t>PRJ-2121</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CUST-3122</t>
+          <t>CUST-3121</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>inv-5122</t>
+          <t>inv-5121</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>automated user 122</t>
+          <t>automated user 121</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2149</v>
+        <v>6578</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>45940</v>
@@ -4206,22 +4206,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PRJ-2123</t>
+          <t>PRJ-2122</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CUST-3123</t>
+          <t>CUST-3122</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>inv-5123</t>
+          <t>inv-5122</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>automated user 123</t>
+          <t>automated user 122</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4230,7 +4230,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>6346</v>
+        <v>2149</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>45940</v>
@@ -4239,22 +4239,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PRJ-2124</t>
+          <t>PRJ-2123</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CUST-3124</t>
+          <t>CUST-3123</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>inv-5124</t>
+          <t>inv-5123</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>automated user 124</t>
+          <t>automated user 123</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>997</v>
+        <v>6346</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>45940</v>
@@ -4272,22 +4272,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PRJ-2125</t>
+          <t>PRJ-2124</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CUST-3125</t>
+          <t>CUST-3124</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>inv-5125</t>
+          <t>inv-5124</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>automated user 125</t>
+          <t>automated user 124</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>9193</v>
+        <v>997</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>45940</v>
@@ -4305,22 +4305,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PRJ-2126</t>
+          <t>PRJ-2125</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CUST-3126</t>
+          <t>CUST-3125</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>inv-5126</t>
+          <t>inv-5125</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>automated user 126</t>
+          <t>automated user 125</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>112</v>
+        <v>9193</v>
       </c>
       <c r="G118" s="2" t="n">
         <v>45940</v>
@@ -4338,31 +4338,31 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PRJ-2127</t>
+          <t>PRJ-2126</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CUST-3127</t>
+          <t>CUST-3126</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>inv-5127</t>
+          <t>inv-5126</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>automated user 127</t>
+          <t>automated user 126</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2306</v>
+        <v>112</v>
       </c>
       <c r="G119" s="2" t="n">
         <v>45940</v>
@@ -4371,31 +4371,31 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PRJ-2128</t>
+          <t>PRJ-2127</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CUST-3128</t>
+          <t>CUST-3127</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>inv-5128</t>
+          <t>inv-5127</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>automated user 128</t>
+          <t>automated user 127</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>8331</v>
+        <v>2306</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>45940</v>
@@ -4404,22 +4404,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PRJ-2129</t>
+          <t>PRJ-2128</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CUST-3129</t>
+          <t>CUST-3128</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>inv-5129</t>
+          <t>inv-5128</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>automated user 129</t>
+          <t>automated user 128</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>727</v>
+        <v>8331</v>
       </c>
       <c r="G121" s="2" t="n">
         <v>45940</v>
@@ -4437,22 +4437,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PRJ-2130</t>
+          <t>PRJ-2129</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CUST-3130</t>
+          <t>CUST-3129</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>inv-5130</t>
+          <t>inv-5129</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>automated user 130</t>
+          <t>automated user 129</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>8385</v>
+        <v>727</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>45940</v>
@@ -4470,31 +4470,31 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PRJ-2131</t>
+          <t>PRJ-2130</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CUST-3131</t>
+          <t>CUST-3130</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>inv-5131</t>
+          <t>inv-5130</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>automated user 131</t>
+          <t>automated user 130</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>6623</v>
+        <v>8385</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>45940</v>
@@ -4503,31 +4503,31 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PRJ-2132</t>
+          <t>PRJ-2131</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CUST-3132</t>
+          <t>CUST-3131</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>inv-5132</t>
+          <t>inv-5131</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>automated user 132</t>
+          <t>automated user 131</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2815</v>
+        <v>6623</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>45940</v>
@@ -4536,31 +4536,31 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PRJ-2133</t>
+          <t>PRJ-2132</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CUST-3133</t>
+          <t>CUST-3132</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>inv-5133</t>
+          <t>inv-5132</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>automated user 133</t>
+          <t>automated user 132</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>681</v>
+        <v>2815</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>45940</v>
@@ -4569,22 +4569,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>PRJ-2134</t>
+          <t>PRJ-2133</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CUST-3134</t>
+          <t>CUST-3133</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>inv-5134</t>
+          <t>inv-5133</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>automated user 134</t>
+          <t>automated user 133</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>9185</v>
+        <v>681</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>45940</v>
@@ -4602,31 +4602,31 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PRJ-2135</t>
+          <t>PRJ-2134</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CUST-3135</t>
+          <t>CUST-3134</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>inv-5135</t>
+          <t>inv-5134</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>automated user 135</t>
+          <t>automated user 134</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>705</v>
+        <v>9185</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>45940</v>
@@ -4635,31 +4635,31 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PRJ-2136</t>
+          <t>PRJ-2135</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CUST-3136</t>
+          <t>CUST-3135</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>inv-5136</t>
+          <t>inv-5135</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>automated user 136</t>
+          <t>automated user 135</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2744</v>
+        <v>705</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>45940</v>
@@ -4668,22 +4668,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PRJ-2137</t>
+          <t>PRJ-2136</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CUST-3137</t>
+          <t>CUST-3136</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>inv-5137</t>
+          <t>inv-5136</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>automated user 137</t>
+          <t>automated user 136</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1963</v>
+        <v>2744</v>
       </c>
       <c r="G129" s="2" t="n">
         <v>45940</v>
@@ -4701,31 +4701,31 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PRJ-2138</t>
+          <t>PRJ-2137</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CUST-3138</t>
+          <t>CUST-3137</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>inv-5138</t>
+          <t>inv-5137</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>automated user 138</t>
+          <t>automated user 137</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>969</v>
+        <v>1963</v>
       </c>
       <c r="G130" s="2" t="n">
         <v>45940</v>
@@ -4734,22 +4734,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PRJ-2139</t>
+          <t>PRJ-2138</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CUST-3139</t>
+          <t>CUST-3138</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>inv-5139</t>
+          <t>inv-5138</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>automated user 139</t>
+          <t>automated user 138</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>5989</v>
+        <v>969</v>
       </c>
       <c r="G131" s="2" t="n">
         <v>45940</v>
@@ -4767,22 +4767,22 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PRJ-2140</t>
+          <t>PRJ-2139</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CUST-3140</t>
+          <t>CUST-3139</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>inv-5140</t>
+          <t>inv-5139</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>automated user 140</t>
+          <t>automated user 139</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2589</v>
+        <v>5989</v>
       </c>
       <c r="G132" s="2" t="n">
         <v>45940</v>
@@ -4800,31 +4800,31 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PRJ-2141</t>
+          <t>PRJ-2140</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CUST-3141</t>
+          <t>CUST-3140</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>inv-5141</t>
+          <t>inv-5140</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>automated user 141</t>
+          <t>automated user 140</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>7525</v>
+        <v>2589</v>
       </c>
       <c r="G133" s="2" t="n">
         <v>45940</v>
@@ -4833,31 +4833,31 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PRJ-2142</t>
+          <t>PRJ-2141</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CUST-3142</t>
+          <t>CUST-3141</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>inv-5142</t>
+          <t>inv-5141</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>automated user 142</t>
+          <t>automated user 141</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3919</v>
+        <v>7525</v>
       </c>
       <c r="G134" s="2" t="n">
         <v>45940</v>
@@ -4866,22 +4866,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PRJ-2143</t>
+          <t>PRJ-2142</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CUST-3143</t>
+          <t>CUST-3142</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>inv-5143</t>
+          <t>inv-5142</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>automated user 143</t>
+          <t>automated user 142</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>7988</v>
+        <v>3919</v>
       </c>
       <c r="G135" s="2" t="n">
         <v>45940</v>
@@ -4899,22 +4899,22 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PRJ-2144</t>
+          <t>PRJ-2143</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CUST-3144</t>
+          <t>CUST-3143</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>inv-5144</t>
+          <t>inv-5143</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>automated user 144</t>
+          <t>automated user 143</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>5518</v>
+        <v>7988</v>
       </c>
       <c r="G136" s="2" t="n">
         <v>45940</v>
@@ -4932,31 +4932,31 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PRJ-2145</t>
+          <t>PRJ-2144</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CUST-3145</t>
+          <t>CUST-3144</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>inv-5145</t>
+          <t>inv-5144</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>automated user 145</t>
+          <t>automated user 144</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2039</v>
+        <v>5518</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>45940</v>
@@ -4965,31 +4965,31 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PRJ-2146</t>
+          <t>PRJ-2145</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CUST-3146</t>
+          <t>CUST-3145</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>inv-5146</t>
+          <t>inv-5145</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>automated user 146</t>
+          <t>automated user 145</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2753</v>
+        <v>2039</v>
       </c>
       <c r="G138" s="2" t="n">
         <v>45940</v>
@@ -4998,31 +4998,31 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PRJ-2147</t>
+          <t>PRJ-2146</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CUST-3147</t>
+          <t>CUST-3146</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>inv-5147</t>
+          <t>inv-5146</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>automated user 147</t>
+          <t>automated user 146</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2531</v>
+        <v>2753</v>
       </c>
       <c r="G139" s="2" t="n">
         <v>45940</v>
@@ -5031,31 +5031,31 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PRJ-2148</t>
+          <t>PRJ-2147</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CUST-3148</t>
+          <t>CUST-3147</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>inv-5148</t>
+          <t>inv-5147</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>automated user 148</t>
+          <t>automated user 147</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>5001</v>
+        <v>2531</v>
       </c>
       <c r="G140" s="2" t="n">
         <v>45940</v>
@@ -5064,31 +5064,31 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PRJ-2149</t>
+          <t>PRJ-2148</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CUST-3149</t>
+          <t>CUST-3148</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>inv-5149</t>
+          <t>inv-5148</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>automated user 149</t>
+          <t>automated user 148</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1391</v>
+        <v>5001</v>
       </c>
       <c r="G141" s="2" t="n">
         <v>45940</v>
@@ -5097,22 +5097,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PRJ-2150</t>
+          <t>PRJ-2149</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CUST-3150</t>
+          <t>CUST-3149</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>inv-5150</t>
+          <t>inv-5149</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>automated user 150</t>
+          <t>automated user 149</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>8301</v>
+        <v>1391</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>45940</v>
@@ -5130,22 +5130,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PRJ-2151</t>
+          <t>PRJ-2150</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CUST-3151</t>
+          <t>CUST-3150</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>inv-5151</t>
+          <t>inv-5150</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>automated user 151</t>
+          <t>automated user 150</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>4162</v>
+        <v>8301</v>
       </c>
       <c r="G143" s="2" t="n">
         <v>45940</v>
@@ -5163,31 +5163,31 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>PRJ-2152</t>
+          <t>PRJ-2151</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CUST-3152</t>
+          <t>CUST-3151</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>inv-5152</t>
+          <t>inv-5151</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>automated user 152</t>
+          <t>automated user 151</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2846</v>
+        <v>4162</v>
       </c>
       <c r="G144" s="2" t="n">
         <v>45940</v>
@@ -5196,31 +5196,31 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PRJ-2153</t>
+          <t>PRJ-2152</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CUST-3153</t>
+          <t>CUST-3152</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>inv-5153</t>
+          <t>inv-5152</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>automated user 153</t>
+          <t>automated user 152</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>9660</v>
+        <v>2846</v>
       </c>
       <c r="G145" s="2" t="n">
         <v>45940</v>
@@ -5229,22 +5229,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PRJ-2154</t>
+          <t>PRJ-2153</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CUST-3154</t>
+          <t>CUST-3153</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>inv-5154</t>
+          <t>inv-5153</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>automated user 154</t>
+          <t>automated user 153</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1073</v>
+        <v>9660</v>
       </c>
       <c r="G146" s="2" t="n">
         <v>45940</v>
@@ -5262,31 +5262,31 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PRJ-2155</t>
+          <t>PRJ-2154</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CUST-3155</t>
+          <t>CUST-3154</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>inv-5155</t>
+          <t>inv-5154</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>automated user 155</t>
+          <t>automated user 154</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2773</v>
+        <v>1073</v>
       </c>
       <c r="G147" s="2" t="n">
         <v>45940</v>
@@ -5295,31 +5295,31 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PRJ-2156</t>
+          <t>PRJ-2155</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CUST-3156</t>
+          <t>CUST-3155</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>inv-5156</t>
+          <t>inv-5155</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>automated user 156</t>
+          <t>automated user 155</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>8839</v>
+        <v>2773</v>
       </c>
       <c r="G148" s="2" t="n">
         <v>45940</v>
@@ -5328,31 +5328,31 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PRJ-2157</t>
+          <t>PRJ-2156</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CUST-3157</t>
+          <t>CUST-3156</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>inv-5157</t>
+          <t>inv-5156</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>automated user 157</t>
+          <t>automated user 156</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5090</v>
+        <v>8839</v>
       </c>
       <c r="G149" s="2" t="n">
         <v>45940</v>
@@ -5361,31 +5361,31 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PRJ-2158</t>
+          <t>PRJ-2157</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CUST-3158</t>
+          <t>CUST-3157</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>inv-5158</t>
+          <t>inv-5157</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>automated user 158</t>
+          <t>automated user 157</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>7645</v>
+        <v>5090</v>
       </c>
       <c r="G150" s="2" t="n">
         <v>45940</v>
@@ -5394,31 +5394,31 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PRJ-2159</t>
+          <t>PRJ-2158</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CUST-3159</t>
+          <t>CUST-3158</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>inv-5159</t>
+          <t>inv-5158</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>automated user 159</t>
+          <t>automated user 158</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>6944</v>
+        <v>7645</v>
       </c>
       <c r="G151" s="2" t="n">
         <v>45940</v>
@@ -5427,31 +5427,31 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PRJ-2160</t>
+          <t>PRJ-2159</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CUST-3160</t>
+          <t>CUST-3159</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>inv-5160</t>
+          <t>inv-5159</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>automated user 160</t>
+          <t>automated user 159</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5454</v>
+        <v>6944</v>
       </c>
       <c r="G152" s="2" t="n">
         <v>45940</v>
@@ -5460,22 +5460,22 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PRJ-2161</t>
+          <t>PRJ-2160</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CUST-3161</t>
+          <t>CUST-3160</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>inv-5161</t>
+          <t>inv-5160</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>automated user 161</t>
+          <t>automated user 160</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>9624</v>
+        <v>5454</v>
       </c>
       <c r="G153" s="2" t="n">
         <v>45940</v>
@@ -5493,31 +5493,31 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PRJ-2162</t>
+          <t>PRJ-2161</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CUST-3162</t>
+          <t>CUST-3161</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>inv-5162</t>
+          <t>inv-5161</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>automated user 162</t>
+          <t>automated user 161</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>6883</v>
+        <v>9624</v>
       </c>
       <c r="G154" s="2" t="n">
         <v>45940</v>
@@ -5526,31 +5526,31 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PRJ-2163</t>
+          <t>PRJ-2162</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CUST-3163</t>
+          <t>CUST-3162</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>inv-5163</t>
+          <t>inv-5162</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>automated user 163</t>
+          <t>automated user 162</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2086</v>
+        <v>6883</v>
       </c>
       <c r="G155" s="2" t="n">
         <v>45940</v>
@@ -5559,31 +5559,31 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PRJ-2164</t>
+          <t>PRJ-2163</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CUST-3164</t>
+          <t>CUST-3163</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>inv-5164</t>
+          <t>inv-5163</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>automated user 164</t>
+          <t>automated user 163</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>9802</v>
+        <v>2086</v>
       </c>
       <c r="G156" s="2" t="n">
         <v>45940</v>
@@ -5592,31 +5592,31 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PRJ-2165</t>
+          <t>PRJ-2164</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CUST-3165</t>
+          <t>CUST-3164</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>inv-5165</t>
+          <t>inv-5164</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>automated user 165</t>
+          <t>automated user 164</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>517</v>
+        <v>9802</v>
       </c>
       <c r="G157" s="2" t="n">
         <v>45940</v>
@@ -5625,31 +5625,31 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PRJ-2166</t>
+          <t>PRJ-2165</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CUST-3166</t>
+          <t>CUST-3165</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>inv-5166</t>
+          <t>inv-5165</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>automated user 166</t>
+          <t>automated user 165</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4151</v>
+        <v>517</v>
       </c>
       <c r="G158" s="2" t="n">
         <v>45940</v>
@@ -5658,31 +5658,31 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PRJ-2167</t>
+          <t>PRJ-2166</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CUST-3167</t>
+          <t>CUST-3166</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>inv-5167</t>
+          <t>inv-5166</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>automated user 167</t>
+          <t>automated user 166</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>6530</v>
+        <v>4151</v>
       </c>
       <c r="G159" s="2" t="n">
         <v>45940</v>
@@ -5691,22 +5691,22 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PRJ-2168</t>
+          <t>PRJ-2167</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CUST-3168</t>
+          <t>CUST-3167</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>inv-5168</t>
+          <t>inv-5167</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>automated user 168</t>
+          <t>automated user 167</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>3861</v>
+        <v>6530</v>
       </c>
       <c r="G160" s="2" t="n">
         <v>45940</v>
@@ -5724,31 +5724,31 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PRJ-2169</t>
+          <t>PRJ-2168</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CUST-3169</t>
+          <t>CUST-3168</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>inv-5169</t>
+          <t>inv-5168</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>automated user 169</t>
+          <t>automated user 168</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>7102</v>
+        <v>3861</v>
       </c>
       <c r="G161" s="2" t="n">
         <v>45940</v>
@@ -5757,31 +5757,31 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PRJ-2170</t>
+          <t>PRJ-2169</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CUST-3170</t>
+          <t>CUST-3169</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>inv-5170</t>
+          <t>inv-5169</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>automated user 170</t>
+          <t>automated user 169</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>482</v>
+        <v>7102</v>
       </c>
       <c r="G162" s="2" t="n">
         <v>45940</v>
@@ -5790,31 +5790,31 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PRJ-2171</t>
+          <t>PRJ-2170</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CUST-3171</t>
+          <t>CUST-3170</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>inv-5171</t>
+          <t>inv-5170</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>automated user 171</t>
+          <t>automated user 170</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>7257</v>
+        <v>482</v>
       </c>
       <c r="G163" s="2" t="n">
         <v>45940</v>
@@ -5823,22 +5823,22 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PRJ-2172</t>
+          <t>PRJ-2171</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CUST-3172</t>
+          <t>CUST-3171</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>inv-5172</t>
+          <t>inv-5171</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>automated user 172</t>
+          <t>automated user 171</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>4740</v>
+        <v>7257</v>
       </c>
       <c r="G164" s="2" t="n">
         <v>45940</v>
@@ -5856,22 +5856,22 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PRJ-2173</t>
+          <t>PRJ-2172</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CUST-3173</t>
+          <t>CUST-3172</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>inv-5173</t>
+          <t>inv-5172</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>automated user 173</t>
+          <t>automated user 172</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5880,7 +5880,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2146</v>
+        <v>4740</v>
       </c>
       <c r="G165" s="2" t="n">
         <v>45940</v>
@@ -5889,31 +5889,31 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PRJ-2174</t>
+          <t>PRJ-2173</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CUST-3174</t>
+          <t>CUST-3173</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>inv-5174</t>
+          <t>inv-5173</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>automated user 174</t>
+          <t>automated user 173</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>3873</v>
+        <v>2146</v>
       </c>
       <c r="G166" s="2" t="n">
         <v>45940</v>
@@ -5922,31 +5922,31 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PRJ-2175</t>
+          <t>PRJ-2174</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CUST-3175</t>
+          <t>CUST-3174</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>inv-5175</t>
+          <t>inv-5174</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>automated user 175</t>
+          <t>automated user 174</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>4821</v>
+        <v>3873</v>
       </c>
       <c r="G167" s="2" t="n">
         <v>45940</v>
@@ -5955,31 +5955,31 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PRJ-2176</t>
+          <t>PRJ-2175</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CUST-3176</t>
+          <t>CUST-3175</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>inv-5176</t>
+          <t>inv-5175</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>automated user 176</t>
+          <t>automated user 175</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>803</v>
+        <v>4821</v>
       </c>
       <c r="G168" s="2" t="n">
         <v>45940</v>
@@ -5988,31 +5988,31 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PRJ-2177</t>
+          <t>PRJ-2176</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CUST-3177</t>
+          <t>CUST-3176</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>inv-5177</t>
+          <t>inv-5176</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>automated user 177</t>
+          <t>automated user 176</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>9076</v>
+        <v>803</v>
       </c>
       <c r="G169" s="2" t="n">
         <v>45940</v>
@@ -6021,31 +6021,31 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PRJ-2178</t>
+          <t>PRJ-2177</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CUST-3178</t>
+          <t>CUST-3177</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>inv-5178</t>
+          <t>inv-5177</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>automated user 178</t>
+          <t>automated user 177</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>3004</v>
+        <v>9076</v>
       </c>
       <c r="G170" s="2" t="n">
         <v>45940</v>
@@ -6054,22 +6054,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PRJ-2179</t>
+          <t>PRJ-2178</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CUST-3179</t>
+          <t>CUST-3178</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>inv-5179</t>
+          <t>inv-5178</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>automated user 179</t>
+          <t>automated user 178</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6078,7 +6078,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4580</v>
+        <v>3004</v>
       </c>
       <c r="G171" s="2" t="n">
         <v>45940</v>
@@ -6087,31 +6087,31 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PRJ-2180</t>
+          <t>PRJ-2179</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CUST-3180</t>
+          <t>CUST-3179</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>inv-5180</t>
+          <t>inv-5179</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>automated user 180</t>
+          <t>automated user 179</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1032</v>
+        <v>4580</v>
       </c>
       <c r="G172" s="2" t="n">
         <v>45940</v>
@@ -6120,22 +6120,22 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PRJ-2181</t>
+          <t>PRJ-2180</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CUST-3181</t>
+          <t>CUST-3180</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>inv-5181</t>
+          <t>inv-5180</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>automated user 181</t>
+          <t>automated user 180</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6144,7 +6144,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>6974</v>
+        <v>1032</v>
       </c>
       <c r="G173" s="2" t="n">
         <v>45940</v>
@@ -6153,31 +6153,31 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PRJ-2182</t>
+          <t>PRJ-2181</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CUST-3182</t>
+          <t>CUST-3181</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>inv-5182</t>
+          <t>inv-5181</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>automated user 182</t>
+          <t>automated user 181</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>3163</v>
+        <v>6974</v>
       </c>
       <c r="G174" s="2" t="n">
         <v>45940</v>
@@ -6186,31 +6186,31 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PRJ-2183</t>
+          <t>PRJ-2182</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CUST-3183</t>
+          <t>CUST-3182</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>inv-5183</t>
+          <t>inv-5182</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>automated user 183</t>
+          <t>automated user 182</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1612</v>
+        <v>3163</v>
       </c>
       <c r="G175" s="2" t="n">
         <v>45940</v>
@@ -6219,22 +6219,22 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PRJ-2184</t>
+          <t>PRJ-2183</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CUST-3184</t>
+          <t>CUST-3183</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>inv-5184</t>
+          <t>inv-5183</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>automated user 184</t>
+          <t>automated user 183</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6243,7 +6243,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1646</v>
+        <v>1612</v>
       </c>
       <c r="G176" s="2" t="n">
         <v>45940</v>
@@ -6252,22 +6252,22 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PRJ-2185</t>
+          <t>PRJ-2184</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CUST-3185</t>
+          <t>CUST-3184</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>inv-5185</t>
+          <t>inv-5184</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>automated user 185</t>
+          <t>automated user 184</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6276,7 +6276,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>9121</v>
+        <v>1646</v>
       </c>
       <c r="G177" s="2" t="n">
         <v>45940</v>
@@ -6285,22 +6285,22 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PRJ-2186</t>
+          <t>PRJ-2185</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CUST-3186</t>
+          <t>CUST-3185</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>inv-5186</t>
+          <t>inv-5185</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>automated user 186</t>
+          <t>automated user 185</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1222</v>
+        <v>9121</v>
       </c>
       <c r="G178" s="2" t="n">
         <v>45940</v>
@@ -6318,31 +6318,31 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PRJ-2187</t>
+          <t>PRJ-2186</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CUST-3187</t>
+          <t>CUST-3186</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>inv-5187</t>
+          <t>inv-5186</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>automated user 187</t>
+          <t>automated user 186</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4667</v>
+        <v>1222</v>
       </c>
       <c r="G179" s="2" t="n">
         <v>45940</v>
@@ -6351,31 +6351,31 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PRJ-2188</t>
+          <t>PRJ-2187</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CUST-3188</t>
+          <t>CUST-3187</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>inv-5188</t>
+          <t>inv-5187</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>automated user 188</t>
+          <t>automated user 187</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>5343</v>
+        <v>4667</v>
       </c>
       <c r="G180" s="2" t="n">
         <v>45940</v>
@@ -6384,31 +6384,31 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PRJ-2189</t>
+          <t>PRJ-2188</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CUST-3189</t>
+          <t>CUST-3188</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>inv-5189</t>
+          <t>inv-5188</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>automated user 189</t>
+          <t>automated user 188</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>3979</v>
+        <v>5343</v>
       </c>
       <c r="G181" s="2" t="n">
         <v>45940</v>
@@ -6417,31 +6417,31 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PRJ-2190</t>
+          <t>PRJ-2189</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CUST-3190</t>
+          <t>CUST-3189</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>inv-5190</t>
+          <t>inv-5189</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>automated user 190</t>
+          <t>automated user 189</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>7806</v>
+        <v>3979</v>
       </c>
       <c r="G182" s="2" t="n">
         <v>45940</v>
@@ -6450,22 +6450,22 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PRJ-2191</t>
+          <t>PRJ-2190</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CUST-3191</t>
+          <t>CUST-3190</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>inv-5191</t>
+          <t>inv-5190</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>automated user 191</t>
+          <t>automated user 190</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6474,7 +6474,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5247</v>
+        <v>7806</v>
       </c>
       <c r="G183" s="2" t="n">
         <v>45940</v>
@@ -6483,31 +6483,31 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PRJ-2192</t>
+          <t>PRJ-2191</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CUST-3192</t>
+          <t>CUST-3191</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>inv-5192</t>
+          <t>inv-5191</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>automated user 192</t>
+          <t>automated user 191</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2342</v>
+        <v>5247</v>
       </c>
       <c r="G184" s="2" t="n">
         <v>45940</v>
@@ -6516,31 +6516,31 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PRJ-2193</t>
+          <t>PRJ-2192</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CUST-3193</t>
+          <t>CUST-3192</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>inv-5193</t>
+          <t>inv-5192</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>automated user 193</t>
+          <t>automated user 192</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>9701</v>
+        <v>2342</v>
       </c>
       <c r="G185" s="2" t="n">
         <v>45940</v>
@@ -6549,22 +6549,22 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PRJ-2194</t>
+          <t>PRJ-2193</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CUST-3194</t>
+          <t>CUST-3193</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>inv-5194</t>
+          <t>inv-5193</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>automated user 194</t>
+          <t>automated user 193</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6573,7 +6573,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>9242</v>
+        <v>9701</v>
       </c>
       <c r="G186" s="2" t="n">
         <v>45940</v>
@@ -6582,31 +6582,31 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PRJ-2195</t>
+          <t>PRJ-2194</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CUST-3195</t>
+          <t>CUST-3194</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>inv-5195</t>
+          <t>inv-5194</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>automated user 195</t>
+          <t>automated user 194</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2168</v>
+        <v>9242</v>
       </c>
       <c r="G187" s="2" t="n">
         <v>45940</v>
@@ -6615,22 +6615,22 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PRJ-2196</t>
+          <t>PRJ-2195</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CUST-3196</t>
+          <t>CUST-3195</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>inv-5196</t>
+          <t>inv-5195</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>automated user 196</t>
+          <t>automated user 195</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2344</v>
+        <v>2168</v>
       </c>
       <c r="G188" s="2" t="n">
         <v>45940</v>
@@ -6648,22 +6648,22 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PRJ-2197</t>
+          <t>PRJ-2196</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CUST-3197</t>
+          <t>CUST-3196</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>inv-5197</t>
+          <t>inv-5196</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>automated user 197</t>
+          <t>automated user 196</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>7562</v>
+        <v>2344</v>
       </c>
       <c r="G189" s="2" t="n">
         <v>45940</v>
@@ -6681,31 +6681,31 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PRJ-2198</t>
+          <t>PRJ-2197</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CUST-3198</t>
+          <t>CUST-3197</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>inv-5198</t>
+          <t>inv-5197</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>automated user 198</t>
+          <t>automated user 197</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2529</v>
+        <v>7562</v>
       </c>
       <c r="G190" s="2" t="n">
         <v>45940</v>
@@ -6714,31 +6714,31 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PRJ-2199</t>
+          <t>PRJ-2198</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CUST-3199</t>
+          <t>CUST-3198</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>inv-5199</t>
+          <t>inv-5198</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>automated user 199</t>
+          <t>automated user 198</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>6947</v>
+        <v>2529</v>
       </c>
       <c r="G191" s="2" t="n">
         <v>45940</v>
@@ -6747,33 +6747,66 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
+          <t>PRJ-2199</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>CUST-3199</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>inv-5199</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>automated user 199</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>6947</v>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
           <t>PRJ-2200</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>CUST-3200</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>inv-5200</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D193" t="inlineStr">
         <is>
           <t>automated user 200</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="F192" t="n">
+      <c r="F193" t="n">
         <v>2895</v>
       </c>
-      <c r="G192" s="2" t="n">
+      <c r="G193" s="2" t="n">
         <v>45940</v>
       </c>
     </row>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,22 +741,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PRJ-109</t>
+          <t>PRJ-110</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CUST-209</t>
+          <t>CUST-210</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>inv-1009</t>
+          <t>inv-1010</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>valid customer 9</t>
+          <t>valid customer 10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -774,22 +774,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PRJ-110</t>
+          <t>PRJ-111</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CUST-210</t>
+          <t>CUST-211</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>inv-1010</t>
+          <t>inv-1011</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>valid customer 10</t>
+          <t>valid customer 11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -807,22 +807,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PRJ-111</t>
+          <t>PRJ-112</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CUST-211</t>
+          <t>CUST-212</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>inv-1011</t>
+          <t>inv-1012</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>valid customer 11</t>
+          <t>valid customer 12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -840,22 +840,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PRJ-112</t>
+          <t>PRJ-113</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CUST-212</t>
+          <t>CUST-213</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>inv-1012</t>
+          <t>inv-1013</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>valid customer 12</t>
+          <t>valid customer 13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -873,22 +873,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PRJ-113</t>
+          <t>PRJ-114</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CUST-213</t>
+          <t>CUST-214</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>inv-1013</t>
+          <t>inv-1014</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>valid customer 13</t>
+          <t>valid customer 14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -906,22 +906,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PRJ-114</t>
+          <t>PRJ-115</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CUST-214</t>
+          <t>CUST-215</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>inv-1014</t>
+          <t>inv-1015</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>valid customer 14</t>
+          <t>valid customer 15</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -939,22 +939,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PRJ-115</t>
+          <t>PRJ-116</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CUST-215</t>
+          <t>CUST-216</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>inv-1015</t>
+          <t>inv-1016</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>valid customer 15</t>
+          <t>valid customer 16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -972,22 +972,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PRJ-116</t>
+          <t>PRJ-117</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CUST-216</t>
+          <t>CUST-217</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>inv-1016</t>
+          <t>inv-1017</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>valid customer 16</t>
+          <t>valid customer 17</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1005,22 +1005,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PRJ-117</t>
+          <t>PRJ-118</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CUST-217</t>
+          <t>CUST-218</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>inv-1017</t>
+          <t>inv-1018</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>valid customer 17</t>
+          <t>valid customer 18</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1038,22 +1038,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PRJ-118</t>
+          <t>PRJ-119</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CUST-218</t>
+          <t>CUST-219</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>inv-1018</t>
+          <t>inv-1019</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>valid customer 18</t>
+          <t>valid customer 19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1071,22 +1071,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PRJ-119</t>
+          <t>PRJ-120</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CUST-219</t>
+          <t>CUST-220</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>inv-1019</t>
+          <t>inv-1020</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>valid customer 19</t>
+          <t>valid customer 20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1104,22 +1104,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PRJ-120</t>
+          <t>PRJ-121</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CUST-220</t>
+          <t>CUST-221</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>inv-1020</t>
+          <t>inv-1021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>valid customer 20</t>
+          <t>valid customer 21</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1137,22 +1137,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PRJ-121</t>
+          <t>PRJ-122</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CUST-221</t>
+          <t>CUST-222</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>inv-1021</t>
+          <t>inv-1022</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>valid customer 21</t>
+          <t>valid customer 22</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1170,22 +1170,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PRJ-122</t>
+          <t>PRJ-123</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CUST-222</t>
+          <t>CUST-223</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>inv-1022</t>
+          <t>inv-1023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>valid customer 22</t>
+          <t>valid customer 23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1203,22 +1203,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PRJ-123</t>
+          <t>PRJ-124</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CUST-223</t>
+          <t>CUST-224</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>inv-1023</t>
+          <t>inv-1024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>valid customer 23</t>
+          <t>valid customer 24</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1236,22 +1236,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PRJ-124</t>
+          <t>PRJ-125</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CUST-224</t>
+          <t>CUST-225</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>inv-1024</t>
+          <t>inv-1025</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>valid customer 24</t>
+          <t>valid customer 25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1269,22 +1269,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PRJ-125</t>
+          <t>PRJ-126</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CUST-225</t>
+          <t>CUST-226</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>inv-1025</t>
+          <t>inv-1026</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>valid customer 25</t>
+          <t>valid customer 26</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1302,22 +1302,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PRJ-126</t>
+          <t>PRJ-127</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CUST-226</t>
+          <t>CUST-227</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>inv-1026</t>
+          <t>inv-1027</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>valid customer 26</t>
+          <t>valid customer 27</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1335,22 +1335,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PRJ-127</t>
+          <t>PRJ-128</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CUST-227</t>
+          <t>CUST-228</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>inv-1027</t>
+          <t>inv-1028</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>valid customer 27</t>
+          <t>valid customer 28</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1368,22 +1368,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PRJ-128</t>
+          <t>PRJ-129</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CUST-228</t>
+          <t>CUST-229</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>inv-1028</t>
+          <t>inv-1029</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>valid customer 28</t>
+          <t>valid customer 29</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1401,22 +1401,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PRJ-129</t>
+          <t>PRJ-130</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CUST-229</t>
+          <t>CUST-230</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>inv-1029</t>
+          <t>inv-1030</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>valid customer 29</t>
+          <t>valid customer 30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1434,64 +1434,64 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PRJ-130</t>
+          <t>PRJ-777</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CUST-230</t>
+          <t>CUST-777</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>inv-1030</t>
+          <t>inv-4001</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>valid customer 30</t>
+          <t>suspend with zero success</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>suspend</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>45823</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PRJ-777</t>
+          <t>PRJ-555</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CUST-777</t>
+          <t>CUST-555</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>inv-4001</t>
+          <t>inv-unique-1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>suspend with zero success</t>
+          <t>unique invoice</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>suspend</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>45658</v>
@@ -1500,55 +1500,55 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PRJ-555</t>
+          <t>PRJ-2041</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CUST-555</t>
+          <t>CUST-3041</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>inv-unique-1</t>
+          <t>inv-5041</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>unique invoice</t>
+          <t>automated user 41</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>9254</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45658</v>
+        <v>45940</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PRJ-2041</t>
+          <t>PRJ-2042</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CUST-3041</t>
+          <t>CUST-3042</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>inv-5041</t>
+          <t>inv-5042</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>automated user 41</t>
+          <t>automated user 42</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9254</v>
+        <v>9568</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>45940</v>
@@ -1566,31 +1566,31 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PRJ-2042</t>
+          <t>PRJ-2043</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CUST-3042</t>
+          <t>CUST-3043</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>inv-5042</t>
+          <t>inv-5043</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>automated user 42</t>
+          <t>automated user 43</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>9568</v>
+        <v>1253</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>45940</v>
@@ -1599,22 +1599,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PRJ-2043</t>
+          <t>PRJ-2044</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CUST-3043</t>
+          <t>CUST-3044</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>inv-5043</t>
+          <t>inv-5044</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>automated user 43</t>
+          <t>automated user 44</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1253</v>
+        <v>7261</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>45940</v>
@@ -1632,31 +1632,31 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PRJ-2044</t>
+          <t>PRJ-2045</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CUST-3044</t>
+          <t>CUST-3045</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>inv-5044</t>
+          <t>inv-5045</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>automated user 44</t>
+          <t>automated user 45</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>7261</v>
+        <v>6834</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>45940</v>
@@ -1665,31 +1665,31 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PRJ-2045</t>
+          <t>PRJ-2046</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CUST-3045</t>
+          <t>CUST-3046</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>inv-5045</t>
+          <t>inv-5046</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>automated user 45</t>
+          <t>automated user 46</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6834</v>
+        <v>7403</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>45940</v>
@@ -1698,22 +1698,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PRJ-2046</t>
+          <t>PRJ-2047</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CUST-3046</t>
+          <t>CUST-3047</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>inv-5046</t>
+          <t>inv-5047</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>automated user 46</t>
+          <t>automated user 47</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7403</v>
+        <v>1225</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>45940</v>
@@ -1731,22 +1731,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PRJ-2047</t>
+          <t>PRJ-2048</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CUST-3047</t>
+          <t>CUST-3048</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>inv-5047</t>
+          <t>inv-5048</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>automated user 47</t>
+          <t>automated user 48</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1225</v>
+        <v>6126</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>45940</v>
@@ -1764,31 +1764,31 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PRJ-2048</t>
+          <t>PRJ-2049</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CUST-3048</t>
+          <t>CUST-3049</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>inv-5048</t>
+          <t>inv-5049</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>automated user 48</t>
+          <t>automated user 49</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>6126</v>
+        <v>5328</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>45940</v>
@@ -1797,31 +1797,31 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PRJ-2049</t>
+          <t>PRJ-2050</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CUST-3049</t>
+          <t>CUST-3050</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>inv-5049</t>
+          <t>inv-5050</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>automated user 49</t>
+          <t>automated user 50</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5328</v>
+        <v>7513</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>45940</v>
@@ -1830,31 +1830,31 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PRJ-2050</t>
+          <t>PRJ-2051</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CUST-3050</t>
+          <t>CUST-3051</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>inv-5050</t>
+          <t>inv-5051</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>automated user 50</t>
+          <t>automated user 51</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>7513</v>
+        <v>2252</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>45940</v>
@@ -1863,31 +1863,31 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PRJ-2051</t>
+          <t>PRJ-2052</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CUST-3051</t>
+          <t>CUST-3052</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>inv-5051</t>
+          <t>inv-5052</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>automated user 51</t>
+          <t>automated user 52</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2252</v>
+        <v>9763</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>45940</v>
@@ -1896,22 +1896,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PRJ-2052</t>
+          <t>PRJ-2053</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CUST-3052</t>
+          <t>CUST-3053</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>inv-5052</t>
+          <t>inv-5053</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>automated user 52</t>
+          <t>automated user 53</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>9763</v>
+        <v>6182</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>45940</v>
@@ -1929,22 +1929,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PRJ-2053</t>
+          <t>PRJ-2054</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CUST-3053</t>
+          <t>CUST-3054</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>inv-5053</t>
+          <t>inv-5054</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>automated user 53</t>
+          <t>automated user 54</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6182</v>
+        <v>7632</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>45940</v>
@@ -1962,31 +1962,31 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PRJ-2054</t>
+          <t>PRJ-2055</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CUST-3054</t>
+          <t>CUST-3055</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>inv-5054</t>
+          <t>inv-5055</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>automated user 54</t>
+          <t>automated user 55</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7632</v>
+        <v>7129</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>45940</v>
@@ -1995,22 +1995,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PRJ-2055</t>
+          <t>PRJ-2056</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CUST-3055</t>
+          <t>CUST-3056</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>inv-5055</t>
+          <t>inv-5056</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>automated user 55</t>
+          <t>automated user 56</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>7129</v>
+        <v>6960</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>45940</v>
@@ -2028,31 +2028,31 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PRJ-2056</t>
+          <t>PRJ-2057</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CUST-3056</t>
+          <t>CUST-3057</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>inv-5056</t>
+          <t>inv-5057</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>automated user 56</t>
+          <t>automated user 57</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6960</v>
+        <v>7808</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>45940</v>
@@ -2061,31 +2061,31 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PRJ-2057</t>
+          <t>PRJ-2058</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CUST-3057</t>
+          <t>CUST-3058</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>inv-5057</t>
+          <t>inv-5058</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>automated user 57</t>
+          <t>automated user 58</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>7808</v>
+        <v>3395</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>45940</v>
@@ -2094,22 +2094,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PRJ-2058</t>
+          <t>PRJ-2059</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CUST-3058</t>
+          <t>CUST-3059</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>inv-5058</t>
+          <t>inv-5059</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>automated user 58</t>
+          <t>automated user 59</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3395</v>
+        <v>2088</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>45940</v>
@@ -2127,31 +2127,31 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PRJ-2059</t>
+          <t>PRJ-2060</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CUST-3059</t>
+          <t>CUST-3060</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>inv-5059</t>
+          <t>inv-5060</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>automated user 59</t>
+          <t>automated user 60</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2088</v>
+        <v>5652</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>45940</v>
@@ -2160,31 +2160,31 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PRJ-2060</t>
+          <t>PRJ-2061</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CUST-3060</t>
+          <t>CUST-3061</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>inv-5060</t>
+          <t>inv-5061</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>automated user 60</t>
+          <t>automated user 61</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5652</v>
+        <v>8462</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>45940</v>
@@ -2193,31 +2193,31 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PRJ-2061</t>
+          <t>PRJ-2062</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CUST-3061</t>
+          <t>CUST-3062</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>inv-5061</t>
+          <t>inv-5062</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>automated user 61</t>
+          <t>automated user 62</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>8462</v>
+        <v>3835</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>45940</v>
@@ -2226,31 +2226,31 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PRJ-2062</t>
+          <t>PRJ-2063</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CUST-3062</t>
+          <t>CUST-3063</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>inv-5062</t>
+          <t>inv-5063</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>automated user 62</t>
+          <t>automated user 63</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3835</v>
+        <v>6332</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>45940</v>
@@ -2259,31 +2259,31 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PRJ-2063</t>
+          <t>PRJ-2064</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CUST-3063</t>
+          <t>CUST-3064</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>inv-5063</t>
+          <t>inv-5064</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>automated user 63</t>
+          <t>automated user 64</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>6332</v>
+        <v>2380</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>45940</v>
@@ -2292,22 +2292,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PRJ-2064</t>
+          <t>PRJ-2065</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CUST-3064</t>
+          <t>CUST-3065</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>inv-5064</t>
+          <t>inv-5065</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>automated user 64</t>
+          <t>automated user 65</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2316,7 +2316,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2380</v>
+        <v>981</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>45940</v>
@@ -2325,31 +2325,31 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PRJ-2065</t>
+          <t>PRJ-2066</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CUST-3065</t>
+          <t>CUST-3066</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>inv-5065</t>
+          <t>inv-5066</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>automated user 65</t>
+          <t>automated user 66</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>981</v>
+        <v>708</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>45940</v>
@@ -2358,22 +2358,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PRJ-2066</t>
+          <t>PRJ-2067</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CUST-3066</t>
+          <t>CUST-3067</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>inv-5066</t>
+          <t>inv-5067</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>automated user 66</t>
+          <t>automated user 67</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>708</v>
+        <v>827</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>45940</v>
@@ -2391,31 +2391,31 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PRJ-2067</t>
+          <t>PRJ-2068</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CUST-3067</t>
+          <t>CUST-3068</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>inv-5067</t>
+          <t>inv-5068</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>automated user 67</t>
+          <t>automated user 68</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>827</v>
+        <v>812</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>45940</v>
@@ -2424,22 +2424,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PRJ-2068</t>
+          <t>PRJ-2069</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CUST-3068</t>
+          <t>CUST-3069</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>inv-5068</t>
+          <t>inv-5069</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>automated user 68</t>
+          <t>automated user 69</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>812</v>
+        <v>7353</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>45940</v>
@@ -2457,31 +2457,31 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PRJ-2069</t>
+          <t>PRJ-2070</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CUST-3069</t>
+          <t>CUST-3070</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>inv-5069</t>
+          <t>inv-5070</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>automated user 69</t>
+          <t>automated user 70</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>7353</v>
+        <v>5220</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>45940</v>
@@ -2490,31 +2490,31 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PRJ-2070</t>
+          <t>PRJ-2071</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CUST-3070</t>
+          <t>CUST-3071</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>inv-5070</t>
+          <t>inv-5071</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>automated user 70</t>
+          <t>automated user 71</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5220</v>
+        <v>7011</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>45940</v>
@@ -2523,31 +2523,31 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PRJ-2071</t>
+          <t>PRJ-2072</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CUST-3071</t>
+          <t>CUST-3072</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>inv-5071</t>
+          <t>inv-5072</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>automated user 71</t>
+          <t>automated user 72</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7011</v>
+        <v>3898</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>45940</v>
@@ -2556,22 +2556,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PRJ-2072</t>
+          <t>PRJ-2073</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CUST-3072</t>
+          <t>CUST-3073</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>inv-5072</t>
+          <t>inv-5073</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>automated user 72</t>
+          <t>automated user 73</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3898</v>
+        <v>4189</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>45940</v>
@@ -2589,31 +2589,31 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PRJ-2073</t>
+          <t>PRJ-2074</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CUST-3073</t>
+          <t>CUST-3074</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>inv-5073</t>
+          <t>inv-5074</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>automated user 73</t>
+          <t>automated user 74</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4189</v>
+        <v>2913</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>45940</v>
@@ -2622,31 +2622,31 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PRJ-2074</t>
+          <t>PRJ-2075</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CUST-3074</t>
+          <t>CUST-3075</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>inv-5074</t>
+          <t>inv-5075</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>automated user 74</t>
+          <t>automated user 75</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2913</v>
+        <v>4294</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>45940</v>
@@ -2655,31 +2655,31 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PRJ-2075</t>
+          <t>PRJ-2076</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CUST-3075</t>
+          <t>CUST-3076</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>inv-5075</t>
+          <t>inv-5076</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>automated user 75</t>
+          <t>automated user 76</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4294</v>
+        <v>9737</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>45940</v>
@@ -2688,31 +2688,31 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PRJ-2076</t>
+          <t>PRJ-2077</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CUST-3076</t>
+          <t>CUST-3077</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>inv-5076</t>
+          <t>inv-5077</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>automated user 76</t>
+          <t>automated user 77</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>9737</v>
+        <v>9444</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>45940</v>
@@ -2721,31 +2721,31 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PRJ-2077</t>
+          <t>PRJ-2078</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CUST-3077</t>
+          <t>CUST-3078</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>inv-5077</t>
+          <t>inv-5078</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>automated user 77</t>
+          <t>automated user 78</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>9444</v>
+        <v>4699</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>45940</v>
@@ -2754,31 +2754,31 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PRJ-2078</t>
+          <t>PRJ-2079</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CUST-3078</t>
+          <t>CUST-3079</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>inv-5078</t>
+          <t>inv-5079</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>automated user 78</t>
+          <t>automated user 79</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4699</v>
+        <v>3191</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>45940</v>
@@ -2787,31 +2787,31 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PRJ-2079</t>
+          <t>PRJ-2080</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CUST-3079</t>
+          <t>CUST-3080</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>inv-5079</t>
+          <t>inv-5080</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>automated user 79</t>
+          <t>automated user 80</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3191</v>
+        <v>3012</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>45940</v>
@@ -2820,31 +2820,31 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PRJ-2080</t>
+          <t>PRJ-2081</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CUST-3080</t>
+          <t>CUST-3081</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>inv-5080</t>
+          <t>inv-5081</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>automated user 80</t>
+          <t>automated user 81</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3012</v>
+        <v>1238</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>45940</v>
@@ -2853,31 +2853,31 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PRJ-2081</t>
+          <t>PRJ-2082</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CUST-3081</t>
+          <t>CUST-3082</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>inv-5081</t>
+          <t>inv-5082</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>automated user 81</t>
+          <t>automated user 82</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1238</v>
+        <v>1275</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>45940</v>
@@ -2886,31 +2886,31 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PRJ-2082</t>
+          <t>PRJ-2083</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CUST-3082</t>
+          <t>CUST-3083</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>inv-5082</t>
+          <t>inv-5083</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>automated user 82</t>
+          <t>automated user 83</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1275</v>
+        <v>633</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>45940</v>
@@ -2919,22 +2919,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PRJ-2083</t>
+          <t>PRJ-2084</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CUST-3083</t>
+          <t>CUST-3084</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>inv-5083</t>
+          <t>inv-5084</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>automated user 83</t>
+          <t>automated user 84</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>633</v>
+        <v>783</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>45940</v>
@@ -2952,31 +2952,31 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PRJ-2084</t>
+          <t>PRJ-2085</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CUST-3084</t>
+          <t>CUST-3085</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>inv-5084</t>
+          <t>inv-5085</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>automated user 84</t>
+          <t>automated user 85</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>783</v>
+        <v>7126</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>45940</v>
@@ -2985,31 +2985,31 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PRJ-2085</t>
+          <t>PRJ-2086</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CUST-3085</t>
+          <t>CUST-3086</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>inv-5085</t>
+          <t>inv-5086</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>automated user 85</t>
+          <t>automated user 86</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>7126</v>
+        <v>6232</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>45940</v>
@@ -3018,22 +3018,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PRJ-2086</t>
+          <t>PRJ-2087</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CUST-3086</t>
+          <t>CUST-3087</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>inv-5086</t>
+          <t>inv-5087</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>automated user 86</t>
+          <t>automated user 87</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>6232</v>
+        <v>7332</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>45940</v>
@@ -3051,22 +3051,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PRJ-2087</t>
+          <t>PRJ-2088</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CUST-3087</t>
+          <t>CUST-3088</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>inv-5087</t>
+          <t>inv-5088</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>automated user 87</t>
+          <t>automated user 88</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3075,7 +3075,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>7332</v>
+        <v>527</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>45940</v>
@@ -3084,31 +3084,31 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PRJ-2088</t>
+          <t>PRJ-2089</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CUST-3088</t>
+          <t>CUST-3089</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>inv-5088</t>
+          <t>inv-5089</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>automated user 88</t>
+          <t>automated user 89</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>527</v>
+        <v>567</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>45940</v>
@@ -3117,22 +3117,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PRJ-2089</t>
+          <t>PRJ-2090</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CUST-3089</t>
+          <t>CUST-3090</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>inv-5089</t>
+          <t>inv-5090</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>automated user 89</t>
+          <t>automated user 90</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>567</v>
+        <v>2580</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>45940</v>
@@ -3150,31 +3150,31 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PRJ-2090</t>
+          <t>PRJ-2091</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CUST-3090</t>
+          <t>CUST-3091</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>inv-5090</t>
+          <t>inv-5091</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>automated user 90</t>
+          <t>automated user 91</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2580</v>
+        <v>9084</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>45940</v>
@@ -3183,31 +3183,31 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PRJ-2091</t>
+          <t>PRJ-2092</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CUST-3091</t>
+          <t>CUST-3092</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>inv-5091</t>
+          <t>inv-5092</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>automated user 91</t>
+          <t>automated user 92</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9084</v>
+        <v>2907</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>45940</v>
@@ -3216,22 +3216,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PRJ-2092</t>
+          <t>PRJ-2093</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CUST-3092</t>
+          <t>CUST-3093</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>inv-5092</t>
+          <t>inv-5093</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>automated user 92</t>
+          <t>automated user 93</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2907</v>
+        <v>1158</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>45940</v>
@@ -3249,22 +3249,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PRJ-2093</t>
+          <t>PRJ-2094</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CUST-3093</t>
+          <t>CUST-3094</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>inv-5093</t>
+          <t>inv-5094</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>automated user 93</t>
+          <t>automated user 94</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1158</v>
+        <v>9046</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>45940</v>
@@ -3282,31 +3282,31 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PRJ-2094</t>
+          <t>PRJ-2095</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CUST-3094</t>
+          <t>CUST-3095</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>inv-5094</t>
+          <t>inv-5095</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>automated user 94</t>
+          <t>automated user 95</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>9046</v>
+        <v>5385</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>45940</v>
@@ -3315,31 +3315,31 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PRJ-2095</t>
+          <t>PRJ-2096</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CUST-3095</t>
+          <t>CUST-3096</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>inv-5095</t>
+          <t>inv-5096</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>automated user 95</t>
+          <t>automated user 96</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5385</v>
+        <v>4385</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>45940</v>
@@ -3348,31 +3348,31 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PRJ-2096</t>
+          <t>PRJ-2097</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CUST-3096</t>
+          <t>CUST-3097</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>inv-5096</t>
+          <t>inv-5097</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>automated user 96</t>
+          <t>automated user 97</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4385</v>
+        <v>409</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>45940</v>
@@ -3381,31 +3381,31 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PRJ-2097</t>
+          <t>PRJ-2098</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CUST-3097</t>
+          <t>CUST-3098</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>inv-5097</t>
+          <t>inv-5098</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>automated user 97</t>
+          <t>automated user 98</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>409</v>
+        <v>8208</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>45940</v>
@@ -3414,22 +3414,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PRJ-2098</t>
+          <t>PRJ-2099</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CUST-3098</t>
+          <t>CUST-3099</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>inv-5098</t>
+          <t>inv-5099</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>automated user 98</t>
+          <t>automated user 99</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>8208</v>
+        <v>6191</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>45940</v>
@@ -3447,31 +3447,31 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PRJ-2099</t>
+          <t>PRJ-2100</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CUST-3099</t>
+          <t>CUST-3100</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>inv-5099</t>
+          <t>inv-5100</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>automated user 99</t>
+          <t>automated user 100</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>6191</v>
+        <v>3453</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>45940</v>
@@ -3480,31 +3480,31 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PRJ-2100</t>
+          <t>PRJ-2101</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CUST-3100</t>
+          <t>CUST-3101</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>inv-5100</t>
+          <t>inv-5101</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>automated user 100</t>
+          <t>automated user 101</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3453</v>
+        <v>8343</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>45940</v>
@@ -3513,22 +3513,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PRJ-2101</t>
+          <t>PRJ-2102</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CUST-3101</t>
+          <t>CUST-3102</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>inv-5101</t>
+          <t>inv-5102</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>automated user 101</t>
+          <t>automated user 102</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>8343</v>
+        <v>7685</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>45940</v>
@@ -3546,31 +3546,31 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PRJ-2102</t>
+          <t>PRJ-2103</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CUST-3102</t>
+          <t>CUST-3103</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>inv-5102</t>
+          <t>inv-5103</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>automated user 102</t>
+          <t>automated user 103</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>7685</v>
+        <v>7513</v>
       </c>
       <c r="G95" s="2" t="n">
         <v>45940</v>
@@ -3579,31 +3579,31 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PRJ-2103</t>
+          <t>PRJ-2104</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CUST-3103</t>
+          <t>CUST-3104</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>inv-5103</t>
+          <t>inv-5104</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>automated user 103</t>
+          <t>automated user 104</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>7513</v>
+        <v>109</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>45940</v>
@@ -3612,22 +3612,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PRJ-2104</t>
+          <t>PRJ-2105</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CUST-3104</t>
+          <t>CUST-3105</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>inv-5104</t>
+          <t>inv-5105</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>automated user 104</t>
+          <t>automated user 105</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>109</v>
+        <v>9220</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>45940</v>
@@ -3645,22 +3645,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PRJ-2105</t>
+          <t>PRJ-2106</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CUST-3105</t>
+          <t>CUST-3106</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>inv-5105</t>
+          <t>inv-5106</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>automated user 105</t>
+          <t>automated user 106</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>9220</v>
+        <v>3017</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>45940</v>
@@ -3678,31 +3678,31 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PRJ-2106</t>
+          <t>PRJ-2107</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CUST-3106</t>
+          <t>CUST-3107</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>inv-5106</t>
+          <t>inv-5107</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>automated user 106</t>
+          <t>automated user 107</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3017</v>
+        <v>7361</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>45940</v>
@@ -3711,22 +3711,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PRJ-2107</t>
+          <t>PRJ-2108</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CUST-3107</t>
+          <t>CUST-3108</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>inv-5107</t>
+          <t>inv-5108</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>automated user 107</t>
+          <t>automated user 108</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>7361</v>
+        <v>2267</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>45940</v>
@@ -3744,31 +3744,31 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PRJ-2108</t>
+          <t>PRJ-2109</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CUST-3108</t>
+          <t>CUST-3109</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>inv-5108</t>
+          <t>inv-5109</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>automated user 108</t>
+          <t>automated user 109</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2267</v>
+        <v>2186</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>45940</v>
@@ -3777,22 +3777,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PRJ-2109</t>
+          <t>PRJ-2110</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CUST-3109</t>
+          <t>CUST-3110</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>inv-5109</t>
+          <t>inv-5110</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>automated user 109</t>
+          <t>automated user 110</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3801,7 +3801,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2186</v>
+        <v>2998</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>45940</v>
@@ -3810,31 +3810,31 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PRJ-2110</t>
+          <t>PRJ-2111</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CUST-3110</t>
+          <t>CUST-3111</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>inv-5110</t>
+          <t>inv-5111</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>automated user 110</t>
+          <t>automated user 111</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2998</v>
+        <v>7998</v>
       </c>
       <c r="G103" s="2" t="n">
         <v>45940</v>
@@ -3843,31 +3843,31 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PRJ-2111</t>
+          <t>PRJ-2112</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CUST-3111</t>
+          <t>CUST-3112</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>inv-5111</t>
+          <t>inv-5112</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>automated user 111</t>
+          <t>automated user 112</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>7998</v>
+        <v>7727</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>45940</v>
@@ -3876,31 +3876,31 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PRJ-2112</t>
+          <t>PRJ-2113</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CUST-3112</t>
+          <t>CUST-3113</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>inv-5112</t>
+          <t>inv-5113</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>automated user 112</t>
+          <t>automated user 113</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>7727</v>
+        <v>5968</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>45940</v>
@@ -3909,31 +3909,31 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PRJ-2113</t>
+          <t>PRJ-2114</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CUST-3113</t>
+          <t>CUST-3114</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>inv-5113</t>
+          <t>inv-5114</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>automated user 113</t>
+          <t>automated user 114</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>5968</v>
+        <v>2675</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>45940</v>
@@ -3942,31 +3942,31 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PRJ-2114</t>
+          <t>PRJ-2115</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CUST-3114</t>
+          <t>CUST-3115</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>inv-5114</t>
+          <t>inv-5115</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>automated user 114</t>
+          <t>automated user 115</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2675</v>
+        <v>9831</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>45940</v>
@@ -3975,22 +3975,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PRJ-2115</t>
+          <t>PRJ-2116</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CUST-3115</t>
+          <t>CUST-3116</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>inv-5115</t>
+          <t>inv-5116</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>automated user 115</t>
+          <t>automated user 116</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>9831</v>
+        <v>1627</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>45940</v>
@@ -4008,22 +4008,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>PRJ-2116</t>
+          <t>PRJ-2117</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CUST-3116</t>
+          <t>CUST-3117</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>inv-5116</t>
+          <t>inv-5117</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>automated user 116</t>
+          <t>automated user 117</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1627</v>
+        <v>6942</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>45940</v>
@@ -4041,22 +4041,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PRJ-2117</t>
+          <t>PRJ-2118</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CUST-3117</t>
+          <t>CUST-3118</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>inv-5117</t>
+          <t>inv-5118</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>automated user 117</t>
+          <t>automated user 118</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4065,7 +4065,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>6942</v>
+        <v>7620</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>45940</v>
@@ -4074,22 +4074,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PRJ-2118</t>
+          <t>PRJ-2119</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CUST-3118</t>
+          <t>CUST-3119</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>inv-5118</t>
+          <t>inv-5119</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>automated user 118</t>
+          <t>automated user 119</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4098,7 +4098,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>7620</v>
+        <v>4324</v>
       </c>
       <c r="G111" s="2" t="n">
         <v>45940</v>
@@ -4107,31 +4107,31 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PRJ-2119</t>
+          <t>PRJ-2120</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CUST-3119</t>
+          <t>CUST-3120</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>inv-5119</t>
+          <t>inv-5120</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>automated user 119</t>
+          <t>automated user 120</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4324</v>
+        <v>8925</v>
       </c>
       <c r="G112" s="2" t="n">
         <v>45940</v>
@@ -4140,31 +4140,31 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PRJ-2120</t>
+          <t>PRJ-2121</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CUST-3120</t>
+          <t>CUST-3121</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>inv-5120</t>
+          <t>inv-5121</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>automated user 120</t>
+          <t>automated user 121</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>8925</v>
+        <v>6578</v>
       </c>
       <c r="G113" s="2" t="n">
         <v>45940</v>
@@ -4173,22 +4173,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PRJ-2121</t>
+          <t>PRJ-2122</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CUST-3121</t>
+          <t>CUST-3122</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>inv-5121</t>
+          <t>inv-5122</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>automated user 121</t>
+          <t>automated user 122</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>6578</v>
+        <v>2149</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>45940</v>
@@ -4206,22 +4206,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PRJ-2122</t>
+          <t>PRJ-2123</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CUST-3122</t>
+          <t>CUST-3123</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>inv-5122</t>
+          <t>inv-5123</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>automated user 122</t>
+          <t>automated user 123</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4230,7 +4230,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2149</v>
+        <v>6346</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>45940</v>
@@ -4239,22 +4239,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PRJ-2123</t>
+          <t>PRJ-2124</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CUST-3123</t>
+          <t>CUST-3124</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>inv-5123</t>
+          <t>inv-5124</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>automated user 123</t>
+          <t>automated user 124</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4263,7 +4263,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>6346</v>
+        <v>997</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>45940</v>
@@ -4272,22 +4272,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PRJ-2124</t>
+          <t>PRJ-2125</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CUST-3124</t>
+          <t>CUST-3125</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>inv-5124</t>
+          <t>inv-5125</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>automated user 124</t>
+          <t>automated user 125</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>997</v>
+        <v>9193</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>45940</v>
@@ -4305,22 +4305,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PRJ-2125</t>
+          <t>PRJ-2126</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CUST-3125</t>
+          <t>CUST-3126</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>inv-5125</t>
+          <t>inv-5126</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>automated user 125</t>
+          <t>automated user 126</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4329,7 +4329,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>9193</v>
+        <v>112</v>
       </c>
       <c r="G118" s="2" t="n">
         <v>45940</v>
@@ -4338,31 +4338,31 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PRJ-2126</t>
+          <t>PRJ-2127</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CUST-3126</t>
+          <t>CUST-3127</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>inv-5126</t>
+          <t>inv-5127</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>automated user 126</t>
+          <t>automated user 127</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>112</v>
+        <v>2306</v>
       </c>
       <c r="G119" s="2" t="n">
         <v>45940</v>
@@ -4371,31 +4371,31 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PRJ-2127</t>
+          <t>PRJ-2128</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CUST-3127</t>
+          <t>CUST-3128</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>inv-5127</t>
+          <t>inv-5128</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>automated user 127</t>
+          <t>automated user 128</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>2306</v>
+        <v>8331</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>45940</v>
@@ -4404,22 +4404,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PRJ-2128</t>
+          <t>PRJ-2129</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CUST-3128</t>
+          <t>CUST-3129</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>inv-5128</t>
+          <t>inv-5129</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>automated user 128</t>
+          <t>automated user 129</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>8331</v>
+        <v>727</v>
       </c>
       <c r="G121" s="2" t="n">
         <v>45940</v>
@@ -4437,22 +4437,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PRJ-2129</t>
+          <t>PRJ-2130</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CUST-3129</t>
+          <t>CUST-3130</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>inv-5129</t>
+          <t>inv-5130</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>automated user 129</t>
+          <t>automated user 130</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>727</v>
+        <v>8385</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>45940</v>
@@ -4470,31 +4470,31 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PRJ-2130</t>
+          <t>PRJ-2131</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CUST-3130</t>
+          <t>CUST-3131</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>inv-5130</t>
+          <t>inv-5131</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>automated user 130</t>
+          <t>automated user 131</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>8385</v>
+        <v>6623</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>45940</v>
@@ -4503,31 +4503,31 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PRJ-2131</t>
+          <t>PRJ-2132</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CUST-3131</t>
+          <t>CUST-3132</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>inv-5131</t>
+          <t>inv-5132</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>automated user 131</t>
+          <t>automated user 132</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>6623</v>
+        <v>2815</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>45940</v>
@@ -4536,31 +4536,31 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PRJ-2132</t>
+          <t>PRJ-2133</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CUST-3132</t>
+          <t>CUST-3133</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>inv-5132</t>
+          <t>inv-5133</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>automated user 132</t>
+          <t>automated user 133</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2815</v>
+        <v>681</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>45940</v>
@@ -4569,22 +4569,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>PRJ-2133</t>
+          <t>PRJ-2134</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CUST-3133</t>
+          <t>CUST-3134</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>inv-5133</t>
+          <t>inv-5134</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>automated user 133</t>
+          <t>automated user 134</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>681</v>
+        <v>9185</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>45940</v>
@@ -4602,31 +4602,31 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PRJ-2134</t>
+          <t>PRJ-2135</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CUST-3134</t>
+          <t>CUST-3135</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>inv-5134</t>
+          <t>inv-5135</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>automated user 134</t>
+          <t>automated user 135</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>9185</v>
+        <v>705</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>45940</v>
@@ -4635,31 +4635,31 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PRJ-2135</t>
+          <t>PRJ-2136</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CUST-3135</t>
+          <t>CUST-3136</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>inv-5135</t>
+          <t>inv-5136</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>automated user 135</t>
+          <t>automated user 136</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>705</v>
+        <v>2744</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>45940</v>
@@ -4668,22 +4668,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PRJ-2136</t>
+          <t>PRJ-2137</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CUST-3136</t>
+          <t>CUST-3137</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>inv-5136</t>
+          <t>inv-5137</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>automated user 136</t>
+          <t>automated user 137</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>2744</v>
+        <v>1963</v>
       </c>
       <c r="G129" s="2" t="n">
         <v>45940</v>
@@ -4701,31 +4701,31 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PRJ-2137</t>
+          <t>PRJ-2138</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CUST-3137</t>
+          <t>CUST-3138</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>inv-5137</t>
+          <t>inv-5138</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>automated user 137</t>
+          <t>automated user 138</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1963</v>
+        <v>969</v>
       </c>
       <c r="G130" s="2" t="n">
         <v>45940</v>
@@ -4734,22 +4734,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PRJ-2138</t>
+          <t>PRJ-2139</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CUST-3138</t>
+          <t>CUST-3139</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>inv-5138</t>
+          <t>inv-5139</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>automated user 138</t>
+          <t>automated user 139</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>969</v>
+        <v>5989</v>
       </c>
       <c r="G131" s="2" t="n">
         <v>45940</v>
@@ -4767,22 +4767,22 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PRJ-2139</t>
+          <t>PRJ-2140</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CUST-3139</t>
+          <t>CUST-3140</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>inv-5139</t>
+          <t>inv-5140</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>automated user 139</t>
+          <t>automated user 140</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>5989</v>
+        <v>2589</v>
       </c>
       <c r="G132" s="2" t="n">
         <v>45940</v>
@@ -4800,31 +4800,31 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PRJ-2140</t>
+          <t>PRJ-2141</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CUST-3140</t>
+          <t>CUST-3141</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>inv-5140</t>
+          <t>inv-5141</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>automated user 140</t>
+          <t>automated user 141</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>2589</v>
+        <v>7525</v>
       </c>
       <c r="G133" s="2" t="n">
         <v>45940</v>
@@ -4833,31 +4833,31 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PRJ-2141</t>
+          <t>PRJ-2142</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CUST-3141</t>
+          <t>CUST-3142</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>inv-5141</t>
+          <t>inv-5142</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>automated user 141</t>
+          <t>automated user 142</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>7525</v>
+        <v>3919</v>
       </c>
       <c r="G134" s="2" t="n">
         <v>45940</v>
@@ -4866,22 +4866,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PRJ-2142</t>
+          <t>PRJ-2143</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CUST-3142</t>
+          <t>CUST-3143</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>inv-5142</t>
+          <t>inv-5143</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>automated user 142</t>
+          <t>automated user 143</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3919</v>
+        <v>7988</v>
       </c>
       <c r="G135" s="2" t="n">
         <v>45940</v>
@@ -4899,22 +4899,22 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PRJ-2143</t>
+          <t>PRJ-2144</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CUST-3143</t>
+          <t>CUST-3144</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>inv-5143</t>
+          <t>inv-5144</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>automated user 143</t>
+          <t>automated user 144</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>7988</v>
+        <v>5518</v>
       </c>
       <c r="G136" s="2" t="n">
         <v>45940</v>
@@ -4932,31 +4932,31 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PRJ-2144</t>
+          <t>PRJ-2145</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CUST-3144</t>
+          <t>CUST-3145</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>inv-5144</t>
+          <t>inv-5145</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>automated user 144</t>
+          <t>automated user 145</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>5518</v>
+        <v>2039</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>45940</v>
@@ -4965,31 +4965,31 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PRJ-2145</t>
+          <t>PRJ-2146</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CUST-3145</t>
+          <t>CUST-3146</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>inv-5145</t>
+          <t>inv-5146</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>automated user 145</t>
+          <t>automated user 146</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2039</v>
+        <v>2753</v>
       </c>
       <c r="G138" s="2" t="n">
         <v>45940</v>
@@ -4998,31 +4998,31 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PRJ-2146</t>
+          <t>PRJ-2147</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CUST-3146</t>
+          <t>CUST-3147</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>inv-5146</t>
+          <t>inv-5147</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>automated user 146</t>
+          <t>automated user 147</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2753</v>
+        <v>2531</v>
       </c>
       <c r="G139" s="2" t="n">
         <v>45940</v>
@@ -5031,31 +5031,31 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PRJ-2147</t>
+          <t>PRJ-2148</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CUST-3147</t>
+          <t>CUST-3148</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>inv-5147</t>
+          <t>inv-5148</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>automated user 147</t>
+          <t>automated user 148</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2531</v>
+        <v>5001</v>
       </c>
       <c r="G140" s="2" t="n">
         <v>45940</v>
@@ -5064,31 +5064,31 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PRJ-2148</t>
+          <t>PRJ-2149</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CUST-3148</t>
+          <t>CUST-3149</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>inv-5148</t>
+          <t>inv-5149</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>automated user 148</t>
+          <t>automated user 149</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>5001</v>
+        <v>1391</v>
       </c>
       <c r="G141" s="2" t="n">
         <v>45940</v>
@@ -5097,22 +5097,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PRJ-2149</t>
+          <t>PRJ-2150</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CUST-3149</t>
+          <t>CUST-3150</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>inv-5149</t>
+          <t>inv-5150</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>automated user 149</t>
+          <t>automated user 150</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1391</v>
+        <v>8301</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>45940</v>
@@ -5130,22 +5130,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PRJ-2150</t>
+          <t>PRJ-2151</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CUST-3150</t>
+          <t>CUST-3151</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>inv-5150</t>
+          <t>inv-5151</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>automated user 150</t>
+          <t>automated user 151</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>8301</v>
+        <v>4162</v>
       </c>
       <c r="G143" s="2" t="n">
         <v>45940</v>
@@ -5163,31 +5163,31 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>PRJ-2151</t>
+          <t>PRJ-2152</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CUST-3151</t>
+          <t>CUST-3152</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>inv-5151</t>
+          <t>inv-5152</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>automated user 151</t>
+          <t>automated user 152</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>4162</v>
+        <v>2846</v>
       </c>
       <c r="G144" s="2" t="n">
         <v>45940</v>
@@ -5196,31 +5196,31 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PRJ-2152</t>
+          <t>PRJ-2153</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CUST-3152</t>
+          <t>CUST-3153</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>inv-5152</t>
+          <t>inv-5153</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>automated user 152</t>
+          <t>automated user 153</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2846</v>
+        <v>9660</v>
       </c>
       <c r="G145" s="2" t="n">
         <v>45940</v>
@@ -5229,22 +5229,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PRJ-2153</t>
+          <t>PRJ-2154</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CUST-3153</t>
+          <t>CUST-3154</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>inv-5153</t>
+          <t>inv-5154</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>automated user 153</t>
+          <t>automated user 154</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5253,7 +5253,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>9660</v>
+        <v>1073</v>
       </c>
       <c r="G146" s="2" t="n">
         <v>45940</v>
@@ -5262,31 +5262,31 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PRJ-2154</t>
+          <t>PRJ-2155</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CUST-3154</t>
+          <t>CUST-3155</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>inv-5154</t>
+          <t>inv-5155</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>automated user 154</t>
+          <t>automated user 155</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1073</v>
+        <v>2773</v>
       </c>
       <c r="G147" s="2" t="n">
         <v>45940</v>
@@ -5295,31 +5295,31 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PRJ-2155</t>
+          <t>PRJ-2156</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CUST-3155</t>
+          <t>CUST-3156</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>inv-5155</t>
+          <t>inv-5156</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>automated user 155</t>
+          <t>automated user 156</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>2773</v>
+        <v>8839</v>
       </c>
       <c r="G148" s="2" t="n">
         <v>45940</v>
@@ -5328,31 +5328,31 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PRJ-2156</t>
+          <t>PRJ-2157</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CUST-3156</t>
+          <t>CUST-3157</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>inv-5156</t>
+          <t>inv-5157</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>automated user 156</t>
+          <t>automated user 157</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>8839</v>
+        <v>5090</v>
       </c>
       <c r="G149" s="2" t="n">
         <v>45940</v>
@@ -5361,31 +5361,31 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PRJ-2157</t>
+          <t>PRJ-2158</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CUST-3157</t>
+          <t>CUST-3158</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>inv-5157</t>
+          <t>inv-5158</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>automated user 157</t>
+          <t>automated user 158</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>5090</v>
+        <v>7645</v>
       </c>
       <c r="G150" s="2" t="n">
         <v>45940</v>
@@ -5394,31 +5394,31 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PRJ-2158</t>
+          <t>PRJ-2159</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CUST-3158</t>
+          <t>CUST-3159</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>inv-5158</t>
+          <t>inv-5159</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>automated user 158</t>
+          <t>automated user 159</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>7645</v>
+        <v>6944</v>
       </c>
       <c r="G151" s="2" t="n">
         <v>45940</v>
@@ -5427,31 +5427,31 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PRJ-2159</t>
+          <t>PRJ-2160</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CUST-3159</t>
+          <t>CUST-3160</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>inv-5159</t>
+          <t>inv-5160</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>automated user 159</t>
+          <t>automated user 160</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>6944</v>
+        <v>5454</v>
       </c>
       <c r="G152" s="2" t="n">
         <v>45940</v>
@@ -5460,22 +5460,22 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PRJ-2160</t>
+          <t>PRJ-2161</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CUST-3160</t>
+          <t>CUST-3161</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>inv-5160</t>
+          <t>inv-5161</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>automated user 160</t>
+          <t>automated user 161</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>5454</v>
+        <v>9624</v>
       </c>
       <c r="G153" s="2" t="n">
         <v>45940</v>
@@ -5493,31 +5493,31 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PRJ-2161</t>
+          <t>PRJ-2162</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CUST-3161</t>
+          <t>CUST-3162</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>inv-5161</t>
+          <t>inv-5162</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>automated user 161</t>
+          <t>automated user 162</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>9624</v>
+        <v>6883</v>
       </c>
       <c r="G154" s="2" t="n">
         <v>45940</v>
@@ -5526,31 +5526,31 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PRJ-2162</t>
+          <t>PRJ-2163</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CUST-3162</t>
+          <t>CUST-3163</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>inv-5162</t>
+          <t>inv-5163</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>automated user 162</t>
+          <t>automated user 163</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>6883</v>
+        <v>2086</v>
       </c>
       <c r="G155" s="2" t="n">
         <v>45940</v>
@@ -5559,31 +5559,31 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PRJ-2163</t>
+          <t>PRJ-2164</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CUST-3163</t>
+          <t>CUST-3164</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>inv-5163</t>
+          <t>inv-5164</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>automated user 163</t>
+          <t>automated user 164</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>2086</v>
+        <v>9802</v>
       </c>
       <c r="G156" s="2" t="n">
         <v>45940</v>
@@ -5592,31 +5592,31 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PRJ-2164</t>
+          <t>PRJ-2165</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CUST-3164</t>
+          <t>CUST-3165</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>inv-5164</t>
+          <t>inv-5165</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>automated user 164</t>
+          <t>automated user 165</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>9802</v>
+        <v>517</v>
       </c>
       <c r="G157" s="2" t="n">
         <v>45940</v>
@@ -5625,31 +5625,31 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PRJ-2165</t>
+          <t>PRJ-2166</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CUST-3165</t>
+          <t>CUST-3166</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>inv-5165</t>
+          <t>inv-5166</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>automated user 165</t>
+          <t>automated user 166</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>517</v>
+        <v>4151</v>
       </c>
       <c r="G158" s="2" t="n">
         <v>45940</v>
@@ -5658,31 +5658,31 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PRJ-2166</t>
+          <t>PRJ-2167</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CUST-3166</t>
+          <t>CUST-3167</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>inv-5166</t>
+          <t>inv-5167</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>automated user 166</t>
+          <t>automated user 167</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>4151</v>
+        <v>6530</v>
       </c>
       <c r="G159" s="2" t="n">
         <v>45940</v>
@@ -5691,22 +5691,22 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PRJ-2167</t>
+          <t>PRJ-2168</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CUST-3167</t>
+          <t>CUST-3168</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>inv-5167</t>
+          <t>inv-5168</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>automated user 167</t>
+          <t>automated user 168</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>6530</v>
+        <v>3861</v>
       </c>
       <c r="G160" s="2" t="n">
         <v>45940</v>
@@ -5724,31 +5724,31 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PRJ-2168</t>
+          <t>PRJ-2169</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CUST-3168</t>
+          <t>CUST-3169</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>inv-5168</t>
+          <t>inv-5169</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>automated user 168</t>
+          <t>automated user 169</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>3861</v>
+        <v>7102</v>
       </c>
       <c r="G161" s="2" t="n">
         <v>45940</v>
@@ -5757,31 +5757,31 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PRJ-2169</t>
+          <t>PRJ-2170</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CUST-3169</t>
+          <t>CUST-3170</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>inv-5169</t>
+          <t>inv-5170</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>automated user 169</t>
+          <t>automated user 170</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>7102</v>
+        <v>482</v>
       </c>
       <c r="G162" s="2" t="n">
         <v>45940</v>
@@ -5790,31 +5790,31 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PRJ-2170</t>
+          <t>PRJ-2171</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CUST-3170</t>
+          <t>CUST-3171</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>inv-5170</t>
+          <t>inv-5171</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>automated user 170</t>
+          <t>automated user 171</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>482</v>
+        <v>7257</v>
       </c>
       <c r="G163" s="2" t="n">
         <v>45940</v>
@@ -5823,22 +5823,22 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PRJ-2171</t>
+          <t>PRJ-2172</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CUST-3171</t>
+          <t>CUST-3172</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>inv-5171</t>
+          <t>inv-5172</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>automated user 171</t>
+          <t>automated user 172</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>7257</v>
+        <v>4740</v>
       </c>
       <c r="G164" s="2" t="n">
         <v>45940</v>
@@ -5856,22 +5856,22 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PRJ-2172</t>
+          <t>PRJ-2173</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CUST-3172</t>
+          <t>CUST-3173</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>inv-5172</t>
+          <t>inv-5173</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>automated user 172</t>
+          <t>automated user 173</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5880,7 +5880,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>4740</v>
+        <v>2146</v>
       </c>
       <c r="G165" s="2" t="n">
         <v>45940</v>
@@ -5889,31 +5889,31 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PRJ-2173</t>
+          <t>PRJ-2174</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CUST-3173</t>
+          <t>CUST-3174</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>inv-5173</t>
+          <t>inv-5174</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>automated user 173</t>
+          <t>automated user 174</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2146</v>
+        <v>3873</v>
       </c>
       <c r="G166" s="2" t="n">
         <v>45940</v>
@@ -5922,31 +5922,31 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PRJ-2174</t>
+          <t>PRJ-2175</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CUST-3174</t>
+          <t>CUST-3175</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>inv-5174</t>
+          <t>inv-5175</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>automated user 174</t>
+          <t>automated user 175</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>3873</v>
+        <v>4821</v>
       </c>
       <c r="G167" s="2" t="n">
         <v>45940</v>
@@ -5955,31 +5955,31 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PRJ-2175</t>
+          <t>PRJ-2176</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CUST-3175</t>
+          <t>CUST-3176</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>inv-5175</t>
+          <t>inv-5176</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>automated user 175</t>
+          <t>automated user 176</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>4821</v>
+        <v>803</v>
       </c>
       <c r="G168" s="2" t="n">
         <v>45940</v>
@@ -5988,31 +5988,31 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PRJ-2176</t>
+          <t>PRJ-2177</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CUST-3176</t>
+          <t>CUST-3177</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>inv-5176</t>
+          <t>inv-5177</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>automated user 176</t>
+          <t>automated user 177</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>803</v>
+        <v>9076</v>
       </c>
       <c r="G169" s="2" t="n">
         <v>45940</v>
@@ -6021,31 +6021,31 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PRJ-2177</t>
+          <t>PRJ-2178</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CUST-3177</t>
+          <t>CUST-3178</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>inv-5177</t>
+          <t>inv-5178</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>automated user 177</t>
+          <t>automated user 178</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>9076</v>
+        <v>3004</v>
       </c>
       <c r="G170" s="2" t="n">
         <v>45940</v>
@@ -6054,22 +6054,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PRJ-2178</t>
+          <t>PRJ-2179</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CUST-3178</t>
+          <t>CUST-3179</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>inv-5178</t>
+          <t>inv-5179</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>automated user 178</t>
+          <t>automated user 179</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6078,7 +6078,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>3004</v>
+        <v>4580</v>
       </c>
       <c r="G171" s="2" t="n">
         <v>45940</v>
@@ -6087,31 +6087,31 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PRJ-2179</t>
+          <t>PRJ-2180</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CUST-3179</t>
+          <t>CUST-3180</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>inv-5179</t>
+          <t>inv-5180</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>automated user 179</t>
+          <t>automated user 180</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>4580</v>
+        <v>1032</v>
       </c>
       <c r="G172" s="2" t="n">
         <v>45940</v>
@@ -6120,22 +6120,22 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PRJ-2180</t>
+          <t>PRJ-2181</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CUST-3180</t>
+          <t>CUST-3181</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>inv-5180</t>
+          <t>inv-5181</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>automated user 180</t>
+          <t>automated user 181</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6144,7 +6144,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1032</v>
+        <v>6974</v>
       </c>
       <c r="G173" s="2" t="n">
         <v>45940</v>
@@ -6153,31 +6153,31 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PRJ-2181</t>
+          <t>PRJ-2182</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CUST-3181</t>
+          <t>CUST-3182</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>inv-5181</t>
+          <t>inv-5182</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>automated user 181</t>
+          <t>automated user 182</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>6974</v>
+        <v>3163</v>
       </c>
       <c r="G174" s="2" t="n">
         <v>45940</v>
@@ -6186,31 +6186,31 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PRJ-2182</t>
+          <t>PRJ-2183</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CUST-3182</t>
+          <t>CUST-3183</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>inv-5182</t>
+          <t>inv-5183</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>automated user 182</t>
+          <t>automated user 183</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>3163</v>
+        <v>1612</v>
       </c>
       <c r="G175" s="2" t="n">
         <v>45940</v>
@@ -6219,22 +6219,22 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PRJ-2183</t>
+          <t>PRJ-2184</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CUST-3183</t>
+          <t>CUST-3184</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>inv-5183</t>
+          <t>inv-5184</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>automated user 183</t>
+          <t>automated user 184</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6243,7 +6243,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1612</v>
+        <v>1646</v>
       </c>
       <c r="G176" s="2" t="n">
         <v>45940</v>
@@ -6252,22 +6252,22 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PRJ-2184</t>
+          <t>PRJ-2185</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CUST-3184</t>
+          <t>CUST-3185</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>inv-5184</t>
+          <t>inv-5185</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>automated user 184</t>
+          <t>automated user 185</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6276,7 +6276,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1646</v>
+        <v>9121</v>
       </c>
       <c r="G177" s="2" t="n">
         <v>45940</v>
@@ -6285,22 +6285,22 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PRJ-2185</t>
+          <t>PRJ-2186</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CUST-3185</t>
+          <t>CUST-3186</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>inv-5185</t>
+          <t>inv-5186</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>automated user 185</t>
+          <t>automated user 186</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>9121</v>
+        <v>1222</v>
       </c>
       <c r="G178" s="2" t="n">
         <v>45940</v>
@@ -6318,31 +6318,31 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PRJ-2186</t>
+          <t>PRJ-2187</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CUST-3186</t>
+          <t>CUST-3187</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>inv-5186</t>
+          <t>inv-5187</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>automated user 186</t>
+          <t>automated user 187</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1222</v>
+        <v>4667</v>
       </c>
       <c r="G179" s="2" t="n">
         <v>45940</v>
@@ -6351,31 +6351,31 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PRJ-2187</t>
+          <t>PRJ-2188</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CUST-3187</t>
+          <t>CUST-3188</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>inv-5187</t>
+          <t>inv-5188</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>automated user 187</t>
+          <t>automated user 188</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>4667</v>
+        <v>5343</v>
       </c>
       <c r="G180" s="2" t="n">
         <v>45940</v>
@@ -6384,31 +6384,31 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PRJ-2188</t>
+          <t>PRJ-2189</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CUST-3188</t>
+          <t>CUST-3189</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>inv-5188</t>
+          <t>inv-5189</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>automated user 188</t>
+          <t>automated user 189</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>5343</v>
+        <v>3979</v>
       </c>
       <c r="G181" s="2" t="n">
         <v>45940</v>
@@ -6417,31 +6417,31 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PRJ-2189</t>
+          <t>PRJ-2190</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CUST-3189</t>
+          <t>CUST-3190</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>inv-5189</t>
+          <t>inv-5190</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>automated user 189</t>
+          <t>automated user 190</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>3979</v>
+        <v>7806</v>
       </c>
       <c r="G182" s="2" t="n">
         <v>45940</v>
@@ -6450,22 +6450,22 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PRJ-2190</t>
+          <t>PRJ-2191</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CUST-3190</t>
+          <t>CUST-3191</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>inv-5190</t>
+          <t>inv-5191</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>automated user 190</t>
+          <t>automated user 191</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6474,7 +6474,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>7806</v>
+        <v>5247</v>
       </c>
       <c r="G183" s="2" t="n">
         <v>45940</v>
@@ -6483,31 +6483,31 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PRJ-2191</t>
+          <t>PRJ-2192</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CUST-3191</t>
+          <t>CUST-3192</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>inv-5191</t>
+          <t>inv-5192</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>automated user 191</t>
+          <t>automated user 192</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>5247</v>
+        <v>2342</v>
       </c>
       <c r="G184" s="2" t="n">
         <v>45940</v>
@@ -6516,31 +6516,31 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PRJ-2192</t>
+          <t>PRJ-2193</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CUST-3192</t>
+          <t>CUST-3193</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>inv-5192</t>
+          <t>inv-5193</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>automated user 192</t>
+          <t>automated user 193</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2342</v>
+        <v>9701</v>
       </c>
       <c r="G185" s="2" t="n">
         <v>45940</v>
@@ -6549,22 +6549,22 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PRJ-2193</t>
+          <t>PRJ-2194</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CUST-3193</t>
+          <t>CUST-3194</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>inv-5193</t>
+          <t>inv-5194</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>automated user 193</t>
+          <t>automated user 194</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6573,7 +6573,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>9701</v>
+        <v>9242</v>
       </c>
       <c r="G186" s="2" t="n">
         <v>45940</v>
@@ -6582,31 +6582,31 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PRJ-2194</t>
+          <t>PRJ-2195</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CUST-3194</t>
+          <t>CUST-3195</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>inv-5194</t>
+          <t>inv-5195</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>automated user 194</t>
+          <t>automated user 195</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>9242</v>
+        <v>2168</v>
       </c>
       <c r="G187" s="2" t="n">
         <v>45940</v>
@@ -6615,22 +6615,22 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PRJ-2195</t>
+          <t>PRJ-2196</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CUST-3195</t>
+          <t>CUST-3196</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>inv-5195</t>
+          <t>inv-5196</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>automated user 195</t>
+          <t>automated user 196</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2168</v>
+        <v>2344</v>
       </c>
       <c r="G188" s="2" t="n">
         <v>45940</v>
@@ -6648,22 +6648,22 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PRJ-2196</t>
+          <t>PRJ-2197</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CUST-3196</t>
+          <t>CUST-3197</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>inv-5196</t>
+          <t>inv-5197</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>automated user 196</t>
+          <t>automated user 197</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2344</v>
+        <v>7562</v>
       </c>
       <c r="G189" s="2" t="n">
         <v>45940</v>
@@ -6681,31 +6681,31 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PRJ-2197</t>
+          <t>PRJ-2198</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CUST-3197</t>
+          <t>CUST-3198</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>inv-5197</t>
+          <t>inv-5198</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>automated user 197</t>
+          <t>automated user 198</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>7562</v>
+        <v>2529</v>
       </c>
       <c r="G190" s="2" t="n">
         <v>45940</v>
@@ -6714,31 +6714,31 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PRJ-2198</t>
+          <t>PRJ-2199</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CUST-3198</t>
+          <t>CUST-3199</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>inv-5198</t>
+          <t>inv-5199</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>automated user 198</t>
+          <t>automated user 199</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2529</v>
+        <v>6947</v>
       </c>
       <c r="G191" s="2" t="n">
         <v>45940</v>
@@ -6747,66 +6747,33 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>PRJ-2199</t>
+          <t>PRJ-2200</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CUST-3199</t>
+          <t>CUST-3200</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>inv-5199</t>
+          <t>inv-5200</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>automated user 199</t>
+          <t>automated user 200</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>6947</v>
+        <v>2895</v>
       </c>
       <c r="G192" s="2" t="n">
-        <v>45940</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>PRJ-2200</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>CUST-3200</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>inv-5200</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>automated user 200</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="F193" t="n">
-        <v>2895</v>
-      </c>
-      <c r="G193" s="2" t="n">
         <v>45940</v>
       </c>
     </row>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -20,16 +20,13 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -429,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,37 +426,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>project_code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>customer_code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>invoice_number</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>created_at</t>
         </is>
@@ -503,7 +491,7 @@
       <c r="F2" t="n">
         <v>1500</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
@@ -536,7 +524,7 @@
       <c r="F3" t="n">
         <v>1500</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
@@ -569,7 +557,7 @@
       <c r="F4" t="n">
         <v>1500</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
@@ -602,7 +590,7 @@
       <c r="F5" t="n">
         <v>1500</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
@@ -635,7 +623,7 @@
       <c r="F6" t="n">
         <v>1500</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
@@ -668,7 +656,7 @@
       <c r="F7" t="n">
         <v>1500</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
@@ -701,7 +689,7 @@
       <c r="F8" t="n">
         <v>1500</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
@@ -734,62 +722,62 @@
       <c r="F9" t="n">
         <v>1500</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PRJ-110</t>
+          <t>PRJ-109</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CUST-210</t>
+          <t>CUST-209</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>inv-1010</t>
+          <t>inv-1009</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>valid customer 10</t>
+          <t>valid customer 9</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>1500</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PRJ-111</t>
+          <t>PRJ-110</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CUST-211</t>
+          <t>CUST-210</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>inv-1011</t>
+          <t>inv-1010</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>valid customer 11</t>
+          <t>valid customer 10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -800,29 +788,29 @@
       <c r="F11" t="n">
         <v>1500</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PRJ-112</t>
+          <t>PRJ-111</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CUST-212</t>
+          <t>CUST-211</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>inv-1012</t>
+          <t>inv-1011</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>valid customer 12</t>
+          <t>valid customer 11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -833,29 +821,29 @@
       <c r="F12" t="n">
         <v>1500</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PRJ-113</t>
+          <t>PRJ-112</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CUST-213</t>
+          <t>CUST-212</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>inv-1013</t>
+          <t>inv-1012</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>valid customer 13</t>
+          <t>valid customer 12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -866,29 +854,29 @@
       <c r="F13" t="n">
         <v>1500</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PRJ-114</t>
+          <t>PRJ-113</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CUST-214</t>
+          <t>CUST-213</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>inv-1014</t>
+          <t>inv-1013</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>valid customer 14</t>
+          <t>valid customer 13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -899,29 +887,29 @@
       <c r="F14" t="n">
         <v>1500</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PRJ-115</t>
+          <t>PRJ-114</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CUST-215</t>
+          <t>CUST-214</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>inv-1015</t>
+          <t>inv-1014</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>valid customer 15</t>
+          <t>valid customer 14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -932,29 +920,29 @@
       <c r="F15" t="n">
         <v>1500</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PRJ-116</t>
+          <t>PRJ-115</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CUST-216</t>
+          <t>CUST-215</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>inv-1016</t>
+          <t>inv-1015</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>valid customer 16</t>
+          <t>valid customer 15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -965,29 +953,29 @@
       <c r="F16" t="n">
         <v>1500</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PRJ-117</t>
+          <t>PRJ-116</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CUST-217</t>
+          <t>CUST-216</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>inv-1017</t>
+          <t>inv-1016</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>valid customer 17</t>
+          <t>valid customer 16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -998,29 +986,29 @@
       <c r="F17" t="n">
         <v>1500</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PRJ-118</t>
+          <t>PRJ-117</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CUST-218</t>
+          <t>CUST-217</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>inv-1018</t>
+          <t>inv-1017</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>valid customer 18</t>
+          <t>valid customer 17</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1031,29 +1019,29 @@
       <c r="F18" t="n">
         <v>1500</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PRJ-119</t>
+          <t>PRJ-118</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CUST-219</t>
+          <t>CUST-218</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>inv-1019</t>
+          <t>inv-1018</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>valid customer 19</t>
+          <t>valid customer 18</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1064,29 +1052,29 @@
       <c r="F19" t="n">
         <v>1500</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PRJ-120</t>
+          <t>PRJ-119</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CUST-220</t>
+          <t>CUST-219</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>inv-1020</t>
+          <t>inv-1019</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>valid customer 20</t>
+          <t>valid customer 19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1097,29 +1085,29 @@
       <c r="F20" t="n">
         <v>1500</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PRJ-121</t>
+          <t>PRJ-120</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CUST-221</t>
+          <t>CUST-220</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>inv-1021</t>
+          <t>inv-1020</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>valid customer 21</t>
+          <t>valid customer 20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1130,29 +1118,29 @@
       <c r="F21" t="n">
         <v>1500</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PRJ-122</t>
+          <t>PRJ-121</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CUST-222</t>
+          <t>CUST-221</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>inv-1022</t>
+          <t>inv-1021</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>valid customer 22</t>
+          <t>valid customer 21</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1163,29 +1151,29 @@
       <c r="F22" t="n">
         <v>1500</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PRJ-123</t>
+          <t>PRJ-122</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CUST-223</t>
+          <t>CUST-222</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>inv-1023</t>
+          <t>inv-1022</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>valid customer 23</t>
+          <t>valid customer 22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1196,29 +1184,29 @@
       <c r="F23" t="n">
         <v>1500</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PRJ-124</t>
+          <t>PRJ-123</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CUST-224</t>
+          <t>CUST-223</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>inv-1024</t>
+          <t>inv-1023</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>valid customer 24</t>
+          <t>valid customer 23</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1229,29 +1217,29 @@
       <c r="F24" t="n">
         <v>1500</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PRJ-125</t>
+          <t>PRJ-124</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CUST-225</t>
+          <t>CUST-224</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>inv-1025</t>
+          <t>inv-1024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>valid customer 25</t>
+          <t>valid customer 24</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1262,29 +1250,29 @@
       <c r="F25" t="n">
         <v>1500</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PRJ-126</t>
+          <t>PRJ-125</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CUST-226</t>
+          <t>CUST-225</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>inv-1026</t>
+          <t>inv-1025</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>valid customer 26</t>
+          <t>valid customer 25</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1295,29 +1283,29 @@
       <c r="F26" t="n">
         <v>1500</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PRJ-127</t>
+          <t>PRJ-126</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CUST-227</t>
+          <t>CUST-226</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>inv-1027</t>
+          <t>inv-1026</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>valid customer 27</t>
+          <t>valid customer 26</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1328,29 +1316,29 @@
       <c r="F27" t="n">
         <v>1500</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PRJ-128</t>
+          <t>PRJ-127</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CUST-228</t>
+          <t>CUST-227</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>inv-1028</t>
+          <t>inv-1027</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>valid customer 28</t>
+          <t>valid customer 27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1361,29 +1349,29 @@
       <c r="F28" t="n">
         <v>1500</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PRJ-129</t>
+          <t>PRJ-128</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CUST-229</t>
+          <t>CUST-228</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>inv-1029</t>
+          <t>inv-1028</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>valid customer 29</t>
+          <t>valid customer 28</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1394,29 +1382,29 @@
       <c r="F29" t="n">
         <v>1500</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PRJ-130</t>
+          <t>PRJ-129</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CUST-230</t>
+          <t>CUST-229</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>inv-1030</t>
+          <t>inv-1029</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>valid customer 30</t>
+          <t>valid customer 29</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1427,161 +1415,161 @@
       <c r="F30" t="n">
         <v>1500</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="1" t="n">
         <v>45823</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PRJ-777</t>
+          <t>PRJ-130</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CUST-777</t>
+          <t>CUST-230</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>inv-4001</t>
+          <t>inv-1030</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>suspend with zero success</t>
+          <t>valid customer 30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>suspend</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2" t="n">
-        <v>45658</v>
+        <v>1500</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>45823</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PRJ-555</t>
+          <t>PRJ-777</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CUST-555</t>
+          <t>CUST-777</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>inv-unique-1</t>
+          <t>inv-4000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>unique invoice</t>
+          <t>suspend with amount fail</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>suspend</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
-      </c>
-      <c r="G32" s="2" t="n">
+        <v>500.5</v>
+      </c>
+      <c r="G32" s="1" t="n">
         <v>45658</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PRJ-2041</t>
+          <t>PRJ-777</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CUST-3041</t>
+          <t>CUST-777</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>inv-5041</t>
+          <t>inv-4001</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>automated user 41</t>
+          <t>suspend with zero success</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>suspend</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>9254</v>
-      </c>
-      <c r="G33" s="2" t="n">
-        <v>45940</v>
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>45658</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PRJ-2042</t>
+          <t>PRJ-666</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CUST-3042</t>
+          <t>CUST-667</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>inv-5042</t>
+          <t>inv-5001</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>automated user 42</t>
+          <t>excel serial date fail</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9568</v>
-      </c>
-      <c r="G34" s="2" t="n">
-        <v>45940</v>
+        <v>100</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>25569.00000005387</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PRJ-2043</t>
+          <t>PRJ-555</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CUST-3043</t>
+          <t>CUST-555</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>inv-5043</t>
+          <t>inv-unique-1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>automated user 43</t>
+          <t>unique invoice</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1590,64 +1578,64 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1253</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>45940</v>
+        <v>100</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>45658</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PRJ-2044</t>
+          <t>PRJ-2041</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CUST-3044</t>
+          <t>CUST-3041</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>inv-5044</t>
+          <t>inv-5041</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>automated user 44</t>
+          <t>automated user 41</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7261</v>
-      </c>
-      <c r="G36" s="2" t="n">
+        <v>9254</v>
+      </c>
+      <c r="G36" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PRJ-2045</t>
+          <t>PRJ-2042</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CUST-3045</t>
+          <t>CUST-3042</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>inv-5045</t>
+          <t>inv-5042</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>automated user 45</t>
+          <t>automated user 42</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1656,163 +1644,163 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>6834</v>
-      </c>
-      <c r="G37" s="2" t="n">
+        <v>9568</v>
+      </c>
+      <c r="G37" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PRJ-2046</t>
+          <t>PRJ-2043</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CUST-3046</t>
+          <t>CUST-3043</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>inv-5046</t>
+          <t>inv-5043</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>automated user 46</t>
+          <t>automated user 43</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>7403</v>
-      </c>
-      <c r="G38" s="2" t="n">
+        <v>1253</v>
+      </c>
+      <c r="G38" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PRJ-2047</t>
+          <t>PRJ-2044</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CUST-3047</t>
+          <t>CUST-3044</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>inv-5047</t>
+          <t>inv-5044</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>automated user 47</t>
+          <t>automated user 44</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1225</v>
-      </c>
-      <c r="G39" s="2" t="n">
+        <v>7261</v>
+      </c>
+      <c r="G39" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PRJ-2048</t>
+          <t>PRJ-2045</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CUST-3048</t>
+          <t>CUST-3045</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>inv-5048</t>
+          <t>inv-5045</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>automated user 48</t>
+          <t>automated user 45</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6126</v>
-      </c>
-      <c r="G40" s="2" t="n">
+        <v>6834</v>
+      </c>
+      <c r="G40" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PRJ-2049</t>
+          <t>PRJ-2046</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CUST-3049</t>
+          <t>CUST-3046</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>inv-5049</t>
+          <t>inv-5046</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>automated user 49</t>
+          <t>automated user 46</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5328</v>
-      </c>
-      <c r="G41" s="2" t="n">
+        <v>7403</v>
+      </c>
+      <c r="G41" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PRJ-2050</t>
+          <t>PRJ-2047</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CUST-3050</t>
+          <t>CUST-3047</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>inv-5050</t>
+          <t>inv-5047</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>automated user 50</t>
+          <t>automated user 47</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1821,97 +1809,97 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>7513</v>
-      </c>
-      <c r="G42" s="2" t="n">
+        <v>1225</v>
+      </c>
+      <c r="G42" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PRJ-2051</t>
+          <t>PRJ-2048</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CUST-3051</t>
+          <t>CUST-3048</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>inv-5051</t>
+          <t>inv-5048</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>automated user 51</t>
+          <t>automated user 48</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2252</v>
-      </c>
-      <c r="G43" s="2" t="n">
+        <v>6126</v>
+      </c>
+      <c r="G43" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PRJ-2052</t>
+          <t>PRJ-2049</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CUST-3052</t>
+          <t>CUST-3049</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>inv-5052</t>
+          <t>inv-5049</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>automated user 52</t>
+          <t>automated user 49</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>9763</v>
-      </c>
-      <c r="G44" s="2" t="n">
+        <v>5328</v>
+      </c>
+      <c r="G44" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PRJ-2053</t>
+          <t>PRJ-2050</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CUST-3053</t>
+          <t>CUST-3050</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>inv-5053</t>
+          <t>inv-5050</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>automated user 53</t>
+          <t>automated user 50</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1920,163 +1908,163 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6182</v>
-      </c>
-      <c r="G45" s="2" t="n">
+        <v>7513</v>
+      </c>
+      <c r="G45" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PRJ-2054</t>
+          <t>PRJ-2051</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CUST-3054</t>
+          <t>CUST-3051</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>inv-5054</t>
+          <t>inv-5051</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>automated user 54</t>
+          <t>automated user 51</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>7632</v>
-      </c>
-      <c r="G46" s="2" t="n">
+        <v>2252</v>
+      </c>
+      <c r="G46" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PRJ-2055</t>
+          <t>PRJ-2052</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CUST-3055</t>
+          <t>CUST-3052</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>inv-5055</t>
+          <t>inv-5052</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>automated user 55</t>
+          <t>automated user 52</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7129</v>
-      </c>
-      <c r="G47" s="2" t="n">
+        <v>9763</v>
+      </c>
+      <c r="G47" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PRJ-2056</t>
+          <t>PRJ-2053</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CUST-3056</t>
+          <t>CUST-3053</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>inv-5056</t>
+          <t>inv-5053</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>automated user 56</t>
+          <t>automated user 53</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6960</v>
-      </c>
-      <c r="G48" s="2" t="n">
+        <v>6182</v>
+      </c>
+      <c r="G48" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PRJ-2057</t>
+          <t>PRJ-2054</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CUST-3057</t>
+          <t>CUST-3054</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>inv-5057</t>
+          <t>inv-5054</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>automated user 57</t>
+          <t>automated user 54</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>7808</v>
-      </c>
-      <c r="G49" s="2" t="n">
+        <v>7632</v>
+      </c>
+      <c r="G49" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PRJ-2058</t>
+          <t>PRJ-2055</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CUST-3058</t>
+          <t>CUST-3055</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>inv-5058</t>
+          <t>inv-5055</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>automated user 58</t>
+          <t>automated user 55</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2085,31 +2073,31 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3395</v>
-      </c>
-      <c r="G50" s="2" t="n">
+        <v>7129</v>
+      </c>
+      <c r="G50" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PRJ-2059</t>
+          <t>PRJ-2056</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CUST-3059</t>
+          <t>CUST-3056</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>inv-5059</t>
+          <t>inv-5056</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>automated user 59</t>
+          <t>automated user 56</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2118,31 +2106,31 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2088</v>
-      </c>
-      <c r="G51" s="2" t="n">
+        <v>6960</v>
+      </c>
+      <c r="G51" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PRJ-2060</t>
+          <t>PRJ-2057</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CUST-3060</t>
+          <t>CUST-3057</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>inv-5060</t>
+          <t>inv-5057</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>automated user 60</t>
+          <t>automated user 57</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2151,31 +2139,31 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5652</v>
-      </c>
-      <c r="G52" s="2" t="n">
+        <v>7808</v>
+      </c>
+      <c r="G52" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PRJ-2061</t>
+          <t>PRJ-2058</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CUST-3061</t>
+          <t>CUST-3058</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>inv-5061</t>
+          <t>inv-5058</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>automated user 61</t>
+          <t>automated user 58</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2184,130 +2172,130 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>8462</v>
-      </c>
-      <c r="G53" s="2" t="n">
+        <v>3395</v>
+      </c>
+      <c r="G53" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PRJ-2062</t>
+          <t>PRJ-2059</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CUST-3062</t>
+          <t>CUST-3059</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>inv-5062</t>
+          <t>inv-5059</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>automated user 62</t>
+          <t>automated user 59</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3835</v>
-      </c>
-      <c r="G54" s="2" t="n">
+        <v>2088</v>
+      </c>
+      <c r="G54" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PRJ-2063</t>
+          <t>PRJ-2060</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CUST-3063</t>
+          <t>CUST-3060</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>inv-5063</t>
+          <t>inv-5060</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>automated user 63</t>
+          <t>automated user 60</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6332</v>
-      </c>
-      <c r="G55" s="2" t="n">
+        <v>5652</v>
+      </c>
+      <c r="G55" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PRJ-2064</t>
+          <t>PRJ-2061</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CUST-3064</t>
+          <t>CUST-3061</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>inv-5064</t>
+          <t>inv-5061</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>automated user 64</t>
+          <t>automated user 61</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2380</v>
-      </c>
-      <c r="G56" s="2" t="n">
+        <v>8462</v>
+      </c>
+      <c r="G56" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PRJ-2065</t>
+          <t>PRJ-2062</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CUST-3065</t>
+          <t>CUST-3062</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>inv-5065</t>
+          <t>inv-5062</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>automated user 65</t>
+          <t>automated user 62</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2316,31 +2304,31 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>981</v>
-      </c>
-      <c r="G57" s="2" t="n">
+        <v>3835</v>
+      </c>
+      <c r="G57" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PRJ-2066</t>
+          <t>PRJ-2063</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CUST-3066</t>
+          <t>CUST-3063</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>inv-5066</t>
+          <t>inv-5063</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>automated user 66</t>
+          <t>automated user 63</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2349,130 +2337,130 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>708</v>
-      </c>
-      <c r="G58" s="2" t="n">
+        <v>6332</v>
+      </c>
+      <c r="G58" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PRJ-2067</t>
+          <t>PRJ-2064</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CUST-3067</t>
+          <t>CUST-3064</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>inv-5067</t>
+          <t>inv-5064</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>automated user 67</t>
+          <t>automated user 64</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>827</v>
-      </c>
-      <c r="G59" s="2" t="n">
+        <v>2380</v>
+      </c>
+      <c r="G59" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PRJ-2068</t>
+          <t>PRJ-2065</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CUST-3068</t>
+          <t>CUST-3065</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>inv-5068</t>
+          <t>inv-5065</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>automated user 68</t>
+          <t>automated user 65</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>812</v>
-      </c>
-      <c r="G60" s="2" t="n">
+        <v>981</v>
+      </c>
+      <c r="G60" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PRJ-2069</t>
+          <t>PRJ-2066</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CUST-3069</t>
+          <t>CUST-3066</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>inv-5069</t>
+          <t>inv-5066</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>automated user 69</t>
+          <t>automated user 66</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>7353</v>
-      </c>
-      <c r="G61" s="2" t="n">
+        <v>708</v>
+      </c>
+      <c r="G61" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PRJ-2070</t>
+          <t>PRJ-2067</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CUST-3070</t>
+          <t>CUST-3067</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>inv-5070</t>
+          <t>inv-5067</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>automated user 70</t>
+          <t>automated user 67</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2481,64 +2469,64 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5220</v>
-      </c>
-      <c r="G62" s="2" t="n">
+        <v>827</v>
+      </c>
+      <c r="G62" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PRJ-2071</t>
+          <t>PRJ-2068</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CUST-3071</t>
+          <t>CUST-3068</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>inv-5071</t>
+          <t>inv-5068</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>automated user 71</t>
+          <t>automated user 68</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>7011</v>
-      </c>
-      <c r="G63" s="2" t="n">
+        <v>812</v>
+      </c>
+      <c r="G63" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PRJ-2072</t>
+          <t>PRJ-2069</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CUST-3072</t>
+          <t>CUST-3069</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>inv-5072</t>
+          <t>inv-5069</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>automated user 72</t>
+          <t>automated user 69</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2547,64 +2535,64 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3898</v>
-      </c>
-      <c r="G64" s="2" t="n">
+        <v>7353</v>
+      </c>
+      <c r="G64" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PRJ-2073</t>
+          <t>PRJ-2070</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CUST-3073</t>
+          <t>CUST-3070</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>inv-5073</t>
+          <t>inv-5070</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>automated user 73</t>
+          <t>automated user 70</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4189</v>
-      </c>
-      <c r="G65" s="2" t="n">
+        <v>5220</v>
+      </c>
+      <c r="G65" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PRJ-2074</t>
+          <t>PRJ-2071</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CUST-3074</t>
+          <t>CUST-3071</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>inv-5074</t>
+          <t>inv-5071</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>automated user 74</t>
+          <t>automated user 71</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2613,130 +2601,130 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2913</v>
-      </c>
-      <c r="G66" s="2" t="n">
+        <v>7011</v>
+      </c>
+      <c r="G66" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PRJ-2075</t>
+          <t>PRJ-2072</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CUST-3075</t>
+          <t>CUST-3072</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>inv-5075</t>
+          <t>inv-5072</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>automated user 75</t>
+          <t>automated user 72</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4294</v>
-      </c>
-      <c r="G67" s="2" t="n">
+        <v>3898</v>
+      </c>
+      <c r="G67" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PRJ-2076</t>
+          <t>PRJ-2073</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CUST-3076</t>
+          <t>CUST-3073</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>inv-5076</t>
+          <t>inv-5073</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>automated user 76</t>
+          <t>automated user 73</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>9737</v>
-      </c>
-      <c r="G68" s="2" t="n">
+        <v>4189</v>
+      </c>
+      <c r="G68" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PRJ-2077</t>
+          <t>PRJ-2074</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CUST-3077</t>
+          <t>CUST-3074</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>inv-5077</t>
+          <t>inv-5074</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>automated user 77</t>
+          <t>automated user 74</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>9444</v>
-      </c>
-      <c r="G69" s="2" t="n">
+        <v>2913</v>
+      </c>
+      <c r="G69" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PRJ-2078</t>
+          <t>PRJ-2075</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CUST-3078</t>
+          <t>CUST-3075</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>inv-5078</t>
+          <t>inv-5075</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>automated user 78</t>
+          <t>automated user 75</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2745,31 +2733,31 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4699</v>
-      </c>
-      <c r="G70" s="2" t="n">
+        <v>4294</v>
+      </c>
+      <c r="G70" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PRJ-2079</t>
+          <t>PRJ-2076</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CUST-3079</t>
+          <t>CUST-3076</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>inv-5079</t>
+          <t>inv-5076</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>automated user 79</t>
+          <t>automated user 76</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2778,229 +2766,229 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3191</v>
-      </c>
-      <c r="G71" s="2" t="n">
+        <v>9737</v>
+      </c>
+      <c r="G71" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PRJ-2080</t>
+          <t>PRJ-2077</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CUST-3080</t>
+          <t>CUST-3077</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>inv-5080</t>
+          <t>inv-5077</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>automated user 80</t>
+          <t>automated user 77</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3012</v>
-      </c>
-      <c r="G72" s="2" t="n">
+        <v>9444</v>
+      </c>
+      <c r="G72" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PRJ-2081</t>
+          <t>PRJ-2078</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CUST-3081</t>
+          <t>CUST-3078</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>inv-5081</t>
+          <t>inv-5078</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>automated user 81</t>
+          <t>automated user 78</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1238</v>
-      </c>
-      <c r="G73" s="2" t="n">
+        <v>4699</v>
+      </c>
+      <c r="G73" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PRJ-2082</t>
+          <t>PRJ-2079</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CUST-3082</t>
+          <t>CUST-3079</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>inv-5082</t>
+          <t>inv-5079</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>automated user 82</t>
+          <t>automated user 79</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1275</v>
-      </c>
-      <c r="G74" s="2" t="n">
+        <v>3191</v>
+      </c>
+      <c r="G74" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PRJ-2083</t>
+          <t>PRJ-2080</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CUST-3083</t>
+          <t>CUST-3080</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>inv-5083</t>
+          <t>inv-5080</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>automated user 83</t>
+          <t>automated user 80</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>633</v>
-      </c>
-      <c r="G75" s="2" t="n">
+        <v>3012</v>
+      </c>
+      <c r="G75" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PRJ-2084</t>
+          <t>PRJ-2081</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CUST-3084</t>
+          <t>CUST-3081</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>inv-5084</t>
+          <t>inv-5081</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>automated user 84</t>
+          <t>automated user 81</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>783</v>
-      </c>
-      <c r="G76" s="2" t="n">
+        <v>1238</v>
+      </c>
+      <c r="G76" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PRJ-2085</t>
+          <t>PRJ-2082</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CUST-3085</t>
+          <t>CUST-3082</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>inv-5085</t>
+          <t>inv-5082</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>automated user 85</t>
+          <t>automated user 82</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>7126</v>
-      </c>
-      <c r="G77" s="2" t="n">
+        <v>1275</v>
+      </c>
+      <c r="G77" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PRJ-2086</t>
+          <t>PRJ-2083</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CUST-3086</t>
+          <t>CUST-3083</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>inv-5086</t>
+          <t>inv-5083</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>automated user 86</t>
+          <t>automated user 83</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3009,31 +2997,31 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>6232</v>
-      </c>
-      <c r="G78" s="2" t="n">
+        <v>633</v>
+      </c>
+      <c r="G78" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PRJ-2087</t>
+          <t>PRJ-2084</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CUST-3087</t>
+          <t>CUST-3084</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>inv-5087</t>
+          <t>inv-5084</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>automated user 87</t>
+          <t>automated user 84</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3042,130 +3030,130 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>7332</v>
-      </c>
-      <c r="G79" s="2" t="n">
+        <v>783</v>
+      </c>
+      <c r="G79" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PRJ-2088</t>
+          <t>PRJ-2085</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CUST-3088</t>
+          <t>CUST-3085</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>inv-5088</t>
+          <t>inv-5085</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>automated user 88</t>
+          <t>automated user 85</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>527</v>
-      </c>
-      <c r="G80" s="2" t="n">
+        <v>7126</v>
+      </c>
+      <c r="G80" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PRJ-2089</t>
+          <t>PRJ-2086</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CUST-3089</t>
+          <t>CUST-3086</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>inv-5089</t>
+          <t>inv-5086</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>automated user 89</t>
+          <t>automated user 86</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>567</v>
-      </c>
-      <c r="G81" s="2" t="n">
+        <v>6232</v>
+      </c>
+      <c r="G81" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PRJ-2090</t>
+          <t>PRJ-2087</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CUST-3090</t>
+          <t>CUST-3087</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>inv-5090</t>
+          <t>inv-5087</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>automated user 90</t>
+          <t>automated user 87</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2580</v>
-      </c>
-      <c r="G82" s="2" t="n">
+        <v>7332</v>
+      </c>
+      <c r="G82" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PRJ-2091</t>
+          <t>PRJ-2088</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CUST-3091</t>
+          <t>CUST-3088</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>inv-5091</t>
+          <t>inv-5088</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>automated user 91</t>
+          <t>automated user 88</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3174,163 +3162,163 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>9084</v>
-      </c>
-      <c r="G83" s="2" t="n">
+        <v>527</v>
+      </c>
+      <c r="G83" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PRJ-2092</t>
+          <t>PRJ-2089</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CUST-3092</t>
+          <t>CUST-3089</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>inv-5092</t>
+          <t>inv-5089</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>automated user 92</t>
+          <t>automated user 89</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2907</v>
-      </c>
-      <c r="G84" s="2" t="n">
+        <v>567</v>
+      </c>
+      <c r="G84" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PRJ-2093</t>
+          <t>PRJ-2090</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CUST-3093</t>
+          <t>CUST-3090</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>inv-5093</t>
+          <t>inv-5090</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>automated user 93</t>
+          <t>automated user 90</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1158</v>
-      </c>
-      <c r="G85" s="2" t="n">
+        <v>2580</v>
+      </c>
+      <c r="G85" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PRJ-2094</t>
+          <t>PRJ-2091</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CUST-3094</t>
+          <t>CUST-3091</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>inv-5094</t>
+          <t>inv-5091</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>automated user 94</t>
+          <t>automated user 91</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>9046</v>
-      </c>
-      <c r="G86" s="2" t="n">
+        <v>9084</v>
+      </c>
+      <c r="G86" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PRJ-2095</t>
+          <t>PRJ-2092</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CUST-3095</t>
+          <t>CUST-3092</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>inv-5095</t>
+          <t>inv-5092</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>automated user 95</t>
+          <t>automated user 92</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5385</v>
-      </c>
-      <c r="G87" s="2" t="n">
+        <v>2907</v>
+      </c>
+      <c r="G87" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PRJ-2096</t>
+          <t>PRJ-2093</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CUST-3096</t>
+          <t>CUST-3093</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>inv-5096</t>
+          <t>inv-5093</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>automated user 96</t>
+          <t>automated user 93</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3339,97 +3327,97 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4385</v>
-      </c>
-      <c r="G88" s="2" t="n">
+        <v>1158</v>
+      </c>
+      <c r="G88" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PRJ-2097</t>
+          <t>PRJ-2094</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CUST-3097</t>
+          <t>CUST-3094</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>inv-5097</t>
+          <t>inv-5094</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>automated user 97</t>
+          <t>automated user 94</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>409</v>
-      </c>
-      <c r="G89" s="2" t="n">
+        <v>9046</v>
+      </c>
+      <c r="G89" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PRJ-2098</t>
+          <t>PRJ-2095</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CUST-3098</t>
+          <t>CUST-3095</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>inv-5098</t>
+          <t>inv-5095</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>automated user 98</t>
+          <t>automated user 95</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>8208</v>
-      </c>
-      <c r="G90" s="2" t="n">
+        <v>5385</v>
+      </c>
+      <c r="G90" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PRJ-2099</t>
+          <t>PRJ-2096</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CUST-3099</t>
+          <t>CUST-3096</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>inv-5099</t>
+          <t>inv-5096</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>automated user 99</t>
+          <t>automated user 96</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3438,31 +3426,31 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>6191</v>
-      </c>
-      <c r="G91" s="2" t="n">
+        <v>4385</v>
+      </c>
+      <c r="G91" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PRJ-2100</t>
+          <t>PRJ-2097</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CUST-3100</t>
+          <t>CUST-3097</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>inv-5100</t>
+          <t>inv-5097</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>automated user 100</t>
+          <t>automated user 97</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3471,130 +3459,130 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3453</v>
-      </c>
-      <c r="G92" s="2" t="n">
+        <v>409</v>
+      </c>
+      <c r="G92" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PRJ-2101</t>
+          <t>PRJ-2098</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CUST-3101</t>
+          <t>CUST-3098</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>inv-5101</t>
+          <t>inv-5098</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>automated user 101</t>
+          <t>automated user 98</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>8343</v>
-      </c>
-      <c r="G93" s="2" t="n">
+        <v>8208</v>
+      </c>
+      <c r="G93" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PRJ-2102</t>
+          <t>PRJ-2099</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CUST-3102</t>
+          <t>CUST-3099</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>inv-5102</t>
+          <t>inv-5099</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>automated user 102</t>
+          <t>automated user 99</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>7685</v>
-      </c>
-      <c r="G94" s="2" t="n">
+        <v>6191</v>
+      </c>
+      <c r="G94" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PRJ-2103</t>
+          <t>PRJ-2100</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CUST-3103</t>
+          <t>CUST-3100</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>inv-5103</t>
+          <t>inv-5100</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>automated user 103</t>
+          <t>automated user 100</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>7513</v>
-      </c>
-      <c r="G95" s="2" t="n">
+        <v>3453</v>
+      </c>
+      <c r="G95" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PRJ-2104</t>
+          <t>PRJ-2101</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CUST-3104</t>
+          <t>CUST-3101</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>inv-5104</t>
+          <t>inv-5101</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>automated user 104</t>
+          <t>automated user 101</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3603,31 +3591,31 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>109</v>
-      </c>
-      <c r="G96" s="2" t="n">
+        <v>8343</v>
+      </c>
+      <c r="G96" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PRJ-2105</t>
+          <t>PRJ-2102</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CUST-3105</t>
+          <t>CUST-3102</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>inv-5105</t>
+          <t>inv-5102</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>automated user 105</t>
+          <t>automated user 102</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3636,130 +3624,130 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>9220</v>
-      </c>
-      <c r="G97" s="2" t="n">
+        <v>7685</v>
+      </c>
+      <c r="G97" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PRJ-2106</t>
+          <t>PRJ-2103</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CUST-3106</t>
+          <t>CUST-3103</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>inv-5106</t>
+          <t>inv-5103</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>automated user 106</t>
+          <t>automated user 103</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3017</v>
-      </c>
-      <c r="G98" s="2" t="n">
+        <v>7513</v>
+      </c>
+      <c r="G98" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PRJ-2107</t>
+          <t>PRJ-2104</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CUST-3107</t>
+          <t>CUST-3104</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>inv-5107</t>
+          <t>inv-5104</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>automated user 107</t>
+          <t>automated user 104</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>7361</v>
-      </c>
-      <c r="G99" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="G99" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PRJ-2108</t>
+          <t>PRJ-2105</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CUST-3108</t>
+          <t>CUST-3105</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>inv-5108</t>
+          <t>inv-5105</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>automated user 108</t>
+          <t>automated user 105</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2267</v>
-      </c>
-      <c r="G100" s="2" t="n">
+        <v>9220</v>
+      </c>
+      <c r="G100" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PRJ-2109</t>
+          <t>PRJ-2106</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CUST-3109</t>
+          <t>CUST-3106</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>inv-5109</t>
+          <t>inv-5106</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>automated user 109</t>
+          <t>automated user 106</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3768,229 +3756,229 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2186</v>
-      </c>
-      <c r="G101" s="2" t="n">
+        <v>3017</v>
+      </c>
+      <c r="G101" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PRJ-2110</t>
+          <t>PRJ-2107</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CUST-3110</t>
+          <t>CUST-3107</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>inv-5110</t>
+          <t>inv-5107</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>automated user 110</t>
+          <t>automated user 107</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2998</v>
-      </c>
-      <c r="G102" s="2" t="n">
+        <v>7361</v>
+      </c>
+      <c r="G102" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PRJ-2111</t>
+          <t>PRJ-2108</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CUST-3111</t>
+          <t>CUST-3108</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>inv-5111</t>
+          <t>inv-5108</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>automated user 111</t>
+          <t>automated user 108</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>7998</v>
-      </c>
-      <c r="G103" s="2" t="n">
+        <v>2267</v>
+      </c>
+      <c r="G103" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PRJ-2112</t>
+          <t>PRJ-2109</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CUST-3112</t>
+          <t>CUST-3109</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>inv-5112</t>
+          <t>inv-5109</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>automated user 112</t>
+          <t>automated user 109</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>7727</v>
-      </c>
-      <c r="G104" s="2" t="n">
+        <v>2186</v>
+      </c>
+      <c r="G104" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PRJ-2113</t>
+          <t>PRJ-2110</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CUST-3113</t>
+          <t>CUST-3110</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>inv-5113</t>
+          <t>inv-5110</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>automated user 113</t>
+          <t>automated user 110</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>5968</v>
-      </c>
-      <c r="G105" s="2" t="n">
+        <v>2998</v>
+      </c>
+      <c r="G105" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PRJ-2114</t>
+          <t>PRJ-2111</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CUST-3114</t>
+          <t>CUST-3111</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>inv-5114</t>
+          <t>inv-5111</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>automated user 114</t>
+          <t>automated user 111</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>2675</v>
-      </c>
-      <c r="G106" s="2" t="n">
+        <v>7998</v>
+      </c>
+      <c r="G106" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PRJ-2115</t>
+          <t>PRJ-2112</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CUST-3115</t>
+          <t>CUST-3112</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>inv-5115</t>
+          <t>inv-5112</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>automated user 115</t>
+          <t>automated user 112</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>9831</v>
-      </c>
-      <c r="G107" s="2" t="n">
+        <v>7727</v>
+      </c>
+      <c r="G107" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PRJ-2116</t>
+          <t>PRJ-2113</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CUST-3116</t>
+          <t>CUST-3113</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>inv-5116</t>
+          <t>inv-5113</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>automated user 116</t>
+          <t>automated user 113</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3999,64 +3987,64 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1627</v>
-      </c>
-      <c r="G108" s="2" t="n">
+        <v>5968</v>
+      </c>
+      <c r="G108" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>PRJ-2117</t>
+          <t>PRJ-2114</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CUST-3117</t>
+          <t>CUST-3114</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>inv-5117</t>
+          <t>inv-5114</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>automated user 117</t>
+          <t>automated user 114</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>6942</v>
-      </c>
-      <c r="G109" s="2" t="n">
+        <v>2675</v>
+      </c>
+      <c r="G109" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PRJ-2118</t>
+          <t>PRJ-2115</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CUST-3118</t>
+          <t>CUST-3115</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>inv-5118</t>
+          <t>inv-5115</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>automated user 118</t>
+          <t>automated user 115</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4065,31 +4053,31 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>7620</v>
-      </c>
-      <c r="G110" s="2" t="n">
+        <v>9831</v>
+      </c>
+      <c r="G110" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PRJ-2119</t>
+          <t>PRJ-2116</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CUST-3119</t>
+          <t>CUST-3116</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>inv-5119</t>
+          <t>inv-5116</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>automated user 119</t>
+          <t>automated user 116</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4098,64 +4086,64 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4324</v>
-      </c>
-      <c r="G111" s="2" t="n">
+        <v>1627</v>
+      </c>
+      <c r="G111" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PRJ-2120</t>
+          <t>PRJ-2117</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CUST-3120</t>
+          <t>CUST-3117</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>inv-5120</t>
+          <t>inv-5117</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>automated user 120</t>
+          <t>automated user 117</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>8925</v>
-      </c>
-      <c r="G112" s="2" t="n">
+        <v>6942</v>
+      </c>
+      <c r="G112" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PRJ-2121</t>
+          <t>PRJ-2118</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CUST-3121</t>
+          <t>CUST-3118</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>inv-5121</t>
+          <t>inv-5118</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>automated user 121</t>
+          <t>automated user 118</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4164,31 +4152,31 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>6578</v>
-      </c>
-      <c r="G113" s="2" t="n">
+        <v>7620</v>
+      </c>
+      <c r="G113" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PRJ-2122</t>
+          <t>PRJ-2119</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CUST-3122</t>
+          <t>CUST-3119</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>inv-5122</t>
+          <t>inv-5119</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>automated user 122</t>
+          <t>automated user 119</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4197,64 +4185,64 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2149</v>
-      </c>
-      <c r="G114" s="2" t="n">
+        <v>4324</v>
+      </c>
+      <c r="G114" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PRJ-2123</t>
+          <t>PRJ-2120</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CUST-3123</t>
+          <t>CUST-3120</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>inv-5123</t>
+          <t>inv-5120</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>automated user 123</t>
+          <t>automated user 120</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>6346</v>
-      </c>
-      <c r="G115" s="2" t="n">
+        <v>8925</v>
+      </c>
+      <c r="G115" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PRJ-2124</t>
+          <t>PRJ-2121</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CUST-3124</t>
+          <t>CUST-3121</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>inv-5124</t>
+          <t>inv-5121</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>automated user 124</t>
+          <t>automated user 121</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4263,31 +4251,31 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>997</v>
-      </c>
-      <c r="G116" s="2" t="n">
+        <v>6578</v>
+      </c>
+      <c r="G116" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PRJ-2125</t>
+          <t>PRJ-2122</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CUST-3125</t>
+          <t>CUST-3122</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>inv-5125</t>
+          <t>inv-5122</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>automated user 125</t>
+          <t>automated user 122</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4296,31 +4284,31 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>9193</v>
-      </c>
-      <c r="G117" s="2" t="n">
+        <v>2149</v>
+      </c>
+      <c r="G117" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PRJ-2126</t>
+          <t>PRJ-2123</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CUST-3126</t>
+          <t>CUST-3123</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>inv-5126</t>
+          <t>inv-5123</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>automated user 126</t>
+          <t>automated user 123</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4329,64 +4317,64 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>112</v>
-      </c>
-      <c r="G118" s="2" t="n">
+        <v>6346</v>
+      </c>
+      <c r="G118" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PRJ-2127</t>
+          <t>PRJ-2124</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CUST-3127</t>
+          <t>CUST-3124</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>inv-5127</t>
+          <t>inv-5124</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>automated user 127</t>
+          <t>automated user 124</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2306</v>
-      </c>
-      <c r="G119" s="2" t="n">
+        <v>997</v>
+      </c>
+      <c r="G119" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PRJ-2128</t>
+          <t>PRJ-2125</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CUST-3128</t>
+          <t>CUST-3125</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>inv-5128</t>
+          <t>inv-5125</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>automated user 128</t>
+          <t>automated user 125</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4395,31 +4383,31 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>8331</v>
-      </c>
-      <c r="G120" s="2" t="n">
+        <v>9193</v>
+      </c>
+      <c r="G120" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PRJ-2129</t>
+          <t>PRJ-2126</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CUST-3129</t>
+          <t>CUST-3126</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>inv-5129</t>
+          <t>inv-5126</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>automated user 129</t>
+          <t>automated user 126</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4428,97 +4416,97 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>727</v>
-      </c>
-      <c r="G121" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="G121" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PRJ-2130</t>
+          <t>PRJ-2127</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CUST-3130</t>
+          <t>CUST-3127</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>inv-5130</t>
+          <t>inv-5127</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>automated user 130</t>
+          <t>automated user 127</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>8385</v>
-      </c>
-      <c r="G122" s="2" t="n">
+        <v>2306</v>
+      </c>
+      <c r="G122" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PRJ-2131</t>
+          <t>PRJ-2128</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CUST-3131</t>
+          <t>CUST-3128</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>inv-5131</t>
+          <t>inv-5128</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>automated user 131</t>
+          <t>automated user 128</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>6623</v>
-      </c>
-      <c r="G123" s="2" t="n">
+        <v>8331</v>
+      </c>
+      <c r="G123" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PRJ-2132</t>
+          <t>PRJ-2129</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CUST-3132</t>
+          <t>CUST-3129</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>inv-5132</t>
+          <t>inv-5129</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>automated user 132</t>
+          <t>automated user 129</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4527,97 +4515,97 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2815</v>
-      </c>
-      <c r="G124" s="2" t="n">
+        <v>727</v>
+      </c>
+      <c r="G124" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PRJ-2133</t>
+          <t>PRJ-2130</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CUST-3133</t>
+          <t>CUST-3130</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>inv-5133</t>
+          <t>inv-5130</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>automated user 133</t>
+          <t>automated user 130</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>681</v>
-      </c>
-      <c r="G125" s="2" t="n">
+        <v>8385</v>
+      </c>
+      <c r="G125" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>PRJ-2134</t>
+          <t>PRJ-2131</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CUST-3134</t>
+          <t>CUST-3131</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>inv-5134</t>
+          <t>inv-5131</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>automated user 134</t>
+          <t>automated user 131</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>9185</v>
-      </c>
-      <c r="G126" s="2" t="n">
+        <v>6623</v>
+      </c>
+      <c r="G126" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PRJ-2135</t>
+          <t>PRJ-2132</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CUST-3135</t>
+          <t>CUST-3132</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>inv-5135</t>
+          <t>inv-5132</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>automated user 135</t>
+          <t>automated user 132</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4626,97 +4614,97 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>705</v>
-      </c>
-      <c r="G127" s="2" t="n">
+        <v>2815</v>
+      </c>
+      <c r="G127" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PRJ-2136</t>
+          <t>PRJ-2133</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CUST-3136</t>
+          <t>CUST-3133</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>inv-5136</t>
+          <t>inv-5133</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>automated user 136</t>
+          <t>automated user 133</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>2744</v>
-      </c>
-      <c r="G128" s="2" t="n">
+        <v>681</v>
+      </c>
+      <c r="G128" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PRJ-2137</t>
+          <t>PRJ-2134</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CUST-3137</t>
+          <t>CUST-3134</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>inv-5137</t>
+          <t>inv-5134</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>automated user 137</t>
+          <t>automated user 134</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1963</v>
-      </c>
-      <c r="G129" s="2" t="n">
+        <v>9185</v>
+      </c>
+      <c r="G129" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PRJ-2138</t>
+          <t>PRJ-2135</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CUST-3138</t>
+          <t>CUST-3135</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>inv-5138</t>
+          <t>inv-5135</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>automated user 138</t>
+          <t>automated user 135</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4725,130 +4713,130 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>969</v>
-      </c>
-      <c r="G130" s="2" t="n">
+        <v>705</v>
+      </c>
+      <c r="G130" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PRJ-2139</t>
+          <t>PRJ-2136</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CUST-3139</t>
+          <t>CUST-3136</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>inv-5139</t>
+          <t>inv-5136</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>automated user 139</t>
+          <t>automated user 136</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>5989</v>
-      </c>
-      <c r="G131" s="2" t="n">
+        <v>2744</v>
+      </c>
+      <c r="G131" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PRJ-2140</t>
+          <t>PRJ-2137</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CUST-3140</t>
+          <t>CUST-3137</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>inv-5140</t>
+          <t>inv-5137</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>automated user 140</t>
+          <t>automated user 137</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>2589</v>
-      </c>
-      <c r="G132" s="2" t="n">
+        <v>1963</v>
+      </c>
+      <c r="G132" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PRJ-2141</t>
+          <t>PRJ-2138</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CUST-3141</t>
+          <t>CUST-3138</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>inv-5141</t>
+          <t>inv-5138</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>automated user 141</t>
+          <t>automated user 138</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>7525</v>
-      </c>
-      <c r="G133" s="2" t="n">
+        <v>969</v>
+      </c>
+      <c r="G133" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PRJ-2142</t>
+          <t>PRJ-2139</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CUST-3142</t>
+          <t>CUST-3139</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>inv-5142</t>
+          <t>inv-5139</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>automated user 142</t>
+          <t>automated user 139</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4857,31 +4845,31 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>3919</v>
-      </c>
-      <c r="G134" s="2" t="n">
+        <v>5989</v>
+      </c>
+      <c r="G134" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PRJ-2143</t>
+          <t>PRJ-2140</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CUST-3143</t>
+          <t>CUST-3140</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>inv-5143</t>
+          <t>inv-5140</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>automated user 143</t>
+          <t>automated user 140</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4890,229 +4878,229 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>7988</v>
-      </c>
-      <c r="G135" s="2" t="n">
+        <v>2589</v>
+      </c>
+      <c r="G135" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PRJ-2144</t>
+          <t>PRJ-2141</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CUST-3144</t>
+          <t>CUST-3141</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>inv-5144</t>
+          <t>inv-5141</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>automated user 144</t>
+          <t>automated user 141</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>5518</v>
-      </c>
-      <c r="G136" s="2" t="n">
+        <v>7525</v>
+      </c>
+      <c r="G136" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PRJ-2145</t>
+          <t>PRJ-2142</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CUST-3145</t>
+          <t>CUST-3142</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>inv-5145</t>
+          <t>inv-5142</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>automated user 145</t>
+          <t>automated user 142</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2039</v>
-      </c>
-      <c r="G137" s="2" t="n">
+        <v>3919</v>
+      </c>
+      <c r="G137" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PRJ-2146</t>
+          <t>PRJ-2143</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CUST-3146</t>
+          <t>CUST-3143</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>inv-5146</t>
+          <t>inv-5143</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>automated user 146</t>
+          <t>automated user 143</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2753</v>
-      </c>
-      <c r="G138" s="2" t="n">
+        <v>7988</v>
+      </c>
+      <c r="G138" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PRJ-2147</t>
+          <t>PRJ-2144</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CUST-3147</t>
+          <t>CUST-3144</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>inv-5147</t>
+          <t>inv-5144</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>automated user 147</t>
+          <t>automated user 144</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2531</v>
-      </c>
-      <c r="G139" s="2" t="n">
+        <v>5518</v>
+      </c>
+      <c r="G139" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PRJ-2148</t>
+          <t>PRJ-2145</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CUST-3148</t>
+          <t>CUST-3145</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>inv-5148</t>
+          <t>inv-5145</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>automated user 148</t>
+          <t>automated user 145</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>5001</v>
-      </c>
-      <c r="G140" s="2" t="n">
+        <v>2039</v>
+      </c>
+      <c r="G140" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PRJ-2149</t>
+          <t>PRJ-2146</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CUST-3149</t>
+          <t>CUST-3146</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>inv-5149</t>
+          <t>inv-5146</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>automated user 149</t>
+          <t>automated user 146</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1391</v>
-      </c>
-      <c r="G141" s="2" t="n">
+        <v>2753</v>
+      </c>
+      <c r="G141" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PRJ-2150</t>
+          <t>PRJ-2147</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CUST-3150</t>
+          <t>CUST-3147</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>inv-5150</t>
+          <t>inv-5147</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>automated user 150</t>
+          <t>automated user 147</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5121,229 +5109,229 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>8301</v>
-      </c>
-      <c r="G142" s="2" t="n">
+        <v>2531</v>
+      </c>
+      <c r="G142" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PRJ-2151</t>
+          <t>PRJ-2148</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CUST-3151</t>
+          <t>CUST-3148</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>inv-5151</t>
+          <t>inv-5148</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>automated user 151</t>
+          <t>automated user 148</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>4162</v>
-      </c>
-      <c r="G143" s="2" t="n">
+        <v>5001</v>
+      </c>
+      <c r="G143" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>PRJ-2152</t>
+          <t>PRJ-2149</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CUST-3152</t>
+          <t>CUST-3149</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>inv-5152</t>
+          <t>inv-5149</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>automated user 152</t>
+          <t>automated user 149</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2846</v>
-      </c>
-      <c r="G144" s="2" t="n">
+        <v>1391</v>
+      </c>
+      <c r="G144" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PRJ-2153</t>
+          <t>PRJ-2150</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CUST-3153</t>
+          <t>CUST-3150</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>inv-5153</t>
+          <t>inv-5150</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>automated user 153</t>
+          <t>automated user 150</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>9660</v>
-      </c>
-      <c r="G145" s="2" t="n">
+        <v>8301</v>
+      </c>
+      <c r="G145" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PRJ-2154</t>
+          <t>PRJ-2151</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CUST-3154</t>
+          <t>CUST-3151</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>inv-5154</t>
+          <t>inv-5151</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>automated user 154</t>
+          <t>automated user 151</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1073</v>
-      </c>
-      <c r="G146" s="2" t="n">
+        <v>4162</v>
+      </c>
+      <c r="G146" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PRJ-2155</t>
+          <t>PRJ-2152</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CUST-3155</t>
+          <t>CUST-3152</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>inv-5155</t>
+          <t>inv-5152</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>automated user 155</t>
+          <t>automated user 152</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2773</v>
-      </c>
-      <c r="G147" s="2" t="n">
+        <v>2846</v>
+      </c>
+      <c r="G147" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PRJ-2156</t>
+          <t>PRJ-2153</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CUST-3156</t>
+          <t>CUST-3153</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>inv-5156</t>
+          <t>inv-5153</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>automated user 156</t>
+          <t>automated user 153</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>8839</v>
-      </c>
-      <c r="G148" s="2" t="n">
+        <v>9660</v>
+      </c>
+      <c r="G148" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PRJ-2157</t>
+          <t>PRJ-2154</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CUST-3157</t>
+          <t>CUST-3154</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>inv-5157</t>
+          <t>inv-5154</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>automated user 157</t>
+          <t>automated user 154</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5352,97 +5340,97 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>5090</v>
-      </c>
-      <c r="G149" s="2" t="n">
+        <v>1073</v>
+      </c>
+      <c r="G149" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PRJ-2158</t>
+          <t>PRJ-2155</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CUST-3158</t>
+          <t>CUST-3155</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>inv-5158</t>
+          <t>inv-5155</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>automated user 158</t>
+          <t>automated user 155</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>7645</v>
-      </c>
-      <c r="G150" s="2" t="n">
+        <v>2773</v>
+      </c>
+      <c r="G150" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PRJ-2159</t>
+          <t>PRJ-2156</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CUST-3159</t>
+          <t>CUST-3156</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>inv-5159</t>
+          <t>inv-5156</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>automated user 159</t>
+          <t>automated user 156</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>6944</v>
-      </c>
-      <c r="G151" s="2" t="n">
+        <v>8839</v>
+      </c>
+      <c r="G151" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PRJ-2160</t>
+          <t>PRJ-2157</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CUST-3160</t>
+          <t>CUST-3157</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>inv-5160</t>
+          <t>inv-5157</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>automated user 160</t>
+          <t>automated user 157</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5451,64 +5439,64 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5454</v>
-      </c>
-      <c r="G152" s="2" t="n">
+        <v>5090</v>
+      </c>
+      <c r="G152" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PRJ-2161</t>
+          <t>PRJ-2158</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CUST-3161</t>
+          <t>CUST-3158</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>inv-5161</t>
+          <t>inv-5158</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>automated user 161</t>
+          <t>automated user 158</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>9624</v>
-      </c>
-      <c r="G153" s="2" t="n">
+        <v>7645</v>
+      </c>
+      <c r="G153" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PRJ-2162</t>
+          <t>PRJ-2159</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CUST-3162</t>
+          <t>CUST-3159</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>inv-5162</t>
+          <t>inv-5159</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>automated user 162</t>
+          <t>automated user 159</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5517,64 +5505,64 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>6883</v>
-      </c>
-      <c r="G154" s="2" t="n">
+        <v>6944</v>
+      </c>
+      <c r="G154" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PRJ-2163</t>
+          <t>PRJ-2160</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CUST-3163</t>
+          <t>CUST-3160</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>inv-5163</t>
+          <t>inv-5160</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>automated user 163</t>
+          <t>automated user 160</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2086</v>
-      </c>
-      <c r="G155" s="2" t="n">
+        <v>5454</v>
+      </c>
+      <c r="G155" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PRJ-2164</t>
+          <t>PRJ-2161</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CUST-3164</t>
+          <t>CUST-3161</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>inv-5164</t>
+          <t>inv-5161</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>automated user 164</t>
+          <t>automated user 161</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5583,31 +5571,31 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>9802</v>
-      </c>
-      <c r="G156" s="2" t="n">
+        <v>9624</v>
+      </c>
+      <c r="G156" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PRJ-2165</t>
+          <t>PRJ-2162</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CUST-3165</t>
+          <t>CUST-3162</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>inv-5165</t>
+          <t>inv-5162</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>automated user 165</t>
+          <t>automated user 162</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5616,31 +5604,31 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>517</v>
-      </c>
-      <c r="G157" s="2" t="n">
+        <v>6883</v>
+      </c>
+      <c r="G157" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PRJ-2166</t>
+          <t>PRJ-2163</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CUST-3166</t>
+          <t>CUST-3163</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>inv-5166</t>
+          <t>inv-5163</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>automated user 166</t>
+          <t>automated user 163</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5649,64 +5637,64 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4151</v>
-      </c>
-      <c r="G158" s="2" t="n">
+        <v>2086</v>
+      </c>
+      <c r="G158" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PRJ-2167</t>
+          <t>PRJ-2164</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CUST-3167</t>
+          <t>CUST-3164</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>inv-5167</t>
+          <t>inv-5164</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>automated user 167</t>
+          <t>automated user 164</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>6530</v>
-      </c>
-      <c r="G159" s="2" t="n">
+        <v>9802</v>
+      </c>
+      <c r="G159" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PRJ-2168</t>
+          <t>PRJ-2165</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CUST-3168</t>
+          <t>CUST-3165</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>inv-5168</t>
+          <t>inv-5165</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>automated user 168</t>
+          <t>automated user 165</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5715,64 +5703,64 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>3861</v>
-      </c>
-      <c r="G160" s="2" t="n">
+        <v>517</v>
+      </c>
+      <c r="G160" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PRJ-2169</t>
+          <t>PRJ-2166</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CUST-3169</t>
+          <t>CUST-3166</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>inv-5169</t>
+          <t>inv-5166</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>automated user 169</t>
+          <t>automated user 166</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>7102</v>
-      </c>
-      <c r="G161" s="2" t="n">
+        <v>4151</v>
+      </c>
+      <c r="G161" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PRJ-2170</t>
+          <t>PRJ-2167</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CUST-3170</t>
+          <t>CUST-3167</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>inv-5170</t>
+          <t>inv-5167</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>automated user 170</t>
+          <t>automated user 167</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5781,64 +5769,64 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>482</v>
-      </c>
-      <c r="G162" s="2" t="n">
+        <v>6530</v>
+      </c>
+      <c r="G162" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PRJ-2171</t>
+          <t>PRJ-2168</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CUST-3171</t>
+          <t>CUST-3168</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>inv-5171</t>
+          <t>inv-5168</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>automated user 171</t>
+          <t>automated user 168</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>7257</v>
-      </c>
-      <c r="G163" s="2" t="n">
+        <v>3861</v>
+      </c>
+      <c r="G163" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PRJ-2172</t>
+          <t>PRJ-2169</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CUST-3172</t>
+          <t>CUST-3169</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>inv-5172</t>
+          <t>inv-5169</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>automated user 172</t>
+          <t>automated user 169</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5847,97 +5835,97 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>4740</v>
-      </c>
-      <c r="G164" s="2" t="n">
+        <v>7102</v>
+      </c>
+      <c r="G164" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PRJ-2173</t>
+          <t>PRJ-2170</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CUST-3173</t>
+          <t>CUST-3170</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>inv-5173</t>
+          <t>inv-5170</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>automated user 173</t>
+          <t>automated user 170</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2146</v>
-      </c>
-      <c r="G165" s="2" t="n">
+        <v>482</v>
+      </c>
+      <c r="G165" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PRJ-2174</t>
+          <t>PRJ-2171</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CUST-3174</t>
+          <t>CUST-3171</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>inv-5174</t>
+          <t>inv-5171</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>automated user 174</t>
+          <t>automated user 171</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>3873</v>
-      </c>
-      <c r="G166" s="2" t="n">
+        <v>7257</v>
+      </c>
+      <c r="G166" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PRJ-2175</t>
+          <t>PRJ-2172</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CUST-3175</t>
+          <t>CUST-3172</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>inv-5175</t>
+          <t>inv-5172</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>automated user 175</t>
+          <t>automated user 172</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5946,64 +5934,64 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>4821</v>
-      </c>
-      <c r="G167" s="2" t="n">
+        <v>4740</v>
+      </c>
+      <c r="G167" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PRJ-2176</t>
+          <t>PRJ-2173</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CUST-3176</t>
+          <t>CUST-3173</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>inv-5176</t>
+          <t>inv-5173</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>automated user 176</t>
+          <t>automated user 173</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>803</v>
-      </c>
-      <c r="G168" s="2" t="n">
+        <v>2146</v>
+      </c>
+      <c r="G168" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PRJ-2177</t>
+          <t>PRJ-2174</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CUST-3177</t>
+          <t>CUST-3174</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>inv-5177</t>
+          <t>inv-5174</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>automated user 177</t>
+          <t>automated user 174</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6012,31 +6000,31 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>9076</v>
-      </c>
-      <c r="G169" s="2" t="n">
+        <v>3873</v>
+      </c>
+      <c r="G169" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PRJ-2178</t>
+          <t>PRJ-2175</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CUST-3178</t>
+          <t>CUST-3175</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>inv-5178</t>
+          <t>inv-5175</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>automated user 178</t>
+          <t>automated user 175</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6045,64 +6033,64 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>3004</v>
-      </c>
-      <c r="G170" s="2" t="n">
+        <v>4821</v>
+      </c>
+      <c r="G170" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PRJ-2179</t>
+          <t>PRJ-2176</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CUST-3179</t>
+          <t>CUST-3176</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>inv-5179</t>
+          <t>inv-5176</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>automated user 179</t>
+          <t>automated user 176</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4580</v>
-      </c>
-      <c r="G171" s="2" t="n">
+        <v>803</v>
+      </c>
+      <c r="G171" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PRJ-2180</t>
+          <t>PRJ-2177</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CUST-3180</t>
+          <t>CUST-3177</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>inv-5180</t>
+          <t>inv-5177</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>automated user 180</t>
+          <t>automated user 177</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6111,97 +6099,97 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1032</v>
-      </c>
-      <c r="G172" s="2" t="n">
+        <v>9076</v>
+      </c>
+      <c r="G172" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PRJ-2181</t>
+          <t>PRJ-2178</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CUST-3181</t>
+          <t>CUST-3178</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>inv-5181</t>
+          <t>inv-5178</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>automated user 181</t>
+          <t>automated user 178</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>6974</v>
-      </c>
-      <c r="G173" s="2" t="n">
+        <v>3004</v>
+      </c>
+      <c r="G173" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PRJ-2182</t>
+          <t>PRJ-2179</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CUST-3182</t>
+          <t>CUST-3179</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>inv-5182</t>
+          <t>inv-5179</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>automated user 182</t>
+          <t>automated user 179</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>3163</v>
-      </c>
-      <c r="G174" s="2" t="n">
+        <v>4580</v>
+      </c>
+      <c r="G174" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PRJ-2183</t>
+          <t>PRJ-2180</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CUST-3183</t>
+          <t>CUST-3180</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>inv-5183</t>
+          <t>inv-5180</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>automated user 183</t>
+          <t>automated user 180</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6210,31 +6198,31 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1612</v>
-      </c>
-      <c r="G175" s="2" t="n">
+        <v>1032</v>
+      </c>
+      <c r="G175" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PRJ-2184</t>
+          <t>PRJ-2181</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CUST-3184</t>
+          <t>CUST-3181</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>inv-5184</t>
+          <t>inv-5181</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>automated user 184</t>
+          <t>automated user 181</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6243,64 +6231,64 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1646</v>
-      </c>
-      <c r="G176" s="2" t="n">
+        <v>6974</v>
+      </c>
+      <c r="G176" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PRJ-2185</t>
+          <t>PRJ-2182</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CUST-3185</t>
+          <t>CUST-3182</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>inv-5185</t>
+          <t>inv-5182</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>automated user 185</t>
+          <t>automated user 182</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>9121</v>
-      </c>
-      <c r="G177" s="2" t="n">
+        <v>3163</v>
+      </c>
+      <c r="G177" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PRJ-2186</t>
+          <t>PRJ-2183</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CUST-3186</t>
+          <t>CUST-3183</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>inv-5186</t>
+          <t>inv-5183</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>automated user 186</t>
+          <t>automated user 183</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6309,64 +6297,64 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1222</v>
-      </c>
-      <c r="G178" s="2" t="n">
+        <v>1612</v>
+      </c>
+      <c r="G178" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PRJ-2187</t>
+          <t>PRJ-2184</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CUST-3187</t>
+          <t>CUST-3184</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>inv-5187</t>
+          <t>inv-5184</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>automated user 187</t>
+          <t>automated user 184</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4667</v>
-      </c>
-      <c r="G179" s="2" t="n">
+        <v>1646</v>
+      </c>
+      <c r="G179" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PRJ-2188</t>
+          <t>PRJ-2185</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CUST-3188</t>
+          <t>CUST-3185</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>inv-5188</t>
+          <t>inv-5185</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>automated user 188</t>
+          <t>automated user 185</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6375,64 +6363,64 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>5343</v>
-      </c>
-      <c r="G180" s="2" t="n">
+        <v>9121</v>
+      </c>
+      <c r="G180" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PRJ-2189</t>
+          <t>PRJ-2186</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CUST-3189</t>
+          <t>CUST-3186</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>inv-5189</t>
+          <t>inv-5186</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>automated user 189</t>
+          <t>automated user 186</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>3979</v>
-      </c>
-      <c r="G181" s="2" t="n">
+        <v>1222</v>
+      </c>
+      <c r="G181" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PRJ-2190</t>
+          <t>PRJ-2187</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CUST-3190</t>
+          <t>CUST-3187</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>inv-5190</t>
+          <t>inv-5187</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>automated user 190</t>
+          <t>automated user 187</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6441,64 +6429,64 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>7806</v>
-      </c>
-      <c r="G182" s="2" t="n">
+        <v>4667</v>
+      </c>
+      <c r="G182" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PRJ-2191</t>
+          <t>PRJ-2188</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CUST-3191</t>
+          <t>CUST-3188</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>inv-5191</t>
+          <t>inv-5188</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>automated user 191</t>
+          <t>automated user 188</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5247</v>
-      </c>
-      <c r="G183" s="2" t="n">
+        <v>5343</v>
+      </c>
+      <c r="G183" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PRJ-2192</t>
+          <t>PRJ-2189</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CUST-3192</t>
+          <t>CUST-3189</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>inv-5192</t>
+          <t>inv-5189</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>automated user 192</t>
+          <t>automated user 189</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6507,273 +6495,372 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2342</v>
-      </c>
-      <c r="G184" s="2" t="n">
+        <v>3979</v>
+      </c>
+      <c r="G184" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PRJ-2193</t>
+          <t>PRJ-2190</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CUST-3193</t>
+          <t>CUST-3190</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>inv-5193</t>
+          <t>inv-5190</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>automated user 193</t>
+          <t>automated user 190</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>9701</v>
-      </c>
-      <c r="G185" s="2" t="n">
+        <v>7806</v>
+      </c>
+      <c r="G185" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PRJ-2194</t>
+          <t>PRJ-2191</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CUST-3194</t>
+          <t>CUST-3191</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>inv-5194</t>
+          <t>inv-5191</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>automated user 194</t>
+          <t>automated user 191</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>9242</v>
-      </c>
-      <c r="G186" s="2" t="n">
+        <v>5247</v>
+      </c>
+      <c r="G186" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PRJ-2195</t>
+          <t>PRJ-2192</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CUST-3195</t>
+          <t>CUST-3192</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>inv-5195</t>
+          <t>inv-5192</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>automated user 195</t>
+          <t>automated user 192</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2168</v>
-      </c>
-      <c r="G187" s="2" t="n">
+        <v>2342</v>
+      </c>
+      <c r="G187" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PRJ-2196</t>
+          <t>PRJ-2193</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CUST-3196</t>
+          <t>CUST-3193</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>inv-5196</t>
+          <t>inv-5193</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>automated user 196</t>
+          <t>automated user 193</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>2344</v>
-      </c>
-      <c r="G188" s="2" t="n">
+        <v>9701</v>
+      </c>
+      <c r="G188" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PRJ-2197</t>
+          <t>PRJ-2194</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CUST-3197</t>
+          <t>CUST-3194</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>inv-5197</t>
+          <t>inv-5194</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>automated user 197</t>
+          <t>automated user 194</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>7562</v>
-      </c>
-      <c r="G189" s="2" t="n">
+        <v>9242</v>
+      </c>
+      <c r="G189" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PRJ-2198</t>
+          <t>PRJ-2195</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CUST-3198</t>
+          <t>CUST-3195</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>inv-5198</t>
+          <t>inv-5195</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>automated user 198</t>
+          <t>automated user 195</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2529</v>
-      </c>
-      <c r="G190" s="2" t="n">
+        <v>2168</v>
+      </c>
+      <c r="G190" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PRJ-2199</t>
+          <t>PRJ-2196</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CUST-3199</t>
+          <t>CUST-3196</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>inv-5199</t>
+          <t>inv-5196</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>automated user 199</t>
+          <t>automated user 196</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>6947</v>
-      </c>
-      <c r="G191" s="2" t="n">
+        <v>2344</v>
+      </c>
+      <c r="G191" s="1" t="n">
         <v>45940</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
+          <t>PRJ-2197</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>CUST-3197</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>inv-5197</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>automated user 197</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>7562</v>
+      </c>
+      <c r="G192" s="1" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>PRJ-2198</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>CUST-3198</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>inv-5198</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>automated user 198</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>2529</v>
+      </c>
+      <c r="G193" s="1" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>PRJ-2199</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>CUST-3199</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>inv-5199</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>automated user 199</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>6947</v>
+      </c>
+      <c r="G194" s="1" t="n">
+        <v>45940</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
           <t>PRJ-2200</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>CUST-3200</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>inv-5200</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>automated user 200</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="F192" t="n">
+      <c r="F195" t="n">
         <v>2895</v>
       </c>
-      <c r="G192" s="2" t="n">
+      <c r="G195" s="1" t="n">
         <v>45940</v>
       </c>
     </row>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,22 +465,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-1000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CUST-201</t>
+          <t>CUST-2000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>inv-1001</t>
+          <t>inv-3000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>valid customer 1</t>
+          <t>german tech gmbh 0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -489,31 +489,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PRJ-102</t>
+          <t>PRJ-1001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CUST-202</t>
+          <t>CUST-2001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>inv-1002</t>
+          <t>inv-3001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>valid customer 2</t>
+          <t>german tech gmbh 1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,31 +522,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PRJ-103</t>
+          <t>PRJ-1002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CUST-203</t>
+          <t>CUST-2002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>inv-1003</t>
+          <t>inv-3002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>valid customer 3</t>
+          <t>german tech gmbh 2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PRJ-104</t>
+          <t>PRJ-1003</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CUST-204</t>
+          <t>CUST-2003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>inv-1004</t>
+          <t>inv-3003</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>valid customer 4</t>
+          <t>german tech gmbh 3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -588,31 +588,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PRJ-105</t>
+          <t>PRJ-1004</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CUST-205</t>
+          <t>CUST-2004</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>inv-1005</t>
+          <t>inv-3004</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>valid customer 5</t>
+          <t>german tech gmbh 4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,31 +621,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PRJ-106</t>
+          <t>PRJ-1005</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CUST-206</t>
+          <t>CUST-2005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>inv-1006</t>
+          <t>inv-3005</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>valid customer 6</t>
+          <t>german tech gmbh 5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PRJ-107</t>
+          <t>PRJ-1006</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CUST-207</t>
+          <t>CUST-2006</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>inv-1007</t>
+          <t>inv-3006</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>valid customer 7</t>
+          <t>german tech gmbh 6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -687,31 +687,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PRJ-108</t>
+          <t>PRJ-1007</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CUST-208</t>
+          <t>CUST-2007</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>inv-1008</t>
+          <t>inv-3007</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>valid customer 8</t>
+          <t>german tech gmbh 7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -720,64 +720,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PRJ-109</t>
+          <t>PRJ-1008</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CUST-209</t>
+          <t>CUST-2008</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>inv-1009</t>
+          <t>inv-3008</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>valid customer 9</t>
+          <t>german tech gmbh 8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PRJ-110</t>
+          <t>PRJ-1009</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CUST-210</t>
+          <t>CUST-2009</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>inv-1010</t>
+          <t>inv-3009</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>valid customer 10</t>
+          <t>german tech gmbh 9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -786,31 +786,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PRJ-111</t>
+          <t>PRJ-1011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CUST-211</t>
+          <t>CUST-2011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>inv-1011</t>
+          <t>inv-3011</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>valid customer 11</t>
+          <t>german tech gmbh 11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PRJ-112</t>
+          <t>PRJ-1012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CUST-212</t>
+          <t>CUST-2012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>inv-1012</t>
+          <t>inv-3012</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>valid customer 12</t>
+          <t>german tech gmbh 12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -852,31 +852,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PRJ-113</t>
+          <t>PRJ-1013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CUST-213</t>
+          <t>CUST-2013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>inv-1013</t>
+          <t>inv-3013</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>valid customer 13</t>
+          <t>german tech gmbh 13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -885,31 +885,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PRJ-114</t>
+          <t>PRJ-1014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CUST-214</t>
+          <t>CUST-2014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>inv-1014</t>
+          <t>inv-3014</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>valid customer 14</t>
+          <t>german tech gmbh 14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -918,31 +918,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PRJ-115</t>
+          <t>PRJ-1015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CUST-215</t>
+          <t>CUST-2015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>inv-1015</t>
+          <t>inv-3015</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>valid customer 15</t>
+          <t>german tech gmbh 15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -951,31 +951,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PRJ-116</t>
+          <t>PRJ-1016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CUST-216</t>
+          <t>CUST-2016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>inv-1016</t>
+          <t>inv-3016</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>valid customer 16</t>
+          <t>german tech gmbh 16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -984,31 +984,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PRJ-117</t>
+          <t>PRJ-1017</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CUST-217</t>
+          <t>CUST-2017</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>inv-1017</t>
+          <t>inv-3017</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>valid customer 17</t>
+          <t>german tech gmbh 17</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1017,31 +1017,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PRJ-118</t>
+          <t>PRJ-1018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CUST-218</t>
+          <t>CUST-2018</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>inv-1018</t>
+          <t>inv-3018</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>valid customer 18</t>
+          <t>german tech gmbh 18</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1050,31 +1050,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PRJ-119</t>
+          <t>PRJ-1019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CUST-219</t>
+          <t>CUST-2019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>inv-1019</t>
+          <t>inv-3019</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>valid customer 19</t>
+          <t>german tech gmbh 19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1083,31 +1083,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PRJ-120</t>
+          <t>PRJ-1021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CUST-220</t>
+          <t>CUST-2021</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>inv-1020</t>
+          <t>inv-3021</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>valid customer 20</t>
+          <t>german tech gmbh 21</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1116,31 +1116,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PRJ-121</t>
+          <t>PRJ-1022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CUST-221</t>
+          <t>CUST-2022</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>inv-1021</t>
+          <t>inv-3022</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>valid customer 21</t>
+          <t>german tech gmbh 22</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1149,31 +1149,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PRJ-122</t>
+          <t>PRJ-1023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CUST-222</t>
+          <t>CUST-2023</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>inv-1022</t>
+          <t>inv-3023</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>valid customer 22</t>
+          <t>german tech gmbh 23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1182,31 +1182,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PRJ-123</t>
+          <t>PRJ-1024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CUST-223</t>
+          <t>CUST-2024</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>inv-1023</t>
+          <t>inv-3024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>valid customer 23</t>
+          <t>german tech gmbh 24</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1215,31 +1215,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PRJ-124</t>
+          <t>PRJ-1025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CUST-224</t>
+          <t>CUST-2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>inv-1024</t>
+          <t>inv-3025</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>valid customer 24</t>
+          <t>german tech gmbh 25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1248,31 +1248,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PRJ-125</t>
+          <t>PRJ-1026</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CUST-225</t>
+          <t>CUST-2026</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>inv-1025</t>
+          <t>inv-3026</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>valid customer 25</t>
+          <t>german tech gmbh 26</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1281,31 +1281,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PRJ-126</t>
+          <t>PRJ-1027</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CUST-226</t>
+          <t>CUST-2027</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>inv-1026</t>
+          <t>inv-3027</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>valid customer 26</t>
+          <t>german tech gmbh 27</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1314,31 +1314,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PRJ-127</t>
+          <t>PRJ-1028</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CUST-227</t>
+          <t>CUST-2028</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>inv-1027</t>
+          <t>inv-3028</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>valid customer 27</t>
+          <t>german tech gmbh 28</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1347,31 +1347,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PRJ-128</t>
+          <t>PRJ-1029</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CUST-228</t>
+          <t>CUST-2029</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>inv-1028</t>
+          <t>inv-3029</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>valid customer 28</t>
+          <t>german tech gmbh 29</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PRJ-129</t>
+          <t>PRJ-1030</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CUST-229</t>
+          <t>CUST-2030</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>inv-1029</t>
+          <t>x</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>valid customer 29</t>
+          <t>german tech gmbh 30</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1413,31 +1413,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PRJ-130</t>
+          <t>PRJ-1032</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CUST-230</t>
+          <t>CUST-2032</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>inv-1030</t>
+          <t>inv-3032</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>valid customer 30</t>
+          <t>german tech gmbh 32</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1446,97 +1446,97 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>45823</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PRJ-777</t>
+          <t>PRJ-1033</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CUST-777</t>
+          <t>CUST-2033</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>inv-4000</t>
+          <t>inv-3033</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>suspend with amount fail</t>
+          <t>german tech gmbh 33</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>suspend</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>500.5</v>
+        <v>500</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>45658</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PRJ-777</t>
+          <t>PRJ-1034</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CUST-777</t>
+          <t>CUST-2034</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>inv-4001</t>
+          <t>inv-3034</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>suspend with zero success</t>
+          <t>german tech gmbh 34</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>suspend</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>45658</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PRJ-666</t>
+          <t>PRJ-1035</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CUST-667</t>
+          <t>CUST-2035</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>inv-5001</t>
+          <t>inv-3035</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>excel serial date fail</t>
+          <t>german tech gmbh 35</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1545,31 +1545,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>25569.00000005387</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PRJ-555</t>
+          <t>PRJ-1036</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CUST-555</t>
+          <t>CUST-2036</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>inv-unique-1</t>
+          <t>inv-3036</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>unique invoice</t>
+          <t>german tech gmbh 36</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1578,97 +1578,97 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>45658</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PRJ-2041</t>
+          <t>PRJ-1037</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CUST-3041</t>
+          <t>CUST-2037</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>inv-5041</t>
+          <t>inv-3037</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>automated user 41</t>
+          <t>german tech gmbh 37</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>9254</v>
+        <v>500</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PRJ-2042</t>
+          <t>PRJ-1038</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CUST-3042</t>
+          <t>CUST-2038</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>inv-5042</t>
+          <t>inv-3038</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>automated user 42</t>
+          <t>german tech gmbh 38</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>9568</v>
+        <v>500</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PRJ-2043</t>
+          <t>PRJ-1039</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CUST-3043</t>
+          <t>CUST-2039</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>inv-5043</t>
+          <t>inv-3039</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>automated user 43</t>
+          <t>german tech gmbh 39</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1677,31 +1677,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1253</v>
+        <v>500</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PRJ-2044</t>
+          <t>PRJ-1041</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CUST-3044</t>
+          <t>CUST-2041</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>inv-5044</t>
+          <t>inv-3041</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>automated user 44</t>
+          <t>german tech gmbh 41</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1710,229 +1710,229 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7261</v>
+        <v>500</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PRJ-2045</t>
+          <t>PRJ-1042</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CUST-3045</t>
+          <t>CUST-2042</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>inv-5045</t>
+          <t>inv-3042</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>automated user 45</t>
+          <t>german tech gmbh 42</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6834</v>
+        <v>500</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PRJ-2046</t>
+          <t>PRJ-1043</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CUST-3046</t>
+          <t>CUST-2043</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>inv-5046</t>
+          <t>inv-3043</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>automated user 46</t>
+          <t>german tech gmbh 43</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>7403</v>
+        <v>500</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PRJ-2047</t>
+          <t>PRJ-1044</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CUST-3047</t>
+          <t>CUST-2044</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>inv-5047</t>
+          <t>inv-3044</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>automated user 47</t>
+          <t>german tech gmbh 44</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1225</v>
+        <v>500</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PRJ-2048</t>
+          <t>PRJ-1045</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CUST-3048</t>
+          <t>CUST-2045</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>inv-5048</t>
+          <t>inv-3045</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>automated user 48</t>
+          <t>german tech gmbh 45</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6126</v>
+        <v>500</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PRJ-2049</t>
+          <t>PRJ-1046</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CUST-3049</t>
+          <t>CUST-2046</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>inv-5049</t>
+          <t>inv-3046</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>automated user 49</t>
+          <t>german tech gmbh 46</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5328</v>
+        <v>500</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PRJ-2050</t>
+          <t>PRJ-1047</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CUST-3050</t>
+          <t>CUST-2047</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>inv-5050</t>
+          <t>inv-3047</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>automated user 50</t>
+          <t>german tech gmbh 47</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>7513</v>
+        <v>500</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PRJ-2051</t>
+          <t>PRJ-1048</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CUST-3051</t>
+          <t>CUST-2048</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>inv-5051</t>
+          <t>inv-3048</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>automated user 51</t>
+          <t>german tech gmbh 48</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1941,196 +1941,196 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2252</v>
+        <v>500</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PRJ-2052</t>
+          <t>PRJ-1049</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CUST-3052</t>
+          <t>CUST-2049</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>inv-5052</t>
+          <t>inv-3049</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>automated user 52</t>
+          <t>german tech gmbh 49</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>9763</v>
+        <v>500</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PRJ-2053</t>
+          <t>PRJ-1051</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CUST-3053</t>
+          <t>CUST-2051</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>inv-5053</t>
+          <t>inv-3051</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>automated user 53</t>
+          <t>german tech gmbh 51</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6182</v>
+        <v>500</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PRJ-2054</t>
+          <t>PRJ-1052</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CUST-3054</t>
+          <t>CUST-2052</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>inv-5054</t>
+          <t>inv-3052</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>automated user 54</t>
+          <t>german tech gmbh 52</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>7632</v>
+        <v>500</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PRJ-2055</t>
+          <t>PRJ-1053</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CUST-3055</t>
+          <t>CUST-2053</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>inv-5055</t>
+          <t>inv-3053</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>automated user 55</t>
+          <t>german tech gmbh 53</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>7129</v>
+        <v>500</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PRJ-2056</t>
+          <t>PRJ-1054</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CUST-3056</t>
+          <t>CUST-2054</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>inv-5056</t>
+          <t>inv-3054</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>automated user 56</t>
+          <t>german tech gmbh 54</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6960</v>
+        <v>500</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PRJ-2057</t>
+          <t>PRJ-1055</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CUST-3057</t>
+          <t>CUST-2055</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>inv-5057</t>
+          <t>inv-3055</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>automated user 57</t>
+          <t>german tech gmbh 55</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2139,97 +2139,97 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>7808</v>
+        <v>500</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PRJ-2058</t>
+          <t>PRJ-1056</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CUST-3058</t>
+          <t>CUST-2056</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>inv-5058</t>
+          <t>inv-3056</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>automated user 58</t>
+          <t>german tech gmbh 56</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3395</v>
+        <v>500</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PRJ-2059</t>
+          <t>PRJ-1057</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CUST-3059</t>
+          <t>CUST-2057</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>inv-5059</t>
+          <t>inv-3057</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>automated user 59</t>
+          <t>german tech gmbh 57</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2088</v>
+        <v>500</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PRJ-2060</t>
+          <t>PRJ-1058</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CUST-3060</t>
+          <t>CUST-2058</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>inv-5060</t>
+          <t>inv-3058</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>automated user 60</t>
+          <t>german tech gmbh 58</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2238,64 +2238,64 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5652</v>
+        <v>500</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PRJ-2061</t>
+          <t>PRJ-1059</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CUST-3061</t>
+          <t>CUST-2059</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>inv-5061</t>
+          <t>inv-3059</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>automated user 61</t>
+          <t>german tech gmbh 59</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>8462</v>
+        <v>500</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PRJ-2062</t>
+          <t>PRJ-1061</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CUST-3062</t>
+          <t>CUST-2061</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>inv-5062</t>
+          <t>inv-3061</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>automated user 62</t>
+          <t>german tech gmbh 61</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2304,64 +2304,64 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3835</v>
+        <v>500</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PRJ-2063</t>
+          <t>PRJ-1062</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CUST-3063</t>
+          <t>CUST-2062</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>inv-5063</t>
+          <t>inv-3062</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>automated user 63</t>
+          <t>german tech gmbh 62</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6332</v>
+        <v>500</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PRJ-2064</t>
+          <t>PRJ-1063</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CUST-3064</t>
+          <t>CUST-2063</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>inv-5064</t>
+          <t>inv-3063</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>automated user 64</t>
+          <t>german tech gmbh 63</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2370,31 +2370,31 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2380</v>
+        <v>500</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PRJ-2065</t>
+          <t>PRJ-1064</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CUST-3065</t>
+          <t>CUST-2064</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>inv-5065</t>
+          <t>inv-3064</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>automated user 65</t>
+          <t>german tech gmbh 64</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2403,196 +2403,196 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>981</v>
+        <v>500</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PRJ-2066</t>
+          <t>PRJ-1065</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CUST-3066</t>
+          <t>CUST-2065</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>inv-5066</t>
+          <t>inv-3065</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>automated user 66</t>
+          <t>german tech gmbh 65</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>708</v>
+        <v>500</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PRJ-2067</t>
+          <t>PRJ-1066</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CUST-3067</t>
+          <t>CUST-2066</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>inv-5067</t>
+          <t>inv-3066</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>automated user 67</t>
+          <t>german tech gmbh 66</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>827</v>
+        <v>500</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PRJ-2068</t>
+          <t>PRJ-1067</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CUST-3068</t>
+          <t>CUST-2067</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>inv-5068</t>
+          <t>inv-3067</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>automated user 68</t>
+          <t>german tech gmbh 67</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>812</v>
+        <v>500</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PRJ-2069</t>
+          <t>PRJ-1068</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CUST-3069</t>
+          <t>CUST-2068</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>inv-5069</t>
+          <t>inv-3068</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>automated user 69</t>
+          <t>german tech gmbh 68</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>7353</v>
+        <v>500</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PRJ-2070</t>
+          <t>PRJ-1069</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CUST-3070</t>
+          <t>CUST-2069</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>inv-5070</t>
+          <t>inv-3069</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>automated user 70</t>
+          <t>german tech gmbh 69</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5220</v>
+        <v>500</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PRJ-2071</t>
+          <t>PRJ-1071</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CUST-3071</t>
+          <t>CUST-2071</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>inv-5071</t>
+          <t>inv-3071</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>automated user 71</t>
+          <t>german tech gmbh 71</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2601,97 +2601,97 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>7011</v>
+        <v>500</v>
       </c>
       <c r="G66" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PRJ-2072</t>
+          <t>PRJ-1072</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CUST-3072</t>
+          <t>CUST-2072</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>inv-5072</t>
+          <t>inv-3072</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>automated user 72</t>
+          <t>german tech gmbh 72</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3898</v>
+        <v>500</v>
       </c>
       <c r="G67" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PRJ-2073</t>
+          <t>PRJ-1073</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CUST-3073</t>
+          <t>CUST-2073</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>inv-5073</t>
+          <t>inv-3073</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>automated user 73</t>
+          <t>german tech gmbh 73</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4189</v>
+        <v>500</v>
       </c>
       <c r="G68" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PRJ-2074</t>
+          <t>PRJ-1074</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CUST-3074</t>
+          <t>CUST-2074</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>inv-5074</t>
+          <t>inv-3074</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>automated user 74</t>
+          <t>german tech gmbh 74</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2700,64 +2700,64 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2913</v>
+        <v>500</v>
       </c>
       <c r="G69" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PRJ-2075</t>
+          <t>PRJ-1075</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CUST-3075</t>
+          <t>CUST-2075</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>inv-5075</t>
+          <t>inv-3075</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>automated user 75</t>
+          <t>german tech gmbh 75</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4294</v>
+        <v>500</v>
       </c>
       <c r="G70" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PRJ-2076</t>
+          <t>PRJ-1076</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CUST-3076</t>
+          <t>CUST-2076</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>inv-5076</t>
+          <t>inv-3076</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>automated user 76</t>
+          <t>german tech gmbh 76</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2766,97 +2766,97 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>9737</v>
+        <v>500</v>
       </c>
       <c r="G71" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PRJ-2077</t>
+          <t>PRJ-1077</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CUST-3077</t>
+          <t>CUST-2077</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>inv-5077</t>
+          <t>inv-3077</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>automated user 77</t>
+          <t>german tech gmbh 77</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>9444</v>
+        <v>500</v>
       </c>
       <c r="G72" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PRJ-2078</t>
+          <t>PRJ-1078</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CUST-3078</t>
+          <t>CUST-2078</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>inv-5078</t>
+          <t>inv-3078</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>automated user 78</t>
+          <t>german tech gmbh 78</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4699</v>
+        <v>500</v>
       </c>
       <c r="G73" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PRJ-2079</t>
+          <t>PRJ-1079</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CUST-3079</t>
+          <t>CUST-2079</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>inv-5079</t>
+          <t>inv-3079</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>automated user 79</t>
+          <t>german tech gmbh 79</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2865,64 +2865,64 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3191</v>
+        <v>500</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PRJ-2080</t>
+          <t>PRJ-1081</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CUST-3080</t>
+          <t>CUST-2081</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>inv-5080</t>
+          <t>inv-3081</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>automated user 80</t>
+          <t>german tech gmbh 81</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3012</v>
+        <v>500</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PRJ-2081</t>
+          <t>PRJ-1082</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CUST-3081</t>
+          <t>CUST-2082</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>inv-5081</t>
+          <t>inv-3082</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>automated user 81</t>
+          <t>german tech gmbh 82</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2931,130 +2931,130 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1238</v>
+        <v>500</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PRJ-2082</t>
+          <t>PRJ-1083</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CUST-3082</t>
+          <t>CUST-2083</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>inv-5082</t>
+          <t>inv-3083</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>automated user 82</t>
+          <t>german tech gmbh 83</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1275</v>
+        <v>500</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PRJ-2083</t>
+          <t>PRJ-1084</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CUST-3083</t>
+          <t>CUST-2084</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>inv-5083</t>
+          <t>inv-3084</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>automated user 83</t>
+          <t>german tech gmbh 84</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>633</v>
+        <v>500</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PRJ-2084</t>
+          <t>PRJ-1085</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CUST-3084</t>
+          <t>CUST-2085</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>inv-5084</t>
+          <t>inv-3085</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>automated user 84</t>
+          <t>german tech gmbh 85</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>783</v>
+        <v>500</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PRJ-2085</t>
+          <t>PRJ-1086</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CUST-3085</t>
+          <t>CUST-2086</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>inv-5085</t>
+          <t>inv-3086</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>automated user 85</t>
+          <t>german tech gmbh 86</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3063,130 +3063,130 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>7126</v>
+        <v>500</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PRJ-2086</t>
+          <t>PRJ-1087</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CUST-3086</t>
+          <t>CUST-2087</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>inv-5086</t>
+          <t>inv-3087</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>automated user 86</t>
+          <t>german tech gmbh 87</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>6232</v>
+        <v>500</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PRJ-2087</t>
+          <t>PRJ-1088</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CUST-3087</t>
+          <t>CUST-2088</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>inv-5087</t>
+          <t>inv-3088</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>automated user 87</t>
+          <t>german tech gmbh 88</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>7332</v>
+        <v>500</v>
       </c>
       <c r="G82" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PRJ-2088</t>
+          <t>PRJ-1089</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CUST-3088</t>
+          <t>CUST-2089</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>inv-5088</t>
+          <t>inv-3089</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>automated user 88</t>
+          <t>german tech gmbh 89</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="G83" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PRJ-2089</t>
+          <t>PRJ-1090</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CUST-3089</t>
+          <t>CUST-2090</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>inv-5089</t>
+          <t>inv-3090</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>automated user 89</t>
+          <t>german tech gmbh 90</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3195,31 +3195,31 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="G84" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PRJ-2090</t>
+          <t>PRJ-1091</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CUST-3090</t>
+          <t>CUST-2091</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>inv-5090</t>
+          <t>inv-3091</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>automated user 90</t>
+          <t>german tech gmbh 91</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3228,163 +3228,163 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2580</v>
+        <v>500</v>
       </c>
       <c r="G85" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PRJ-2091</t>
+          <t>PRJ-1092</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CUST-3091</t>
+          <t>CUST-2092</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>inv-5091</t>
+          <t>inv-3092</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>automated user 91</t>
+          <t>german tech gmbh 92</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>9084</v>
+        <v>500</v>
       </c>
       <c r="G86" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PRJ-2092</t>
+          <t>PRJ-1093</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CUST-3092</t>
+          <t>CUST-2093</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>inv-5092</t>
+          <t>inv-3093</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>automated user 92</t>
+          <t>german tech gmbh 93</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2907</v>
+        <v>500</v>
       </c>
       <c r="G87" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PRJ-2093</t>
+          <t>PRJ-1094</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CUST-3093</t>
+          <t>CUST-2094</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>inv-5093</t>
+          <t>inv-3094</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>automated user 93</t>
+          <t>german tech gmbh 94</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1158</v>
+        <v>500</v>
       </c>
       <c r="G88" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PRJ-2094</t>
+          <t>PRJ-1095</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CUST-3094</t>
+          <t>CUST-2095</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>inv-5094</t>
+          <t>inv-3095</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>automated user 94</t>
+          <t>german tech gmbh 95</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>9046</v>
+        <v>500</v>
       </c>
       <c r="G89" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PRJ-2095</t>
+          <t>PRJ-1096</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CUST-3095</t>
+          <t>CUST-2096</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>inv-5095</t>
+          <t>inv-3096</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>automated user 95</t>
+          <t>german tech gmbh 96</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3393,196 +3393,196 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5385</v>
+        <v>500</v>
       </c>
       <c r="G90" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PRJ-2096</t>
+          <t>PRJ-1097</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CUST-3096</t>
+          <t>CUST-2097</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>inv-5096</t>
+          <t>inv-3097</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>automated user 96</t>
+          <t>german tech gmbh 97</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4385</v>
+        <v>500</v>
       </c>
       <c r="G91" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PRJ-2097</t>
+          <t>PRJ-1098</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CUST-3097</t>
+          <t>CUST-2098</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>inv-5097</t>
+          <t>inv-3098</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>automated user 97</t>
+          <t>german tech gmbh 98</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>409</v>
+        <v>500</v>
       </c>
       <c r="G92" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PRJ-2098</t>
+          <t>PRJ-1099</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CUST-3098</t>
+          <t>CUST-2099</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>inv-5098</t>
+          <t>inv-3099</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>automated user 98</t>
+          <t>german tech gmbh 99</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>8208</v>
+        <v>500</v>
       </c>
       <c r="G93" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PRJ-2099</t>
+          <t>PRJ-1100</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CUST-3099</t>
+          <t>CUST-2100</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>inv-5099</t>
+          <t>inv-3100</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>automated user 99</t>
+          <t>german tech gmbh 100</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>6191</v>
+        <v>500</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PRJ-2100</t>
+          <t>PRJ-1101</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CUST-3100</t>
+          <t>CUST-2101</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>inv-5100</t>
+          <t>inv-3101</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>automated user 100</t>
+          <t>german tech gmbh 101</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3453</v>
+        <v>500</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PRJ-2101</t>
+          <t>PRJ-1102</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CUST-3101</t>
+          <t>CUST-2102</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>inv-5101</t>
+          <t>inv-3102</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>automated user 101</t>
+          <t>german tech gmbh 102</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3591,31 +3591,31 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>8343</v>
+        <v>500</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PRJ-2102</t>
+          <t>PRJ-1103</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CUST-3102</t>
+          <t>CUST-2103</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>inv-5102</t>
+          <t>inv-3103</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>automated user 102</t>
+          <t>german tech gmbh 103</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3624,64 +3624,64 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>7685</v>
+        <v>500</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PRJ-2103</t>
+          <t>PRJ-1104</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CUST-3103</t>
+          <t>CUST-2104</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>inv-5103</t>
+          <t>inv-3104</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>automated user 103</t>
+          <t>german tech gmbh 104</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>7513</v>
+        <v>500</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PRJ-2104</t>
+          <t>PRJ-1105</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CUST-3104</t>
+          <t>CUST-2105</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>inv-5104</t>
+          <t>inv-3105</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>automated user 104</t>
+          <t>german tech gmbh 105</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3690,31 +3690,31 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>109</v>
+        <v>500</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PRJ-2105</t>
+          <t>PRJ-1106</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CUST-3105</t>
+          <t>CUST-2106</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>inv-5105</t>
+          <t>inv-3106</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>automated user 105</t>
+          <t>german tech gmbh 106</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3723,31 +3723,31 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>9220</v>
+        <v>500</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PRJ-2106</t>
+          <t>PRJ-1107</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CUST-3106</t>
+          <t>CUST-2107</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>inv-5106</t>
+          <t>inv-3107</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>automated user 106</t>
+          <t>german tech gmbh 107</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3756,97 +3756,97 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3017</v>
+        <v>500</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PRJ-2107</t>
+          <t>PRJ-1108</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CUST-3107</t>
+          <t>CUST-2108</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>inv-5107</t>
+          <t>inv-3108</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>automated user 107</t>
+          <t>german tech gmbh 108</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>7361</v>
+        <v>500</v>
       </c>
       <c r="G102" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PRJ-2108</t>
+          <t>PRJ-1109</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CUST-3108</t>
+          <t>CUST-2109</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>inv-5108</t>
+          <t>inv-3109</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>automated user 108</t>
+          <t>german tech gmbh 109</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2267</v>
+        <v>500</v>
       </c>
       <c r="G103" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PRJ-2109</t>
+          <t>PRJ-1110</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CUST-3109</t>
+          <t>CUST-2110</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>inv-5109</t>
+          <t>inv-3110</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>automated user 109</t>
+          <t>german tech gmbh 110</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3855,31 +3855,31 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2186</v>
+        <v>500</v>
       </c>
       <c r="G104" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PRJ-2110</t>
+          <t>PRJ-1111</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CUST-3110</t>
+          <t>CUST-2111</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>inv-5110</t>
+          <t>inv-3111</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>automated user 110</t>
+          <t>german tech gmbh 111</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3888,328 +3888,328 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2998</v>
+        <v>500</v>
       </c>
       <c r="G105" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PRJ-2111</t>
+          <t>PRJ-1112</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CUST-3111</t>
+          <t>CUST-2112</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>inv-5111</t>
+          <t>inv-3112</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>automated user 111</t>
+          <t>german tech gmbh 112</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>7998</v>
+        <v>500</v>
       </c>
       <c r="G106" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PRJ-2112</t>
+          <t>PRJ-1113</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CUST-3112</t>
+          <t>CUST-2113</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>inv-5112</t>
+          <t>inv-3113</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>automated user 112</t>
+          <t>german tech gmbh 113</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>7727</v>
+        <v>500</v>
       </c>
       <c r="G107" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PRJ-2113</t>
+          <t>PRJ-1114</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CUST-3113</t>
+          <t>CUST-2114</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>inv-5113</t>
+          <t>inv-3114</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>automated user 113</t>
+          <t>german tech gmbh 114</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>5968</v>
+        <v>500</v>
       </c>
       <c r="G108" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>PRJ-2114</t>
+          <t>PRJ-1115</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CUST-3114</t>
+          <t>CUST-2115</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>inv-5114</t>
+          <t>inv-3115</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>automated user 114</t>
+          <t>german tech gmbh 115</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2675</v>
+        <v>500</v>
       </c>
       <c r="G109" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PRJ-2115</t>
+          <t>PRJ-1116</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CUST-3115</t>
+          <t>CUST-2116</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>inv-5115</t>
+          <t>inv-3116</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>automated user 115</t>
+          <t>german tech gmbh 116</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>9831</v>
+        <v>500</v>
       </c>
       <c r="G110" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PRJ-2116</t>
+          <t>PRJ-1117</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CUST-3116</t>
+          <t>CUST-2117</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>inv-5116</t>
+          <t>inv-3117</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>automated user 116</t>
+          <t>german tech gmbh 117</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1627</v>
+        <v>500</v>
       </c>
       <c r="G111" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PRJ-2117</t>
+          <t>PRJ-1118</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CUST-3117</t>
+          <t>CUST-2118</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>inv-5117</t>
+          <t>inv-3118</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>automated user 117</t>
+          <t>german tech gmbh 118</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>6942</v>
+        <v>500</v>
       </c>
       <c r="G112" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PRJ-2118</t>
+          <t>PRJ-1119</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CUST-3118</t>
+          <t>CUST-2119</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>inv-5118</t>
+          <t>inv-3119</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>automated user 118</t>
+          <t>german tech gmbh 119</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>7620</v>
+        <v>500</v>
       </c>
       <c r="G113" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PRJ-2119</t>
+          <t>PRJ-1120</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CUST-3119</t>
+          <t>CUST-2120</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>inv-5119</t>
+          <t>inv-3120</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>automated user 119</t>
+          <t>german tech gmbh 120</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4324</v>
+        <v>500</v>
       </c>
       <c r="G114" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PRJ-2120</t>
+          <t>PRJ-1121</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CUST-3120</t>
+          <t>CUST-2121</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>inv-5120</t>
+          <t>inv-3121</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>automated user 120</t>
+          <t>german tech gmbh 121</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4218,229 +4218,229 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>8925</v>
+        <v>500</v>
       </c>
       <c r="G115" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PRJ-2121</t>
+          <t>PRJ-1122</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CUST-3121</t>
+          <t>CUST-2122</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>inv-5121</t>
+          <t>inv-3122</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>automated user 121</t>
+          <t>german tech gmbh 122</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>6578</v>
+        <v>500</v>
       </c>
       <c r="G116" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PRJ-2122</t>
+          <t>PRJ-1123</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CUST-3122</t>
+          <t>CUST-2123</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>inv-5122</t>
+          <t>inv-3123</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>automated user 122</t>
+          <t>german tech gmbh 123</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2149</v>
+        <v>500</v>
       </c>
       <c r="G117" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PRJ-2123</t>
+          <t>PRJ-1124</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CUST-3123</t>
+          <t>CUST-2124</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>inv-5123</t>
+          <t>inv-3124</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>automated user 123</t>
+          <t>german tech gmbh 124</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>6346</v>
+        <v>500</v>
       </c>
       <c r="G118" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PRJ-2124</t>
+          <t>PRJ-1125</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CUST-3124</t>
+          <t>CUST-2125</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>inv-5124</t>
+          <t>inv-3125</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>automated user 124</t>
+          <t>german tech gmbh 125</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>997</v>
+        <v>500</v>
       </c>
       <c r="G119" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PRJ-2125</t>
+          <t>PRJ-1126</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CUST-3125</t>
+          <t>CUST-2126</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>inv-5125</t>
+          <t>inv-3126</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>automated user 125</t>
+          <t>german tech gmbh 126</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>9193</v>
+        <v>500</v>
       </c>
       <c r="G120" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PRJ-2126</t>
+          <t>PRJ-1127</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CUST-3126</t>
+          <t>CUST-2127</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>inv-5126</t>
+          <t>inv-3127</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>automated user 126</t>
+          <t>german tech gmbh 127</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>112</v>
+        <v>500</v>
       </c>
       <c r="G121" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PRJ-2127</t>
+          <t>PRJ-1128</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CUST-3127</t>
+          <t>CUST-2128</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>inv-5127</t>
+          <t>inv-3128</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>automated user 127</t>
+          <t>german tech gmbh 128</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4449,130 +4449,130 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2306</v>
+        <v>500</v>
       </c>
       <c r="G122" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PRJ-2128</t>
+          <t>PRJ-1129</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CUST-3128</t>
+          <t>CUST-2129</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>inv-5128</t>
+          <t>inv-3129</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>automated user 128</t>
+          <t>german tech gmbh 129</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>8331</v>
+        <v>500</v>
       </c>
       <c r="G123" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PRJ-2129</t>
+          <t>PRJ-1130</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CUST-3129</t>
+          <t>CUST-2130</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>inv-5129</t>
+          <t>inv-3130</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>automated user 129</t>
+          <t>german tech gmbh 130</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>727</v>
+        <v>500</v>
       </c>
       <c r="G124" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PRJ-2130</t>
+          <t>PRJ-1131</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CUST-3130</t>
+          <t>CUST-2131</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>inv-5130</t>
+          <t>inv-3131</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>automated user 130</t>
+          <t>german tech gmbh 131</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>8385</v>
+        <v>500</v>
       </c>
       <c r="G125" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>PRJ-2131</t>
+          <t>PRJ-1132</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CUST-3131</t>
+          <t>CUST-2132</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>inv-5131</t>
+          <t>inv-3132</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>automated user 131</t>
+          <t>german tech gmbh 132</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4581,163 +4581,163 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>6623</v>
+        <v>500</v>
       </c>
       <c r="G126" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PRJ-2132</t>
+          <t>PRJ-1133</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CUST-3132</t>
+          <t>CUST-2133</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>inv-5132</t>
+          <t>inv-3133</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>automated user 132</t>
+          <t>german tech gmbh 133</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2815</v>
+        <v>500</v>
       </c>
       <c r="G127" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PRJ-2133</t>
+          <t>PRJ-1134</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CUST-3133</t>
+          <t>CUST-2134</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>inv-5133</t>
+          <t>inv-3134</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>automated user 133</t>
+          <t>german tech gmbh 134</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>681</v>
+        <v>500</v>
       </c>
       <c r="G128" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PRJ-2134</t>
+          <t>PRJ-1135</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CUST-3134</t>
+          <t>CUST-2135</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>inv-5134</t>
+          <t>inv-3135</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>automated user 134</t>
+          <t>german tech gmbh 135</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>9185</v>
+        <v>500</v>
       </c>
       <c r="G129" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PRJ-2135</t>
+          <t>PRJ-1136</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CUST-3135</t>
+          <t>CUST-2136</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>inv-5135</t>
+          <t>inv-3136</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>automated user 135</t>
+          <t>german tech gmbh 136</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>705</v>
+        <v>500</v>
       </c>
       <c r="G130" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PRJ-2136</t>
+          <t>PRJ-1137</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CUST-3136</t>
+          <t>CUST-2137</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>inv-5136</t>
+          <t>inv-3137</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>automated user 136</t>
+          <t>german tech gmbh 137</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4746,31 +4746,31 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>2744</v>
+        <v>500</v>
       </c>
       <c r="G131" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PRJ-2137</t>
+          <t>PRJ-1138</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CUST-3137</t>
+          <t>CUST-2138</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>inv-5137</t>
+          <t>inv-3138</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>automated user 137</t>
+          <t>german tech gmbh 138</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4779,130 +4779,130 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1963</v>
+        <v>500</v>
       </c>
       <c r="G132" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PRJ-2138</t>
+          <t>PRJ-1139</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CUST-3138</t>
+          <t>CUST-2139</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>inv-5138</t>
+          <t>inv-3139</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>automated user 138</t>
+          <t>german tech gmbh 139</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>969</v>
+        <v>500</v>
       </c>
       <c r="G133" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PRJ-2139</t>
+          <t>PRJ-1140</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CUST-3139</t>
+          <t>CUST-2140</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>inv-5139</t>
+          <t>inv-3140</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>automated user 139</t>
+          <t>german tech gmbh 140</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>5989</v>
+        <v>500</v>
       </c>
       <c r="G134" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PRJ-2140</t>
+          <t>PRJ-1141</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CUST-3140</t>
+          <t>CUST-2141</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>inv-5140</t>
+          <t>inv-3141</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>automated user 140</t>
+          <t>german tech gmbh 141</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>2589</v>
+        <v>500</v>
       </c>
       <c r="G135" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PRJ-2141</t>
+          <t>PRJ-1142</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CUST-3141</t>
+          <t>CUST-2142</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>inv-5141</t>
+          <t>inv-3142</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>automated user 141</t>
+          <t>german tech gmbh 142</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4911,163 +4911,163 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>7525</v>
+        <v>500</v>
       </c>
       <c r="G136" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PRJ-2142</t>
+          <t>PRJ-1143</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CUST-3142</t>
+          <t>CUST-2143</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>inv-5142</t>
+          <t>inv-3143</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>automated user 142</t>
+          <t>german tech gmbh 143</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>3919</v>
+        <v>500</v>
       </c>
       <c r="G137" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PRJ-2143</t>
+          <t>PRJ-1144</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CUST-3143</t>
+          <t>CUST-2144</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>inv-5143</t>
+          <t>inv-3144</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>automated user 143</t>
+          <t>german tech gmbh 144</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>7988</v>
+        <v>500</v>
       </c>
       <c r="G138" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PRJ-2144</t>
+          <t>PRJ-1145</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CUST-3144</t>
+          <t>CUST-2145</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>inv-5144</t>
+          <t>inv-3145</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>automated user 144</t>
+          <t>german tech gmbh 145</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>5518</v>
+        <v>500</v>
       </c>
       <c r="G139" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PRJ-2145</t>
+          <t>PRJ-1146</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CUST-3145</t>
+          <t>CUST-2146</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>inv-5145</t>
+          <t>inv-3146</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>automated user 145</t>
+          <t>german tech gmbh 146</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2039</v>
+        <v>500</v>
       </c>
       <c r="G140" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PRJ-2146</t>
+          <t>PRJ-1147</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CUST-3146</t>
+          <t>CUST-2147</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>inv-5146</t>
+          <t>inv-3147</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>automated user 146</t>
+          <t>german tech gmbh 147</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5076,64 +5076,64 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2753</v>
+        <v>500</v>
       </c>
       <c r="G141" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PRJ-2147</t>
+          <t>PRJ-1148</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CUST-3147</t>
+          <t>CUST-2148</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>inv-5147</t>
+          <t>inv-3148</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>automated user 147</t>
+          <t>german tech gmbh 148</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2531</v>
+        <v>500</v>
       </c>
       <c r="G142" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PRJ-2148</t>
+          <t>PRJ-1149</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CUST-3148</t>
+          <t>CUST-2149</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>inv-5148</t>
+          <t>inv-3149</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>automated user 148</t>
+          <t>german tech gmbh 149</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5142,163 +5142,163 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>5001</v>
+        <v>500</v>
       </c>
       <c r="G143" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>PRJ-2149</t>
+          <t>PRJ-1150</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CUST-3149</t>
+          <t>CUST-2150</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>inv-5149</t>
+          <t>inv-3150</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>automated user 149</t>
+          <t>german tech gmbh 150</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1391</v>
+        <v>500</v>
       </c>
       <c r="G144" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PRJ-2150</t>
+          <t>PRJ-1151</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CUST-3150</t>
+          <t>CUST-2151</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>inv-5150</t>
+          <t>inv-3151</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>automated user 150</t>
+          <t>german tech gmbh 151</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>8301</v>
+        <v>500</v>
       </c>
       <c r="G145" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PRJ-2151</t>
+          <t>PRJ-1152</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CUST-3151</t>
+          <t>CUST-2152</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>inv-5151</t>
+          <t>inv-3152</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>automated user 151</t>
+          <t>german tech gmbh 152</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>4162</v>
+        <v>500</v>
       </c>
       <c r="G146" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PRJ-2152</t>
+          <t>PRJ-1153</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CUST-3152</t>
+          <t>CUST-2153</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>inv-5152</t>
+          <t>inv-3153</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>automated user 152</t>
+          <t>german tech gmbh 153</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>2846</v>
+        <v>500</v>
       </c>
       <c r="G147" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PRJ-2153</t>
+          <t>PRJ-1154</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CUST-3153</t>
+          <t>CUST-2154</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>inv-5153</t>
+          <t>inv-3154</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>automated user 153</t>
+          <t>german tech gmbh 154</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5307,31 +5307,31 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>9660</v>
+        <v>500</v>
       </c>
       <c r="G148" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PRJ-2154</t>
+          <t>PRJ-1155</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CUST-3154</t>
+          <t>CUST-2155</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>inv-5154</t>
+          <t>inv-3155</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>automated user 154</t>
+          <t>german tech gmbh 155</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5340,97 +5340,97 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1073</v>
+        <v>500</v>
       </c>
       <c r="G149" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PRJ-2155</t>
+          <t>PRJ-1156</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CUST-3155</t>
+          <t>CUST-2156</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>inv-5155</t>
+          <t>inv-3156</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>automated user 155</t>
+          <t>german tech gmbh 156</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2773</v>
+        <v>500</v>
       </c>
       <c r="G150" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PRJ-2156</t>
+          <t>PRJ-1157</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CUST-3156</t>
+          <t>CUST-2157</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>inv-5156</t>
+          <t>inv-3157</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>automated user 156</t>
+          <t>german tech gmbh 157</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>8839</v>
+        <v>500</v>
       </c>
       <c r="G151" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PRJ-2157</t>
+          <t>PRJ-1158</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CUST-3157</t>
+          <t>CUST-2158</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>inv-5157</t>
+          <t>inv-3158</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>automated user 157</t>
+          <t>german tech gmbh 158</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5439,97 +5439,97 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>5090</v>
+        <v>500</v>
       </c>
       <c r="G152" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PRJ-2158</t>
+          <t>PRJ-1159</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CUST-3158</t>
+          <t>CUST-2159</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>inv-5158</t>
+          <t>inv-3159</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>automated user 158</t>
+          <t>german tech gmbh 159</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>7645</v>
+        <v>500</v>
       </c>
       <c r="G153" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PRJ-2159</t>
+          <t>PRJ-1160</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CUST-3159</t>
+          <t>CUST-2160</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>inv-5159</t>
+          <t>inv-3160</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>automated user 159</t>
+          <t>german tech gmbh 160</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>6944</v>
+        <v>500</v>
       </c>
       <c r="G154" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PRJ-2160</t>
+          <t>PRJ-1161</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CUST-3160</t>
+          <t>CUST-2161</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>inv-5160</t>
+          <t>inv-3161</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>automated user 160</t>
+          <t>german tech gmbh 161</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5538,31 +5538,31 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>5454</v>
+        <v>500</v>
       </c>
       <c r="G155" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PRJ-2161</t>
+          <t>PRJ-1162</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CUST-3161</t>
+          <t>CUST-2162</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>inv-5161</t>
+          <t>inv-3162</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>automated user 161</t>
+          <t>german tech gmbh 162</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5571,97 +5571,97 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>9624</v>
+        <v>500</v>
       </c>
       <c r="G156" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PRJ-2162</t>
+          <t>PRJ-1163</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CUST-3162</t>
+          <t>CUST-2163</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>inv-5162</t>
+          <t>inv-3163</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>automated user 162</t>
+          <t>german tech gmbh 163</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>6883</v>
+        <v>500</v>
       </c>
       <c r="G157" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PRJ-2163</t>
+          <t>PRJ-1164</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CUST-3163</t>
+          <t>CUST-2164</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>inv-5163</t>
+          <t>inv-3164</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>automated user 163</t>
+          <t>german tech gmbh 164</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>2086</v>
+        <v>500</v>
       </c>
       <c r="G158" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PRJ-2164</t>
+          <t>PRJ-1165</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CUST-3164</t>
+          <t>CUST-2165</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>inv-5164</t>
+          <t>inv-3165</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>automated user 164</t>
+          <t>german tech gmbh 165</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5670,163 +5670,163 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>9802</v>
+        <v>500</v>
       </c>
       <c r="G159" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PRJ-2165</t>
+          <t>PRJ-1166</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CUST-3165</t>
+          <t>CUST-2166</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>inv-5165</t>
+          <t>inv-3166</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>automated user 165</t>
+          <t>german tech gmbh 166</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="G160" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PRJ-2166</t>
+          <t>PRJ-1167</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CUST-3166</t>
+          <t>CUST-2167</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>inv-5166</t>
+          <t>inv-3167</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>automated user 166</t>
+          <t>german tech gmbh 167</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>4151</v>
+        <v>500</v>
       </c>
       <c r="G161" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PRJ-2167</t>
+          <t>PRJ-1168</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CUST-3167</t>
+          <t>CUST-2168</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>inv-5167</t>
+          <t>inv-3168</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>automated user 167</t>
+          <t>german tech gmbh 168</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>6530</v>
+        <v>500</v>
       </c>
       <c r="G162" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PRJ-2168</t>
+          <t>PRJ-1169</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CUST-3168</t>
+          <t>CUST-2169</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>inv-5168</t>
+          <t>inv-3169</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>automated user 168</t>
+          <t>german tech gmbh 169</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>3861</v>
+        <v>500</v>
       </c>
       <c r="G163" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PRJ-2169</t>
+          <t>PRJ-1170</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CUST-3169</t>
+          <t>CUST-2170</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>inv-5169</t>
+          <t>inv-3170</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>automated user 169</t>
+          <t>german tech gmbh 170</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5835,64 +5835,64 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>7102</v>
+        <v>500</v>
       </c>
       <c r="G164" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PRJ-2170</t>
+          <t>PRJ-1171</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CUST-3170</t>
+          <t>CUST-2171</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>inv-5170</t>
+          <t>inv-3171</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>automated user 170</t>
+          <t>german tech gmbh 171</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="G165" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PRJ-2171</t>
+          <t>PRJ-1172</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CUST-3171</t>
+          <t>CUST-2172</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>inv-5171</t>
+          <t>inv-3172</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>automated user 171</t>
+          <t>german tech gmbh 172</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5901,31 +5901,31 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>7257</v>
+        <v>500</v>
       </c>
       <c r="G166" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PRJ-2172</t>
+          <t>PRJ-1173</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CUST-3172</t>
+          <t>CUST-2173</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>inv-5172</t>
+          <t>inv-3173</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>automated user 172</t>
+          <t>german tech gmbh 173</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5934,31 +5934,31 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>4740</v>
+        <v>500</v>
       </c>
       <c r="G167" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PRJ-2173</t>
+          <t>PRJ-1174</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CUST-3173</t>
+          <t>CUST-2174</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>inv-5173</t>
+          <t>inv-3174</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>automated user 173</t>
+          <t>german tech gmbh 174</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5967,64 +5967,64 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>2146</v>
+        <v>500</v>
       </c>
       <c r="G168" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PRJ-2174</t>
+          <t>PRJ-1175</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CUST-3174</t>
+          <t>CUST-2175</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>inv-5174</t>
+          <t>inv-3175</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>automated user 174</t>
+          <t>german tech gmbh 175</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>3873</v>
+        <v>500</v>
       </c>
       <c r="G169" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PRJ-2175</t>
+          <t>PRJ-1176</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CUST-3175</t>
+          <t>CUST-2176</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>inv-5175</t>
+          <t>inv-3176</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>automated user 175</t>
+          <t>german tech gmbh 176</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6033,97 +6033,97 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>4821</v>
+        <v>500</v>
       </c>
       <c r="G170" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PRJ-2176</t>
+          <t>PRJ-1177</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CUST-3176</t>
+          <t>CUST-2177</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>inv-5176</t>
+          <t>inv-3177</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>automated user 176</t>
+          <t>german tech gmbh 177</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>803</v>
+        <v>500</v>
       </c>
       <c r="G171" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PRJ-2177</t>
+          <t>PRJ-1178</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CUST-3177</t>
+          <t>CUST-2178</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>inv-5177</t>
+          <t>inv-3178</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>automated user 177</t>
+          <t>german tech gmbh 178</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>9076</v>
+        <v>500</v>
       </c>
       <c r="G172" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PRJ-2178</t>
+          <t>PRJ-1179</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CUST-3178</t>
+          <t>CUST-2179</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>inv-5178</t>
+          <t>inv-3179</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>automated user 178</t>
+          <t>german tech gmbh 179</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6132,31 +6132,31 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>3004</v>
+        <v>500</v>
       </c>
       <c r="G173" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PRJ-2179</t>
+          <t>PRJ-1180</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CUST-3179</t>
+          <t>CUST-2180</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>inv-5179</t>
+          <t>inv-3180</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>automated user 179</t>
+          <t>german tech gmbh 180</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6165,328 +6165,328 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>4580</v>
+        <v>500</v>
       </c>
       <c r="G174" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PRJ-2180</t>
+          <t>PRJ-1181</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CUST-3180</t>
+          <t>CUST-2181</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>inv-5180</t>
+          <t>inv-3181</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>automated user 180</t>
+          <t>german tech gmbh 181</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1032</v>
+        <v>500</v>
       </c>
       <c r="G175" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PRJ-2181</t>
+          <t>PRJ-1182</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CUST-3181</t>
+          <t>CUST-2182</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>inv-5181</t>
+          <t>inv-3182</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>automated user 181</t>
+          <t>german tech gmbh 182</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>6974</v>
+        <v>500</v>
       </c>
       <c r="G176" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PRJ-2182</t>
+          <t>PRJ-1183</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CUST-3182</t>
+          <t>CUST-2183</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>inv-5182</t>
+          <t>inv-3183</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>automated user 182</t>
+          <t>german tech gmbh 183</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>3163</v>
+        <v>500</v>
       </c>
       <c r="G177" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PRJ-2183</t>
+          <t>PRJ-1184</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CUST-3183</t>
+          <t>CUST-2184</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>inv-5183</t>
+          <t>inv-3184</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>automated user 183</t>
+          <t>german tech gmbh 184</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1612</v>
+        <v>500</v>
       </c>
       <c r="G178" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PRJ-2184</t>
+          <t>PRJ-1185</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CUST-3184</t>
+          <t>CUST-2185</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>inv-5184</t>
+          <t>inv-3185</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>automated user 184</t>
+          <t>german tech gmbh 185</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1646</v>
+        <v>500</v>
       </c>
       <c r="G179" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PRJ-2185</t>
+          <t>PRJ-1186</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CUST-3185</t>
+          <t>CUST-2186</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>inv-5185</t>
+          <t>inv-3186</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>automated user 185</t>
+          <t>german tech gmbh 186</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>9121</v>
+        <v>500</v>
       </c>
       <c r="G180" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PRJ-2186</t>
+          <t>PRJ-1187</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CUST-3186</t>
+          <t>CUST-2187</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>inv-5186</t>
+          <t>inv-3187</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>automated user 186</t>
+          <t>german tech gmbh 187</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1222</v>
+        <v>500</v>
       </c>
       <c r="G181" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PRJ-2187</t>
+          <t>PRJ-1188</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CUST-3187</t>
+          <t>CUST-2188</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>inv-5187</t>
+          <t>inv-3188</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>automated user 187</t>
+          <t>german tech gmbh 188</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>4667</v>
+        <v>500</v>
       </c>
       <c r="G182" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PRJ-2188</t>
+          <t>PRJ-1189</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CUST-3188</t>
+          <t>CUST-2189</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>inv-5188</t>
+          <t>inv-3189</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>automated user 188</t>
+          <t>german tech gmbh 189</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>5343</v>
+        <v>500</v>
       </c>
       <c r="G183" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PRJ-2189</t>
+          <t>PRJ-1190</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CUST-3189</t>
+          <t>CUST-2190</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>inv-5189</t>
+          <t>inv-3190</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>automated user 189</t>
+          <t>german tech gmbh 190</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6495,97 +6495,97 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>3979</v>
+        <v>500</v>
       </c>
       <c r="G184" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PRJ-2190</t>
+          <t>PRJ-1191</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CUST-3190</t>
+          <t>CUST-2191</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>inv-5190</t>
+          <t>inv-3191</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>automated user 190</t>
+          <t>german tech gmbh 191</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>7806</v>
+        <v>500</v>
       </c>
       <c r="G185" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PRJ-2191</t>
+          <t>PRJ-1192</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CUST-3191</t>
+          <t>CUST-2192</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>inv-5191</t>
+          <t>inv-3192</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>automated user 191</t>
+          <t>german tech gmbh 192</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>5247</v>
+        <v>500</v>
       </c>
       <c r="G186" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PRJ-2192</t>
+          <t>PRJ-1193</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CUST-3192</t>
+          <t>CUST-2193</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>inv-5192</t>
+          <t>inv-3193</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>automated user 192</t>
+          <t>german tech gmbh 193</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6594,274 +6594,208 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>2342</v>
+        <v>500</v>
       </c>
       <c r="G187" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PRJ-2193</t>
+          <t>PRJ-1194</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CUST-3193</t>
+          <t>CUST-2194</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>inv-5193</t>
+          <t>inv-3194</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>automated user 193</t>
+          <t>german tech gmbh 194</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>9701</v>
+        <v>500</v>
       </c>
       <c r="G188" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PRJ-2194</t>
+          <t>PRJ-1195</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CUST-3194</t>
+          <t>CUST-2195</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>inv-5194</t>
+          <t>inv-3195</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>automated user 194</t>
+          <t>german tech gmbh 195</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>9242</v>
+        <v>500</v>
       </c>
       <c r="G189" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PRJ-2195</t>
+          <t>PRJ-1196</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CUST-3195</t>
+          <t>CUST-2196</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>inv-5195</t>
+          <t>inv-3196</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>automated user 195</t>
+          <t>german tech gmbh 196</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2168</v>
+        <v>500</v>
       </c>
       <c r="G190" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PRJ-2196</t>
+          <t>PRJ-1197</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CUST-3196</t>
+          <t>CUST-2197</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>inv-5196</t>
+          <t>inv-3197</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>automated user 196</t>
+          <t>german tech gmbh 197</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2344</v>
+        <v>500</v>
       </c>
       <c r="G191" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>PRJ-2197</t>
+          <t>PRJ-1198</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CUST-3197</t>
+          <t>CUST-2198</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>inv-5197</t>
+          <t>inv-3198</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>automated user 197</t>
+          <t>german tech gmbh 198</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>7562</v>
+        <v>500</v>
       </c>
       <c r="G192" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PRJ-2198</t>
+          <t>PRJ-1199</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CUST-3198</t>
+          <t>CUST-2199</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>inv-5198</t>
+          <t>inv-3199</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>automated user 198</t>
+          <t>german tech gmbh 199</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>active</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2529</v>
+        <v>500</v>
       </c>
       <c r="G193" s="1" t="n">
-        <v>45940</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>PRJ-2199</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>CUST-3199</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>inv-5199</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>automated user 199</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="F194" t="n">
-        <v>6947</v>
-      </c>
-      <c r="G194" s="1" t="n">
-        <v>45940</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>PRJ-2200</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>CUST-3200</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>inv-5200</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>automated user 200</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="F195" t="n">
-        <v>2895</v>
-      </c>
-      <c r="G195" s="1" t="n">
-        <v>45940</v>
+        <v>45292</v>
       </c>
     </row>
   </sheetData>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2874,22 +2874,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PRJ-1081</t>
+          <t>PRJ-1080</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CUST-2081</t>
+          <t>CUST-2080</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>inv-3081</t>
+          <t>inv-3080</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>german tech gmbh 81</t>
+          <t>german tech gmbh 80</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2897,8 +2897,10 @@
           <t>active</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>500</v>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NOT_A_NUMBER</t>
+        </is>
       </c>
       <c r="G75" s="1" t="n">
         <v>45292</v>
@@ -2907,22 +2909,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PRJ-1082</t>
+          <t>PRJ-1081</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CUST-2082</t>
+          <t>CUST-2081</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>inv-3082</t>
+          <t>inv-3081</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>german tech gmbh 82</t>
+          <t>german tech gmbh 81</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2940,22 +2942,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PRJ-1083</t>
+          <t>PRJ-1082</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CUST-2083</t>
+          <t>CUST-2082</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>inv-3083</t>
+          <t>inv-3082</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>german tech gmbh 83</t>
+          <t>german tech gmbh 82</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2973,22 +2975,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PRJ-1084</t>
+          <t>PRJ-1083</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CUST-2084</t>
+          <t>CUST-2083</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>inv-3084</t>
+          <t>inv-3083</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>german tech gmbh 84</t>
+          <t>german tech gmbh 83</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3006,22 +3008,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PRJ-1085</t>
+          <t>PRJ-1084</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CUST-2085</t>
+          <t>CUST-2084</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>inv-3085</t>
+          <t>inv-3084</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>german tech gmbh 85</t>
+          <t>german tech gmbh 84</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3039,22 +3041,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PRJ-1086</t>
+          <t>PRJ-1085</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CUST-2086</t>
+          <t>CUST-2085</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>inv-3086</t>
+          <t>inv-3085</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>german tech gmbh 86</t>
+          <t>german tech gmbh 85</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3072,22 +3074,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PRJ-1087</t>
+          <t>PRJ-1086</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CUST-2087</t>
+          <t>CUST-2086</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>inv-3087</t>
+          <t>inv-3086</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>german tech gmbh 87</t>
+          <t>german tech gmbh 86</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3105,22 +3107,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PRJ-1088</t>
+          <t>PRJ-1087</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CUST-2088</t>
+          <t>CUST-2087</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>inv-3088</t>
+          <t>inv-3087</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>german tech gmbh 88</t>
+          <t>german tech gmbh 87</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3138,22 +3140,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PRJ-1089</t>
+          <t>PRJ-1088</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CUST-2089</t>
+          <t>CUST-2088</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>inv-3089</t>
+          <t>inv-3088</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>german tech gmbh 89</t>
+          <t>german tech gmbh 88</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3171,22 +3173,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PRJ-1090</t>
+          <t>PRJ-1089</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CUST-2090</t>
+          <t>CUST-2089</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>inv-3090</t>
+          <t>inv-3089</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>german tech gmbh 90</t>
+          <t>german tech gmbh 89</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3204,22 +3206,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PRJ-1091</t>
+          <t>PRJ-1090</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CUST-2091</t>
+          <t>CUST-2090</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>inv-3091</t>
+          <t>inv-3090</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>german tech gmbh 91</t>
+          <t>german tech gmbh 90</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3237,22 +3239,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PRJ-1092</t>
+          <t>PRJ-1091</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CUST-2092</t>
+          <t>CUST-2091</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>inv-3092</t>
+          <t>inv-3091</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>german tech gmbh 92</t>
+          <t>german tech gmbh 91</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3270,22 +3272,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PRJ-1093</t>
+          <t>PRJ-1092</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CUST-2093</t>
+          <t>CUST-2092</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>inv-3093</t>
+          <t>inv-3092</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>german tech gmbh 93</t>
+          <t>german tech gmbh 92</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3303,22 +3305,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PRJ-1094</t>
+          <t>PRJ-1093</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CUST-2094</t>
+          <t>CUST-2093</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>inv-3094</t>
+          <t>inv-3093</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>german tech gmbh 94</t>
+          <t>german tech gmbh 93</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3336,22 +3338,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PRJ-1095</t>
+          <t>PRJ-1094</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CUST-2095</t>
+          <t>CUST-2094</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>inv-3095</t>
+          <t>inv-3094</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>german tech gmbh 95</t>
+          <t>german tech gmbh 94</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3369,22 +3371,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PRJ-1096</t>
+          <t>PRJ-1095</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CUST-2096</t>
+          <t>CUST-2095</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>inv-3096</t>
+          <t>inv-3095</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>german tech gmbh 96</t>
+          <t>german tech gmbh 95</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3402,22 +3404,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PRJ-1097</t>
+          <t>PRJ-1096</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CUST-2097</t>
+          <t>CUST-2096</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>inv-3097</t>
+          <t>inv-3096</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>german tech gmbh 97</t>
+          <t>german tech gmbh 96</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3435,22 +3437,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PRJ-1098</t>
+          <t>PRJ-1097</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CUST-2098</t>
+          <t>CUST-2097</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>inv-3098</t>
+          <t>inv-3097</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>german tech gmbh 98</t>
+          <t>german tech gmbh 97</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3468,22 +3470,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PRJ-1099</t>
+          <t>PRJ-1098</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CUST-2099</t>
+          <t>CUST-2098</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>inv-3099</t>
+          <t>inv-3098</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>german tech gmbh 99</t>
+          <t>german tech gmbh 98</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3501,22 +3503,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PRJ-1100</t>
+          <t>PRJ-1099</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>CUST-2100</t>
+          <t>CUST-2099</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>inv-3100</t>
+          <t>inv-3099</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>german tech gmbh 100</t>
+          <t>german tech gmbh 99</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3534,22 +3536,22 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PRJ-1101</t>
+          <t>PRJ-1100</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CUST-2101</t>
+          <t>CUST-2100</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>inv-3101</t>
+          <t>inv-3100</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>german tech gmbh 101</t>
+          <t>german tech gmbh 100</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3567,22 +3569,22 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PRJ-1102</t>
+          <t>PRJ-1101</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>CUST-2102</t>
+          <t>CUST-2101</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>inv-3102</t>
+          <t>inv-3101</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>german tech gmbh 102</t>
+          <t>german tech gmbh 101</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3600,22 +3602,22 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PRJ-1103</t>
+          <t>PRJ-1102</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CUST-2103</t>
+          <t>CUST-2102</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>inv-3103</t>
+          <t>inv-3102</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>german tech gmbh 103</t>
+          <t>german tech gmbh 102</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3633,22 +3635,22 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PRJ-1104</t>
+          <t>PRJ-1103</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>CUST-2104</t>
+          <t>CUST-2103</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>inv-3104</t>
+          <t>inv-3103</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>german tech gmbh 104</t>
+          <t>german tech gmbh 103</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3666,22 +3668,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PRJ-1105</t>
+          <t>PRJ-1104</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CUST-2105</t>
+          <t>CUST-2104</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>inv-3105</t>
+          <t>inv-3104</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>german tech gmbh 105</t>
+          <t>german tech gmbh 104</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3699,22 +3701,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PRJ-1106</t>
+          <t>PRJ-1105</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>CUST-2106</t>
+          <t>CUST-2105</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>inv-3106</t>
+          <t>inv-3105</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>german tech gmbh 106</t>
+          <t>german tech gmbh 105</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3732,22 +3734,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PRJ-1107</t>
+          <t>PRJ-1106</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CUST-2107</t>
+          <t>CUST-2106</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>inv-3107</t>
+          <t>inv-3106</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>german tech gmbh 107</t>
+          <t>german tech gmbh 106</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3765,22 +3767,22 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PRJ-1108</t>
+          <t>PRJ-1107</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CUST-2108</t>
+          <t>CUST-2107</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>inv-3108</t>
+          <t>inv-3107</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>german tech gmbh 108</t>
+          <t>german tech gmbh 107</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3798,22 +3800,22 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PRJ-1109</t>
+          <t>PRJ-1108</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CUST-2109</t>
+          <t>CUST-2108</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>inv-3109</t>
+          <t>inv-3108</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>german tech gmbh 109</t>
+          <t>german tech gmbh 108</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3831,22 +3833,22 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PRJ-1110</t>
+          <t>PRJ-1109</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CUST-2110</t>
+          <t>CUST-2109</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>inv-3110</t>
+          <t>inv-3109</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>german tech gmbh 110</t>
+          <t>german tech gmbh 109</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3864,22 +3866,22 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PRJ-1111</t>
+          <t>PRJ-1110</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>CUST-2111</t>
+          <t>CUST-2110</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>inv-3111</t>
+          <t>inv-3110</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>german tech gmbh 111</t>
+          <t>german tech gmbh 110</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3897,22 +3899,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PRJ-1112</t>
+          <t>PRJ-1111</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CUST-2112</t>
+          <t>CUST-2111</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>inv-3112</t>
+          <t>inv-3111</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>german tech gmbh 112</t>
+          <t>german tech gmbh 111</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3930,22 +3932,22 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>PRJ-1113</t>
+          <t>PRJ-1112</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CUST-2113</t>
+          <t>CUST-2112</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>inv-3113</t>
+          <t>inv-3112</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>german tech gmbh 113</t>
+          <t>german tech gmbh 112</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3963,22 +3965,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PRJ-1114</t>
+          <t>PRJ-1113</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>CUST-2114</t>
+          <t>CUST-2113</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>inv-3114</t>
+          <t>inv-3113</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>german tech gmbh 114</t>
+          <t>german tech gmbh 113</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3996,22 +3998,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>PRJ-1115</t>
+          <t>PRJ-1114</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>CUST-2115</t>
+          <t>CUST-2114</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>inv-3115</t>
+          <t>inv-3114</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>german tech gmbh 115</t>
+          <t>german tech gmbh 114</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4029,22 +4031,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PRJ-1116</t>
+          <t>PRJ-1115</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CUST-2116</t>
+          <t>CUST-2115</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>inv-3116</t>
+          <t>inv-3115</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>german tech gmbh 116</t>
+          <t>german tech gmbh 115</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4062,22 +4064,22 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PRJ-1117</t>
+          <t>PRJ-1116</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CUST-2117</t>
+          <t>CUST-2116</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>inv-3117</t>
+          <t>inv-3116</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>german tech gmbh 117</t>
+          <t>german tech gmbh 116</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4095,22 +4097,22 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>PRJ-1118</t>
+          <t>PRJ-1117</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CUST-2118</t>
+          <t>CUST-2117</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>inv-3118</t>
+          <t>inv-3117</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>german tech gmbh 118</t>
+          <t>german tech gmbh 117</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4128,22 +4130,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PRJ-1119</t>
+          <t>PRJ-1118</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CUST-2119</t>
+          <t>CUST-2118</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>inv-3119</t>
+          <t>inv-3118</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>german tech gmbh 119</t>
+          <t>german tech gmbh 118</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4161,22 +4163,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PRJ-1120</t>
+          <t>PRJ-1119</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CUST-2120</t>
+          <t>CUST-2119</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>inv-3120</t>
+          <t>inv-3119</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>german tech gmbh 120</t>
+          <t>german tech gmbh 119</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4194,22 +4196,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PRJ-1121</t>
+          <t>PRJ-1120</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>CUST-2121</t>
+          <t>CUST-2120</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>inv-3121</t>
+          <t>inv-3120</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>german tech gmbh 121</t>
+          <t>german tech gmbh 120</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4227,22 +4229,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PRJ-1122</t>
+          <t>PRJ-1121</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CUST-2122</t>
+          <t>CUST-2121</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>inv-3122</t>
+          <t>inv-3121</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>german tech gmbh 122</t>
+          <t>german tech gmbh 121</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4260,22 +4262,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PRJ-1123</t>
+          <t>PRJ-1122</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>CUST-2123</t>
+          <t>CUST-2122</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>inv-3123</t>
+          <t>inv-3122</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>german tech gmbh 123</t>
+          <t>german tech gmbh 122</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4293,22 +4295,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PRJ-1124</t>
+          <t>PRJ-1123</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CUST-2124</t>
+          <t>CUST-2123</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>inv-3124</t>
+          <t>inv-3123</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>german tech gmbh 124</t>
+          <t>german tech gmbh 123</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4326,22 +4328,22 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PRJ-1125</t>
+          <t>PRJ-1124</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CUST-2125</t>
+          <t>CUST-2124</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>inv-3125</t>
+          <t>inv-3124</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>german tech gmbh 125</t>
+          <t>german tech gmbh 124</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4359,22 +4361,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PRJ-1126</t>
+          <t>PRJ-1125</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CUST-2126</t>
+          <t>CUST-2125</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>inv-3126</t>
+          <t>inv-3125</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>german tech gmbh 126</t>
+          <t>german tech gmbh 125</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4392,22 +4394,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PRJ-1127</t>
+          <t>PRJ-1126</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CUST-2127</t>
+          <t>CUST-2126</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>inv-3127</t>
+          <t>inv-3126</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>german tech gmbh 127</t>
+          <t>german tech gmbh 126</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4425,22 +4427,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PRJ-1128</t>
+          <t>PRJ-1127</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CUST-2128</t>
+          <t>CUST-2127</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>inv-3128</t>
+          <t>inv-3127</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>german tech gmbh 128</t>
+          <t>german tech gmbh 127</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4458,22 +4460,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PRJ-1129</t>
+          <t>PRJ-1128</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CUST-2129</t>
+          <t>CUST-2128</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>inv-3129</t>
+          <t>inv-3128</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>german tech gmbh 129</t>
+          <t>german tech gmbh 128</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4491,22 +4493,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PRJ-1130</t>
+          <t>PRJ-1129</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CUST-2130</t>
+          <t>CUST-2129</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>inv-3130</t>
+          <t>inv-3129</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>german tech gmbh 130</t>
+          <t>german tech gmbh 129</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4524,22 +4526,22 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PRJ-1131</t>
+          <t>PRJ-1130</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CUST-2131</t>
+          <t>CUST-2130</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>inv-3131</t>
+          <t>inv-3130</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>german tech gmbh 131</t>
+          <t>german tech gmbh 130</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4557,22 +4559,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>PRJ-1132</t>
+          <t>PRJ-1131</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CUST-2132</t>
+          <t>CUST-2131</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>inv-3132</t>
+          <t>inv-3131</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>german tech gmbh 132</t>
+          <t>german tech gmbh 131</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4590,22 +4592,22 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PRJ-1133</t>
+          <t>PRJ-1132</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CUST-2133</t>
+          <t>CUST-2132</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>inv-3133</t>
+          <t>inv-3132</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>german tech gmbh 133</t>
+          <t>german tech gmbh 132</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4623,22 +4625,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PRJ-1134</t>
+          <t>PRJ-1133</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CUST-2134</t>
+          <t>CUST-2133</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>inv-3134</t>
+          <t>inv-3133</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>german tech gmbh 134</t>
+          <t>german tech gmbh 133</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4656,22 +4658,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PRJ-1135</t>
+          <t>PRJ-1134</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CUST-2135</t>
+          <t>CUST-2134</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>inv-3135</t>
+          <t>inv-3134</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>german tech gmbh 135</t>
+          <t>german tech gmbh 134</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4689,22 +4691,22 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PRJ-1136</t>
+          <t>PRJ-1135</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CUST-2136</t>
+          <t>CUST-2135</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>inv-3136</t>
+          <t>inv-3135</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>german tech gmbh 136</t>
+          <t>german tech gmbh 135</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4722,22 +4724,22 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>PRJ-1137</t>
+          <t>PRJ-1136</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CUST-2137</t>
+          <t>CUST-2136</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>inv-3137</t>
+          <t>inv-3136</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>german tech gmbh 137</t>
+          <t>german tech gmbh 136</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4755,22 +4757,22 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PRJ-1138</t>
+          <t>PRJ-1137</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CUST-2138</t>
+          <t>CUST-2137</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>inv-3138</t>
+          <t>inv-3137</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>german tech gmbh 138</t>
+          <t>german tech gmbh 137</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4788,22 +4790,22 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PRJ-1139</t>
+          <t>PRJ-1138</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CUST-2139</t>
+          <t>CUST-2138</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>inv-3139</t>
+          <t>inv-3138</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>german tech gmbh 139</t>
+          <t>german tech gmbh 138</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4821,22 +4823,22 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PRJ-1140</t>
+          <t>PRJ-1139</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CUST-2140</t>
+          <t>CUST-2139</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>inv-3140</t>
+          <t>inv-3139</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>german tech gmbh 140</t>
+          <t>german tech gmbh 139</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4854,22 +4856,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PRJ-1141</t>
+          <t>PRJ-1140</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CUST-2141</t>
+          <t>CUST-2140</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>inv-3141</t>
+          <t>inv-3140</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>german tech gmbh 141</t>
+          <t>german tech gmbh 140</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4887,22 +4889,22 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PRJ-1142</t>
+          <t>PRJ-1141</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>CUST-2142</t>
+          <t>CUST-2141</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>inv-3142</t>
+          <t>inv-3141</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>german tech gmbh 142</t>
+          <t>german tech gmbh 141</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4920,22 +4922,22 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PRJ-1143</t>
+          <t>PRJ-1142</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CUST-2143</t>
+          <t>CUST-2142</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>inv-3143</t>
+          <t>inv-3142</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>german tech gmbh 143</t>
+          <t>german tech gmbh 142</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4953,22 +4955,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PRJ-1144</t>
+          <t>PRJ-1143</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CUST-2144</t>
+          <t>CUST-2143</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>inv-3144</t>
+          <t>inv-3143</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>german tech gmbh 144</t>
+          <t>german tech gmbh 143</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4986,22 +4988,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PRJ-1145</t>
+          <t>PRJ-1144</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CUST-2145</t>
+          <t>CUST-2144</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>inv-3145</t>
+          <t>inv-3144</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>german tech gmbh 145</t>
+          <t>german tech gmbh 144</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5019,22 +5021,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PRJ-1146</t>
+          <t>PRJ-1145</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CUST-2146</t>
+          <t>CUST-2145</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>inv-3146</t>
+          <t>inv-3145</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>german tech gmbh 146</t>
+          <t>german tech gmbh 145</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5052,22 +5054,22 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PRJ-1147</t>
+          <t>PRJ-1146</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CUST-2147</t>
+          <t>CUST-2146</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>inv-3147</t>
+          <t>inv-3146</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>german tech gmbh 147</t>
+          <t>german tech gmbh 146</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5085,22 +5087,22 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PRJ-1148</t>
+          <t>PRJ-1147</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CUST-2148</t>
+          <t>CUST-2147</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>inv-3148</t>
+          <t>inv-3147</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>german tech gmbh 148</t>
+          <t>german tech gmbh 147</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5118,22 +5120,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PRJ-1149</t>
+          <t>PRJ-1148</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CUST-2149</t>
+          <t>CUST-2148</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>inv-3149</t>
+          <t>inv-3148</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>german tech gmbh 149</t>
+          <t>german tech gmbh 148</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5151,22 +5153,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>PRJ-1150</t>
+          <t>PRJ-1149</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CUST-2150</t>
+          <t>CUST-2149</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>inv-3150</t>
+          <t>inv-3149</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>german tech gmbh 150</t>
+          <t>german tech gmbh 149</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5184,22 +5186,22 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PRJ-1151</t>
+          <t>PRJ-1150</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CUST-2151</t>
+          <t>CUST-2150</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>inv-3151</t>
+          <t>inv-3150</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>german tech gmbh 151</t>
+          <t>german tech gmbh 150</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5217,22 +5219,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PRJ-1152</t>
+          <t>PRJ-1151</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>CUST-2152</t>
+          <t>CUST-2151</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>inv-3152</t>
+          <t>inv-3151</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>german tech gmbh 152</t>
+          <t>german tech gmbh 151</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5250,22 +5252,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PRJ-1153</t>
+          <t>PRJ-1152</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CUST-2153</t>
+          <t>CUST-2152</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>inv-3153</t>
+          <t>inv-3152</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>german tech gmbh 153</t>
+          <t>german tech gmbh 152</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5283,22 +5285,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PRJ-1154</t>
+          <t>PRJ-1153</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>CUST-2154</t>
+          <t>CUST-2153</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>inv-3154</t>
+          <t>inv-3153</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>german tech gmbh 154</t>
+          <t>german tech gmbh 153</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5316,22 +5318,22 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PRJ-1155</t>
+          <t>PRJ-1154</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CUST-2155</t>
+          <t>CUST-2154</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>inv-3155</t>
+          <t>inv-3154</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>german tech gmbh 155</t>
+          <t>german tech gmbh 154</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5349,22 +5351,22 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PRJ-1156</t>
+          <t>PRJ-1155</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>CUST-2156</t>
+          <t>CUST-2155</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>inv-3156</t>
+          <t>inv-3155</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>german tech gmbh 156</t>
+          <t>german tech gmbh 155</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5382,22 +5384,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PRJ-1157</t>
+          <t>PRJ-1156</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CUST-2157</t>
+          <t>CUST-2156</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>inv-3157</t>
+          <t>inv-3156</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>german tech gmbh 157</t>
+          <t>german tech gmbh 156</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5415,22 +5417,22 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PRJ-1158</t>
+          <t>PRJ-1157</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>CUST-2158</t>
+          <t>CUST-2157</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>inv-3158</t>
+          <t>inv-3157</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>german tech gmbh 158</t>
+          <t>german tech gmbh 157</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5448,22 +5450,22 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PRJ-1159</t>
+          <t>PRJ-1158</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CUST-2159</t>
+          <t>CUST-2158</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>inv-3159</t>
+          <t>inv-3158</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>german tech gmbh 159</t>
+          <t>german tech gmbh 158</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5481,22 +5483,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PRJ-1160</t>
+          <t>PRJ-1159</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>CUST-2160</t>
+          <t>CUST-2159</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>inv-3160</t>
+          <t>inv-3159</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>german tech gmbh 160</t>
+          <t>german tech gmbh 159</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5514,22 +5516,22 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PRJ-1161</t>
+          <t>PRJ-1160</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CUST-2161</t>
+          <t>CUST-2160</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>inv-3161</t>
+          <t>inv-3160</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>german tech gmbh 161</t>
+          <t>german tech gmbh 160</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5547,22 +5549,22 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PRJ-1162</t>
+          <t>PRJ-1161</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CUST-2162</t>
+          <t>CUST-2161</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>inv-3162</t>
+          <t>inv-3161</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>german tech gmbh 162</t>
+          <t>german tech gmbh 161</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5580,22 +5582,22 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PRJ-1163</t>
+          <t>PRJ-1162</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>CUST-2163</t>
+          <t>CUST-2162</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>inv-3163</t>
+          <t>inv-3162</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>german tech gmbh 163</t>
+          <t>german tech gmbh 162</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5613,22 +5615,22 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PRJ-1164</t>
+          <t>PRJ-1163</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CUST-2164</t>
+          <t>CUST-2163</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>inv-3164</t>
+          <t>inv-3163</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>german tech gmbh 164</t>
+          <t>german tech gmbh 163</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5646,22 +5648,22 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>PRJ-1165</t>
+          <t>PRJ-1164</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>CUST-2165</t>
+          <t>CUST-2164</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>inv-3165</t>
+          <t>inv-3164</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>german tech gmbh 165</t>
+          <t>german tech gmbh 164</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5679,22 +5681,22 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PRJ-1166</t>
+          <t>PRJ-1165</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>CUST-2166</t>
+          <t>CUST-2165</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>inv-3166</t>
+          <t>inv-3165</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>german tech gmbh 166</t>
+          <t>german tech gmbh 165</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5712,22 +5714,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PRJ-1167</t>
+          <t>PRJ-1166</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>CUST-2167</t>
+          <t>CUST-2166</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>inv-3167</t>
+          <t>inv-3166</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>german tech gmbh 167</t>
+          <t>german tech gmbh 166</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5745,22 +5747,22 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PRJ-1168</t>
+          <t>PRJ-1167</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CUST-2168</t>
+          <t>CUST-2167</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>inv-3168</t>
+          <t>inv-3167</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>german tech gmbh 168</t>
+          <t>german tech gmbh 167</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5778,22 +5780,22 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PRJ-1169</t>
+          <t>PRJ-1168</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CUST-2169</t>
+          <t>CUST-2168</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>inv-3169</t>
+          <t>inv-3168</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>german tech gmbh 169</t>
+          <t>german tech gmbh 168</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -5811,22 +5813,22 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PRJ-1170</t>
+          <t>PRJ-1169</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CUST-2170</t>
+          <t>CUST-2169</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>inv-3170</t>
+          <t>inv-3169</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>german tech gmbh 170</t>
+          <t>german tech gmbh 169</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -5844,22 +5846,22 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PRJ-1171</t>
+          <t>PRJ-1170</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CUST-2171</t>
+          <t>CUST-2170</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>inv-3171</t>
+          <t>inv-3170</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>german tech gmbh 171</t>
+          <t>german tech gmbh 170</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5877,22 +5879,22 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PRJ-1172</t>
+          <t>PRJ-1171</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>CUST-2172</t>
+          <t>CUST-2171</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>inv-3172</t>
+          <t>inv-3171</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>german tech gmbh 172</t>
+          <t>german tech gmbh 171</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5910,22 +5912,22 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PRJ-1173</t>
+          <t>PRJ-1172</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>CUST-2173</t>
+          <t>CUST-2172</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>inv-3173</t>
+          <t>inv-3172</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>german tech gmbh 173</t>
+          <t>german tech gmbh 172</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5943,22 +5945,22 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PRJ-1174</t>
+          <t>PRJ-1173</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CUST-2174</t>
+          <t>CUST-2173</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>inv-3174</t>
+          <t>inv-3173</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>german tech gmbh 174</t>
+          <t>german tech gmbh 173</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5976,22 +5978,22 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PRJ-1175</t>
+          <t>PRJ-1174</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>CUST-2175</t>
+          <t>CUST-2174</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>inv-3175</t>
+          <t>inv-3174</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>german tech gmbh 175</t>
+          <t>german tech gmbh 174</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6009,22 +6011,22 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PRJ-1176</t>
+          <t>PRJ-1175</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CUST-2176</t>
+          <t>CUST-2175</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>inv-3176</t>
+          <t>inv-3175</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>german tech gmbh 176</t>
+          <t>german tech gmbh 175</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6042,22 +6044,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>PRJ-1177</t>
+          <t>PRJ-1176</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CUST-2177</t>
+          <t>CUST-2176</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>inv-3177</t>
+          <t>inv-3176</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>german tech gmbh 177</t>
+          <t>german tech gmbh 176</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6075,22 +6077,22 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PRJ-1178</t>
+          <t>PRJ-1177</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CUST-2178</t>
+          <t>CUST-2177</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>inv-3178</t>
+          <t>inv-3177</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>german tech gmbh 178</t>
+          <t>german tech gmbh 177</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6108,22 +6110,22 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PRJ-1179</t>
+          <t>PRJ-1178</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CUST-2179</t>
+          <t>CUST-2178</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>inv-3179</t>
+          <t>inv-3178</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>german tech gmbh 179</t>
+          <t>german tech gmbh 178</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6141,22 +6143,22 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PRJ-1180</t>
+          <t>PRJ-1179</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CUST-2180</t>
+          <t>CUST-2179</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>inv-3180</t>
+          <t>inv-3179</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>german tech gmbh 180</t>
+          <t>german tech gmbh 179</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6174,22 +6176,22 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PRJ-1181</t>
+          <t>PRJ-1180</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>CUST-2181</t>
+          <t>CUST-2180</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>inv-3181</t>
+          <t>inv-3180</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>german tech gmbh 181</t>
+          <t>german tech gmbh 180</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6207,22 +6209,22 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PRJ-1182</t>
+          <t>PRJ-1181</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>CUST-2182</t>
+          <t>CUST-2181</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>inv-3182</t>
+          <t>inv-3181</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>german tech gmbh 182</t>
+          <t>german tech gmbh 181</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6240,22 +6242,22 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>PRJ-1183</t>
+          <t>PRJ-1182</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>CUST-2183</t>
+          <t>CUST-2182</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>inv-3183</t>
+          <t>inv-3182</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>german tech gmbh 183</t>
+          <t>german tech gmbh 182</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6273,22 +6275,22 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PRJ-1184</t>
+          <t>PRJ-1183</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>CUST-2184</t>
+          <t>CUST-2183</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>inv-3184</t>
+          <t>inv-3183</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>german tech gmbh 184</t>
+          <t>german tech gmbh 183</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6306,22 +6308,22 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PRJ-1185</t>
+          <t>PRJ-1184</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CUST-2185</t>
+          <t>CUST-2184</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>inv-3185</t>
+          <t>inv-3184</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>german tech gmbh 185</t>
+          <t>german tech gmbh 184</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6339,22 +6341,22 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PRJ-1186</t>
+          <t>PRJ-1185</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>CUST-2186</t>
+          <t>CUST-2185</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>inv-3186</t>
+          <t>inv-3185</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>german tech gmbh 186</t>
+          <t>german tech gmbh 185</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6372,22 +6374,22 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>PRJ-1187</t>
+          <t>PRJ-1186</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CUST-2187</t>
+          <t>CUST-2186</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>inv-3187</t>
+          <t>inv-3186</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>german tech gmbh 187</t>
+          <t>german tech gmbh 186</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6405,22 +6407,22 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>PRJ-1188</t>
+          <t>PRJ-1187</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CUST-2188</t>
+          <t>CUST-2187</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>inv-3188</t>
+          <t>inv-3187</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>german tech gmbh 188</t>
+          <t>german tech gmbh 187</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6438,22 +6440,22 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PRJ-1189</t>
+          <t>PRJ-1188</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CUST-2189</t>
+          <t>CUST-2188</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>inv-3189</t>
+          <t>inv-3188</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>german tech gmbh 189</t>
+          <t>german tech gmbh 188</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6471,22 +6473,22 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PRJ-1190</t>
+          <t>PRJ-1189</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>CUST-2190</t>
+          <t>CUST-2189</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>inv-3190</t>
+          <t>inv-3189</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>german tech gmbh 190</t>
+          <t>german tech gmbh 189</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6504,22 +6506,22 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PRJ-1191</t>
+          <t>PRJ-1190</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CUST-2191</t>
+          <t>CUST-2190</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>inv-3191</t>
+          <t>inv-3190</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>german tech gmbh 191</t>
+          <t>german tech gmbh 190</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6537,22 +6539,22 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PRJ-1192</t>
+          <t>PRJ-1191</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>CUST-2192</t>
+          <t>CUST-2191</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>inv-3192</t>
+          <t>inv-3191</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>german tech gmbh 192</t>
+          <t>german tech gmbh 191</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6570,22 +6572,22 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PRJ-1193</t>
+          <t>PRJ-1192</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CUST-2193</t>
+          <t>CUST-2192</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>inv-3193</t>
+          <t>inv-3192</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>german tech gmbh 193</t>
+          <t>german tech gmbh 192</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6603,22 +6605,22 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PRJ-1194</t>
+          <t>PRJ-1193</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>CUST-2194</t>
+          <t>CUST-2193</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>inv-3194</t>
+          <t>inv-3193</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>german tech gmbh 194</t>
+          <t>german tech gmbh 193</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -6636,22 +6638,22 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PRJ-1195</t>
+          <t>PRJ-1194</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CUST-2195</t>
+          <t>CUST-2194</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>inv-3195</t>
+          <t>inv-3194</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>german tech gmbh 195</t>
+          <t>german tech gmbh 194</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -6669,22 +6671,22 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PRJ-1196</t>
+          <t>PRJ-1195</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>CUST-2196</t>
+          <t>CUST-2195</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>inv-3196</t>
+          <t>inv-3195</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>german tech gmbh 196</t>
+          <t>german tech gmbh 195</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -6702,22 +6704,22 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PRJ-1197</t>
+          <t>PRJ-1196</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CUST-2197</t>
+          <t>CUST-2196</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>inv-3197</t>
+          <t>inv-3196</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>german tech gmbh 197</t>
+          <t>german tech gmbh 196</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -6735,22 +6737,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>PRJ-1198</t>
+          <t>PRJ-1197</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CUST-2198</t>
+          <t>CUST-2197</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>inv-3198</t>
+          <t>inv-3197</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>german tech gmbh 198</t>
+          <t>german tech gmbh 197</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6768,33 +6770,66 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
+          <t>PRJ-1198</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>CUST-2198</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>inv-3198</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>german tech gmbh 198</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>500</v>
+      </c>
+      <c r="G193" s="1" t="n">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
           <t>PRJ-1199</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>CUST-2199</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>inv-3199</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>german tech gmbh 199</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="F193" t="n">
-        <v>500</v>
-      </c>
-      <c r="G193" s="1" t="n">
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>500</v>
+      </c>
+      <c r="G194" s="1" t="n">
         <v>45292</v>
       </c>
     </row>

--- a/data/result/cleaned_data.xlsx
+++ b/data/result/cleaned_data.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -1389,22 +1389,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PRJ-1030</t>
+          <t>PRJ-1032</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CUST-2030</t>
+          <t>CUST-2032</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>inv-3032</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>german tech gmbh 30</t>
+          <t>german tech gmbh 32</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1422,22 +1422,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PRJ-1032</t>
+          <t>PRJ-1033</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CUST-2032</t>
+          <t>CUST-2033</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>inv-3032</t>
+          <t>inv-3033</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>german tech gmbh 32</t>
+          <t>german tech gmbh 33</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1455,22 +1455,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PRJ-1033</t>
+          <t>PRJ-1034</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CUST-2033</t>
+          <t>CUST-2034</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>inv-3033</t>
+          <t>inv-3034</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>german tech gmbh 33</t>
+          <t>german tech gmbh 34</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1488,22 +1488,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PRJ-1034</t>
+          <t>PRJ-1035</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CUST-2034</t>
+          <t>CUST-2035</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>inv-3034</t>
+          <t>inv-3035</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>german tech gmbh 34</t>
+          <t>german tech gmbh 35</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1521,22 +1521,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PRJ-1035</t>
+          <t>PRJ-1036</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CUST-2035</t>
+          <t>CUST-2036</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>inv-3035</t>
+          <t>inv-3036</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>german tech gmbh 35</t>
+          <t>german tech gmbh 36</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1554,22 +1554,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PRJ-1036</t>
+          <t>PRJ-1037</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CUST-2036</t>
+          <t>CUST-2037</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>inv-3036</t>
+          <t>inv-3037</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>german tech gmbh 36</t>
+          <t>german tech gmbh 37</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1587,22 +1587,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PRJ-1037</t>
+          <t>PRJ-1038</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CUST-2037</t>
+          <t>CUST-2038</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>inv-3037</t>
+          <t>inv-3038</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>german tech gmbh 37</t>
+          <t>german tech gmbh 38</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1620,22 +1620,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PRJ-1038</t>
+          <t>PRJ-1039</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CUST-2038</t>
+          <t>CUST-2039</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>inv-3038</t>
+          <t>inv-3039</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>german tech gmbh 38</t>
+          <t>german tech gmbh 39</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1653,22 +1653,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PRJ-1039</t>
+          <t>PRJ-1041</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CUST-2039</t>
+          <t>CUST-2041</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>inv-3039</t>
+          <t>inv-3041</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>german tech gmbh 39</t>
+          <t>german tech gmbh 41</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1686,22 +1686,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PRJ-1041</t>
+          <t>PRJ-1042</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CUST-2041</t>
+          <t>CUST-2042</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>inv-3041</t>
+          <t>inv-3042</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>german tech gmbh 41</t>
+          <t>german tech gmbh 42</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1719,22 +1719,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PRJ-1042</t>
+          <t>PRJ-1043</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CUST-2042</t>
+          <t>CUST-2043</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>inv-3042</t>
+          <t>inv-3043</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>german tech gmbh 42</t>
+          <t>german tech gmbh 43</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1752,22 +1752,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PRJ-1043</t>
+          <t>PRJ-1044</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CUST-2043</t>
+          <t>CUST-2044</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>inv-3043</t>
+          <t>inv-3044</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>german tech gmbh 43</t>
+          <t>german tech gmbh 44</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1785,22 +1785,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PRJ-1044</t>
+          <t>PRJ-1045</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CUST-2044</t>
+          <t>CUST-2045</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>inv-3044</t>
+          <t>inv-3045</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>german tech gmbh 44</t>
+          <t>german tech gmbh 45</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1818,22 +1818,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>PRJ-1045</t>
+          <t>PRJ-1046</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CUST-2045</t>
+          <t>CUST-2046</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>inv-3045</t>
+          <t>inv-3046</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>german tech gmbh 45</t>
+          <t>german tech gmbh 46</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1851,22 +1851,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PRJ-1046</t>
+          <t>PRJ-1047</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CUST-2046</t>
+          <t>CUST-2047</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>inv-3046</t>
+          <t>inv-3047</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>german tech gmbh 46</t>
+          <t>german tech gmbh 47</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1884,22 +1884,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PRJ-1047</t>
+          <t>PRJ-1048</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CUST-2047</t>
+          <t>CUST-2048</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>inv-3047</t>
+          <t>inv-3048</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>german tech gmbh 47</t>
+          <t>german tech gmbh 48</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1917,22 +1917,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PRJ-1048</t>
+          <t>PRJ-1049</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CUST-2048</t>
+          <t>CUST-2049</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>inv-3048</t>
+          <t>inv-3049</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>german tech gmbh 48</t>
+          <t>german tech gmbh 49</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1950,22 +1950,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PRJ-1049</t>
+          <t>PRJ-1051</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CUST-2049</t>
+          <t>CUST-2051</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>inv-3049</t>
+          <t>inv-3051</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>german tech gmbh 49</t>
+          <t>german tech gmbh 51</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1983,22 +1983,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PRJ-1051</t>
+          <t>PRJ-1052</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CUST-2051</t>
+          <t>CUST-2052</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>inv-3051</t>
+          <t>inv-3052</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>german tech gmbh 51</t>
+          <t>german tech gmbh 52</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2016,22 +2016,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PRJ-1052</t>
+          <t>PRJ-1053</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CUST-2052</t>
+          <t>CUST-2053</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>inv-3052</t>
+          <t>inv-3053</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>german tech gmbh 52</t>
+          <t>german tech gmbh 53</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2049,22 +2049,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PRJ-1053</t>
+          <t>PRJ-1054</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CUST-2053</t>
+          <t>CUST-2054</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>inv-3053</t>
+          <t>inv-3054</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>german tech gmbh 53</t>
+          <t>german tech gmbh 54</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2082,22 +2082,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PRJ-1054</t>
+          <t>PRJ-1055</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CUST-2054</t>
+          <t>CUST-2055</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>inv-3054</t>
+          <t>inv-3055</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>german tech gmbh 54</t>
+          <t>german tech gmbh 55</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2115,22 +2115,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PRJ-1055</t>
+          <t>PRJ-1056</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CUST-2055</t>
+          <t>CUST-2056</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>inv-3055</t>
+          <t>inv-3056</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>german tech gmbh 55</t>
+          <t>german tech gmbh 56</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2148,22 +2148,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PRJ-1056</t>
+          <t>PRJ-1057</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CUST-2056</t>
+          <t>CUST-2057</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>inv-3056</t>
+          <t>inv-3057</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>german tech gmbh 56</t>
+          <t>german tech gmbh 57</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2181,22 +2181,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PRJ-1057</t>
+          <t>PRJ-1058</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CUST-2057</t>
+          <t>CUST-2058</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>inv-3057</t>
+          <t>inv-3058</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>german tech gmbh 57</t>
+          <t>german tech gmbh 58</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2214,22 +2214,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PRJ-1058</t>
+          <t>PRJ-1059</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CUST-2058</t>
+          <t>CUST-2059</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>inv-3058</t>
+          <t>inv-3059</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>german tech gmbh 58</t>
+          <t>german tech gmbh 59</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2247,22 +2247,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PRJ-1059</t>
+          <t>PRJ-1061</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CUST-2059</t>
+          <t>CUST-2061</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>inv-3059</t>
+          <t>inv-3061</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>german tech gmbh 59</t>
+          <t>german tech gmbh 61</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2280,22 +2280,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PRJ-1061</t>
+          <t>PRJ-1062</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CUST-2061</t>
+          <t>CUST-2062</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>inv-3061</t>
+          <t>inv-3062</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>german tech gmbh 61</t>
+          <t>german tech gmbh 62</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2313,22 +2313,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PRJ-1062</t>
+          <t>PRJ-1063</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CUST-2062</t>
+          <t>CUST-2063</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>inv-3062</t>
+          <t>inv-3063</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>german tech gmbh 62</t>
+          <t>german tech gmbh 63</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2346,22 +2346,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PRJ-1063</t>
+          <t>PRJ-1064</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CUST-2063</t>
+          <t>CUST-2064</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>inv-3063</t>
+          <t>inv-3064</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>german tech gmbh 63</t>
+          <t>german tech gmbh 64</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2379,22 +2379,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PRJ-1064</t>
+          <t>PRJ-1065</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CUST-2064</t>
+          <t>CUST-2065</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>inv-3064</t>
+          <t>inv-3065</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>german tech gmbh 64</t>
+          <t>german tech gmbh 65</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2412,22 +2412,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PRJ-1065</t>
+          <t>PRJ-1066</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CUST-2065</t>
+          <t>CUST-2066</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>inv-3065</t>
+          <t>inv-3066</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>german tech gmbh 65</t>
+          <t>german tech gmbh 66</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2445,22 +2445,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PRJ-1066</t>
+          <t>PRJ-1067</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CUST-2066</t>
+          <t>CUST-2067</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>inv-3066</t>
+          <t>inv-3067</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>german tech gmbh 66</t>
+          <t>german tech gmbh 67</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2478,22 +2478,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PRJ-1067</t>
+          <t>PRJ-1068</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CUST-2067</t>
+          <t>CUST-2068</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>inv-3067</t>
+          <t>inv-3068</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>german tech gmbh 67</t>
+          <t>german tech gmbh 68</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2511,22 +2511,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PRJ-1068</t>
+          <t>PRJ-1069</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CUST-2068</t>
+          <t>CUST-2069</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>inv-3068</t>
+          <t>inv-3069</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>german tech gmbh 68</t>
+          <t>german tech gmbh 69</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2544,22 +2544,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PRJ-1069</t>
+          <t>PRJ-1070</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CUST-2069</t>
+          <t>CUST-2070</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>inv-3069</t>
+          <t>inv-3070</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>german tech gmbh 69</t>
+          <t>german tech gmbh 70</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2571,7 +2571,7 @@
         <v>500</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>45292</v>
+        <v>47243</v>
       </c>
     </row>
     <row r="66">
@@ -6737,22 +6737,22 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>PRJ-1197</t>
+          <t>PRJ-1198</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>CUST-2197</t>
+          <t>CUST-2198</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>inv-3197</t>
+          <t>inv-3198</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>german tech gmbh 197</t>
+          <t>german tech gmbh 198</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6770,22 +6770,22 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PRJ-1198</t>
+          <t>PRJ-1199</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CUST-2198</t>
+          <t>CUST-2199</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>inv-3198</t>
+          <t>inv-3199</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>german tech gmbh 198</t>
+          <t>german tech gmbh 199</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6803,12 +6803,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>PRJ-1199</t>
+          <t>PRJ-1185</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>CUST-2199</t>
+          <t>CUST-2202</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>german tech gmbh 199</t>
+          <t>aasdascd adscasdcf</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6830,7 +6830,7 @@
         <v>500</v>
       </c>
       <c r="G194" s="1" t="n">
-        <v>45292</v>
+        <v>25569</v>
       </c>
     </row>
   </sheetData>
